--- a/Artefatos/Sprints - ParkIO.xlsx
+++ b/Artefatos/Sprints - ParkIO.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23921"/>
   <workbookPr autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="518" documentId="11_713659AC415AC9C2D79A1EC9FA76B4759D2182B7" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DA7C4FF7-B72D-4E16-8855-728ACBF68BBB}"/>
+  <xr:revisionPtr revIDLastSave="740" documentId="11_713659AC415AC9C2D79A1EC9FA76B4759D2182B7" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9E6D5037-8985-4BA3-B446-90E1517FB42B}"/>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="112">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -539,6 +539,9 @@
     <t>Progresso</t>
   </si>
   <si>
+    <t>Dúvidas na configuração do ambiente, contatar Henrique Penna. Henrique Penna e Victor Boaventura no backend nesta sprints, demais, com tarefas frontend. DrawIO: https://drive.google.com/file/d/1y909x1uUqMdaiOMn5fUr8H4NETQU6qOy/view?usp=sharing</t>
+  </si>
+  <si>
     <t>LISTA DE REQUISITOS</t>
   </si>
   <si>
@@ -548,58 +551,49 @@
     <t>Selecionar</t>
   </si>
   <si>
-    <t xml:space="preserve">O porteiro deve cadastrar os veículos no sistema.	</t>
+    <t>O porteiro deve cadastrar os veículos no sistema.</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>O porteiro deve definir o Status do veículo visitante para 'Saiu' e marcar uma avaliação de como foi comportamento do condutor quando o veículo visitante sair.</t>
+  </si>
+  <si>
+    <t>O administrador do sistema deve cadastrar tipos de visitantes (Ex: Entrega dos Correios, Técnico de Banda Larga, etc...), e definir um tempo recomendado que o visitante fique dentro do condomínio.</t>
   </si>
   <si>
     <t>Tarefas Criadas</t>
   </si>
   <si>
-    <t xml:space="preserve">O sistema deve registrar automaticamente o horário de chegada, usuário que permitiu a entrada, de qual portaria entrou e o campo de Status como 'Dentro' para cada cadastro de veículo.	</t>
+    <t>O porteiro poderá aumentar o tempo de permanência do visitante após fazer contato com o morador para verificar o motivo do atraso.</t>
   </si>
   <si>
-    <t xml:space="preserve">O porteiro deve definir o Status do veículo visitante para 'Saiu' e marcar uma avaliação de como foi comportamento do condutor quando o veículo visitante sair.	</t>
+    <t>O sistema deve emitir um alerta para um grupo no Telegram contendo os porteiros e os rondas no caso de algum veículo ficar determinado tempo dentro do condomínio.</t>
   </si>
   <si>
-    <t xml:space="preserve">O sistema deve registrar automaticamente o horário de saída e o usuário que liberou a saída quando o porteiro registrar que o veículo saiu do estacionamento.	</t>
+    <t>O administrador do sistema poderá criar usuários com diferentes permissões.</t>
   </si>
   <si>
-    <t xml:space="preserve">O administrador do sistema deve cadastrar tipos de visitantes (Ex: Entrega dos Correios, Técnico de Banda Larga, etc...), e definir um tempo recomendado que o visitante fique dentro do condomínio.	</t>
+    <t>O administrador do sistema poderá criar diferentes portarias dentro do sistema.</t>
   </si>
   <si>
-    <t xml:space="preserve">O porteiro poderá aumentar o tempo de permanência do visitante após fazer contato com o morador para verificar o motivo do atraso.	</t>
+    <t>Os usuários de qualquer tipo devem ser capazes de fazer login.</t>
   </si>
   <si>
-    <t xml:space="preserve">O sistema deve emitir um alerta para um grupo no Telegram contendo os porteiros e os rondas no caso de algum veículo ficar determinado tempo dentro do condomínio.	</t>
+    <t>Os usuários de qualquer tipo devem selecionar uma portaria para utilizar o sistema.</t>
   </si>
   <si>
-    <t xml:space="preserve">O administrador do sistema poderá criar usuários com diferentes permissões.	</t>
+    <t>Os usuários devem poder consultar a lista de veículos.</t>
   </si>
   <si>
-    <t xml:space="preserve">O administrador do sistema poderá criar diferentes portarias dentro do sistema.	</t>
+    <t>A administração deverá possuir um relatório delimitado por um filtro de período de tempo, porteiro e/ou placa do veículo.</t>
   </si>
   <si>
-    <t xml:space="preserve">O porteiro deve escolher qual das portarias ele se encontra no momento após realizar seu login.	</t>
+    <t>O porteiro deverá escrever o motivo do bloqueio de um veículo visitante, caso ocorra algum problema com a visita.</t>
   </si>
   <si>
-    <t xml:space="preserve">O sistema não pode permitir que um veiculo que entra por uma portaria, saia por outra portaria.	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O sistema deve atualizar a lista de cadastros de veículos visitantes automaticamente quando um novo registro for criado.	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O sistema deverá possuir um relatório delimitado por um filtro de período de tempo, porteiro e/ou placa do veículo, determinado pelo usuário administrador.	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O sistema deve exibir na saída do veículo uma opção de reportar o visitante (pela placa do veículo) e o porteiro deverá escrever o motivo do bloqueio, e caso o veículo volte a tentar entrar no estacionamento aparecer um aviso de bloqueio.	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O ronda poderá editar certas informações do veículo do visitante.	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O síndico de um bloco pode ver apenas visitantes destinados ao seu próprio bloco.	</t>
-  </si>
-  <si>
-    <t>Pendente</t>
+    <t>O ronda poderá editar certas informações do veículo do visitante.</t>
   </si>
   <si>
     <t>PROGRESSO</t>
@@ -647,7 +641,13 @@
     <t>Criar o frontend responsivo de cadastro de veículos.</t>
   </si>
   <si>
+    <t>Integrar com tarefa 2.</t>
+  </si>
+  <si>
     <t>Criar a rota, controller e model da API de cadastro de veículos.</t>
+  </si>
+  <si>
+    <t>Integrar com tarefa 1.</t>
   </si>
   <si>
     <t>Testar cadastro de veículos</t>
@@ -662,16 +662,19 @@
     <t>Criar o frontend responsivo da página da lista de veículos cadastrados.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Com os botões de Ações</t>
+    <t xml:space="preserve"> Com os botões de Ações. Integrar com tarefa 7, 8 e 9.</t>
   </si>
   <si>
     <t>Criar a rota, controller da API da listagem de veículos cadastrados.</t>
   </si>
   <si>
-    <t>Não precisar tratar filtro avançados</t>
+    <t>Não precisar tratar filtro avançados. Integrar com tarefa 6.</t>
   </si>
   <si>
     <t>Criar o backend da feature do botão de remover um veículo, atualizando status.</t>
+  </si>
+  <si>
+    <t>Integrar com tarefa 6.</t>
   </si>
   <si>
     <t>Configurar o sistema para capturar os dados de campos automáticos ao remover veículo.</t>
@@ -683,7 +686,13 @@
     <t>Criar frontend da página de login</t>
   </si>
   <si>
+    <t>Integrar com tarefa 12.</t>
+  </si>
+  <si>
     <t>Criar a rota, controller e model da API da página de login.</t>
+  </si>
+  <si>
+    <t>Integrar com tarefa 11.</t>
   </si>
   <si>
     <t>Testar se login está funcionando corretamente de acordo com dados do banco de dados.</t>
@@ -692,7 +701,16 @@
     <t>Criar frontend da página de criar usuários.</t>
   </si>
   <si>
+    <t>Integrar com tarefa 15.</t>
+  </si>
+  <si>
     <t>Criar a rota, controller e model da API da página cadastro de usuário.</t>
+  </si>
+  <si>
+    <t>Integrar com tarefa 14.</t>
+  </si>
+  <si>
+    <t>Fazer diagrama de casos de uso UML.</t>
   </si>
   <si>
     <t>Total:</t>
@@ -1126,7 +1144,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1249,6 +1267,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1302,6 +1353,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1327,39 +1387,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3505,7 +3532,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3577,7 +3604,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>18.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4026,8 +4053,8 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E14"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4039,15 +4066,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4055,15 +4082,15 @@
     </row>
     <row r="2" spans="1:15" ht="18">
       <c r="A2" s="1"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4071,15 +4098,15 @@
     </row>
     <row r="3" spans="1:15" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4087,15 +4114,15 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4103,15 +4130,15 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -4133,15 +4160,15 @@
     </row>
     <row r="7" spans="1:15" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -4166,17 +4193,17 @@
     </row>
     <row r="9" spans="1:15" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -4186,17 +4213,17 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="65" t="s">
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -4206,17 +4233,17 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="65" t="s">
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -4226,17 +4253,17 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="65" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="73"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -4246,17 +4273,17 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="65" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -4266,17 +4293,17 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="65" t="s">
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="73"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -5526,16 +5553,16 @@
     </row>
     <row r="99" spans="1:15" ht="15.75" customHeight="1">
       <c r="A99" s="40"/>
-      <c r="B99" s="67"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="68" t="s">
+      <c r="B99" s="78"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="54"/>
-      <c r="F99" s="68" t="s">
+      <c r="E99" s="65"/>
+      <c r="F99" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="54"/>
+      <c r="G99" s="65"/>
       <c r="H99" s="41" t="s">
         <v>21</v>
       </c>
@@ -5557,12 +5584,12 @@
     </row>
     <row r="100" spans="1:15" ht="15.75" customHeight="1">
       <c r="A100" s="40"/>
-      <c r="B100" s="70"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="69" t="s">
+      <c r="B100" s="81"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="54"/>
+      <c r="E100" s="65"/>
       <c r="F100" s="43" t="s">
         <v>26</v>
       </c>
@@ -5571,11 +5598,11 @@
       </c>
       <c r="H100" s="45">
         <f>'Sprint #1'!H$61</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="I100" s="45">
         <f>'Sprint #1'!I$61</f>
-        <v>0</v>
+        <v>18.61</v>
       </c>
       <c r="J100" s="43"/>
       <c r="K100" s="44" t="str">
@@ -5596,12 +5623,12 @@
     </row>
     <row r="101" spans="1:15" ht="15.75" customHeight="1">
       <c r="A101" s="40"/>
-      <c r="B101" s="70"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="69" t="s">
+      <c r="B101" s="81"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="54"/>
+      <c r="E101" s="65"/>
       <c r="F101" s="43" t="s">
         <v>30</v>
       </c>
@@ -5623,7 +5650,7 @@
       </c>
       <c r="L101" s="44">
         <f>SUM('Sprint #1'!$I66, 'Sprint #2'!$I75, 'Sprint #3'!$I66, 'Sprint #5'!$I66)</f>
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="M101" s="43" t="s">
         <v>32</v>
@@ -5635,12 +5662,12 @@
     </row>
     <row r="102" spans="1:15" ht="15.75" customHeight="1">
       <c r="A102" s="40"/>
-      <c r="B102" s="70"/>
-      <c r="C102" s="54"/>
-      <c r="D102" s="69" t="s">
+      <c r="B102" s="81"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="54"/>
+      <c r="E102" s="65"/>
       <c r="F102" s="43"/>
       <c r="G102" s="44" t="s">
         <v>34</v>
@@ -5660,7 +5687,7 @@
       </c>
       <c r="L102" s="44">
         <f>SUM('Sprint #1'!$I67, 'Sprint #2'!$I76, 'Sprint #3'!$I67, 'Sprint #5'!$I67)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102" s="43" t="s">
         <v>35</v>
@@ -5672,12 +5699,12 @@
     </row>
     <row r="103" spans="1:15" ht="15.75" customHeight="1">
       <c r="A103" s="40"/>
-      <c r="B103" s="70"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="69" t="s">
+      <c r="B103" s="81"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="E103" s="54"/>
+      <c r="E103" s="65"/>
       <c r="F103" s="43"/>
       <c r="G103" s="44" t="s">
         <v>36</v>
@@ -5697,7 +5724,7 @@
       </c>
       <c r="L103" s="44">
         <f>SUM('Sprint #1'!$I68, 'Sprint #2'!$I77, 'Sprint #3'!$I68, 'Sprint #5'!$I68)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M103" s="43" t="s">
         <v>37</v>
@@ -5707,12 +5734,12 @@
     </row>
     <row r="104" spans="1:15" ht="15.75" customHeight="1">
       <c r="A104" s="40"/>
-      <c r="B104" s="70"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="69" t="s">
+      <c r="B104" s="81"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="54"/>
+      <c r="E104" s="65"/>
       <c r="F104" s="43"/>
       <c r="G104" s="44" t="s">
         <v>38</v>
@@ -5732,13 +5759,13 @@
       </c>
       <c r="L104" s="44">
         <f>SUM('Sprint #1'!$I69, 'Sprint #2'!$I78, 'Sprint #3'!$I69, 'Sprint #5'!$I69)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="15.75" customHeight="1">
       <c r="A105" s="40"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="54"/>
+      <c r="B105" s="81"/>
+      <c r="C105" s="65"/>
       <c r="F105" s="43"/>
       <c r="G105" s="43"/>
       <c r="H105" s="43"/>
@@ -5749,8 +5776,8 @@
     </row>
     <row r="106" spans="1:15" ht="15.75" customHeight="1">
       <c r="A106" s="40"/>
-      <c r="B106" s="70"/>
-      <c r="C106" s="54"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="65"/>
       <c r="D106" s="46"/>
       <c r="E106" s="43"/>
       <c r="F106" s="43"/>
@@ -6829,8 +6856,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6846,67 +6873,67 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
@@ -6922,16 +6949,16 @@
     </row>
     <row r="7" spans="1:9" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="82" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
@@ -6947,15 +6974,15 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
@@ -6969,17 +6996,17 @@
       <c r="D10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="25.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="11">
         <v>1</v>
@@ -6991,9 +7018,11 @@
         <f t="shared" ref="D11:D16" si="0">C11+13</f>
         <v>44290</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
+      <c r="E11" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
       <c r="H11" s="13"/>
       <c r="I11" s="1"/>
     </row>
@@ -7010,9 +7039,9 @@
         <f t="shared" si="0"/>
         <v>44304</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="13"/>
       <c r="I12" s="1"/>
     </row>
@@ -7029,9 +7058,9 @@
         <f t="shared" si="0"/>
         <v>44318</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
       <c r="H13" s="13"/>
       <c r="I13" s="1"/>
     </row>
@@ -7048,9 +7077,9 @@
         <f t="shared" si="0"/>
         <v>44332</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="13"/>
       <c r="I14" s="1"/>
     </row>
@@ -7067,9 +7096,9 @@
         <f t="shared" si="0"/>
         <v>44346</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="13"/>
       <c r="I15" s="1"/>
     </row>
@@ -7086,9 +7115,9 @@
         <f t="shared" si="0"/>
         <v>44360</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
       <c r="H16" s="13"/>
       <c r="I16" s="1"/>
     </row>
@@ -7117,15 +7146,15 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
+      <c r="C19" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -7134,13 +7163,13 @@
       <c r="B20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -7149,15 +7178,15 @@
       <c r="B21" s="19">
         <v>1</v>
       </c>
-      <c r="C21" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
+      <c r="C21" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
       <c r="H21" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -7166,15 +7195,15 @@
       <c r="B22" s="18">
         <v>2</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="20" t="s">
-        <v>49</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -7183,15 +7212,15 @@
       <c r="B23" s="19">
         <v>3</v>
       </c>
-      <c r="C23" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
+      <c r="C23" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -7200,15 +7229,15 @@
       <c r="B24" s="18">
         <v>4</v>
       </c>
-      <c r="C24" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62"/>
+      <c r="C24" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
       <c r="H24" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I24" s="1"/>
     </row>
@@ -7217,15 +7246,15 @@
       <c r="B25" s="19">
         <v>5</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="20" t="s">
         <v>53</v>
-      </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="20" t="s">
-        <v>49</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -7234,15 +7263,15 @@
       <c r="B26" s="18">
         <v>6</v>
       </c>
-      <c r="C26" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
+      <c r="C26" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
       <c r="H26" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I26" s="1"/>
     </row>
@@ -7251,15 +7280,15 @@
       <c r="B27" s="19">
         <v>7</v>
       </c>
-      <c r="C27" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62"/>
+      <c r="C27" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
       <c r="H27" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I27" s="1"/>
     </row>
@@ -7268,15 +7297,15 @@
       <c r="B28" s="18">
         <v>8</v>
       </c>
-      <c r="C28" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
+      <c r="C28" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
       <c r="H28" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -7285,15 +7314,15 @@
       <c r="B29" s="19">
         <v>9</v>
       </c>
-      <c r="C29" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
+      <c r="C29" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
       <c r="H29" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -7302,15 +7331,15 @@
       <c r="B30" s="18">
         <v>10</v>
       </c>
-      <c r="C30" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
+      <c r="C30" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
       <c r="H30" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I30" s="1"/>
     </row>
@@ -7319,15 +7348,15 @@
       <c r="B31" s="19">
         <v>11</v>
       </c>
-      <c r="C31" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="62"/>
+      <c r="C31" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
       <c r="H31" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I31" s="1"/>
     </row>
@@ -7336,15 +7365,15 @@
       <c r="B32" s="18">
         <v>12</v>
       </c>
-      <c r="C32" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
+      <c r="C32" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I32" s="1"/>
     </row>
@@ -7353,15 +7382,15 @@
       <c r="B33" s="19">
         <v>13</v>
       </c>
-      <c r="C33" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
+      <c r="C33" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73"/>
       <c r="H33" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I33" s="1"/>
     </row>
@@ -7370,15 +7399,13 @@
       <c r="B34" s="18">
         <v>14</v>
       </c>
-      <c r="C34" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="62"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="73"/>
       <c r="H34" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I34" s="1"/>
     </row>
@@ -7387,15 +7414,13 @@
       <c r="B35" s="19">
         <v>15</v>
       </c>
-      <c r="C35" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
       <c r="H35" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I35" s="1"/>
     </row>
@@ -7404,15 +7429,13 @@
       <c r="B36" s="18">
         <v>16</v>
       </c>
-      <c r="C36" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="62"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="73"/>
       <c r="H36" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I36" s="1"/>
     </row>
@@ -7421,13 +7444,13 @@
       <c r="B37" s="19">
         <v>17</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="62"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="73"/>
       <c r="H37" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I37" s="1"/>
     </row>
@@ -7436,13 +7459,13 @@
       <c r="B38" s="18">
         <v>18</v>
       </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="62"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73"/>
       <c r="H38" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I38" s="1"/>
     </row>
@@ -7451,13 +7474,13 @@
       <c r="B39" s="19">
         <v>19</v>
       </c>
-      <c r="C39" s="78"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="62"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
       <c r="H39" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I39" s="1"/>
     </row>
@@ -7466,13 +7489,13 @@
       <c r="B40" s="18">
         <v>20</v>
       </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="62"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="73"/>
       <c r="H40" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I40" s="1"/>
     </row>
@@ -7481,13 +7504,13 @@
       <c r="B41" s="19">
         <v>21</v>
       </c>
-      <c r="C41" s="78"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="62"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="73"/>
       <c r="H41" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I41" s="1"/>
     </row>
@@ -7496,13 +7519,13 @@
       <c r="B42" s="18">
         <v>22</v>
       </c>
-      <c r="C42" s="78"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="73"/>
       <c r="H42" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I42" s="1"/>
     </row>
@@ -7511,13 +7534,13 @@
       <c r="B43" s="19">
         <v>23</v>
       </c>
-      <c r="C43" s="78"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="73"/>
       <c r="H43" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I43" s="1"/>
     </row>
@@ -7526,13 +7549,13 @@
       <c r="B44" s="18">
         <v>24</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="62"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="73"/>
       <c r="H44" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I44" s="1"/>
     </row>
@@ -7541,13 +7564,13 @@
       <c r="B45" s="19">
         <v>25</v>
       </c>
-      <c r="C45" s="78"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="62"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="73"/>
       <c r="H45" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I45" s="1"/>
     </row>
@@ -7556,13 +7579,13 @@
       <c r="B46" s="18">
         <v>26</v>
       </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="62"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="73"/>
       <c r="H46" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I46" s="1"/>
     </row>
@@ -7571,13 +7594,13 @@
       <c r="B47" s="19">
         <v>27</v>
       </c>
-      <c r="C47" s="78"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="62"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="73"/>
       <c r="H47" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I47" s="1"/>
     </row>
@@ -7586,13 +7609,13 @@
       <c r="B48" s="18">
         <v>28</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="62"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="73"/>
       <c r="H48" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I48" s="1"/>
     </row>
@@ -7601,13 +7624,13 @@
       <c r="B49" s="19">
         <v>29</v>
       </c>
-      <c r="C49" s="78"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="62"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="73"/>
       <c r="H49" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I49" s="1"/>
     </row>
@@ -7616,13 +7639,13 @@
       <c r="B50" s="18">
         <v>30</v>
       </c>
-      <c r="C50" s="78"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="62"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="73"/>
       <c r="H50" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I50" s="1"/>
     </row>
@@ -7631,13 +7654,13 @@
       <c r="B51" s="19">
         <v>31</v>
       </c>
-      <c r="C51" s="78"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="62"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="73"/>
       <c r="H51" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I51" s="1"/>
     </row>
@@ -7646,13 +7669,13 @@
       <c r="B52" s="18">
         <v>32</v>
       </c>
-      <c r="C52" s="78"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="62"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="73"/>
       <c r="H52" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I52" s="1"/>
     </row>
@@ -7661,13 +7684,13 @@
       <c r="B53" s="19">
         <v>33</v>
       </c>
-      <c r="C53" s="78"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="62"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="73"/>
       <c r="H53" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I53" s="1"/>
     </row>
@@ -7676,13 +7699,13 @@
       <c r="B54" s="18">
         <v>34</v>
       </c>
-      <c r="C54" s="78"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="62"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="73"/>
       <c r="H54" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I54" s="1"/>
     </row>
@@ -7691,13 +7714,13 @@
       <c r="B55" s="19">
         <v>35</v>
       </c>
-      <c r="C55" s="78"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="62"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="73"/>
       <c r="H55" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I55" s="1"/>
     </row>
@@ -7706,13 +7729,13 @@
       <c r="B56" s="18">
         <v>36</v>
       </c>
-      <c r="C56" s="78"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="62"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="73"/>
       <c r="H56" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I56" s="1"/>
     </row>
@@ -7721,13 +7744,13 @@
       <c r="B57" s="19">
         <v>37</v>
       </c>
-      <c r="C57" s="78"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="62"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="73"/>
       <c r="H57" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I57" s="1"/>
     </row>
@@ -7736,13 +7759,13 @@
       <c r="B58" s="18">
         <v>38</v>
       </c>
-      <c r="C58" s="78"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="62"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="73"/>
       <c r="H58" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I58" s="1"/>
     </row>
@@ -7751,13 +7774,13 @@
       <c r="B59" s="19">
         <v>39</v>
       </c>
-      <c r="C59" s="78"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="62"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="73"/>
       <c r="H59" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I59" s="1"/>
     </row>
@@ -7766,13 +7789,13 @@
       <c r="B60" s="18">
         <v>40</v>
       </c>
-      <c r="C60" s="78"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="62"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="73"/>
       <c r="H60" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I60" s="1"/>
     </row>
@@ -7781,13 +7804,13 @@
       <c r="B61" s="19">
         <v>41</v>
       </c>
-      <c r="C61" s="78"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="62"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="73"/>
       <c r="H61" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I61" s="1"/>
     </row>
@@ -7796,13 +7819,13 @@
       <c r="B62" s="18">
         <v>42</v>
       </c>
-      <c r="C62" s="78"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="62"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="73"/>
       <c r="H62" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I62" s="1"/>
     </row>
@@ -7811,13 +7834,13 @@
       <c r="B63" s="19">
         <v>43</v>
       </c>
-      <c r="C63" s="78"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="62"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="73"/>
       <c r="H63" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I63" s="1"/>
     </row>
@@ -7826,13 +7849,13 @@
       <c r="B64" s="18">
         <v>44</v>
       </c>
-      <c r="C64" s="78"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="62"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I64" s="1"/>
     </row>
@@ -7841,13 +7864,13 @@
       <c r="B65" s="19">
         <v>45</v>
       </c>
-      <c r="C65" s="78"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="62"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I65" s="1"/>
     </row>
@@ -7856,13 +7879,13 @@
       <c r="B66" s="18">
         <v>46</v>
       </c>
-      <c r="C66" s="78"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="62"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I66" s="1"/>
     </row>
@@ -7871,13 +7894,13 @@
       <c r="B67" s="19">
         <v>47</v>
       </c>
-      <c r="C67" s="78"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="62"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I67" s="1"/>
     </row>
@@ -7886,13 +7909,13 @@
       <c r="B68" s="18">
         <v>48</v>
       </c>
-      <c r="C68" s="78"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="62"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I68" s="1"/>
     </row>
@@ -7901,13 +7924,13 @@
       <c r="B69" s="19">
         <v>49</v>
       </c>
-      <c r="C69" s="78"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="62"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I69" s="1"/>
     </row>
@@ -7916,13 +7939,13 @@
       <c r="B70" s="18">
         <v>50</v>
       </c>
-      <c r="C70" s="78"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="62"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="73"/>
       <c r="H70" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I70" s="1"/>
     </row>
@@ -7931,13 +7954,13 @@
       <c r="B71" s="19">
         <v>51</v>
       </c>
-      <c r="C71" s="78"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="62"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="73"/>
       <c r="H71" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I71" s="1"/>
     </row>
@@ -7946,13 +7969,13 @@
       <c r="B72" s="18">
         <v>52</v>
       </c>
-      <c r="C72" s="78"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="62"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="73"/>
       <c r="H72" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I72" s="1"/>
     </row>
@@ -7961,13 +7984,13 @@
       <c r="B73" s="19">
         <v>53</v>
       </c>
-      <c r="C73" s="78"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="62"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I73" s="1"/>
     </row>
@@ -7976,13 +7999,13 @@
       <c r="B74" s="18">
         <v>54</v>
       </c>
-      <c r="C74" s="78"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="62"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I74" s="1"/>
     </row>
@@ -7991,13 +8014,13 @@
       <c r="B75" s="19">
         <v>55</v>
       </c>
-      <c r="C75" s="78"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="62"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
       <c r="H75" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I75" s="1"/>
     </row>
@@ -8006,13 +8029,13 @@
       <c r="B76" s="18">
         <v>56</v>
       </c>
-      <c r="C76" s="78"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="62"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I76" s="1"/>
     </row>
@@ -8021,13 +8044,13 @@
       <c r="B77" s="19">
         <v>57</v>
       </c>
-      <c r="C77" s="78"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="62"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I77" s="1"/>
     </row>
@@ -8036,13 +8059,13 @@
       <c r="B78" s="18">
         <v>58</v>
       </c>
-      <c r="C78" s="78"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="62"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I78" s="1"/>
     </row>
@@ -8051,13 +8074,13 @@
       <c r="B79" s="19">
         <v>59</v>
       </c>
-      <c r="C79" s="78"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="62"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="73"/>
       <c r="H79" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I79" s="1"/>
     </row>
@@ -8066,13 +8089,13 @@
       <c r="B80" s="18">
         <v>60</v>
       </c>
-      <c r="C80" s="78"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="62"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="73"/>
       <c r="H80" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I80" s="1"/>
     </row>
@@ -8081,13 +8104,13 @@
       <c r="B81" s="19">
         <v>61</v>
       </c>
-      <c r="C81" s="78"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="62"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="73"/>
       <c r="H81" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I81" s="1"/>
     </row>
@@ -8096,13 +8119,13 @@
       <c r="B82" s="18">
         <v>62</v>
       </c>
-      <c r="C82" s="78"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="62"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="73"/>
       <c r="H82" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I82" s="1"/>
     </row>
@@ -8111,13 +8134,13 @@
       <c r="B83" s="19">
         <v>63</v>
       </c>
-      <c r="C83" s="78"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="62"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="73"/>
       <c r="H83" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I83" s="1"/>
     </row>
@@ -8126,13 +8149,13 @@
       <c r="B84" s="18">
         <v>64</v>
       </c>
-      <c r="C84" s="78"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="62"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="73"/>
       <c r="H84" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I84" s="1"/>
     </row>
@@ -8141,13 +8164,13 @@
       <c r="B85" s="19">
         <v>65</v>
       </c>
-      <c r="C85" s="78"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="62"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="73"/>
       <c r="H85" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I85" s="1"/>
     </row>
@@ -8156,13 +8179,13 @@
       <c r="B86" s="18">
         <v>66</v>
       </c>
-      <c r="C86" s="78"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="62"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="73"/>
       <c r="H86" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -8171,13 +8194,13 @@
       <c r="B87" s="19">
         <v>67</v>
       </c>
-      <c r="C87" s="78"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="62"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="73"/>
       <c r="H87" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I87" s="1"/>
     </row>
@@ -8186,13 +8209,13 @@
       <c r="B88" s="18">
         <v>68</v>
       </c>
-      <c r="C88" s="78"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="62"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="73"/>
       <c r="H88" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I88" s="1"/>
     </row>
@@ -8201,13 +8224,13 @@
       <c r="B89" s="19">
         <v>69</v>
       </c>
-      <c r="C89" s="78"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="62"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="73"/>
       <c r="H89" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I89" s="1"/>
     </row>
@@ -8216,13 +8239,13 @@
       <c r="B90" s="18">
         <v>70</v>
       </c>
-      <c r="C90" s="78"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="62"/>
+      <c r="C90" s="92"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="73"/>
       <c r="H90" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I90" s="1"/>
     </row>
@@ -8231,13 +8254,13 @@
       <c r="B91" s="19">
         <v>71</v>
       </c>
-      <c r="C91" s="78"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="62"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="73"/>
       <c r="H91" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I91" s="1"/>
     </row>
@@ -8246,13 +8269,13 @@
       <c r="B92" s="18">
         <v>72</v>
       </c>
-      <c r="C92" s="78"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="62"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="73"/>
       <c r="H92" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I92" s="1"/>
     </row>
@@ -8261,13 +8284,13 @@
       <c r="B93" s="19">
         <v>73</v>
       </c>
-      <c r="C93" s="78"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="62"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="73"/>
       <c r="H93" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I93" s="1"/>
     </row>
@@ -8276,13 +8299,13 @@
       <c r="B94" s="18">
         <v>74</v>
       </c>
-      <c r="C94" s="78"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="61"/>
-      <c r="G94" s="62"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="73"/>
       <c r="H94" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I94" s="1"/>
     </row>
@@ -8291,13 +8314,13 @@
       <c r="B95" s="19">
         <v>75</v>
       </c>
-      <c r="C95" s="78"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="62"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="73"/>
       <c r="H95" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I95" s="1"/>
     </row>
@@ -8306,13 +8329,13 @@
       <c r="B96" s="18">
         <v>76</v>
       </c>
-      <c r="C96" s="78"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="62"/>
+      <c r="C96" s="92"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="73"/>
       <c r="H96" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I96" s="1"/>
     </row>
@@ -8321,13 +8344,13 @@
       <c r="B97" s="19">
         <v>77</v>
       </c>
-      <c r="C97" s="78"/>
-      <c r="D97" s="61"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="62"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="73"/>
       <c r="H97" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I97" s="1"/>
     </row>
@@ -8336,13 +8359,13 @@
       <c r="B98" s="18">
         <v>78</v>
       </c>
-      <c r="C98" s="78"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="62"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="73"/>
       <c r="H98" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I98" s="1"/>
     </row>
@@ -8351,13 +8374,13 @@
       <c r="B99" s="19">
         <v>79</v>
       </c>
-      <c r="C99" s="78"/>
-      <c r="D99" s="61"/>
-      <c r="E99" s="61"/>
-      <c r="F99" s="61"/>
-      <c r="G99" s="62"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="73"/>
       <c r="H99" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I99" s="1"/>
     </row>
@@ -8366,13 +8389,13 @@
       <c r="B100" s="18">
         <v>80</v>
       </c>
-      <c r="C100" s="78"/>
-      <c r="D100" s="61"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="62"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="73"/>
       <c r="H100" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I100" s="1"/>
     </row>
@@ -8381,13 +8404,13 @@
       <c r="B101" s="19">
         <v>81</v>
       </c>
-      <c r="C101" s="78"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="62"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="73"/>
       <c r="H101" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I101" s="1"/>
     </row>
@@ -8396,13 +8419,13 @@
       <c r="B102" s="18">
         <v>82</v>
       </c>
-      <c r="C102" s="78"/>
-      <c r="D102" s="61"/>
-      <c r="E102" s="61"/>
-      <c r="F102" s="61"/>
-      <c r="G102" s="62"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="73"/>
       <c r="H102" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I102" s="1"/>
     </row>
@@ -8411,13 +8434,13 @@
       <c r="B103" s="19">
         <v>83</v>
       </c>
-      <c r="C103" s="78"/>
-      <c r="D103" s="61"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="61"/>
-      <c r="G103" s="62"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="73"/>
       <c r="H103" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I103" s="1"/>
     </row>
@@ -8426,13 +8449,13 @@
       <c r="B104" s="18">
         <v>84</v>
       </c>
-      <c r="C104" s="78"/>
-      <c r="D104" s="61"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="62"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="73"/>
       <c r="H104" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I104" s="1"/>
     </row>
@@ -8441,13 +8464,13 @@
       <c r="B105" s="19">
         <v>85</v>
       </c>
-      <c r="C105" s="78"/>
-      <c r="D105" s="61"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="62"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="73"/>
       <c r="H105" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I105" s="1"/>
     </row>
@@ -8456,13 +8479,13 @@
       <c r="B106" s="18">
         <v>86</v>
       </c>
-      <c r="C106" s="78"/>
-      <c r="D106" s="61"/>
-      <c r="E106" s="61"/>
-      <c r="F106" s="61"/>
-      <c r="G106" s="62"/>
+      <c r="C106" s="92"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="73"/>
       <c r="H106" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I106" s="1"/>
     </row>
@@ -8471,13 +8494,13 @@
       <c r="B107" s="19">
         <v>87</v>
       </c>
-      <c r="C107" s="78"/>
-      <c r="D107" s="61"/>
-      <c r="E107" s="61"/>
-      <c r="F107" s="61"/>
-      <c r="G107" s="62"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="73"/>
       <c r="H107" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I107" s="1"/>
     </row>
@@ -8486,13 +8509,13 @@
       <c r="B108" s="18">
         <v>88</v>
       </c>
-      <c r="C108" s="78"/>
-      <c r="D108" s="61"/>
-      <c r="E108" s="61"/>
-      <c r="F108" s="61"/>
-      <c r="G108" s="62"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72"/>
+      <c r="F108" s="72"/>
+      <c r="G108" s="73"/>
       <c r="H108" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I108" s="1"/>
     </row>
@@ -8501,13 +8524,13 @@
       <c r="B109" s="19">
         <v>89</v>
       </c>
-      <c r="C109" s="78"/>
-      <c r="D109" s="61"/>
-      <c r="E109" s="61"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="62"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="72"/>
+      <c r="G109" s="73"/>
       <c r="H109" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I109" s="1"/>
     </row>
@@ -8516,13 +8539,13 @@
       <c r="B110" s="18">
         <v>90</v>
       </c>
-      <c r="C110" s="78"/>
-      <c r="D110" s="61"/>
-      <c r="E110" s="61"/>
-      <c r="F110" s="61"/>
-      <c r="G110" s="62"/>
+      <c r="C110" s="92"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="73"/>
       <c r="H110" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I110" s="1"/>
     </row>
@@ -8531,13 +8554,13 @@
       <c r="B111" s="19">
         <v>91</v>
       </c>
-      <c r="C111" s="78"/>
-      <c r="D111" s="61"/>
-      <c r="E111" s="61"/>
-      <c r="F111" s="61"/>
-      <c r="G111" s="62"/>
+      <c r="C111" s="92"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="73"/>
       <c r="H111" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I111" s="1"/>
     </row>
@@ -8546,13 +8569,13 @@
       <c r="B112" s="18">
         <v>92</v>
       </c>
-      <c r="C112" s="78"/>
-      <c r="D112" s="61"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="61"/>
-      <c r="G112" s="62"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="73"/>
       <c r="H112" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I112" s="1"/>
     </row>
@@ -8561,13 +8584,13 @@
       <c r="B113" s="19">
         <v>93</v>
       </c>
-      <c r="C113" s="78"/>
-      <c r="D113" s="61"/>
-      <c r="E113" s="61"/>
-      <c r="F113" s="61"/>
-      <c r="G113" s="62"/>
+      <c r="C113" s="92"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="73"/>
       <c r="H113" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I113" s="1"/>
     </row>
@@ -8576,13 +8599,13 @@
       <c r="B114" s="18">
         <v>94</v>
       </c>
-      <c r="C114" s="78"/>
-      <c r="D114" s="61"/>
-      <c r="E114" s="61"/>
-      <c r="F114" s="61"/>
-      <c r="G114" s="62"/>
+      <c r="C114" s="92"/>
+      <c r="D114" s="72"/>
+      <c r="E114" s="72"/>
+      <c r="F114" s="72"/>
+      <c r="G114" s="73"/>
       <c r="H114" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I114" s="1"/>
     </row>
@@ -8591,13 +8614,13 @@
       <c r="B115" s="19">
         <v>95</v>
       </c>
-      <c r="C115" s="78"/>
-      <c r="D115" s="61"/>
-      <c r="E115" s="61"/>
-      <c r="F115" s="61"/>
-      <c r="G115" s="62"/>
+      <c r="C115" s="92"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
+      <c r="G115" s="73"/>
       <c r="H115" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I115" s="1"/>
     </row>
@@ -8606,13 +8629,13 @@
       <c r="B116" s="18">
         <v>96</v>
       </c>
-      <c r="C116" s="78"/>
-      <c r="D116" s="61"/>
-      <c r="E116" s="61"/>
-      <c r="F116" s="61"/>
-      <c r="G116" s="62"/>
+      <c r="C116" s="92"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="72"/>
+      <c r="G116" s="73"/>
       <c r="H116" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I116" s="1"/>
     </row>
@@ -8621,13 +8644,13 @@
       <c r="B117" s="19">
         <v>97</v>
       </c>
-      <c r="C117" s="78"/>
-      <c r="D117" s="61"/>
-      <c r="E117" s="61"/>
-      <c r="F117" s="61"/>
-      <c r="G117" s="62"/>
+      <c r="C117" s="92"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="73"/>
       <c r="H117" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I117" s="1"/>
     </row>
@@ -8636,13 +8659,13 @@
       <c r="B118" s="18">
         <v>98</v>
       </c>
-      <c r="C118" s="78"/>
-      <c r="D118" s="61"/>
-      <c r="E118" s="61"/>
-      <c r="F118" s="61"/>
-      <c r="G118" s="62"/>
+      <c r="C118" s="92"/>
+      <c r="D118" s="72"/>
+      <c r="E118" s="72"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="73"/>
       <c r="H118" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I118" s="1"/>
     </row>
@@ -8651,13 +8674,13 @@
       <c r="B119" s="19">
         <v>99</v>
       </c>
-      <c r="C119" s="78"/>
-      <c r="D119" s="61"/>
-      <c r="E119" s="61"/>
-      <c r="F119" s="61"/>
-      <c r="G119" s="62"/>
+      <c r="C119" s="92"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="73"/>
       <c r="H119" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I119" s="1"/>
     </row>
@@ -8666,13 +8689,13 @@
       <c r="B120" s="18">
         <v>100</v>
       </c>
-      <c r="C120" s="78"/>
-      <c r="D120" s="61"/>
-      <c r="E120" s="61"/>
-      <c r="F120" s="61"/>
-      <c r="G120" s="62"/>
+      <c r="C120" s="92"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="73"/>
       <c r="H120" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I120" s="1"/>
     </row>
@@ -9669,11 +9692,11 @@
     <row r="211" spans="1:9" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C211" s="21"/>
       <c r="D211" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
@@ -9684,7 +9707,7 @@
     <row r="212" spans="1:9" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="21" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C212" s="21"/>
       <c r="D212" s="21" t="s">
@@ -9699,7 +9722,7 @@
     <row r="213" spans="1:9" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C213" s="21"/>
       <c r="D213" s="21" t="s">
@@ -9714,7 +9737,7 @@
     <row r="214" spans="1:9" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C214" s="21"/>
       <c r="D214" s="21" t="s">
@@ -10687,8 +10710,8 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10698,7 +10721,7 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="32.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" style="86" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="53" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
@@ -10708,17 +10731,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="23">
         <f>Requisitos!C11</f>
         <v>44277</v>
@@ -10726,17 +10749,17 @@
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44278</v>
@@ -10744,17 +10767,17 @@
     </row>
     <row r="3" spans="1:21" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44279</v>
@@ -10762,17 +10785,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="B4" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44280</v>
@@ -10780,17 +10803,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44281</v>
@@ -10812,18 +10835,18 @@
     </row>
     <row r="7" spans="1:21" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="60" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44283</v>
@@ -10845,18 +10868,18 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
+      <c r="B9" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K9" s="23">
         <f t="shared" si="0"/>
@@ -10869,28 +10892,28 @@
         <v>40</v>
       </c>
       <c r="C10" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="F10" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="G10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="H10" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="I10" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="J10" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="0"/>
@@ -10906,11 +10929,10 @@
         <v>44283</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="90" t="str">
-        <f>VLOOKUP(1,Requisitos!B21:G120,2,FALSE())</f>
-        <v xml:space="preserve">O porteiro deve cadastrar os veículos no sistema.	</v>
+        <v>78</v>
+      </c>
+      <c r="E11" s="57">
+        <v>1</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>8</v>
@@ -10924,7 +10946,9 @@
       <c r="I11" s="28">
         <v>0</v>
       </c>
-      <c r="J11" s="27"/>
+      <c r="J11" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="K11" s="23">
         <f t="shared" si="0"/>
         <v>44287</v>
@@ -10948,26 +10972,27 @@
       <c r="C12" s="26">
         <v>44277</v>
       </c>
-      <c r="D12" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="93" t="str">
-        <f>VLOOKUP(1,Requisitos!B21:G120,2,FALSE())</f>
-        <v xml:space="preserve">O porteiro deve cadastrar os veículos no sistema.	</v>
-      </c>
-      <c r="F12" s="84" t="s">
+      <c r="D12" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="60">
+        <v>1</v>
+      </c>
+      <c r="F12" s="51" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H12" s="28">
         <v>6</v>
       </c>
       <c r="I12" s="28">
-        <v>0</v>
-      </c>
-      <c r="J12" s="27"/>
+        <v>5</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="K12" s="23">
         <f t="shared" si="0"/>
         <v>44288</v>
@@ -10981,14 +11006,13 @@
       <c r="C13" s="26">
         <v>44286</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="93" t="str">
-        <f>VLOOKUP(1,Requisitos!B21:G120,2,FALSE())</f>
-        <v xml:space="preserve">O porteiro deve cadastrar os veículos no sistema.	</v>
-      </c>
-      <c r="F13" s="84" t="s">
+      <c r="E13" s="60">
+        <v>1</v>
+      </c>
+      <c r="F13" s="51" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="20" t="s">
@@ -11017,15 +11041,14 @@
       <c r="D14" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="91" t="str">
-        <f>VLOOKUP(2,Requisitos!B21:G120,2,FALSE())</f>
-        <v xml:space="preserve">O sistema deve registrar automaticamente o horário de chegada, usuário que permitiu a entrada, de qual portaria entrou e o campo de Status como 'Dentro' para cada cadastro de veículo.	</v>
+      <c r="E14" s="58">
+        <v>1</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H14" s="28">
         <v>1</v>
@@ -11050,9 +11073,8 @@
       <c r="D15" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="92" t="str">
-        <f>VLOOKUP(2,Requisitos!B21:G120,2,FALSE())</f>
-        <v xml:space="preserve">O sistema deve registrar automaticamente o horário de chegada, usuário que permitiu a entrada, de qual portaria entrou e o campo de Status como 'Dentro' para cada cadastro de veículo.	</v>
+      <c r="E15" s="59">
+        <v>1</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>12</v>
@@ -11064,7 +11086,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="27"/>
     </row>
@@ -11079,21 +11101,20 @@
       <c r="D16" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="92" t="str">
-        <f>VLOOKUP(3,Requisitos!B21:G120,2,FALSE())</f>
-        <v xml:space="preserve">O porteiro deve definir o Status do veículo visitante para 'Saiu' e marcar uma avaliação de como foi comportamento do condutor quando o veículo visitante sair.	</v>
+      <c r="E16" s="59">
+        <v>2</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H16" s="28">
         <v>8</v>
       </c>
       <c r="I16" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J16" s="27" t="s">
         <v>86</v>
@@ -11110,21 +11131,20 @@
       <c r="D17" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="92" t="str">
-        <f>VLOOKUP(3,Requisitos!B21:G120,2,FALSE())</f>
-        <v xml:space="preserve">O porteiro deve definir o Status do veículo visitante para 'Saiu' e marcar uma avaliação de como foi comportamento do condutor quando o veículo visitante sair.	</v>
+      <c r="E17" s="59">
+        <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H17" s="28">
         <v>2</v>
       </c>
       <c r="I17" s="28">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J17" s="27" t="s">
         <v>88</v>
@@ -11141,23 +11161,24 @@
       <c r="D18" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="92" t="str">
-        <f>VLOOKUP(3,Requisitos!B21:G120,2,FALSE())</f>
-        <v xml:space="preserve">O porteiro deve definir o Status do veículo visitante para 'Saiu' e marcar uma avaliação de como foi comportamento do condutor quando o veículo visitante sair.	</v>
+      <c r="E18" s="59">
+        <v>2</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H18" s="28">
         <v>1</v>
       </c>
       <c r="I18" s="28">
-        <v>0</v>
-      </c>
-      <c r="J18" s="27"/>
+        <v>0.65</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="77.25" customHeight="1">
       <c r="A19" s="1"/>
@@ -11168,25 +11189,26 @@
         <v>44279</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="92" t="str">
-        <f>VLOOKUP(4,Requisitos!B21:G120,2,FALSE())</f>
-        <v xml:space="preserve">O sistema deve registrar automaticamente o horário de saída e o usuário que liberou a saída quando o porteiro registrar que o veículo saiu do estacionamento.	</v>
+        <v>91</v>
+      </c>
+      <c r="E19" s="59">
+        <v>2</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H19" s="28">
         <v>1</v>
       </c>
       <c r="I19" s="28">
-        <v>0</v>
-      </c>
-      <c r="J19" s="27"/>
+        <v>0.16</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="70.5" customHeight="1">
       <c r="A20" s="1"/>
@@ -11197,11 +11219,10 @@
         <v>44286</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="92" t="str">
-        <f>VLOOKUP(12,Requisitos!B21:G120,2,FALSE())</f>
-        <v xml:space="preserve">O sistema deve atualizar a lista de cadastros de veículos visitantes automaticamente quando um novo registro for criado.	</v>
+        <v>92</v>
+      </c>
+      <c r="E20" s="59">
+        <v>10</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>8</v>
@@ -11226,11 +11247,10 @@
         <v>44286</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="92" t="str">
-        <f>VLOOKUP(10,Requisitos!B21:G120,2,FALSE())</f>
-        <v xml:space="preserve">O porteiro deve escolher qual das portarias ele se encontra no momento após realizar seu login.	</v>
+        <v>93</v>
+      </c>
+      <c r="E21" s="59">
+        <v>8</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>12</v>
@@ -11244,7 +11264,9 @@
       <c r="I21" s="28">
         <v>0</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="27" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="31.5" customHeight="1">
       <c r="A22" s="1"/>
@@ -11255,11 +11277,10 @@
         <v>44284</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="92" t="str">
-        <f>VLOOKUP(10,Requisitos!B21:G120,2,FALSE())</f>
-        <v xml:space="preserve">O porteiro deve escolher qual das portarias ele se encontra no momento após realizar seu login.	</v>
+        <v>95</v>
+      </c>
+      <c r="E22" s="59">
+        <v>8</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>10</v>
@@ -11268,12 +11289,14 @@
         <v>28</v>
       </c>
       <c r="H22" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22" s="28">
         <v>0</v>
       </c>
-      <c r="J22" s="27"/>
+      <c r="J22" s="27" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="48" customHeight="1">
       <c r="A23" s="1"/>
@@ -11284,11 +11307,10 @@
         <v>44286</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="92" t="str">
-        <f>VLOOKUP(10,Requisitos!B21:G120,2,FALSE())</f>
-        <v xml:space="preserve">O porteiro deve escolher qual das portarias ele se encontra no momento após realizar seu login.	</v>
+        <v>97</v>
+      </c>
+      <c r="E23" s="59">
+        <v>8</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>8</v>
@@ -11313,11 +11335,10 @@
         <v>44285</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="92" t="str">
-        <f>VLOOKUP(8,Requisitos!B21:G120,2,FALSE())</f>
-        <v xml:space="preserve">O administrador do sistema poderá criar usuários com diferentes permissões.	</v>
+        <v>98</v>
+      </c>
+      <c r="E24" s="59">
+        <v>6</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>14</v>
@@ -11331,7 +11352,9 @@
       <c r="I24" s="28">
         <v>0</v>
       </c>
-      <c r="J24" s="27"/>
+      <c r="J24" s="27" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="37.5" customHeight="1">
       <c r="A25" s="1"/>
@@ -11342,38 +11365,49 @@
         <v>44283</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="92" t="str">
-        <f>VLOOKUP(8,Requisitos!B21:G120,2,FALSE())</f>
-        <v xml:space="preserve">O administrador do sistema poderá criar usuários com diferentes permissões.	</v>
+        <v>100</v>
+      </c>
+      <c r="E25" s="59">
+        <v>6</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H25" s="28">
         <v>3</v>
       </c>
       <c r="I25" s="28">
-        <v>0</v>
-      </c>
-      <c r="J25" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="37.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="19">
         <v>16</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="20"/>
+      <c r="C26" s="26">
+        <v>44283</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="27">
+        <v>1</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="28">
         <v>0</v>
@@ -11385,13 +11419,23 @@
       <c r="B27" s="19">
         <v>17</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="20"/>
+      <c r="C27" s="26">
+        <v>44283</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="28">
         <v>0</v>
@@ -11403,13 +11447,23 @@
       <c r="B28" s="19">
         <v>18</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="20"/>
+      <c r="C28" s="26">
+        <v>44283</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="27">
+        <v>3</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="28">
         <v>0</v>
@@ -11421,16 +11475,26 @@
       <c r="B29" s="19">
         <v>19</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="20"/>
+      <c r="C29" s="26">
+        <v>44283</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="27">
+        <v>4</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="27"/>
     </row>
@@ -11439,13 +11503,23 @@
       <c r="B30" s="19">
         <v>20</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="20"/>
+      <c r="C30" s="26">
+        <v>44283</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="27">
+        <v>5</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="28">
         <v>0</v>
@@ -11457,13 +11531,23 @@
       <c r="B31" s="19">
         <v>21</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="20"/>
+      <c r="C31" s="26">
+        <v>44283</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="27">
+        <v>6</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="28">
         <v>0</v>
@@ -11475,13 +11559,23 @@
       <c r="B32" s="19">
         <v>22</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="20"/>
+      <c r="C32" s="26">
+        <v>44283</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="27">
+        <v>7</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="28">
         <v>0</v>
@@ -11493,13 +11587,23 @@
       <c r="B33" s="19">
         <v>23</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="20"/>
+      <c r="C33" s="26">
+        <v>44283</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="27">
+        <v>8</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H33" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="28">
         <v>0</v>
@@ -11511,16 +11615,26 @@
       <c r="B34" s="19">
         <v>24</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="20"/>
+      <c r="C34" s="26">
+        <v>44283</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="27">
+        <v>9</v>
+      </c>
+      <c r="F34" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H34" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="27"/>
     </row>
@@ -11529,13 +11643,23 @@
       <c r="B35" s="19">
         <v>25</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="20"/>
+      <c r="C35" s="26">
+        <v>44283</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="27">
+        <v>10</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H35" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="28">
         <v>0</v>
@@ -11547,13 +11671,23 @@
       <c r="B36" s="19">
         <v>26</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="20"/>
+      <c r="C36" s="26">
+        <v>44283</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="27">
+        <v>11</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H36" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="28">
         <v>0</v>
@@ -11565,16 +11699,26 @@
       <c r="B37" s="19">
         <v>27</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="20"/>
+      <c r="C37" s="26">
+        <v>44283</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="27">
+        <v>12</v>
+      </c>
+      <c r="F37" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H37" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="27"/>
     </row>
@@ -11583,13 +11727,23 @@
       <c r="B38" s="19">
         <v>28</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="20"/>
+      <c r="C38" s="26">
+        <v>44283</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="27">
+        <v>13</v>
+      </c>
+      <c r="F38" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H38" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="28">
         <v>0</v>
@@ -11604,10 +11758,10 @@
       <c r="C39" s="26"/>
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="88"/>
+      <c r="F39" s="55"/>
       <c r="G39" s="20"/>
       <c r="H39" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="28">
         <v>0</v>
@@ -11622,7 +11776,7 @@
       <c r="C40" s="26"/>
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
-      <c r="F40" s="88"/>
+      <c r="F40" s="55"/>
       <c r="G40" s="20"/>
       <c r="H40" s="28">
         <v>0</v>
@@ -11640,7 +11794,7 @@
       <c r="C41" s="26"/>
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
-      <c r="F41" s="88"/>
+      <c r="F41" s="55"/>
       <c r="G41" s="20"/>
       <c r="H41" s="28">
         <v>0</v>
@@ -11658,7 +11812,7 @@
       <c r="C42" s="26"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
-      <c r="F42" s="88"/>
+      <c r="F42" s="55"/>
       <c r="G42" s="20"/>
       <c r="H42" s="28">
         <v>0</v>
@@ -11676,7 +11830,7 @@
       <c r="C43" s="26"/>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
-      <c r="F43" s="88"/>
+      <c r="F43" s="55"/>
       <c r="G43" s="20"/>
       <c r="H43" s="28">
         <v>0</v>
@@ -11694,7 +11848,7 @@
       <c r="C44" s="26"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
-      <c r="F44" s="88"/>
+      <c r="F44" s="55"/>
       <c r="G44" s="20"/>
       <c r="H44" s="28">
         <v>0</v>
@@ -11712,7 +11866,7 @@
       <c r="C45" s="26"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
-      <c r="F45" s="88"/>
+      <c r="F45" s="55"/>
       <c r="G45" s="20"/>
       <c r="H45" s="28">
         <v>0</v>
@@ -11730,7 +11884,7 @@
       <c r="C46" s="26"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
-      <c r="F46" s="88"/>
+      <c r="F46" s="55"/>
       <c r="G46" s="20"/>
       <c r="H46" s="28">
         <v>0</v>
@@ -11748,7 +11902,7 @@
       <c r="C47" s="26"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
-      <c r="F47" s="88"/>
+      <c r="F47" s="55"/>
       <c r="G47" s="20"/>
       <c r="H47" s="28">
         <v>0</v>
@@ -11766,7 +11920,7 @@
       <c r="C48" s="26"/>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
-      <c r="F48" s="88"/>
+      <c r="F48" s="55"/>
       <c r="G48" s="20"/>
       <c r="H48" s="28">
         <v>0</v>
@@ -11784,7 +11938,7 @@
       <c r="C49" s="26"/>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
-      <c r="F49" s="88"/>
+      <c r="F49" s="55"/>
       <c r="G49" s="20"/>
       <c r="H49" s="28">
         <v>0</v>
@@ -11802,7 +11956,7 @@
       <c r="C50" s="26"/>
       <c r="D50" s="30"/>
       <c r="E50" s="30"/>
-      <c r="F50" s="88"/>
+      <c r="F50" s="55"/>
       <c r="G50" s="20"/>
       <c r="H50" s="28">
         <v>0</v>
@@ -11820,7 +11974,7 @@
       <c r="C51" s="26"/>
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
-      <c r="F51" s="88"/>
+      <c r="F51" s="55"/>
       <c r="G51" s="20"/>
       <c r="H51" s="28">
         <v>0</v>
@@ -11838,7 +11992,7 @@
       <c r="C52" s="26"/>
       <c r="D52" s="30"/>
       <c r="E52" s="30"/>
-      <c r="F52" s="88"/>
+      <c r="F52" s="55"/>
       <c r="G52" s="20"/>
       <c r="H52" s="28">
         <v>0</v>
@@ -11856,7 +12010,7 @@
       <c r="C53" s="26"/>
       <c r="D53" s="30"/>
       <c r="E53" s="30"/>
-      <c r="F53" s="88"/>
+      <c r="F53" s="55"/>
       <c r="G53" s="20"/>
       <c r="H53" s="28">
         <v>0</v>
@@ -11874,7 +12028,7 @@
       <c r="C54" s="26"/>
       <c r="D54" s="30"/>
       <c r="E54" s="30"/>
-      <c r="F54" s="88"/>
+      <c r="F54" s="55"/>
       <c r="G54" s="20"/>
       <c r="H54" s="28">
         <v>0</v>
@@ -11892,7 +12046,7 @@
       <c r="C55" s="26"/>
       <c r="D55" s="30"/>
       <c r="E55" s="30"/>
-      <c r="F55" s="88"/>
+      <c r="F55" s="55"/>
       <c r="G55" s="20"/>
       <c r="H55" s="28">
         <v>0</v>
@@ -11910,7 +12064,7 @@
       <c r="C56" s="26"/>
       <c r="D56" s="30"/>
       <c r="E56" s="30"/>
-      <c r="F56" s="88"/>
+      <c r="F56" s="55"/>
       <c r="G56" s="20"/>
       <c r="H56" s="28">
         <v>0</v>
@@ -11928,7 +12082,7 @@
       <c r="C57" s="26"/>
       <c r="D57" s="30"/>
       <c r="E57" s="30"/>
-      <c r="F57" s="88"/>
+      <c r="F57" s="55"/>
       <c r="G57" s="20"/>
       <c r="H57" s="28">
         <v>0</v>
@@ -11946,7 +12100,7 @@
       <c r="C58" s="26"/>
       <c r="D58" s="30"/>
       <c r="E58" s="30"/>
-      <c r="F58" s="88"/>
+      <c r="F58" s="55"/>
       <c r="G58" s="20"/>
       <c r="H58" s="28">
         <v>0</v>
@@ -11964,7 +12118,7 @@
       <c r="C59" s="26"/>
       <c r="D59" s="30"/>
       <c r="E59" s="30"/>
-      <c r="F59" s="88"/>
+      <c r="F59" s="55"/>
       <c r="G59" s="20"/>
       <c r="H59" s="28">
         <v>0</v>
@@ -11982,7 +12136,7 @@
       <c r="C60" s="26"/>
       <c r="D60" s="30"/>
       <c r="E60" s="30"/>
-      <c r="F60" s="88"/>
+      <c r="F60" s="55"/>
       <c r="G60" s="20"/>
       <c r="H60" s="28">
         <v>0</v>
@@ -11998,15 +12152,15 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="G61" s="31" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="I61" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.61</v>
       </c>
       <c r="J61" s="24"/>
     </row>
@@ -12016,13 +12170,13 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E62" s="21"/>
-      <c r="F62" s="89"/>
+      <c r="F62" s="56"/>
       <c r="G62" s="8">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -12030,29 +12184,29 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="62"/>
+      <c r="B63" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="73"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="62"/>
+      <c r="B64" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="25" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I64" s="25" t="s">
         <v>22</v>
@@ -12060,18 +12214,18 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="79" t="str">
+      <c r="B65" s="93" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="62"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
@@ -12080,82 +12234,82 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="79" t="str">
+      <c r="B66" s="93" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="62"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I66" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B11,I$11:I$60)</f>
-        <v>0</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="79" t="str">
+      <c r="B67" s="93" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="62"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I67" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B12,I$11:I$60)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="79" t="str">
+      <c r="B68" s="93" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="62"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I68" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B13,I$11:I$60)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="79" t="str">
+      <c r="B69" s="93" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="62"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I69" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B14,I$11:I$60)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
@@ -13579,7 +13733,7 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="C11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -13598,17 +13752,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="23">
         <f>Requisitos!C12</f>
         <v>44291</v>
@@ -13616,17 +13770,17 @@
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44292</v>
@@ -13634,17 +13788,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44293</v>
@@ -13652,17 +13806,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44294</v>
@@ -13670,17 +13824,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44295</v>
@@ -13703,18 +13857,18 @@
     </row>
     <row r="7" spans="1:21" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="60" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44297</v>
@@ -13737,18 +13891,18 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
+      <c r="B9" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K9" s="23">
         <f t="shared" si="0"/>
@@ -13761,28 +13915,28 @@
         <v>40</v>
       </c>
       <c r="C10" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="F10" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="G10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="H10" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="I10" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="J10" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="0"/>
@@ -14898,7 +15052,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="31" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H70" s="32">
         <f t="shared" ref="H70:I70" si="1">SUM(H11:H60)</f>
@@ -14930,29 +15084,29 @@
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="62"/>
+      <c r="B72" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="73"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="C73" s="61"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="62"/>
+      <c r="B73" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="25" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I73" s="25" t="s">
         <v>22</v>
@@ -14960,15 +15114,15 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="79" t="str">
+      <c r="B74" s="93" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="62"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -14980,15 +15134,15 @@
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="79" t="str">
+      <c r="B75" s="93" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="62"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -15000,15 +15154,15 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="79" t="str">
+      <c r="B76" s="93" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="62"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -15020,15 +15174,15 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="79" t="str">
+      <c r="B77" s="93" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C77" s="61"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="62"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -15040,15 +15194,15 @@
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="79" t="str">
+      <c r="B78" s="93" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C78" s="61"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="62"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -16541,17 +16695,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="21.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="23">
         <f>Requisitos!C13</f>
         <v>44305</v>
@@ -16559,17 +16713,17 @@
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44306</v>
@@ -16577,17 +16731,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44307</v>
@@ -16595,17 +16749,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44308</v>
@@ -16613,17 +16767,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44309</v>
@@ -16646,18 +16800,18 @@
     </row>
     <row r="7" spans="1:21" ht="21.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="60" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44311</v>
@@ -16680,18 +16834,18 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
+      <c r="B9" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K9" s="23">
         <f t="shared" si="0"/>
@@ -16704,28 +16858,28 @@
         <v>40</v>
       </c>
       <c r="C10" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="F10" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="G10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="H10" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="I10" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="J10" s="34" t="s">
         <v>77</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>79</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="0"/>
@@ -17665,7 +17819,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="31" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -17697,29 +17851,29 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="62"/>
+      <c r="B63" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="73"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="62"/>
+      <c r="B64" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="25" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I64" s="25" t="s">
         <v>22</v>
@@ -17727,15 +17881,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="79" t="str">
+      <c r="B65" s="93" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="62"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -17747,15 +17901,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="79" t="str">
+      <c r="B66" s="93" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="62"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -17767,15 +17921,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="79" t="str">
+      <c r="B67" s="93" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="62"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -17787,15 +17941,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="79" t="str">
+      <c r="B68" s="93" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="62"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -17807,15 +17961,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="79" t="str">
+      <c r="B69" s="93" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="62"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -19516,17 +19670,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="23">
         <f>Requisitos!C14</f>
         <v>44319</v>
@@ -19534,17 +19688,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44320</v>
@@ -19552,17 +19706,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44321</v>
@@ -19570,17 +19724,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44322</v>
@@ -19588,17 +19742,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44323</v>
@@ -19621,18 +19775,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="60" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44325</v>
@@ -19655,18 +19809,18 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
+      <c r="B9" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K9" s="23">
         <f t="shared" si="0"/>
@@ -19679,28 +19833,28 @@
         <v>40</v>
       </c>
       <c r="C10" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="F10" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="G10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="H10" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="I10" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="J10" s="34" t="s">
         <v>77</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>79</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="0"/>
@@ -20654,7 +20808,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="31" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -20686,29 +20840,29 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="62"/>
+      <c r="B63" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="73"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="62"/>
+      <c r="B64" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="25" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I64" s="25" t="s">
         <v>22</v>
@@ -20716,15 +20870,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="79" t="str">
+      <c r="B65" s="93" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="62"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -20736,15 +20890,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="79" t="str">
+      <c r="B66" s="93" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="62"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -20756,15 +20910,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="79" t="str">
+      <c r="B67" s="93" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="62"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -20776,15 +20930,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="79" t="str">
+      <c r="B68" s="93" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="62"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -20796,15 +20950,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="79" t="str">
+      <c r="B69" s="93" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="62"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -22368,17 +22522,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="23">
         <f>Requisitos!C15</f>
         <v>44333</v>
@@ -22386,17 +22540,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44334</v>
@@ -22404,17 +22558,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44335</v>
@@ -22422,17 +22576,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44336</v>
@@ -22440,17 +22594,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44337</v>
@@ -22473,18 +22627,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="60" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44339</v>
@@ -22507,18 +22661,18 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
+      <c r="B9" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K9" s="23">
         <f t="shared" si="0"/>
@@ -22531,28 +22685,28 @@
         <v>40</v>
       </c>
       <c r="C10" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="F10" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="G10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="H10" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="I10" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="J10" s="34" t="s">
         <v>77</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>79</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="0"/>
@@ -23506,7 +23660,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="31" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -23538,29 +23692,29 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="62"/>
+      <c r="B63" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="73"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="62"/>
+      <c r="B64" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="25" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I64" s="25" t="s">
         <v>22</v>
@@ -23568,15 +23722,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="79" t="str">
+      <c r="B65" s="93" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="62"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -23588,15 +23742,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="79" t="str">
+      <c r="B66" s="93" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="62"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -23608,15 +23762,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="79" t="str">
+      <c r="B67" s="93" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="62"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -23628,15 +23782,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="79" t="str">
+      <c r="B68" s="93" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="62"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -23648,15 +23802,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="79" t="str">
+      <c r="B69" s="93" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="62"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -25220,34 +25374,34 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="23">
         <v>44347</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44348</v>
@@ -25255,17 +25409,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44349</v>
@@ -25273,17 +25427,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44350</v>
@@ -25291,17 +25445,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44351</v>
@@ -25324,18 +25478,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="60" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44353</v>
@@ -25358,18 +25512,18 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
+      <c r="B9" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K9" s="23">
         <f t="shared" si="0"/>
@@ -25382,28 +25536,28 @@
         <v>40</v>
       </c>
       <c r="C10" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="F10" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="G10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="H10" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="I10" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="J10" s="34" t="s">
         <v>77</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>79</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="0"/>
@@ -26357,7 +26511,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="31" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -26389,29 +26543,29 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="62"/>
+      <c r="B63" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="73"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="62"/>
+      <c r="B64" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="25" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I64" s="25" t="s">
         <v>22</v>
@@ -26419,15 +26573,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="79" t="str">
+      <c r="B65" s="93" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="62"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -26439,15 +26593,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="79" t="str">
+      <c r="B66" s="93" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="62"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -26459,15 +26613,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="79" t="str">
+      <c r="B67" s="93" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="62"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -26479,15 +26633,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="79" t="str">
+      <c r="B68" s="93" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="62"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -26499,15 +26653,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="79" t="str">
+      <c r="B69" s="93" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="62"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>

--- a/Artefatos/Sprints - ParkIO.xlsx
+++ b/Artefatos/Sprints - ParkIO.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24004"/>
   <workbookPr autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="740" documentId="11_713659AC415AC9C2D79A1EC9FA76B4759D2182B7" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9E6D5037-8985-4BA3-B446-90E1517FB42B}"/>
+  <xr:revisionPtr revIDLastSave="1179" documentId="11_713659AC415AC9C2D79A1EC9FA76B4759D2182B7" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B7EDFFCC-F4F9-4147-A494-8DA69F07EF7C}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint #6" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint #1'!$B$10:$J$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint #1'!$B$10:$J$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Sprint #3'!$B$10:$J$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Sprint #4'!$B$10:$J$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Sprint #5'!$B$10:$J$60</definedName>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="136">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -554,7 +554,7 @@
     <t>O porteiro deve cadastrar os veículos no sistema.</t>
   </si>
   <si>
-    <t>Pendente</t>
+    <t>Tarefas Concluídas</t>
   </si>
   <si>
     <t>O porteiro deve definir o Status do veículo visitante para 'Saiu' e marcar uma avaliação de como foi comportamento do condutor quando o veículo visitante sair.</t>
@@ -563,10 +563,10 @@
     <t>O administrador do sistema deve cadastrar tipos de visitantes (Ex: Entrega dos Correios, Técnico de Banda Larga, etc...), e definir um tempo recomendado que o visitante fique dentro do condomínio.</t>
   </si>
   <si>
-    <t>Tarefas Criadas</t>
+    <t>O porteiro poderá aumentar o tempo de permanência do visitante após fazer contato com o morador para verificar o motivo do atraso.</t>
   </si>
   <si>
-    <t>O porteiro poderá aumentar o tempo de permanência do visitante após fazer contato com o morador para verificar o motivo do atraso.</t>
+    <t>Tarefas Criadas</t>
   </si>
   <si>
     <t>O sistema deve emitir um alerta para um grupo no Telegram contendo os porteiros e os rondas no caso de algum veículo ficar determinado tempo dentro do condomínio.</t>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t>Os usuários de qualquer tipo devem ser capazes de fazer login.</t>
+  </si>
+  <si>
+    <t>Pendente</t>
   </si>
   <si>
     <t>Os usuários de qualquer tipo devem selecionar uma portaria para utilizar o sistema.</t>
@@ -597,9 +600,6 @@
   </si>
   <si>
     <t>PROGRESSO</t>
-  </si>
-  <si>
-    <t>Tarefas Concluídas</t>
   </si>
   <si>
     <t>Departamento de Engenharia de Software e Sistemas de Informação</t>
@@ -713,6 +713,21 @@
     <t>Fazer diagrama de casos de uso UML.</t>
   </si>
   <si>
+    <t>Fazer interface do usuário "1.1.1.1 - Login.md".</t>
+  </si>
+  <si>
+    <t>Fazer interface do usuário "1.1.1.2 - Veículos Visitantes.md".</t>
+  </si>
+  <si>
+    <t>Fazer interface do usuário "1.1.1.3 - Lista de usuários.md".</t>
+  </si>
+  <si>
+    <t>Fazer interface do usuário "1.1.1.4 - Cadastro Veículo.md".</t>
+  </si>
+  <si>
+    <t>Planejar interface do usuário "1.1.1.5 - Veículo Cadastrado.md".</t>
+  </si>
+  <si>
     <t>Total:</t>
   </si>
   <si>
@@ -726,6 +741,69 @@
   </si>
   <si>
     <t xml:space="preserve">SPRINT #2 </t>
+  </si>
+  <si>
+    <t>Criar o frontend responsivo da lista de veículos que não sairam, da página de cadastro de veículos</t>
+  </si>
+  <si>
+    <t>Criar a rota, controller e model da API da lista de veículos da página de cadastrar veículos</t>
+  </si>
+  <si>
+    <t>Testar lista de veículos da página de cadastro de veículos.</t>
+  </si>
+  <si>
+    <t>Criar feature para pesquisa por placa da página de veículos cadastrados.</t>
+  </si>
+  <si>
+    <t>Criar frontend para pesquisa por portaria e porteiro da página de veículos cadastrados</t>
+  </si>
+  <si>
+    <t>Criar backend para listagem de porteiros e portarias.</t>
+  </si>
+  <si>
+    <t>Criar feature de busca por bloco e 
+apartamento.</t>
+  </si>
+  <si>
+    <t>Criar feature para listagem de
+ portarias</t>
+  </si>
+  <si>
+    <t>Criar frontend da página de remover veículo.</t>
+  </si>
+  <si>
+    <t>Criar frontend da página de 
+cadastro do tipo de visitante</t>
+  </si>
+  <si>
+    <t>Criar backend página de 
+cadastro do tipo de visitante</t>
+  </si>
+  <si>
+    <t>Criar frontend da página de 
+cadastro de portarias</t>
+  </si>
+  <si>
+    <t>Criar backend página de 
+cadastro de portarias</t>
+  </si>
+  <si>
+    <t>Atualizar e corrigir o artefato de Documentação</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Fazer as UML dos requisitos que não foram feitos ainda</t>
+  </si>
+  <si>
+    <t>3 e 7</t>
+  </si>
+  <si>
+    <t>Fazer as atas de reuniões das últimas 4 e das próximas</t>
+  </si>
+  <si>
+    <t>Planejar a Sprint 3</t>
   </si>
   <si>
     <t xml:space="preserve">SPRINT #3 </t>
@@ -1144,7 +1222,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1300,6 +1378,21 @@
     <xf numFmtId="0" fontId="24" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1376,6 +1469,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1390,11 +1486,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="225">
+  <dxfs count="220">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3375,51 +3471,6 @@
       </fill>
       <alignment wrapText="0" shrinkToFit="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFA1A1"/>
-          <bgColor rgb="FFFFA1A1"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -3436,7 +3487,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="18"/>
   <c:chart>
@@ -3532,10 +3583,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3604,10 +3655,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18.61</c:v>
+                  <c:v>53.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4053,8 +4104,8 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4066,15 +4117,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4082,15 +4133,15 @@
     </row>
     <row r="2" spans="1:15" ht="18">
       <c r="A2" s="1"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4098,15 +4149,15 @@
     </row>
     <row r="3" spans="1:15" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4114,15 +4165,15 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4130,15 +4181,15 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -4160,15 +4211,15 @@
     </row>
     <row r="7" spans="1:15" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -4193,17 +4244,17 @@
     </row>
     <row r="9" spans="1:15" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74" t="s">
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -4213,17 +4264,17 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="76" t="s">
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -4233,17 +4284,17 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="76" t="s">
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -4253,17 +4304,17 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="76" t="s">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="73"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="80"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -4273,17 +4324,17 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="76" t="s">
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="73"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -4293,17 +4344,17 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="76" t="s">
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="73"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -5553,16 +5604,16 @@
     </row>
     <row r="99" spans="1:15" ht="15.75" customHeight="1">
       <c r="A99" s="40"/>
-      <c r="B99" s="78"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="79" t="s">
+      <c r="B99" s="85"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="65"/>
-      <c r="F99" s="79" t="s">
+      <c r="E99" s="72"/>
+      <c r="F99" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="65"/>
+      <c r="G99" s="72"/>
       <c r="H99" s="41" t="s">
         <v>21</v>
       </c>
@@ -5584,12 +5635,12 @@
     </row>
     <row r="100" spans="1:15" ht="15.75" customHeight="1">
       <c r="A100" s="40"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="80" t="s">
+      <c r="B100" s="88"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="65"/>
+      <c r="E100" s="72"/>
       <c r="F100" s="43" t="s">
         <v>26</v>
       </c>
@@ -5597,12 +5648,12 @@
         <v>27</v>
       </c>
       <c r="H100" s="45">
-        <f>'Sprint #1'!H$61</f>
-        <v>62</v>
+        <f>'Sprint #1'!H$50</f>
+        <v>56</v>
       </c>
       <c r="I100" s="45">
-        <f>'Sprint #1'!I$61</f>
-        <v>18.61</v>
+        <f>'Sprint #1'!I$50</f>
+        <v>53.11</v>
       </c>
       <c r="J100" s="43"/>
       <c r="K100" s="44" t="str">
@@ -5610,8 +5661,8 @@
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
       <c r="L100" s="44">
-        <f>SUM('Sprint #1'!$I65, 'Sprint #2'!$I74, 'Sprint #3'!$I65, 'Sprint #5'!$I65)</f>
-        <v>0</v>
+        <f>SUM('Sprint #1'!$I54, 'Sprint #2'!$I74, 'Sprint #3'!$I65, 'Sprint #5'!$I65)</f>
+        <v>10</v>
       </c>
       <c r="M100" s="43" t="s">
         <v>28</v>
@@ -5623,12 +5674,12 @@
     </row>
     <row r="101" spans="1:15" ht="15.75" customHeight="1">
       <c r="A101" s="40"/>
-      <c r="B101" s="81"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="80" t="s">
+      <c r="B101" s="88"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="65"/>
+      <c r="E101" s="72"/>
       <c r="F101" s="43" t="s">
         <v>30</v>
       </c>
@@ -5637,11 +5688,11 @@
       </c>
       <c r="H101" s="45">
         <f>'Sprint #2'!H$70</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I101" s="45">
         <f>'Sprint #2'!I$70</f>
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="J101" s="43"/>
       <c r="K101" s="44" t="str">
@@ -5649,8 +5700,8 @@
         <v>Henrique Penna Forte Monteiro</v>
       </c>
       <c r="L101" s="44">
-        <f>SUM('Sprint #1'!$I66, 'Sprint #2'!$I75, 'Sprint #3'!$I66, 'Sprint #5'!$I66)</f>
-        <v>1.61</v>
+        <f>SUM('Sprint #1'!$I55, 'Sprint #2'!$I75, 'Sprint #3'!$I66, 'Sprint #5'!$I66)</f>
+        <v>9.61</v>
       </c>
       <c r="M101" s="43" t="s">
         <v>32</v>
@@ -5662,12 +5713,12 @@
     </row>
     <row r="102" spans="1:15" ht="15.75" customHeight="1">
       <c r="A102" s="40"/>
-      <c r="B102" s="81"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="80" t="s">
+      <c r="B102" s="88"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="65"/>
+      <c r="E102" s="72"/>
       <c r="F102" s="43"/>
       <c r="G102" s="44" t="s">
         <v>34</v>
@@ -5686,8 +5737,8 @@
         <v>José Maurício Guimarães França</v>
       </c>
       <c r="L102" s="44">
-        <f>SUM('Sprint #1'!$I67, 'Sprint #2'!$I76, 'Sprint #3'!$I67, 'Sprint #5'!$I67)</f>
-        <v>1</v>
+        <f>SUM('Sprint #1'!$I56, 'Sprint #2'!$I76, 'Sprint #3'!$I67, 'Sprint #5'!$I67)</f>
+        <v>20</v>
       </c>
       <c r="M102" s="43" t="s">
         <v>35</v>
@@ -5699,12 +5750,12 @@
     </row>
     <row r="103" spans="1:15" ht="15.75" customHeight="1">
       <c r="A103" s="40"/>
-      <c r="B103" s="81"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="80" t="s">
+      <c r="B103" s="88"/>
+      <c r="C103" s="72"/>
+      <c r="D103" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="E103" s="65"/>
+      <c r="E103" s="72"/>
       <c r="F103" s="43"/>
       <c r="G103" s="44" t="s">
         <v>36</v>
@@ -5723,8 +5774,8 @@
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
       <c r="L103" s="44">
-        <f>SUM('Sprint #1'!$I68, 'Sprint #2'!$I77, 'Sprint #3'!$I68, 'Sprint #5'!$I68)</f>
-        <v>9</v>
+        <f>SUM('Sprint #1'!$I57, 'Sprint #2'!$I77, 'Sprint #3'!$I68, 'Sprint #5'!$I68)</f>
+        <v>29</v>
       </c>
       <c r="M103" s="43" t="s">
         <v>37</v>
@@ -5734,12 +5785,12 @@
     </row>
     <row r="104" spans="1:15" ht="15.75" customHeight="1">
       <c r="A104" s="40"/>
-      <c r="B104" s="81"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="80" t="s">
+      <c r="B104" s="88"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="65"/>
+      <c r="E104" s="72"/>
       <c r="F104" s="43"/>
       <c r="G104" s="44" t="s">
         <v>38</v>
@@ -5758,14 +5809,14 @@
         <v>Victor Boaventura Goés Campos</v>
       </c>
       <c r="L104" s="44">
-        <f>SUM('Sprint #1'!$I69, 'Sprint #2'!$I78, 'Sprint #3'!$I69, 'Sprint #5'!$I69)</f>
-        <v>7</v>
+        <f>SUM('Sprint #1'!$I58, 'Sprint #2'!$I78, 'Sprint #3'!$I69, 'Sprint #5'!$I69)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="15.75" customHeight="1">
       <c r="A105" s="40"/>
-      <c r="B105" s="81"/>
-      <c r="C105" s="65"/>
+      <c r="B105" s="88"/>
+      <c r="C105" s="72"/>
       <c r="F105" s="43"/>
       <c r="G105" s="43"/>
       <c r="H105" s="43"/>
@@ -5776,8 +5827,8 @@
     </row>
     <row r="106" spans="1:15" ht="15.75" customHeight="1">
       <c r="A106" s="40"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="65"/>
+      <c r="B106" s="88"/>
+      <c r="C106" s="72"/>
       <c r="D106" s="46"/>
       <c r="E106" s="43"/>
       <c r="F106" s="43"/>
@@ -6856,8 +6907,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:G23"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6873,67 +6924,67 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
@@ -6949,16 +7000,16 @@
     </row>
     <row r="7" spans="1:9" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="82" t="str">
+      <c r="B7" s="89" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
@@ -6974,15 +7025,15 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
@@ -6996,11 +7047,11 @@
       <c r="D10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="10" t="s">
         <v>44</v>
       </c>
@@ -7018,11 +7069,11 @@
         <f t="shared" ref="D11:D16" si="0">C11+13</f>
         <v>44290</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
       <c r="H11" s="13"/>
       <c r="I11" s="1"/>
     </row>
@@ -7039,9 +7090,9 @@
         <f t="shared" si="0"/>
         <v>44304</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="13"/>
       <c r="I12" s="1"/>
     </row>
@@ -7058,9 +7109,9 @@
         <f t="shared" si="0"/>
         <v>44318</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="73"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="80"/>
       <c r="H13" s="13"/>
       <c r="I13" s="1"/>
     </row>
@@ -7077,9 +7128,9 @@
         <f t="shared" si="0"/>
         <v>44332</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
       <c r="H14" s="13"/>
       <c r="I14" s="1"/>
     </row>
@@ -7096,9 +7147,9 @@
         <f t="shared" si="0"/>
         <v>44346</v>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
       <c r="H15" s="13"/>
       <c r="I15" s="1"/>
     </row>
@@ -7115,9 +7166,9 @@
         <f t="shared" si="0"/>
         <v>44360</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="13"/>
       <c r="I16" s="1"/>
     </row>
@@ -7146,13 +7197,13 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
       <c r="H19" s="15" t="s">
         <v>47</v>
       </c>
@@ -7163,11 +7214,11 @@
       <c r="B20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
       <c r="H20" s="17" t="s">
         <v>48</v>
       </c>
@@ -7178,13 +7229,13 @@
       <c r="B21" s="19">
         <v>1</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
       <c r="H21" s="20" t="s">
         <v>50</v>
       </c>
@@ -7195,13 +7246,13 @@
       <c r="B22" s="18">
         <v>2</v>
       </c>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
       <c r="H22" s="20" t="s">
         <v>50</v>
       </c>
@@ -7212,15 +7263,15 @@
       <c r="B23" s="19">
         <v>3</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80"/>
       <c r="H23" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -7229,15 +7280,15 @@
       <c r="B24" s="18">
         <v>4</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="I24" s="1"/>
     </row>
@@ -7246,15 +7297,15 @@
       <c r="B25" s="19">
         <v>5</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
       <c r="H25" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -7263,13 +7314,13 @@
       <c r="B26" s="18">
         <v>6</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="20" t="s">
         <v>50</v>
       </c>
@@ -7280,15 +7331,15 @@
       <c r="B27" s="19">
         <v>7</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="80"/>
       <c r="H27" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I27" s="1"/>
     </row>
@@ -7297,15 +7348,15 @@
       <c r="B28" s="18">
         <v>8</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -7314,15 +7365,15 @@
       <c r="B29" s="19">
         <v>9</v>
       </c>
-      <c r="C29" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
+      <c r="C29" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="80"/>
       <c r="H29" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -7331,13 +7382,13 @@
       <c r="B30" s="18">
         <v>10</v>
       </c>
-      <c r="C30" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
+      <c r="C30" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
       <c r="H30" s="20" t="s">
         <v>50</v>
       </c>
@@ -7348,15 +7399,15 @@
       <c r="B31" s="19">
         <v>11</v>
       </c>
-      <c r="C31" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="73"/>
+      <c r="C31" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="80"/>
       <c r="H31" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I31" s="1"/>
     </row>
@@ -7365,15 +7416,15 @@
       <c r="B32" s="18">
         <v>12</v>
       </c>
-      <c r="C32" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
+      <c r="C32" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="80"/>
       <c r="H32" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I32" s="1"/>
     </row>
@@ -7382,15 +7433,15 @@
       <c r="B33" s="19">
         <v>13</v>
       </c>
-      <c r="C33" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73"/>
+      <c r="C33" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="80"/>
       <c r="H33" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I33" s="1"/>
     </row>
@@ -7399,13 +7450,13 @@
       <c r="B34" s="18">
         <v>14</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="73"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="80"/>
       <c r="H34" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I34" s="1"/>
     </row>
@@ -7414,13 +7465,13 @@
       <c r="B35" s="19">
         <v>15</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="80"/>
       <c r="H35" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I35" s="1"/>
     </row>
@@ -7429,13 +7480,13 @@
       <c r="B36" s="18">
         <v>16</v>
       </c>
-      <c r="C36" s="92"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="73"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="80"/>
       <c r="H36" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I36" s="1"/>
     </row>
@@ -7444,13 +7495,13 @@
       <c r="B37" s="19">
         <v>17</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="73"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="80"/>
       <c r="H37" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I37" s="1"/>
     </row>
@@ -7459,13 +7510,13 @@
       <c r="B38" s="18">
         <v>18</v>
       </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="73"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="80"/>
       <c r="H38" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I38" s="1"/>
     </row>
@@ -7474,13 +7525,13 @@
       <c r="B39" s="19">
         <v>19</v>
       </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="80"/>
       <c r="H39" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I39" s="1"/>
     </row>
@@ -7489,13 +7540,13 @@
       <c r="B40" s="18">
         <v>20</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="73"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="80"/>
       <c r="H40" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I40" s="1"/>
     </row>
@@ -7504,13 +7555,13 @@
       <c r="B41" s="19">
         <v>21</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="73"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I41" s="1"/>
     </row>
@@ -7519,13 +7570,13 @@
       <c r="B42" s="18">
         <v>22</v>
       </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="73"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="80"/>
       <c r="H42" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I42" s="1"/>
     </row>
@@ -7534,13 +7585,13 @@
       <c r="B43" s="19">
         <v>23</v>
       </c>
-      <c r="C43" s="92"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="73"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="80"/>
       <c r="H43" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I43" s="1"/>
     </row>
@@ -7549,13 +7600,13 @@
       <c r="B44" s="18">
         <v>24</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="73"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="80"/>
       <c r="H44" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I44" s="1"/>
     </row>
@@ -7564,13 +7615,13 @@
       <c r="B45" s="19">
         <v>25</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="73"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="80"/>
       <c r="H45" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I45" s="1"/>
     </row>
@@ -7579,13 +7630,13 @@
       <c r="B46" s="18">
         <v>26</v>
       </c>
-      <c r="C46" s="92"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="73"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="80"/>
       <c r="H46" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I46" s="1"/>
     </row>
@@ -7594,13 +7645,13 @@
       <c r="B47" s="19">
         <v>27</v>
       </c>
-      <c r="C47" s="92"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="73"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="80"/>
       <c r="H47" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I47" s="1"/>
     </row>
@@ -7609,13 +7660,13 @@
       <c r="B48" s="18">
         <v>28</v>
       </c>
-      <c r="C48" s="92"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="73"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="80"/>
       <c r="H48" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I48" s="1"/>
     </row>
@@ -7624,13 +7675,13 @@
       <c r="B49" s="19">
         <v>29</v>
       </c>
-      <c r="C49" s="92"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="73"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="80"/>
       <c r="H49" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I49" s="1"/>
     </row>
@@ -7639,13 +7690,13 @@
       <c r="B50" s="18">
         <v>30</v>
       </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="73"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="80"/>
       <c r="H50" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I50" s="1"/>
     </row>
@@ -7654,13 +7705,13 @@
       <c r="B51" s="19">
         <v>31</v>
       </c>
-      <c r="C51" s="92"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="73"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="80"/>
       <c r="H51" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I51" s="1"/>
     </row>
@@ -7669,13 +7720,13 @@
       <c r="B52" s="18">
         <v>32</v>
       </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="73"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="80"/>
       <c r="H52" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I52" s="1"/>
     </row>
@@ -7684,13 +7735,13 @@
       <c r="B53" s="19">
         <v>33</v>
       </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="73"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="80"/>
       <c r="H53" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I53" s="1"/>
     </row>
@@ -7699,13 +7750,13 @@
       <c r="B54" s="18">
         <v>34</v>
       </c>
-      <c r="C54" s="92"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="73"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="80"/>
       <c r="H54" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I54" s="1"/>
     </row>
@@ -7714,13 +7765,13 @@
       <c r="B55" s="19">
         <v>35</v>
       </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="73"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="80"/>
       <c r="H55" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I55" s="1"/>
     </row>
@@ -7729,13 +7780,13 @@
       <c r="B56" s="18">
         <v>36</v>
       </c>
-      <c r="C56" s="92"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="73"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="80"/>
       <c r="H56" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I56" s="1"/>
     </row>
@@ -7744,13 +7795,13 @@
       <c r="B57" s="19">
         <v>37</v>
       </c>
-      <c r="C57" s="92"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="73"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="80"/>
       <c r="H57" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I57" s="1"/>
     </row>
@@ -7759,13 +7810,13 @@
       <c r="B58" s="18">
         <v>38</v>
       </c>
-      <c r="C58" s="92"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="73"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="80"/>
       <c r="H58" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I58" s="1"/>
     </row>
@@ -7774,13 +7825,13 @@
       <c r="B59" s="19">
         <v>39</v>
       </c>
-      <c r="C59" s="92"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="73"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="80"/>
       <c r="H59" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I59" s="1"/>
     </row>
@@ -7789,13 +7840,13 @@
       <c r="B60" s="18">
         <v>40</v>
       </c>
-      <c r="C60" s="92"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="73"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="80"/>
       <c r="H60" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I60" s="1"/>
     </row>
@@ -7804,13 +7855,13 @@
       <c r="B61" s="19">
         <v>41</v>
       </c>
-      <c r="C61" s="92"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="73"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="80"/>
       <c r="H61" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I61" s="1"/>
     </row>
@@ -7819,13 +7870,13 @@
       <c r="B62" s="18">
         <v>42</v>
       </c>
-      <c r="C62" s="92"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="73"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="80"/>
       <c r="H62" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I62" s="1"/>
     </row>
@@ -7834,13 +7885,13 @@
       <c r="B63" s="19">
         <v>43</v>
       </c>
-      <c r="C63" s="92"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="73"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="80"/>
       <c r="H63" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I63" s="1"/>
     </row>
@@ -7849,13 +7900,13 @@
       <c r="B64" s="18">
         <v>44</v>
       </c>
-      <c r="C64" s="92"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="73"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="80"/>
       <c r="H64" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I64" s="1"/>
     </row>
@@ -7864,13 +7915,13 @@
       <c r="B65" s="19">
         <v>45</v>
       </c>
-      <c r="C65" s="92"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="73"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="80"/>
       <c r="H65" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I65" s="1"/>
     </row>
@@ -7879,13 +7930,13 @@
       <c r="B66" s="18">
         <v>46</v>
       </c>
-      <c r="C66" s="92"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="73"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="80"/>
       <c r="H66" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I66" s="1"/>
     </row>
@@ -7894,13 +7945,13 @@
       <c r="B67" s="19">
         <v>47</v>
       </c>
-      <c r="C67" s="92"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="73"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="80"/>
       <c r="H67" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I67" s="1"/>
     </row>
@@ -7909,13 +7960,13 @@
       <c r="B68" s="18">
         <v>48</v>
       </c>
-      <c r="C68" s="92"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="80"/>
       <c r="H68" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I68" s="1"/>
     </row>
@@ -7924,13 +7975,13 @@
       <c r="B69" s="19">
         <v>49</v>
       </c>
-      <c r="C69" s="92"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="73"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="80"/>
       <c r="H69" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I69" s="1"/>
     </row>
@@ -7939,13 +7990,13 @@
       <c r="B70" s="18">
         <v>50</v>
       </c>
-      <c r="C70" s="92"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="73"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="80"/>
       <c r="H70" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I70" s="1"/>
     </row>
@@ -7954,13 +8005,13 @@
       <c r="B71" s="19">
         <v>51</v>
       </c>
-      <c r="C71" s="92"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="73"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="80"/>
       <c r="H71" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I71" s="1"/>
     </row>
@@ -7969,13 +8020,13 @@
       <c r="B72" s="18">
         <v>52</v>
       </c>
-      <c r="C72" s="92"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="73"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="80"/>
       <c r="H72" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I72" s="1"/>
     </row>
@@ -7984,13 +8035,13 @@
       <c r="B73" s="19">
         <v>53</v>
       </c>
-      <c r="C73" s="92"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="73"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="80"/>
       <c r="H73" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I73" s="1"/>
     </row>
@@ -7999,13 +8050,13 @@
       <c r="B74" s="18">
         <v>54</v>
       </c>
-      <c r="C74" s="92"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="73"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="80"/>
       <c r="H74" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I74" s="1"/>
     </row>
@@ -8014,13 +8065,13 @@
       <c r="B75" s="19">
         <v>55</v>
       </c>
-      <c r="C75" s="92"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="73"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="80"/>
       <c r="H75" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I75" s="1"/>
     </row>
@@ -8029,13 +8080,13 @@
       <c r="B76" s="18">
         <v>56</v>
       </c>
-      <c r="C76" s="92"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="73"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="80"/>
       <c r="H76" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I76" s="1"/>
     </row>
@@ -8044,13 +8095,13 @@
       <c r="B77" s="19">
         <v>57</v>
       </c>
-      <c r="C77" s="92"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="73"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="80"/>
       <c r="H77" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I77" s="1"/>
     </row>
@@ -8059,13 +8110,13 @@
       <c r="B78" s="18">
         <v>58</v>
       </c>
-      <c r="C78" s="92"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="73"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="80"/>
       <c r="H78" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I78" s="1"/>
     </row>
@@ -8074,13 +8125,13 @@
       <c r="B79" s="19">
         <v>59</v>
       </c>
-      <c r="C79" s="92"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="73"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="80"/>
       <c r="H79" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I79" s="1"/>
     </row>
@@ -8089,13 +8140,13 @@
       <c r="B80" s="18">
         <v>60</v>
       </c>
-      <c r="C80" s="92"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="73"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="79"/>
+      <c r="G80" s="80"/>
       <c r="H80" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I80" s="1"/>
     </row>
@@ -8104,13 +8155,13 @@
       <c r="B81" s="19">
         <v>61</v>
       </c>
-      <c r="C81" s="92"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="73"/>
+      <c r="C81" s="99"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="80"/>
       <c r="H81" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I81" s="1"/>
     </row>
@@ -8119,13 +8170,13 @@
       <c r="B82" s="18">
         <v>62</v>
       </c>
-      <c r="C82" s="92"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="73"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="80"/>
       <c r="H82" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I82" s="1"/>
     </row>
@@ -8134,13 +8185,13 @@
       <c r="B83" s="19">
         <v>63</v>
       </c>
-      <c r="C83" s="92"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="73"/>
+      <c r="C83" s="99"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="80"/>
       <c r="H83" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I83" s="1"/>
     </row>
@@ -8149,13 +8200,13 @@
       <c r="B84" s="18">
         <v>64</v>
       </c>
-      <c r="C84" s="92"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="73"/>
+      <c r="C84" s="99"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="80"/>
       <c r="H84" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I84" s="1"/>
     </row>
@@ -8164,13 +8215,13 @@
       <c r="B85" s="19">
         <v>65</v>
       </c>
-      <c r="C85" s="92"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="73"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="80"/>
       <c r="H85" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I85" s="1"/>
     </row>
@@ -8179,13 +8230,13 @@
       <c r="B86" s="18">
         <v>66</v>
       </c>
-      <c r="C86" s="92"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="72"/>
-      <c r="F86" s="72"/>
-      <c r="G86" s="73"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="80"/>
       <c r="H86" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -8194,13 +8245,13 @@
       <c r="B87" s="19">
         <v>67</v>
       </c>
-      <c r="C87" s="92"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="73"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="80"/>
       <c r="H87" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I87" s="1"/>
     </row>
@@ -8209,13 +8260,13 @@
       <c r="B88" s="18">
         <v>68</v>
       </c>
-      <c r="C88" s="92"/>
-      <c r="D88" s="72"/>
-      <c r="E88" s="72"/>
-      <c r="F88" s="72"/>
-      <c r="G88" s="73"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="80"/>
       <c r="H88" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I88" s="1"/>
     </row>
@@ -8224,13 +8275,13 @@
       <c r="B89" s="19">
         <v>69</v>
       </c>
-      <c r="C89" s="92"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="73"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="80"/>
       <c r="H89" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I89" s="1"/>
     </row>
@@ -8239,13 +8290,13 @@
       <c r="B90" s="18">
         <v>70</v>
       </c>
-      <c r="C90" s="92"/>
-      <c r="D90" s="72"/>
-      <c r="E90" s="72"/>
-      <c r="F90" s="72"/>
-      <c r="G90" s="73"/>
+      <c r="C90" s="99"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="80"/>
       <c r="H90" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I90" s="1"/>
     </row>
@@ -8254,13 +8305,13 @@
       <c r="B91" s="19">
         <v>71</v>
       </c>
-      <c r="C91" s="92"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="73"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="80"/>
       <c r="H91" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I91" s="1"/>
     </row>
@@ -8269,13 +8320,13 @@
       <c r="B92" s="18">
         <v>72</v>
       </c>
-      <c r="C92" s="92"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="73"/>
+      <c r="C92" s="99"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="80"/>
       <c r="H92" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I92" s="1"/>
     </row>
@@ -8284,13 +8335,13 @@
       <c r="B93" s="19">
         <v>73</v>
       </c>
-      <c r="C93" s="92"/>
-      <c r="D93" s="72"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="73"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="79"/>
+      <c r="G93" s="80"/>
       <c r="H93" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I93" s="1"/>
     </row>
@@ -8299,13 +8350,13 @@
       <c r="B94" s="18">
         <v>74</v>
       </c>
-      <c r="C94" s="92"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="72"/>
-      <c r="F94" s="72"/>
-      <c r="G94" s="73"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="80"/>
       <c r="H94" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I94" s="1"/>
     </row>
@@ -8314,13 +8365,13 @@
       <c r="B95" s="19">
         <v>75</v>
       </c>
-      <c r="C95" s="92"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="73"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="79"/>
+      <c r="G95" s="80"/>
       <c r="H95" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I95" s="1"/>
     </row>
@@ -8329,13 +8380,13 @@
       <c r="B96" s="18">
         <v>76</v>
       </c>
-      <c r="C96" s="92"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="73"/>
+      <c r="C96" s="99"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="79"/>
+      <c r="G96" s="80"/>
       <c r="H96" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I96" s="1"/>
     </row>
@@ -8344,13 +8395,13 @@
       <c r="B97" s="19">
         <v>77</v>
       </c>
-      <c r="C97" s="92"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="73"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="79"/>
+      <c r="E97" s="79"/>
+      <c r="F97" s="79"/>
+      <c r="G97" s="80"/>
       <c r="H97" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I97" s="1"/>
     </row>
@@ -8359,13 +8410,13 @@
       <c r="B98" s="18">
         <v>78</v>
       </c>
-      <c r="C98" s="92"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="73"/>
+      <c r="C98" s="99"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="79"/>
+      <c r="G98" s="80"/>
       <c r="H98" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I98" s="1"/>
     </row>
@@ -8374,13 +8425,13 @@
       <c r="B99" s="19">
         <v>79</v>
       </c>
-      <c r="C99" s="92"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="73"/>
+      <c r="C99" s="99"/>
+      <c r="D99" s="79"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="80"/>
       <c r="H99" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I99" s="1"/>
     </row>
@@ -8389,13 +8440,13 @@
       <c r="B100" s="18">
         <v>80</v>
       </c>
-      <c r="C100" s="92"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="73"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="79"/>
+      <c r="G100" s="80"/>
       <c r="H100" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I100" s="1"/>
     </row>
@@ -8404,13 +8455,13 @@
       <c r="B101" s="19">
         <v>81</v>
       </c>
-      <c r="C101" s="92"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="73"/>
+      <c r="C101" s="99"/>
+      <c r="D101" s="79"/>
+      <c r="E101" s="79"/>
+      <c r="F101" s="79"/>
+      <c r="G101" s="80"/>
       <c r="H101" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I101" s="1"/>
     </row>
@@ -8419,13 +8470,13 @@
       <c r="B102" s="18">
         <v>82</v>
       </c>
-      <c r="C102" s="92"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="73"/>
+      <c r="C102" s="99"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="80"/>
       <c r="H102" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I102" s="1"/>
     </row>
@@ -8434,13 +8485,13 @@
       <c r="B103" s="19">
         <v>83</v>
       </c>
-      <c r="C103" s="92"/>
-      <c r="D103" s="72"/>
-      <c r="E103" s="72"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="73"/>
+      <c r="C103" s="99"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="80"/>
       <c r="H103" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I103" s="1"/>
     </row>
@@ -8449,13 +8500,13 @@
       <c r="B104" s="18">
         <v>84</v>
       </c>
-      <c r="C104" s="92"/>
-      <c r="D104" s="72"/>
-      <c r="E104" s="72"/>
-      <c r="F104" s="72"/>
-      <c r="G104" s="73"/>
+      <c r="C104" s="99"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="80"/>
       <c r="H104" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I104" s="1"/>
     </row>
@@ -8464,13 +8515,13 @@
       <c r="B105" s="19">
         <v>85</v>
       </c>
-      <c r="C105" s="92"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="72"/>
-      <c r="F105" s="72"/>
-      <c r="G105" s="73"/>
+      <c r="C105" s="99"/>
+      <c r="D105" s="79"/>
+      <c r="E105" s="79"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="80"/>
       <c r="H105" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I105" s="1"/>
     </row>
@@ -8479,13 +8530,13 @@
       <c r="B106" s="18">
         <v>86</v>
       </c>
-      <c r="C106" s="92"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="73"/>
+      <c r="C106" s="99"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="79"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="80"/>
       <c r="H106" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I106" s="1"/>
     </row>
@@ -8494,13 +8545,13 @@
       <c r="B107" s="19">
         <v>87</v>
       </c>
-      <c r="C107" s="92"/>
-      <c r="D107" s="72"/>
-      <c r="E107" s="72"/>
-      <c r="F107" s="72"/>
-      <c r="G107" s="73"/>
+      <c r="C107" s="99"/>
+      <c r="D107" s="79"/>
+      <c r="E107" s="79"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="80"/>
       <c r="H107" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I107" s="1"/>
     </row>
@@ -8509,13 +8560,13 @@
       <c r="B108" s="18">
         <v>88</v>
       </c>
-      <c r="C108" s="92"/>
-      <c r="D108" s="72"/>
-      <c r="E108" s="72"/>
-      <c r="F108" s="72"/>
-      <c r="G108" s="73"/>
+      <c r="C108" s="99"/>
+      <c r="D108" s="79"/>
+      <c r="E108" s="79"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="80"/>
       <c r="H108" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I108" s="1"/>
     </row>
@@ -8524,13 +8575,13 @@
       <c r="B109" s="19">
         <v>89</v>
       </c>
-      <c r="C109" s="92"/>
-      <c r="D109" s="72"/>
-      <c r="E109" s="72"/>
-      <c r="F109" s="72"/>
-      <c r="G109" s="73"/>
+      <c r="C109" s="99"/>
+      <c r="D109" s="79"/>
+      <c r="E109" s="79"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="80"/>
       <c r="H109" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I109" s="1"/>
     </row>
@@ -8539,13 +8590,13 @@
       <c r="B110" s="18">
         <v>90</v>
       </c>
-      <c r="C110" s="92"/>
-      <c r="D110" s="72"/>
-      <c r="E110" s="72"/>
-      <c r="F110" s="72"/>
-      <c r="G110" s="73"/>
+      <c r="C110" s="99"/>
+      <c r="D110" s="79"/>
+      <c r="E110" s="79"/>
+      <c r="F110" s="79"/>
+      <c r="G110" s="80"/>
       <c r="H110" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I110" s="1"/>
     </row>
@@ -8554,13 +8605,13 @@
       <c r="B111" s="19">
         <v>91</v>
       </c>
-      <c r="C111" s="92"/>
-      <c r="D111" s="72"/>
-      <c r="E111" s="72"/>
-      <c r="F111" s="72"/>
-      <c r="G111" s="73"/>
+      <c r="C111" s="99"/>
+      <c r="D111" s="79"/>
+      <c r="E111" s="79"/>
+      <c r="F111" s="79"/>
+      <c r="G111" s="80"/>
       <c r="H111" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I111" s="1"/>
     </row>
@@ -8569,13 +8620,13 @@
       <c r="B112" s="18">
         <v>92</v>
       </c>
-      <c r="C112" s="92"/>
-      <c r="D112" s="72"/>
-      <c r="E112" s="72"/>
-      <c r="F112" s="72"/>
-      <c r="G112" s="73"/>
+      <c r="C112" s="99"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="79"/>
+      <c r="F112" s="79"/>
+      <c r="G112" s="80"/>
       <c r="H112" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I112" s="1"/>
     </row>
@@ -8584,13 +8635,13 @@
       <c r="B113" s="19">
         <v>93</v>
       </c>
-      <c r="C113" s="92"/>
-      <c r="D113" s="72"/>
-      <c r="E113" s="72"/>
-      <c r="F113" s="72"/>
-      <c r="G113" s="73"/>
+      <c r="C113" s="99"/>
+      <c r="D113" s="79"/>
+      <c r="E113" s="79"/>
+      <c r="F113" s="79"/>
+      <c r="G113" s="80"/>
       <c r="H113" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I113" s="1"/>
     </row>
@@ -8599,13 +8650,13 @@
       <c r="B114" s="18">
         <v>94</v>
       </c>
-      <c r="C114" s="92"/>
-      <c r="D114" s="72"/>
-      <c r="E114" s="72"/>
-      <c r="F114" s="72"/>
-      <c r="G114" s="73"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="79"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="79"/>
+      <c r="G114" s="80"/>
       <c r="H114" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I114" s="1"/>
     </row>
@@ -8614,13 +8665,13 @@
       <c r="B115" s="19">
         <v>95</v>
       </c>
-      <c r="C115" s="92"/>
-      <c r="D115" s="72"/>
-      <c r="E115" s="72"/>
-      <c r="F115" s="72"/>
-      <c r="G115" s="73"/>
+      <c r="C115" s="99"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="79"/>
+      <c r="F115" s="79"/>
+      <c r="G115" s="80"/>
       <c r="H115" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I115" s="1"/>
     </row>
@@ -8629,13 +8680,13 @@
       <c r="B116" s="18">
         <v>96</v>
       </c>
-      <c r="C116" s="92"/>
-      <c r="D116" s="72"/>
-      <c r="E116" s="72"/>
-      <c r="F116" s="72"/>
-      <c r="G116" s="73"/>
+      <c r="C116" s="99"/>
+      <c r="D116" s="79"/>
+      <c r="E116" s="79"/>
+      <c r="F116" s="79"/>
+      <c r="G116" s="80"/>
       <c r="H116" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I116" s="1"/>
     </row>
@@ -8644,13 +8695,13 @@
       <c r="B117" s="19">
         <v>97</v>
       </c>
-      <c r="C117" s="92"/>
-      <c r="D117" s="72"/>
-      <c r="E117" s="72"/>
-      <c r="F117" s="72"/>
-      <c r="G117" s="73"/>
+      <c r="C117" s="99"/>
+      <c r="D117" s="79"/>
+      <c r="E117" s="79"/>
+      <c r="F117" s="79"/>
+      <c r="G117" s="80"/>
       <c r="H117" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I117" s="1"/>
     </row>
@@ -8659,13 +8710,13 @@
       <c r="B118" s="18">
         <v>98</v>
       </c>
-      <c r="C118" s="92"/>
-      <c r="D118" s="72"/>
-      <c r="E118" s="72"/>
-      <c r="F118" s="72"/>
-      <c r="G118" s="73"/>
+      <c r="C118" s="99"/>
+      <c r="D118" s="79"/>
+      <c r="E118" s="79"/>
+      <c r="F118" s="79"/>
+      <c r="G118" s="80"/>
       <c r="H118" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I118" s="1"/>
     </row>
@@ -8674,13 +8725,13 @@
       <c r="B119" s="19">
         <v>99</v>
       </c>
-      <c r="C119" s="92"/>
-      <c r="D119" s="72"/>
-      <c r="E119" s="72"/>
-      <c r="F119" s="72"/>
-      <c r="G119" s="73"/>
+      <c r="C119" s="99"/>
+      <c r="D119" s="79"/>
+      <c r="E119" s="79"/>
+      <c r="F119" s="79"/>
+      <c r="G119" s="80"/>
       <c r="H119" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I119" s="1"/>
     </row>
@@ -8689,13 +8740,13 @@
       <c r="B120" s="18">
         <v>100</v>
       </c>
-      <c r="C120" s="92"/>
-      <c r="D120" s="72"/>
-      <c r="E120" s="72"/>
-      <c r="F120" s="72"/>
-      <c r="G120" s="73"/>
+      <c r="C120" s="99"/>
+      <c r="D120" s="79"/>
+      <c r="E120" s="79"/>
+      <c r="F120" s="79"/>
+      <c r="G120" s="80"/>
       <c r="H120" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I120" s="1"/>
     </row>
@@ -9696,7 +9747,7 @@
       </c>
       <c r="C211" s="21"/>
       <c r="D211" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
@@ -9707,7 +9758,7 @@
     <row r="212" spans="1:9" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="21" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C212" s="21"/>
       <c r="D212" s="21" t="s">
@@ -9722,7 +9773,7 @@
     <row r="213" spans="1:9" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C213" s="21"/>
       <c r="D213" s="21" t="s">
@@ -9737,7 +9788,7 @@
     <row r="214" spans="1:9" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="21" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C214" s="21"/>
       <c r="D214" s="21" t="s">
@@ -10707,11 +10758,11 @@
   <sheetPr>
     <tabColor rgb="FFB6D7A8"/>
   </sheetPr>
-  <dimension ref="A1:U1000"/>
+  <dimension ref="A1:U989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="D25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10731,17 +10782,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="23">
         <f>Requisitos!C11</f>
         <v>44277</v>
@@ -10749,17 +10800,17 @@
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44278</v>
@@ -10767,17 +10818,17 @@
     </row>
     <row r="3" spans="1:21" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44279</v>
@@ -10785,17 +10836,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44280</v>
@@ -10803,17 +10854,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44281</v>
@@ -10835,18 +10886,18 @@
     </row>
     <row r="7" spans="1:21" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="78" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44283</v>
@@ -10868,16 +10919,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="47" t="s">
         <v>69</v>
       </c>
@@ -10938,13 +10989,13 @@
         <v>8</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H11" s="28">
         <v>4</v>
       </c>
       <c r="I11" s="28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>79</v>
@@ -11016,13 +11067,13 @@
         <v>14</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H13" s="28">
         <v>2</v>
       </c>
       <c r="I13" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="23">
@@ -11054,7 +11105,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="23">
@@ -11080,7 +11131,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H15" s="28">
         <v>2</v>
@@ -11090,8 +11141,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:21" ht="70.5" customHeight="1">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:21" s="24" customFormat="1" ht="70.5" customHeight="1">
       <c r="B16" s="19">
         <v>6</v>
       </c>
@@ -11108,13 +11158,13 @@
         <v>14</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H16" s="28">
         <v>8</v>
       </c>
       <c r="I16" s="28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J16" s="27" t="s">
         <v>86</v>
@@ -11228,13 +11278,13 @@
         <v>8</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H20" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="27"/>
     </row>
@@ -11256,13 +11306,13 @@
         <v>12</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H21" s="28">
         <v>4</v>
       </c>
       <c r="I21" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J21" s="27" t="s">
         <v>94</v>
@@ -11286,13 +11336,13 @@
         <v>10</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H22" s="28">
         <v>4</v>
       </c>
       <c r="I22" s="28">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J22" s="27" t="s">
         <v>96</v>
@@ -11316,7 +11366,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H23" s="28">
         <v>2</v>
@@ -11344,13 +11394,13 @@
         <v>14</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H24" s="28">
         <v>4</v>
       </c>
       <c r="I24" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J24" s="27" t="s">
         <v>99</v>
@@ -11432,7 +11482,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H27" s="28">
         <v>1</v>
@@ -11445,7 +11495,7 @@
     <row r="28" spans="1:10" ht="37.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C28" s="26">
         <v>44283</v>
@@ -11454,13 +11504,13 @@
         <v>102</v>
       </c>
       <c r="E28" s="27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H28" s="28">
         <v>1</v>
@@ -11473,7 +11523,7 @@
     <row r="29" spans="1:10" ht="37.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="19">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C29" s="26">
         <v>44283</v>
@@ -11482,10 +11532,10 @@
         <v>102</v>
       </c>
       <c r="E29" s="27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>37</v>
@@ -11501,7 +11551,7 @@
     <row r="30" spans="1:10" ht="37.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C30" s="26">
         <v>44283</v>
@@ -11510,38 +11560,38 @@
         <v>102</v>
       </c>
       <c r="E30" s="27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F30" s="55" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H30" s="28">
         <v>1</v>
       </c>
       <c r="I30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10" ht="37.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="19">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C31" s="26">
-        <v>44283</v>
+        <v>44290</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E31" s="27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F31" s="55" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>37</v>
@@ -11550,82 +11600,82 @@
         <v>1</v>
       </c>
       <c r="I31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10" ht="37.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="19">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C32" s="26">
-        <v>44283</v>
+        <v>44290</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E32" s="27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F32" s="55" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H32" s="28">
         <v>1</v>
       </c>
       <c r="I32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10" ht="37.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="19">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C33" s="26">
-        <v>44283</v>
+        <v>44290</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E33" s="27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F33" s="55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H33" s="28">
         <v>1</v>
       </c>
       <c r="I33" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" ht="37.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="19">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C34" s="26">
-        <v>44283</v>
+        <v>44290</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E34" s="27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F34" s="55" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>37</v>
@@ -11641,13 +11691,13 @@
     <row r="35" spans="1:10" ht="37.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="19">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C35" s="26">
-        <v>44283</v>
+        <v>44290</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E35" s="27">
         <v>10</v>
@@ -11656,661 +11706,487 @@
         <v>16</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H35" s="28">
         <v>1</v>
       </c>
       <c r="I35" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" ht="37.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="19">
-        <v>26</v>
-      </c>
-      <c r="C36" s="26">
-        <v>44283</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="27">
-        <v>11</v>
-      </c>
-      <c r="F36" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="28">
-        <v>1</v>
-      </c>
-      <c r="I36" s="28">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
       <c r="J36" s="27"/>
     </row>
     <row r="37" spans="1:10" ht="37.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="19">
-        <v>27</v>
-      </c>
-      <c r="C37" s="26">
-        <v>44283</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="27">
-        <v>12</v>
-      </c>
-      <c r="F37" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" s="28">
-        <v>1</v>
-      </c>
-      <c r="I37" s="28">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
       <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:10" ht="37.5" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="19">
-        <v>28</v>
-      </c>
-      <c r="C38" s="26">
-        <v>44283</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="27">
-        <v>13</v>
-      </c>
-      <c r="F38" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="28">
-        <v>1</v>
-      </c>
-      <c r="I38" s="28">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
       <c r="J38" s="27"/>
     </row>
     <row r="39" spans="1:10" ht="37.5" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="19">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
       <c r="F39" s="55"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="28">
-        <v>1</v>
-      </c>
-      <c r="I39" s="28">
-        <v>0</v>
-      </c>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
       <c r="J39" s="27"/>
     </row>
     <row r="40" spans="1:10" ht="37.5" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="19">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
       <c r="F40" s="55"/>
       <c r="G40" s="20"/>
-      <c r="H40" s="28">
-        <v>0</v>
-      </c>
-      <c r="I40" s="28">
-        <v>0</v>
-      </c>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
       <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:10" ht="37.5" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="19">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
       <c r="F41" s="55"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="28">
-        <v>0</v>
-      </c>
-      <c r="I41" s="28">
-        <v>0</v>
-      </c>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
       <c r="J41" s="27"/>
     </row>
     <row r="42" spans="1:10" ht="37.5" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="19">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C42" s="26"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
       <c r="F42" s="55"/>
       <c r="G42" s="20"/>
-      <c r="H42" s="28">
-        <v>0</v>
-      </c>
-      <c r="I42" s="28">
-        <v>0</v>
-      </c>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
       <c r="J42" s="27"/>
     </row>
     <row r="43" spans="1:10" ht="37.5" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="19">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
       <c r="F43" s="55"/>
       <c r="G43" s="20"/>
-      <c r="H43" s="28">
-        <v>0</v>
-      </c>
-      <c r="I43" s="28">
-        <v>0</v>
-      </c>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
       <c r="J43" s="27"/>
     </row>
     <row r="44" spans="1:10" ht="37.5" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="19">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C44" s="26"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
       <c r="F44" s="55"/>
       <c r="G44" s="20"/>
-      <c r="H44" s="28">
-        <v>0</v>
-      </c>
-      <c r="I44" s="28">
-        <v>0</v>
-      </c>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
       <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:10" ht="37.5" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="19">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
       <c r="F45" s="55"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="28">
-        <v>0</v>
-      </c>
-      <c r="I45" s="28">
-        <v>0</v>
-      </c>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
       <c r="J45" s="27"/>
     </row>
     <row r="46" spans="1:10" ht="37.5" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="19">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
       <c r="F46" s="55"/>
       <c r="G46" s="20"/>
-      <c r="H46" s="28">
-        <v>0</v>
-      </c>
-      <c r="I46" s="28">
-        <v>0</v>
-      </c>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
       <c r="J46" s="27"/>
     </row>
     <row r="47" spans="1:10" ht="37.5" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="19">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
       <c r="F47" s="55"/>
       <c r="G47" s="20"/>
-      <c r="H47" s="28">
-        <v>0</v>
-      </c>
-      <c r="I47" s="28">
-        <v>0</v>
-      </c>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
       <c r="J47" s="27"/>
     </row>
     <row r="48" spans="1:10" ht="37.5" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="19">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
       <c r="F48" s="55"/>
       <c r="G48" s="20"/>
-      <c r="H48" s="28">
-        <v>0</v>
-      </c>
-      <c r="I48" s="28">
-        <v>0</v>
-      </c>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
       <c r="J48" s="27"/>
     </row>
     <row r="49" spans="1:10" ht="37.5" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="19">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
       <c r="F49" s="55"/>
       <c r="G49" s="20"/>
-      <c r="H49" s="28">
-        <v>0</v>
-      </c>
-      <c r="I49" s="28">
-        <v>0</v>
-      </c>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
       <c r="J49" s="27"/>
     </row>
-    <row r="50" spans="1:10" ht="37.5" customHeight="1">
+    <row r="50" spans="1:10" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="19">
-        <v>40</v>
-      </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="28">
-        <v>0</v>
-      </c>
-      <c r="I50" s="28">
-        <v>0</v>
-      </c>
-      <c r="J50" s="27"/>
-    </row>
-    <row r="51" spans="1:10" ht="37.5" customHeight="1">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="G50" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" s="32">
+        <f t="shared" ref="H50:I50" si="1">SUM(H11:H49)</f>
+        <v>56</v>
+      </c>
+      <c r="I50" s="32">
+        <f t="shared" si="1"/>
+        <v>53.11</v>
+      </c>
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="19">
-        <v>41</v>
-      </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="28">
-        <v>0</v>
-      </c>
-      <c r="I51" s="28">
-        <v>0</v>
-      </c>
-      <c r="J51" s="27"/>
-    </row>
-    <row r="52" spans="1:10" ht="37.5" customHeight="1">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8">
+        <f>COUNTIFS(D11:D49, "&lt;&gt;"&amp;"")</f>
+        <v>25</v>
+      </c>
+      <c r="E51" s="21"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="8">
+        <f>COUNTIFS(G11:G49, "Concluído",D11:D49, "&lt;&gt;"&amp;"")</f>
+        <v>23</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="19">
-        <v>42</v>
-      </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="28">
-        <v>0</v>
-      </c>
-      <c r="I52" s="28">
-        <v>0</v>
-      </c>
-      <c r="J52" s="27"/>
-    </row>
-    <row r="53" spans="1:10" ht="37.5" customHeight="1">
+      <c r="B52" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="80"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="19">
-        <v>43</v>
-      </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="28">
-        <v>0</v>
-      </c>
-      <c r="I53" s="28">
-        <v>0</v>
-      </c>
-      <c r="J53" s="27"/>
-    </row>
-    <row r="54" spans="1:10" ht="37.5" customHeight="1">
+      <c r="B53" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="19">
-        <v>44</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="28">
-        <v>0</v>
-      </c>
-      <c r="I54" s="28">
-        <v>0</v>
-      </c>
-      <c r="J54" s="27"/>
-    </row>
-    <row r="55" spans="1:10" ht="37.5" customHeight="1">
+      <c r="B54" s="101" t="str">
+        <f>'Dados do Projeto'!B10</f>
+        <v>Guilherme Gabriel Silva Pereira</v>
+      </c>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="33">
+        <f>SUMIF($F$11:$F$49,'Dados do Projeto'!$B10,H$11:H$49)</f>
+        <v>10</v>
+      </c>
+      <c r="I54" s="33">
+        <f>SUMIF($F$11:$F$49,'Dados do Projeto'!$B10,I$11:I$49)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="19">
-        <v>45</v>
-      </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="28">
-        <v>0</v>
-      </c>
-      <c r="I55" s="28">
-        <v>0</v>
-      </c>
-      <c r="J55" s="27"/>
-    </row>
-    <row r="56" spans="1:10" ht="37.5" customHeight="1">
+      <c r="B55" s="101" t="str">
+        <f>'Dados do Projeto'!B11</f>
+        <v>Henrique Penna Forte Monteiro</v>
+      </c>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="33">
+        <f>SUMIF(F$11:F$49,'Dados do Projeto'!B11,H$11:H$49)</f>
+        <v>10</v>
+      </c>
+      <c r="I55" s="33">
+        <f>SUMIF($F$11:$F$49,'Dados do Projeto'!$B11,I$11:I$49)</f>
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="19">
-        <v>46</v>
-      </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="28">
-        <v>0</v>
-      </c>
-      <c r="I56" s="28">
-        <v>0</v>
-      </c>
-      <c r="J56" s="27"/>
-    </row>
-    <row r="57" spans="1:10" ht="37.5" customHeight="1">
+      <c r="B56" s="101" t="str">
+        <f>'Dados do Projeto'!B12</f>
+        <v>José Maurício Guimarães França</v>
+      </c>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="33">
+        <f>SUMIF(F$11:F$49,'Dados do Projeto'!B12,H$11:H$49)</f>
+        <v>8</v>
+      </c>
+      <c r="I56" s="33">
+        <f>SUMIF($F$11:$F$49,'Dados do Projeto'!$B12,I$11:I$49)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="19">
-        <v>47</v>
-      </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="28">
-        <v>0</v>
-      </c>
-      <c r="I57" s="28">
-        <v>0</v>
-      </c>
-      <c r="J57" s="27"/>
-    </row>
-    <row r="58" spans="1:10" ht="37.5" customHeight="1">
+      <c r="B57" s="101" t="str">
+        <f>'Dados do Projeto'!B13</f>
+        <v>Lucas Ângelo Oliveira Martins Rocha</v>
+      </c>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="33">
+        <f>SUMIF(F$11:F$49,'Dados do Projeto'!B13,H$11:H$49)</f>
+        <v>16</v>
+      </c>
+      <c r="I57" s="33">
+        <f>SUMIF($F$11:$F$49,'Dados do Projeto'!$B13,I$11:I$49)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="19">
-        <v>48</v>
-      </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="28">
-        <v>0</v>
-      </c>
-      <c r="I58" s="28">
-        <v>0</v>
-      </c>
-      <c r="J58" s="27"/>
-    </row>
-    <row r="59" spans="1:10" ht="37.5" customHeight="1">
+      <c r="B58" s="101" t="str">
+        <f>'Dados do Projeto'!B14</f>
+        <v>Victor Boaventura Goés Campos</v>
+      </c>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="33">
+        <f>SUMIF(F$11:F$49,'Dados do Projeto'!B14,H$11:H$49)</f>
+        <v>12</v>
+      </c>
+      <c r="I58" s="33">
+        <f>SUMIF($F$11:$F$49,'Dados do Projeto'!$B14,I$11:I$49)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="19">
-        <v>49</v>
-      </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="28">
-        <v>0</v>
-      </c>
-      <c r="I59" s="28">
-        <v>0</v>
-      </c>
-      <c r="J59" s="27"/>
-    </row>
-    <row r="60" spans="1:10" ht="37.5" customHeight="1">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="24"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="19">
-        <v>50</v>
-      </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="28">
-        <v>0</v>
-      </c>
-      <c r="I60" s="28">
-        <v>0</v>
-      </c>
-      <c r="J60" s="27"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="24"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="G61" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="H61" s="32">
-        <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
-        <v>62</v>
-      </c>
-      <c r="I61" s="32">
-        <f t="shared" si="1"/>
-        <v>18.61</v>
-      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
       <c r="J61" s="24"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8">
-        <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>28</v>
-      </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="8">
-        <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>11</v>
-      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="24"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="73"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="24"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I64" s="25" t="s">
-        <v>22</v>
-      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="24"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="93" t="str">
-        <f>'Dados do Projeto'!B10</f>
-        <v>Guilherme Gabriel Silva Pereira</v>
-      </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="33">
-        <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
-        <v>12</v>
-      </c>
-      <c r="I65" s="33">
-        <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
-        <v>0</v>
-      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="24"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="93" t="str">
-        <f>'Dados do Projeto'!B11</f>
-        <v>Henrique Penna Forte Monteiro</v>
-      </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="33">
-        <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
-        <v>11</v>
-      </c>
-      <c r="I66" s="33">
-        <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B11,I$11:I$60)</f>
-        <v>1.61</v>
-      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="24"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="93" t="str">
-        <f>'Dados do Projeto'!B12</f>
-        <v>José Maurício Guimarães França</v>
-      </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="33">
-        <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
-        <v>8</v>
-      </c>
-      <c r="I67" s="33">
-        <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B12,I$11:I$60)</f>
-        <v>1</v>
-      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="24"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="93" t="str">
-        <f>'Dados do Projeto'!B13</f>
-        <v>Lucas Ângelo Oliveira Martins Rocha</v>
-      </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="33">
-        <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
-        <v>17</v>
-      </c>
-      <c r="I68" s="33">
-        <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B13,I$11:I$60)</f>
-        <v>9</v>
-      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="24"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="93" t="str">
-        <f>'Dados do Projeto'!B14</f>
-        <v>Victor Boaventura Goés Campos</v>
-      </c>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="33">
-        <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
-        <v>13</v>
-      </c>
-      <c r="I69" s="33">
-        <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B14,I$11:I$60)</f>
-        <v>7</v>
-      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="24"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
@@ -12516,8 +12392,9 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="5"/>
+      <c r="G90" s="4"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="24"/>
@@ -12526,8 +12403,9 @@
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="G91" s="4"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="24"/>
@@ -12536,8 +12414,9 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="5"/>
+      <c r="G92" s="4"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="24"/>
@@ -12546,8 +12425,9 @@
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="G93" s="1"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="5"/>
+      <c r="G93" s="4"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="24"/>
@@ -12556,7 +12436,8 @@
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="5"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -12570,129 +12451,25 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="24"/>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="24"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="24"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="24"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="24"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="24"/>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="5"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="24"/>
-    </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="5"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="24"/>
-    </row>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="5"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="24"/>
-    </row>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="5"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="24"/>
-    </row>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="5"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="24"/>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="6"/>
-    </row>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="108" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1"/>
+      <c r="J95" s="6"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>
     <row r="115" ht="15.75" customHeight="1"/>
@@ -13570,22 +13347,11 @@
     <row r="987" ht="15.75" customHeight="1"/>
     <row r="988" ht="15.75" customHeight="1"/>
     <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="B10:J49" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="14">
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:J3"/>
@@ -13593,70 +13359,45 @@
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B56:G56"/>
   </mergeCells>
-  <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="224" priority="13">
-      <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="223" priority="14">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="222" priority="15">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="221" priority="16">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="220" priority="17">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F60">
+  <conditionalFormatting sqref="F11:F49">
     <cfRule type="containsBlanks" dxfId="219" priority="18">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C60">
+  <conditionalFormatting sqref="C11:C49">
     <cfRule type="expression" dxfId="218" priority="19">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E21 F11:F49">
     <cfRule type="expression" dxfId="217" priority="7">
-      <formula>NOT(ISERROR(SEARCH(($B$65),(E21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(($B$54),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E21 F11:F49">
     <cfRule type="expression" dxfId="216" priority="8">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(($B$55),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E21 F11:F49">
     <cfRule type="expression" dxfId="215" priority="9">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(($B$56),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E21 F11:F49">
     <cfRule type="expression" dxfId="214" priority="10">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(($B$57),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E21 F11:F49">
     <cfRule type="expression" dxfId="213" priority="11">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(($B$58),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
@@ -13666,27 +13407,27 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="211" priority="1">
-      <formula>NOT(ISERROR(SEARCH(($B$65),(D21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(($B$54),(D21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="210" priority="2">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(D21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(($B$55),(D21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="209" priority="3">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(D21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(($B$56),(D21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="208" priority="4">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(D21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(($B$57),(D21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="207" priority="5">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(D21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(($B$58),(D21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
@@ -13695,14 +13436,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11 C13:C60 C12" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>$K$1:$K$14</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:J10 B10:E10" xr:uid="{5AC84FC4-F073-43D4-8471-048A6556C067}">
       <formula1>"'Dados do Projeto'!B10:E14"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F60" xr:uid="{63C4941D-7DD5-4A98-B5EA-061E5EE262E1}">
-      <formula1>$B$65:$B$69</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11:C49" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>$K$1:$K$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F49" xr:uid="{63C4941D-7DD5-4A98-B5EA-061E5EE262E1}">
+      <formula1>$B$54:$B$58</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -13714,7 +13455,7 @@
           <x14:formula1>
             <xm:f>'Dados do Projeto'!$M$100:$M$103</xm:f>
           </x14:formula1>
-          <xm:sqref>G11:G60</xm:sqref>
+          <xm:sqref>G11:G49</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13732,9 +13473,9 @@
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13742,8 +13483,8 @@
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
     <col min="4" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="40.85546875" customWidth="1"/>
@@ -13752,17 +13493,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="23">
         <f>Requisitos!C12</f>
         <v>44291</v>
@@ -13770,17 +13511,17 @@
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44292</v>
@@ -13788,17 +13529,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44293</v>
@@ -13806,17 +13547,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44294</v>
@@ -13824,17 +13565,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44295</v>
@@ -13857,18 +13598,18 @@
     </row>
     <row r="7" spans="1:21" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="78" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44297</v>
@@ -13891,16 +13632,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
+      <c r="B9" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="47" t="s">
         <v>69</v>
       </c>
@@ -13948,13 +13689,23 @@
       <c r="B11" s="19">
         <v>1</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="C11" s="26">
+        <v>44296</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="27">
+        <v>10</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H11" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="28">
         <v>0</v>
@@ -13980,16 +13731,26 @@
       <c r="B12" s="19">
         <v>2</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="C12" s="26">
+        <v>44296</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="27">
+        <v>10</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H12" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="23">
@@ -14002,16 +13763,26 @@
       <c r="B13" s="19">
         <v>3</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="C13" s="26">
+        <v>44296</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="27">
+        <v>10</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H13" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="23">
@@ -14024,16 +13795,26 @@
       <c r="B14" s="19">
         <v>4</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="26">
+        <v>44296</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="27">
+        <v>10</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H14" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="29"/>
       <c r="K14" s="23">
@@ -14046,16 +13827,26 @@
       <c r="B15" s="19">
         <v>5</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="C15" s="26">
+        <v>44296</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="27">
+        <v>10</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H15" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="23"/>
@@ -14065,51 +13856,81 @@
       <c r="B16" s="19">
         <v>6</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="C16" s="26">
+        <v>44296</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="27">
+        <v>10</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="23"/>
     </row>
-    <row r="17" spans="1:11" ht="37.5" customHeight="1">
+    <row r="17" spans="1:15" ht="37.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="19">
         <v>7</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="C17" s="26">
+        <v>44303</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="20">
+        <v>1</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H17" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="28">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="23"/>
     </row>
-    <row r="18" spans="1:11" ht="37.5" customHeight="1">
+    <row r="18" spans="1:15" ht="37.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="19">
         <v>8</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="C18" s="26">
+        <v>44296</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="20">
+        <v>10</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="H18" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="28">
         <v>0</v>
@@ -14117,189 +13938,301 @@
       <c r="J18" s="27"/>
       <c r="K18" s="23"/>
     </row>
-    <row r="19" spans="1:11" ht="37.5" customHeight="1">
+    <row r="19" spans="1:15" ht="37.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="19">
         <v>9</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="C19" s="26">
+        <v>44303</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="20">
+        <v>2</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H19" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="23"/>
     </row>
-    <row r="20" spans="1:11" ht="37.5" customHeight="1">
+    <row r="20" spans="1:15" ht="37.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="19">
         <v>10</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="C20" s="26">
+        <v>44303</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="20">
+        <v>8</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H20" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I20" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="23"/>
     </row>
-    <row r="21" spans="1:11" ht="37.5" customHeight="1">
+    <row r="21" spans="1:15" ht="37.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="19">
         <v>11</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="C21" s="26">
+        <v>44296</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="20">
+        <v>3</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="H21" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="23"/>
     </row>
-    <row r="22" spans="1:11" ht="37.5" customHeight="1">
+    <row r="22" spans="1:15" ht="37.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="19">
         <v>12</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="C22" s="26">
+        <v>44303</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="20">
+        <v>3</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H22" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="23"/>
     </row>
-    <row r="23" spans="1:11" ht="37.5" customHeight="1">
+    <row r="23" spans="1:15" ht="37.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="19">
         <v>13</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="C23" s="26">
+        <v>44303</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="20">
+        <v>7</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="H23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="28">
         <v>0</v>
       </c>
-      <c r="J23" s="27"/>
+      <c r="J23" s="64"/>
       <c r="K23" s="23"/>
-    </row>
-    <row r="24" spans="1:11" ht="37.5" customHeight="1">
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+    </row>
+    <row r="24" spans="1:15" ht="37.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="19">
         <v>14</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="C24" s="26">
+        <v>44303</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="20">
+        <v>7</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H24" s="28">
-        <v>0</v>
-      </c>
-      <c r="I24" s="28">
-        <v>0</v>
-      </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="23"/>
-    </row>
-    <row r="25" spans="1:11" ht="37.5" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="63">
+        <v>1</v>
+      </c>
+      <c r="J24" s="62"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="61"/>
+    </row>
+    <row r="25" spans="1:15" ht="37.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="19">
         <v>15</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="C25" s="26">
+        <v>44296</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H25" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25" s="28">
         <v>0</v>
       </c>
-      <c r="J25" s="27"/>
+      <c r="J25" s="65"/>
       <c r="K25" s="23"/>
-    </row>
-    <row r="26" spans="1:11" ht="37.5" customHeight="1">
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+    </row>
+    <row r="26" spans="1:15" ht="37.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="19">
         <v>16</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="C26" s="26">
+        <v>44296</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H26" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="27"/>
       <c r="K26" s="23"/>
-    </row>
-    <row r="27" spans="1:11" ht="37.5" customHeight="1">
+      <c r="N26" s="61"/>
+    </row>
+    <row r="27" spans="1:15" ht="37.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="19">
         <v>17</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="C27" s="26">
+        <v>44303</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H27" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" s="27"/>
       <c r="K27" s="23"/>
     </row>
-    <row r="28" spans="1:11" ht="37.5" customHeight="1">
+    <row r="28" spans="1:15" ht="37.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="19">
         <v>18</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="C28" s="26">
+        <v>44303</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="28">
         <v>0</v>
@@ -14307,7 +14240,7 @@
       <c r="J28" s="27"/>
       <c r="K28" s="23"/>
     </row>
-    <row r="29" spans="1:11" ht="37.5" customHeight="1">
+    <row r="29" spans="1:15" ht="37.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="19">
         <v>19</v>
@@ -14317,15 +14250,11 @@
       <c r="E29" s="30"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="28">
-        <v>0</v>
-      </c>
-      <c r="I29" s="28">
-        <v>0</v>
-      </c>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="27"/>
     </row>
-    <row r="30" spans="1:11" ht="37.5" customHeight="1">
+    <row r="30" spans="1:15" ht="37.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="19">
         <v>20</v>
@@ -14335,15 +14264,11 @@
       <c r="E30" s="30"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="28">
-        <v>0</v>
-      </c>
-      <c r="I30" s="28">
-        <v>0</v>
-      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:11" ht="37.5" customHeight="1">
+    <row r="31" spans="1:15" ht="37.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="19">
         <v>21</v>
@@ -14353,15 +14278,11 @@
       <c r="E31" s="30"/>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
-      <c r="H31" s="28">
-        <v>0</v>
-      </c>
-      <c r="I31" s="28">
-        <v>0</v>
-      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:11" ht="37.5" customHeight="1">
+    <row r="32" spans="1:15" ht="37.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="19">
         <v>22</v>
@@ -14371,12 +14292,8 @@
       <c r="E32" s="30"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="28">
-        <v>0</v>
-      </c>
-      <c r="I32" s="28">
-        <v>0</v>
-      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10" ht="37.5" customHeight="1">
@@ -14389,12 +14306,8 @@
       <c r="E33" s="30"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="28">
-        <v>0</v>
-      </c>
-      <c r="I33" s="28">
-        <v>0</v>
-      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" ht="37.5" customHeight="1">
@@ -14407,12 +14320,8 @@
       <c r="E34" s="30"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
-      <c r="H34" s="28">
-        <v>0</v>
-      </c>
-      <c r="I34" s="28">
-        <v>0</v>
-      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" ht="37.5" customHeight="1">
@@ -14425,12 +14334,8 @@
       <c r="E35" s="30"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
-      <c r="H35" s="28">
-        <v>0</v>
-      </c>
-      <c r="I35" s="28">
-        <v>0</v>
-      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
       <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" ht="37.5" customHeight="1">
@@ -14443,12 +14348,8 @@
       <c r="E36" s="30"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
-      <c r="H36" s="28">
-        <v>0</v>
-      </c>
-      <c r="I36" s="28">
-        <v>0</v>
-      </c>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
       <c r="J36" s="27"/>
     </row>
     <row r="37" spans="1:10" ht="37.5" customHeight="1">
@@ -14461,12 +14362,8 @@
       <c r="E37" s="30"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
-      <c r="H37" s="28">
-        <v>0</v>
-      </c>
-      <c r="I37" s="28">
-        <v>0</v>
-      </c>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
       <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:10" ht="37.5" customHeight="1">
@@ -14479,12 +14376,8 @@
       <c r="E38" s="30"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
-      <c r="H38" s="28">
-        <v>0</v>
-      </c>
-      <c r="I38" s="28">
-        <v>0</v>
-      </c>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
       <c r="J38" s="27"/>
     </row>
     <row r="39" spans="1:10" ht="37.5" customHeight="1">
@@ -14497,12 +14390,8 @@
       <c r="E39" s="30"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="28">
-        <v>0</v>
-      </c>
-      <c r="I39" s="28">
-        <v>0</v>
-      </c>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
       <c r="J39" s="27"/>
     </row>
     <row r="40" spans="1:10" ht="37.5" customHeight="1">
@@ -14515,12 +14404,8 @@
       <c r="E40" s="30"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
-      <c r="H40" s="28">
-        <v>0</v>
-      </c>
-      <c r="I40" s="28">
-        <v>0</v>
-      </c>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
       <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:10" ht="37.5" customHeight="1">
@@ -14533,12 +14418,8 @@
       <c r="E41" s="30"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="28">
-        <v>0</v>
-      </c>
-      <c r="I41" s="28">
-        <v>0</v>
-      </c>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
       <c r="J41" s="27"/>
     </row>
     <row r="42" spans="1:10" ht="37.5" customHeight="1">
@@ -14551,12 +14432,8 @@
       <c r="E42" s="30"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
-      <c r="H42" s="28">
-        <v>0</v>
-      </c>
-      <c r="I42" s="28">
-        <v>0</v>
-      </c>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
       <c r="J42" s="27"/>
     </row>
     <row r="43" spans="1:10" ht="37.5" customHeight="1">
@@ -14569,12 +14446,8 @@
       <c r="E43" s="30"/>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
-      <c r="H43" s="28">
-        <v>0</v>
-      </c>
-      <c r="I43" s="28">
-        <v>0</v>
-      </c>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
       <c r="J43" s="27"/>
     </row>
     <row r="44" spans="1:10" ht="37.5" customHeight="1">
@@ -14587,12 +14460,8 @@
       <c r="E44" s="30"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
-      <c r="H44" s="28">
-        <v>0</v>
-      </c>
-      <c r="I44" s="28">
-        <v>0</v>
-      </c>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
       <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:10" ht="37.5" customHeight="1">
@@ -14605,12 +14474,8 @@
       <c r="E45" s="30"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="28">
-        <v>0</v>
-      </c>
-      <c r="I45" s="28">
-        <v>0</v>
-      </c>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
       <c r="J45" s="27"/>
     </row>
     <row r="46" spans="1:10" ht="37.5" customHeight="1">
@@ -14623,12 +14488,8 @@
       <c r="E46" s="30"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
-      <c r="H46" s="28">
-        <v>0</v>
-      </c>
-      <c r="I46" s="28">
-        <v>0</v>
-      </c>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
       <c r="J46" s="27"/>
     </row>
     <row r="47" spans="1:10" ht="37.5" customHeight="1">
@@ -14641,12 +14502,8 @@
       <c r="E47" s="30"/>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
-      <c r="H47" s="28">
-        <v>0</v>
-      </c>
-      <c r="I47" s="28">
-        <v>0</v>
-      </c>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
       <c r="J47" s="27"/>
     </row>
     <row r="48" spans="1:10" ht="37.5" customHeight="1">
@@ -14659,12 +14516,8 @@
       <c r="E48" s="30"/>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
-      <c r="H48" s="28">
-        <v>0</v>
-      </c>
-      <c r="I48" s="28">
-        <v>0</v>
-      </c>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
       <c r="J48" s="27"/>
     </row>
     <row r="49" spans="1:10" ht="37.5" customHeight="1">
@@ -14677,12 +14530,8 @@
       <c r="E49" s="30"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
-      <c r="H49" s="28">
-        <v>0</v>
-      </c>
-      <c r="I49" s="28">
-        <v>0</v>
-      </c>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
       <c r="J49" s="27"/>
     </row>
     <row r="50" spans="1:10" ht="37.5" customHeight="1">
@@ -14695,12 +14544,8 @@
       <c r="E50" s="30"/>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
-      <c r="H50" s="28">
-        <v>0</v>
-      </c>
-      <c r="I50" s="28">
-        <v>0</v>
-      </c>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
       <c r="J50" s="27"/>
     </row>
     <row r="51" spans="1:10" ht="37.5" customHeight="1">
@@ -14713,12 +14558,8 @@
       <c r="E51" s="30"/>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
-      <c r="H51" s="28">
-        <v>0</v>
-      </c>
-      <c r="I51" s="28">
-        <v>0</v>
-      </c>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
       <c r="J51" s="27"/>
     </row>
     <row r="52" spans="1:10" ht="37.5" customHeight="1">
@@ -14731,12 +14572,8 @@
       <c r="E52" s="30"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
-      <c r="H52" s="28">
-        <v>0</v>
-      </c>
-      <c r="I52" s="28">
-        <v>0</v>
-      </c>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
       <c r="J52" s="27"/>
     </row>
     <row r="53" spans="1:10" ht="37.5" customHeight="1">
@@ -14749,12 +14586,8 @@
       <c r="E53" s="30"/>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="28">
-        <v>0</v>
-      </c>
-      <c r="I53" s="28">
-        <v>0</v>
-      </c>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
       <c r="J53" s="27"/>
     </row>
     <row r="54" spans="1:10" ht="37.5" customHeight="1">
@@ -14767,12 +14600,8 @@
       <c r="E54" s="30"/>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
-      <c r="H54" s="28">
-        <v>0</v>
-      </c>
-      <c r="I54" s="28">
-        <v>0</v>
-      </c>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
       <c r="J54" s="27"/>
     </row>
     <row r="55" spans="1:10" ht="37.5" customHeight="1">
@@ -14785,12 +14614,8 @@
       <c r="E55" s="30"/>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
-      <c r="H55" s="28">
-        <v>0</v>
-      </c>
-      <c r="I55" s="28">
-        <v>0</v>
-      </c>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
       <c r="J55" s="27"/>
     </row>
     <row r="56" spans="1:10" ht="37.5" customHeight="1">
@@ -14803,12 +14628,8 @@
       <c r="E56" s="30"/>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
-      <c r="H56" s="28">
-        <v>0</v>
-      </c>
-      <c r="I56" s="28">
-        <v>0</v>
-      </c>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
       <c r="J56" s="27"/>
     </row>
     <row r="57" spans="1:10" ht="37.5" customHeight="1">
@@ -14821,12 +14642,8 @@
       <c r="E57" s="30"/>
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
-      <c r="H57" s="28">
-        <v>0</v>
-      </c>
-      <c r="I57" s="28">
-        <v>0</v>
-      </c>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
       <c r="J57" s="27"/>
     </row>
     <row r="58" spans="1:10" ht="37.5" customHeight="1">
@@ -14839,12 +14656,8 @@
       <c r="E58" s="30"/>
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
-      <c r="H58" s="28">
-        <v>0</v>
-      </c>
-      <c r="I58" s="28">
-        <v>0</v>
-      </c>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
       <c r="J58" s="27"/>
     </row>
     <row r="59" spans="1:10" ht="37.5" customHeight="1">
@@ -14857,12 +14670,8 @@
       <c r="E59" s="30"/>
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
-      <c r="H59" s="28">
-        <v>0</v>
-      </c>
-      <c r="I59" s="28">
-        <v>0</v>
-      </c>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
       <c r="J59" s="27"/>
     </row>
     <row r="60" spans="1:10" ht="37.5" customHeight="1">
@@ -14875,12 +14684,8 @@
       <c r="E60" s="30"/>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
-      <c r="H60" s="28">
-        <v>0</v>
-      </c>
-      <c r="I60" s="28">
-        <v>0</v>
-      </c>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
       <c r="J60" s="27"/>
     </row>
     <row r="61" spans="1:10" ht="37.5" customHeight="1">
@@ -14893,12 +14698,8 @@
       <c r="E61" s="30"/>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
-      <c r="H61" s="28">
-        <v>0</v>
-      </c>
-      <c r="I61" s="28">
-        <v>0</v>
-      </c>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
       <c r="J61" s="27"/>
     </row>
     <row r="62" spans="1:10" ht="37.5" customHeight="1">
@@ -14911,12 +14712,8 @@
       <c r="E62" s="30"/>
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
-      <c r="H62" s="28">
-        <v>0</v>
-      </c>
-      <c r="I62" s="28">
-        <v>0</v>
-      </c>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
       <c r="J62" s="27"/>
     </row>
     <row r="63" spans="1:10" ht="37.5" customHeight="1">
@@ -14929,12 +14726,8 @@
       <c r="E63" s="30"/>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
-      <c r="H63" s="28">
-        <v>0</v>
-      </c>
-      <c r="I63" s="28">
-        <v>0</v>
-      </c>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
       <c r="J63" s="27"/>
     </row>
     <row r="64" spans="1:10" ht="37.5" customHeight="1">
@@ -14947,12 +14740,8 @@
       <c r="E64" s="30"/>
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
-      <c r="H64" s="28">
-        <v>0</v>
-      </c>
-      <c r="I64" s="28">
-        <v>0</v>
-      </c>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
       <c r="J64" s="27"/>
     </row>
     <row r="65" spans="1:10" ht="37.5" customHeight="1">
@@ -14965,12 +14754,8 @@
       <c r="E65" s="30"/>
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
-      <c r="H65" s="28">
-        <v>0</v>
-      </c>
-      <c r="I65" s="28">
-        <v>0</v>
-      </c>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
       <c r="J65" s="27"/>
     </row>
     <row r="66" spans="1:10" ht="37.5" customHeight="1">
@@ -14983,12 +14768,8 @@
       <c r="E66" s="30"/>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
-      <c r="H66" s="28">
-        <v>0</v>
-      </c>
-      <c r="I66" s="28">
-        <v>0</v>
-      </c>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
       <c r="J66" s="27"/>
     </row>
     <row r="67" spans="1:10" ht="37.5" customHeight="1">
@@ -15001,12 +14782,8 @@
       <c r="E67" s="30"/>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
-      <c r="H67" s="28">
-        <v>0</v>
-      </c>
-      <c r="I67" s="28">
-        <v>0</v>
-      </c>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
       <c r="J67" s="27"/>
     </row>
     <row r="68" spans="1:10" ht="37.5" customHeight="1">
@@ -15019,12 +14796,8 @@
       <c r="E68" s="30"/>
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
-      <c r="H68" s="28">
-        <v>0</v>
-      </c>
-      <c r="I68" s="28">
-        <v>0</v>
-      </c>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
       <c r="J68" s="27"/>
     </row>
     <row r="69" spans="1:10" ht="37.5" customHeight="1">
@@ -15037,12 +14810,8 @@
       <c r="E69" s="30"/>
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
-      <c r="H69" s="28">
-        <v>0</v>
-      </c>
-      <c r="I69" s="28">
-        <v>0</v>
-      </c>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
       <c r="J69" s="27"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
@@ -15052,15 +14821,15 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="31" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H70" s="32">
         <f t="shared" ref="H70:I70" si="1">SUM(H11:H60)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I70" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="J70" s="24"/>
     </row>
@@ -15070,13 +14839,13 @@
       <c r="C71" s="8"/>
       <c r="D71" s="8">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -15084,29 +14853,29 @@
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="73"/>
+      <c r="B72" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="80"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="73"/>
+      <c r="B73" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="80"/>
       <c r="H73" s="25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I73" s="25" t="s">
         <v>22</v>
@@ -15114,102 +14883,102 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="93" t="str">
+      <c r="B74" s="101" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="73"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="80"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="93" t="str">
+      <c r="B75" s="101" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="73"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="80"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I75" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B11,I$11:I$60)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="93" t="str">
+      <c r="B76" s="101" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="73"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="80"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I76" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B12,I$11:I$60)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="93" t="str">
+      <c r="B77" s="101" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="73"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="80"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I77" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B13,I$11:I$60)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="93" t="str">
+      <c r="B78" s="101" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="73"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="80"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I78" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B14,I$11:I$60)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
@@ -16653,14 +16422,27 @@
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11:C69" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$K$1:$K$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F69" xr:uid="{6AA0784D-B6C5-492E-8BFA-9F2500AF4B19}">
+      <formula1>$B$74:$B$78</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C6A658A2-4B73-48F6-857A-26EA4FBF4581}">
+          <x14:formula1>
+            <xm:f>'Dados do Projeto'!$M$100:$M$103</xm:f>
+          </x14:formula1>
+          <xm:sqref>G11:G69</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -16695,17 +16477,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="21.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="23">
         <f>Requisitos!C13</f>
         <v>44305</v>
@@ -16713,17 +16495,17 @@
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44306</v>
@@ -16731,17 +16513,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44307</v>
@@ -16749,17 +16531,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44308</v>
@@ -16767,17 +16549,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44309</v>
@@ -16800,18 +16582,18 @@
     </row>
     <row r="7" spans="1:21" ht="21.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="78" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44311</v>
@@ -16834,16 +16616,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="94" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
+      <c r="B9" s="102" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="48" t="s">
         <v>69</v>
       </c>
@@ -17819,7 +17601,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="31" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -17851,29 +17633,29 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="73"/>
+      <c r="B63" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="80"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="73"/>
+      <c r="B64" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="80"/>
       <c r="H64" s="25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I64" s="25" t="s">
         <v>22</v>
@@ -17881,15 +17663,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="93" t="str">
+      <c r="B65" s="101" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="73"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="80"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -17901,15 +17683,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="93" t="str">
+      <c r="B66" s="101" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="73"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="80"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -17921,15 +17703,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="93" t="str">
+      <c r="B67" s="101" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="73"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="80"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -17941,15 +17723,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="93" t="str">
+      <c r="B68" s="101" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="80"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -17961,15 +17743,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="93" t="str">
+      <c r="B69" s="101" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="73"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="80"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -19670,17 +19452,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="23">
         <f>Requisitos!C14</f>
         <v>44319</v>
@@ -19688,17 +19470,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44320</v>
@@ -19706,17 +19488,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44321</v>
@@ -19724,17 +19506,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44322</v>
@@ -19742,17 +19524,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44323</v>
@@ -19775,18 +19557,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="78" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44325</v>
@@ -19809,16 +19591,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
+      <c r="B9" s="102" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="48" t="s">
         <v>69</v>
       </c>
@@ -20808,7 +20590,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="31" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -20840,29 +20622,29 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="73"/>
+      <c r="B63" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="80"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="73"/>
+      <c r="B64" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="80"/>
       <c r="H64" s="25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I64" s="25" t="s">
         <v>22</v>
@@ -20870,15 +20652,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="93" t="str">
+      <c r="B65" s="101" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="73"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="80"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -20890,15 +20672,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="93" t="str">
+      <c r="B66" s="101" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="73"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="80"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -20910,15 +20692,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="93" t="str">
+      <c r="B67" s="101" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="73"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="80"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -20930,15 +20712,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="93" t="str">
+      <c r="B68" s="101" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="80"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -20950,15 +20732,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="93" t="str">
+      <c r="B69" s="101" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="73"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="80"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -22522,17 +22304,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="23">
         <f>Requisitos!C15</f>
         <v>44333</v>
@@ -22540,17 +22322,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44334</v>
@@ -22558,17 +22340,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44335</v>
@@ -22576,17 +22358,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44336</v>
@@ -22594,17 +22376,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44337</v>
@@ -22627,18 +22409,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="78" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44339</v>
@@ -22661,16 +22443,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="94" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
+      <c r="B9" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="48" t="s">
         <v>69</v>
       </c>
@@ -23660,7 +23442,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="31" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -23692,29 +23474,29 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="73"/>
+      <c r="B63" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="80"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="73"/>
+      <c r="B64" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="80"/>
       <c r="H64" s="25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I64" s="25" t="s">
         <v>22</v>
@@ -23722,15 +23504,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="93" t="str">
+      <c r="B65" s="101" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="73"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="80"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -23742,15 +23524,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="93" t="str">
+      <c r="B66" s="101" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="73"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="80"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -23762,15 +23544,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="93" t="str">
+      <c r="B67" s="101" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="73"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="80"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -23782,15 +23564,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="93" t="str">
+      <c r="B68" s="101" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="80"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -23802,15 +23584,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="93" t="str">
+      <c r="B69" s="101" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="73"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="80"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -25374,34 +25156,34 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="23">
         <v>44347</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44348</v>
@@ -25409,17 +25191,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44349</v>
@@ -25427,17 +25209,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44350</v>
@@ -25445,17 +25227,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44351</v>
@@ -25478,18 +25260,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="78" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44353</v>
@@ -25512,16 +25294,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
+      <c r="B9" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="48" t="s">
         <v>69</v>
       </c>
@@ -26511,7 +26293,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="31" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -26543,29 +26325,29 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="73"/>
+      <c r="B63" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="80"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="73"/>
+      <c r="B64" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="80"/>
       <c r="H64" s="25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I64" s="25" t="s">
         <v>22</v>
@@ -26573,15 +26355,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="93" t="str">
+      <c r="B65" s="101" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="73"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="80"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -26593,15 +26375,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="93" t="str">
+      <c r="B66" s="101" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="73"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="80"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -26613,15 +26395,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="93" t="str">
+      <c r="B67" s="101" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="73"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="80"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -26633,15 +26415,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="93" t="str">
+      <c r="B68" s="101" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="80"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -26653,15 +26435,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="93" t="str">
+      <c r="B69" s="101" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="73"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="80"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -28199,6 +27981,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009407E1920DA0244181F4A5E68B236D03" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f93176ac4c7b0499f4c793ef7a260ff7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d841e270-8762-48f1-af0f-95d6f11e59ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e08dd84ed401fbaad7197cdcae1eb72f" ns2:_="">
     <xsd:import namespace="d841e270-8762-48f1-af0f-95d6f11e59ea"/>
@@ -28356,29 +28153,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22A15D46-B256-4EDE-A7D0-6A4D07704ACB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FC0B413-BAC6-4036-8CEB-C5632804ED21}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FC0B413-BAC6-4036-8CEB-C5632804ED21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AE7633-9F17-461A-8B68-7FAC2F42E9FA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AE7633-9F17-461A-8B68-7FAC2F42E9FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22A15D46-B256-4EDE-A7D0-6A4D07704ACB}"/>
 </file>
--- a/Artefatos/Sprints - ParkIO.xlsx
+++ b/Artefatos/Sprints - ParkIO.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24012"/>
   <workbookPr autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="1179" documentId="11_713659AC415AC9C2D79A1EC9FA76B4759D2182B7" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B7EDFFCC-F4F9-4147-A494-8DA69F07EF7C}"/>
+  <xr:revisionPtr revIDLastSave="1333" documentId="11_713659AC415AC9C2D79A1EC9FA76B4759D2182B7" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{69374BD6-8506-4AF4-8976-C49F9C20B1C5}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="157">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -581,9 +581,6 @@
     <t>Os usuários de qualquer tipo devem ser capazes de fazer login.</t>
   </si>
   <si>
-    <t>Pendente</t>
-  </si>
-  <si>
     <t>Os usuários de qualquer tipo devem selecionar uma portaria para utilizar o sistema.</t>
   </si>
   <si>
@@ -600,6 +597,9 @@
   </si>
   <si>
     <t>PROGRESSO</t>
+  </si>
+  <si>
+    <t>Pendente</t>
   </si>
   <si>
     <t>Departamento de Engenharia de Software e Sistemas de Informação</t>
@@ -765,8 +765,7 @@
 apartamento.</t>
   </si>
   <si>
-    <t>Criar feature para listagem de
- portarias</t>
+    <t>Criar frontend do cadastro e lista de portarias</t>
   </si>
   <si>
     <t>Criar frontend da página de remover veículo.</t>
@@ -785,7 +784,7 @@
   </si>
   <si>
     <t>Criar backend página de 
-cadastro de portarias</t>
+cadastro e lista de portarias</t>
   </si>
   <si>
     <t>Atualizar e corrigir o artefato de Documentação</t>
@@ -807,6 +806,69 @@
   </si>
   <si>
     <t xml:space="preserve">SPRINT #3 </t>
+  </si>
+  <si>
+    <t>Fazer o frontend da página de veículos reportados</t>
+  </si>
+  <si>
+    <t>É O WIREFRAME 27 do Adobe XD.</t>
+  </si>
+  <si>
+    <t>Fazer o frontend (modal) do reportar</t>
+  </si>
+  <si>
+    <t>É O WIREFRAME 10 e 15 do Adobe XD. Lembrando que esse mesmo botão "Reportar" aparece dentro botão "Atualizar" do wireframe 13. Favor então, adicionar ações para os botões "Reportar" dos wireframes 15 e 13 abrir o modal do wireframe 10.</t>
+  </si>
+  <si>
+    <t>Fazer o backend de "Reportar"</t>
+  </si>
+  <si>
+    <t>Lembrando que o botão "Reportar" aparece nos wireframes 10 e 15, e eles devem enviar os dados para o modal de reportar do wireframe 10.</t>
+  </si>
+  <si>
+    <t>Criar a interface de usuário da página de veículos reportados</t>
+  </si>
+  <si>
+    <t>É DO WIREFRAME 27 do Adobe XD.</t>
+  </si>
+  <si>
+    <t>Atualizar o diagrama de caso de uso UML com o novo requisito funcional 12</t>
+  </si>
+  <si>
+    <t>Anotar informações para fazer a ata de reunião com o cliente</t>
+  </si>
+  <si>
+    <t>Fazer feature de menu com seleção de portaria</t>
+  </si>
+  <si>
+    <t>Criar a interface de usuário do menu</t>
+  </si>
+  <si>
+    <t>Atualizar o diagrama de caso de uso UML com o novo requisito funcional 9</t>
+  </si>
+  <si>
+    <t>Melhorar qualidade de código da página de cadastro de usuário</t>
+  </si>
+  <si>
+    <t>https://github.com/ICEI-PUC-Minas-PPLES-TI/plf-es-2021-1-ti3-6654100-parkio/issues/42</t>
+  </si>
+  <si>
+    <t>Enviar o ID da portaria na tela de cadastrar o veículo visitante</t>
+  </si>
+  <si>
+    <t>https://github.com/ICEI-PUC-Minas-PPLES-TI/plf-es-2021-1-ti3-6654100-parkio/issues/44</t>
+  </si>
+  <si>
+    <t>Criar pop-up (toast) do cadastro de veículo visitante</t>
+  </si>
+  <si>
+    <t>https://github.com/ICEI-PUC-Minas-PPLES-TI/plf-es-2021-1-ti3-6654100-parkio/issues/50</t>
+  </si>
+  <si>
+    <t>Criar pop-up (toast) do cadastro de usuário</t>
+  </si>
+  <si>
+    <t>https://github.com/ICEI-PUC-Minas-PPLES-TI/plf-es-2021-1-ti3-6654100-parkio/issues/51</t>
   </si>
   <si>
     <t>SPRINT #4</t>
@@ -1217,12 +1279,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1391,8 +1454,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1485,9 +1557,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="220">
@@ -3589,7 +3662,7 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3658,10 +3731,10 @@
                   <c:v>53.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.5</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4104,8 +4177,8 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4117,15 +4190,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4133,15 +4206,15 @@
     </row>
     <row r="2" spans="1:15" ht="18">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4149,15 +4222,15 @@
     </row>
     <row r="3" spans="1:15" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4165,15 +4238,15 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4181,15 +4254,15 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -4211,15 +4284,15 @@
     </row>
     <row r="7" spans="1:15" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -4244,17 +4317,17 @@
     </row>
     <row r="9" spans="1:15" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81" t="s">
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -4264,17 +4337,17 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="83" t="s">
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -4284,17 +4357,17 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="83" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="83"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -4304,17 +4377,17 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="83" t="s">
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="83"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -4324,17 +4397,17 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="83" t="s">
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -4344,17 +4417,17 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="83" t="s">
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -5604,16 +5677,16 @@
     </row>
     <row r="99" spans="1:15" ht="15.75" customHeight="1">
       <c r="A99" s="40"/>
-      <c r="B99" s="85"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="86" t="s">
+      <c r="B99" s="88"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="72"/>
-      <c r="F99" s="86" t="s">
+      <c r="E99" s="75"/>
+      <c r="F99" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="72"/>
+      <c r="G99" s="75"/>
       <c r="H99" s="41" t="s">
         <v>21</v>
       </c>
@@ -5635,12 +5708,12 @@
     </row>
     <row r="100" spans="1:15" ht="15.75" customHeight="1">
       <c r="A100" s="40"/>
-      <c r="B100" s="88"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="87" t="s">
+      <c r="B100" s="91"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="72"/>
+      <c r="E100" s="75"/>
       <c r="F100" s="43" t="s">
         <v>26</v>
       </c>
@@ -5662,7 +5735,7 @@
       </c>
       <c r="L100" s="44">
         <f>SUM('Sprint #1'!$I54, 'Sprint #2'!$I74, 'Sprint #3'!$I65, 'Sprint #5'!$I65)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M100" s="43" t="s">
         <v>28</v>
@@ -5674,12 +5747,12 @@
     </row>
     <row r="101" spans="1:15" ht="15.75" customHeight="1">
       <c r="A101" s="40"/>
-      <c r="B101" s="88"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="87" t="s">
+      <c r="B101" s="91"/>
+      <c r="C101" s="75"/>
+      <c r="D101" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="72"/>
+      <c r="E101" s="75"/>
       <c r="F101" s="43" t="s">
         <v>30</v>
       </c>
@@ -5692,7 +5765,7 @@
       </c>
       <c r="I101" s="45">
         <f>'Sprint #2'!I$70</f>
-        <v>26.5</v>
+        <v>32.5</v>
       </c>
       <c r="J101" s="43"/>
       <c r="K101" s="44" t="str">
@@ -5713,23 +5786,23 @@
     </row>
     <row r="102" spans="1:15" ht="15.75" customHeight="1">
       <c r="A102" s="40"/>
-      <c r="B102" s="88"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="87" t="s">
+      <c r="B102" s="91"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="72"/>
+      <c r="E102" s="75"/>
       <c r="F102" s="43"/>
       <c r="G102" s="44" t="s">
         <v>34</v>
       </c>
       <c r="H102" s="45">
         <f>'Sprint #3'!H$61</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I102" s="45">
         <f>'Sprint #3'!I$61</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" s="43"/>
       <c r="K102" s="44" t="str">
@@ -5738,7 +5811,7 @@
       </c>
       <c r="L102" s="44">
         <f>SUM('Sprint #1'!$I56, 'Sprint #2'!$I76, 'Sprint #3'!$I67, 'Sprint #5'!$I67)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M102" s="43" t="s">
         <v>35</v>
@@ -5750,12 +5823,12 @@
     </row>
     <row r="103" spans="1:15" ht="15.75" customHeight="1">
       <c r="A103" s="40"/>
-      <c r="B103" s="88"/>
-      <c r="C103" s="72"/>
-      <c r="D103" s="87" t="s">
+      <c r="B103" s="91"/>
+      <c r="C103" s="75"/>
+      <c r="D103" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="E103" s="72"/>
+      <c r="E103" s="75"/>
       <c r="F103" s="43"/>
       <c r="G103" s="44" t="s">
         <v>36</v>
@@ -5775,7 +5848,7 @@
       </c>
       <c r="L103" s="44">
         <f>SUM('Sprint #1'!$I57, 'Sprint #2'!$I77, 'Sprint #3'!$I68, 'Sprint #5'!$I68)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M103" s="43" t="s">
         <v>37</v>
@@ -5785,12 +5858,12 @@
     </row>
     <row r="104" spans="1:15" ht="15.75" customHeight="1">
       <c r="A104" s="40"/>
-      <c r="B104" s="88"/>
-      <c r="C104" s="72"/>
-      <c r="D104" s="87" t="s">
+      <c r="B104" s="91"/>
+      <c r="C104" s="75"/>
+      <c r="D104" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="72"/>
+      <c r="E104" s="75"/>
       <c r="F104" s="43"/>
       <c r="G104" s="44" t="s">
         <v>38</v>
@@ -5810,13 +5883,13 @@
       </c>
       <c r="L104" s="44">
         <f>SUM('Sprint #1'!$I58, 'Sprint #2'!$I78, 'Sprint #3'!$I69, 'Sprint #5'!$I69)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="15.75" customHeight="1">
       <c r="A105" s="40"/>
-      <c r="B105" s="88"/>
-      <c r="C105" s="72"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="75"/>
       <c r="F105" s="43"/>
       <c r="G105" s="43"/>
       <c r="H105" s="43"/>
@@ -5827,8 +5900,8 @@
     </row>
     <row r="106" spans="1:15" ht="15.75" customHeight="1">
       <c r="A106" s="40"/>
-      <c r="B106" s="88"/>
-      <c r="C106" s="72"/>
+      <c r="B106" s="91"/>
+      <c r="C106" s="75"/>
       <c r="D106" s="46"/>
       <c r="E106" s="43"/>
       <c r="F106" s="43"/>
@@ -6907,8 +6980,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:G20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6924,67 +6997,67 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
@@ -7000,16 +7073,16 @@
     </row>
     <row r="7" spans="1:9" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="89" t="str">
+      <c r="B7" s="92" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
@@ -7025,15 +7098,15 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
@@ -7047,11 +7120,11 @@
       <c r="D10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="91" t="s">
+      <c r="E10" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
       <c r="H10" s="10" t="s">
         <v>44</v>
       </c>
@@ -7069,11 +7142,11 @@
         <f t="shared" ref="D11:D16" si="0">C11+13</f>
         <v>44290</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="94"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="97"/>
       <c r="H11" s="13"/>
       <c r="I11" s="1"/>
     </row>
@@ -7090,9 +7163,9 @@
         <f t="shared" si="0"/>
         <v>44304</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
       <c r="H12" s="13"/>
       <c r="I12" s="1"/>
     </row>
@@ -7109,9 +7182,9 @@
         <f t="shared" si="0"/>
         <v>44318</v>
       </c>
-      <c r="E13" s="95"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="80"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="13"/>
       <c r="I13" s="1"/>
     </row>
@@ -7128,9 +7201,9 @@
         <f t="shared" si="0"/>
         <v>44332</v>
       </c>
-      <c r="E14" s="96"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="13"/>
       <c r="I14" s="1"/>
     </row>
@@ -7147,9 +7220,9 @@
         <f t="shared" si="0"/>
         <v>44346</v>
       </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
       <c r="H15" s="13"/>
       <c r="I15" s="1"/>
     </row>
@@ -7166,9 +7239,9 @@
         <f t="shared" si="0"/>
         <v>44360</v>
       </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="13"/>
       <c r="I16" s="1"/>
     </row>
@@ -7197,13 +7270,13 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
       <c r="H19" s="15" t="s">
         <v>47</v>
       </c>
@@ -7214,11 +7287,11 @@
       <c r="B20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="17" t="s">
         <v>48</v>
       </c>
@@ -7229,13 +7302,13 @@
       <c r="B21" s="19">
         <v>1</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="80"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="20" t="s">
         <v>50</v>
       </c>
@@ -7246,13 +7319,13 @@
       <c r="B22" s="18">
         <v>2</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="80"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="83"/>
       <c r="H22" s="20" t="s">
         <v>50</v>
       </c>
@@ -7263,13 +7336,13 @@
       <c r="B23" s="19">
         <v>3</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="80"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="83"/>
       <c r="H23" s="20" t="s">
         <v>50</v>
       </c>
@@ -7280,13 +7353,13 @@
       <c r="B24" s="18">
         <v>4</v>
       </c>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="80"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="20" t="s">
         <v>54</v>
       </c>
@@ -7297,13 +7370,13 @@
       <c r="B25" s="19">
         <v>5</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="83"/>
       <c r="H25" s="20" t="s">
         <v>54</v>
       </c>
@@ -7314,13 +7387,13 @@
       <c r="B26" s="18">
         <v>6</v>
       </c>
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="80"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="83"/>
       <c r="H26" s="20" t="s">
         <v>50</v>
       </c>
@@ -7331,13 +7404,13 @@
       <c r="B27" s="19">
         <v>7</v>
       </c>
-      <c r="C27" s="99" t="s">
+      <c r="C27" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="80"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="83"/>
       <c r="H27" s="20" t="s">
         <v>50</v>
       </c>
@@ -7348,15 +7421,15 @@
       <c r="B28" s="18">
         <v>8</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="83"/>
       <c r="H28" s="20" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -7365,13 +7438,13 @@
       <c r="B29" s="19">
         <v>9</v>
       </c>
-      <c r="C29" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="80"/>
+      <c r="C29" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="83"/>
       <c r="H29" s="20" t="s">
         <v>54</v>
       </c>
@@ -7382,13 +7455,13 @@
       <c r="B30" s="18">
         <v>10</v>
       </c>
-      <c r="C30" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="77"/>
+      <c r="C30" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="80"/>
       <c r="H30" s="20" t="s">
         <v>50</v>
       </c>
@@ -7399,13 +7472,13 @@
       <c r="B31" s="19">
         <v>11</v>
       </c>
-      <c r="C31" s="99" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="80"/>
+      <c r="C31" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="83"/>
       <c r="H31" s="20" t="s">
         <v>54</v>
       </c>
@@ -7416,13 +7489,13 @@
       <c r="B32" s="18">
         <v>12</v>
       </c>
-      <c r="C32" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="80"/>
+      <c r="C32" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="83"/>
       <c r="H32" s="20" t="s">
         <v>54</v>
       </c>
@@ -7433,13 +7506,13 @@
       <c r="B33" s="19">
         <v>13</v>
       </c>
-      <c r="C33" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="80"/>
+      <c r="C33" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="83"/>
       <c r="H33" s="20" t="s">
         <v>54</v>
       </c>
@@ -7450,14 +7523,12 @@
       <c r="B34" s="18">
         <v>14</v>
       </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="C34" s="102"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1">
@@ -7465,14 +7536,12 @@
       <c r="B35" s="19">
         <v>15</v>
       </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="C35" s="102"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1">
@@ -7480,14 +7549,12 @@
       <c r="B36" s="18">
         <v>16</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="C36" s="102"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1">
@@ -7495,14 +7562,12 @@
       <c r="B37" s="19">
         <v>17</v>
       </c>
-      <c r="C37" s="99"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C37" s="102"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="20"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1">
@@ -7510,14 +7575,12 @@
       <c r="B38" s="18">
         <v>18</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C38" s="102"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1">
@@ -7525,14 +7588,12 @@
       <c r="B39" s="19">
         <v>19</v>
       </c>
-      <c r="C39" s="99"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C39" s="102"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="20"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1">
@@ -7540,14 +7601,12 @@
       <c r="B40" s="18">
         <v>20</v>
       </c>
-      <c r="C40" s="99"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C40" s="102"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1">
@@ -7555,14 +7614,12 @@
       <c r="B41" s="19">
         <v>21</v>
       </c>
-      <c r="C41" s="99"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C41" s="102"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="20"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1">
@@ -7570,14 +7627,12 @@
       <c r="B42" s="18">
         <v>22</v>
       </c>
-      <c r="C42" s="99"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C42" s="102"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="20"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1">
@@ -7585,14 +7640,12 @@
       <c r="B43" s="19">
         <v>23</v>
       </c>
-      <c r="C43" s="99"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C43" s="102"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="20"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1">
@@ -7600,14 +7653,12 @@
       <c r="B44" s="18">
         <v>24</v>
       </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C44" s="102"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="20"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1">
@@ -7615,14 +7666,12 @@
       <c r="B45" s="19">
         <v>25</v>
       </c>
-      <c r="C45" s="99"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C45" s="102"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="20"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="18" customHeight="1">
@@ -7630,14 +7679,12 @@
       <c r="B46" s="18">
         <v>26</v>
       </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C46" s="102"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="20"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -7645,14 +7692,12 @@
       <c r="B47" s="19">
         <v>27</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C47" s="102"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="20"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1">
@@ -7660,14 +7705,12 @@
       <c r="B48" s="18">
         <v>28</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C48" s="102"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="20"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1">
@@ -7675,14 +7718,12 @@
       <c r="B49" s="19">
         <v>29</v>
       </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C49" s="102"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="20"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1">
@@ -7690,14 +7731,12 @@
       <c r="B50" s="18">
         <v>30</v>
       </c>
-      <c r="C50" s="99"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C50" s="102"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="20"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1">
@@ -7705,14 +7744,12 @@
       <c r="B51" s="19">
         <v>31</v>
       </c>
-      <c r="C51" s="99"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C51" s="102"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="20"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1">
@@ -7720,14 +7757,12 @@
       <c r="B52" s="18">
         <v>32</v>
       </c>
-      <c r="C52" s="99"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C52" s="102"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="20"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1">
@@ -7735,14 +7770,12 @@
       <c r="B53" s="19">
         <v>33</v>
       </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C53" s="102"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="20"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1">
@@ -7750,14 +7783,12 @@
       <c r="B54" s="18">
         <v>34</v>
       </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C54" s="102"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="20"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1">
@@ -7765,14 +7796,12 @@
       <c r="B55" s="19">
         <v>35</v>
       </c>
-      <c r="C55" s="99"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C55" s="102"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="20"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1">
@@ -7780,14 +7809,12 @@
       <c r="B56" s="18">
         <v>36</v>
       </c>
-      <c r="C56" s="99"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C56" s="102"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="20"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1">
@@ -7795,14 +7822,12 @@
       <c r="B57" s="19">
         <v>37</v>
       </c>
-      <c r="C57" s="99"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C57" s="102"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="20"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1">
@@ -7810,14 +7835,12 @@
       <c r="B58" s="18">
         <v>38</v>
       </c>
-      <c r="C58" s="99"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C58" s="102"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="20"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1">
@@ -7825,14 +7848,12 @@
       <c r="B59" s="19">
         <v>39</v>
       </c>
-      <c r="C59" s="99"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C59" s="102"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="20"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1">
@@ -7840,14 +7861,12 @@
       <c r="B60" s="18">
         <v>40</v>
       </c>
-      <c r="C60" s="99"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C60" s="102"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="20"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1">
@@ -7855,14 +7874,12 @@
       <c r="B61" s="19">
         <v>41</v>
       </c>
-      <c r="C61" s="99"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C61" s="102"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="20"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1">
@@ -7870,14 +7887,12 @@
       <c r="B62" s="18">
         <v>42</v>
       </c>
-      <c r="C62" s="99"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C62" s="102"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="20"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1">
@@ -7885,14 +7900,12 @@
       <c r="B63" s="19">
         <v>43</v>
       </c>
-      <c r="C63" s="99"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C63" s="102"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="20"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1">
@@ -7900,14 +7913,12 @@
       <c r="B64" s="18">
         <v>44</v>
       </c>
-      <c r="C64" s="99"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C64" s="102"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="20"/>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1">
@@ -7915,14 +7926,12 @@
       <c r="B65" s="19">
         <v>45</v>
       </c>
-      <c r="C65" s="99"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C65" s="102"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="20"/>
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1">
@@ -7930,14 +7939,12 @@
       <c r="B66" s="18">
         <v>46</v>
       </c>
-      <c r="C66" s="99"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C66" s="102"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="20"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1">
@@ -7945,14 +7952,12 @@
       <c r="B67" s="19">
         <v>47</v>
       </c>
-      <c r="C67" s="99"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C67" s="102"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="20"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1">
@@ -7960,14 +7965,12 @@
       <c r="B68" s="18">
         <v>48</v>
       </c>
-      <c r="C68" s="99"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C68" s="102"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="20"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1">
@@ -7975,14 +7978,12 @@
       <c r="B69" s="19">
         <v>49</v>
       </c>
-      <c r="C69" s="99"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="20"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1">
@@ -7990,14 +7991,12 @@
       <c r="B70" s="18">
         <v>50</v>
       </c>
-      <c r="C70" s="99"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="80"/>
-      <c r="H70" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C70" s="102"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="20"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1">
@@ -8005,14 +8004,12 @@
       <c r="B71" s="19">
         <v>51</v>
       </c>
-      <c r="C71" s="99"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C71" s="102"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="20"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1">
@@ -8020,14 +8017,12 @@
       <c r="B72" s="18">
         <v>52</v>
       </c>
-      <c r="C72" s="99"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="80"/>
-      <c r="H72" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C72" s="102"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="20"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1">
@@ -8035,14 +8030,12 @@
       <c r="B73" s="19">
         <v>53</v>
       </c>
-      <c r="C73" s="99"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C73" s="102"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="20"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1">
@@ -8050,14 +8043,12 @@
       <c r="B74" s="18">
         <v>54</v>
       </c>
-      <c r="C74" s="99"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C74" s="102"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="20"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1">
@@ -8065,14 +8056,12 @@
       <c r="B75" s="19">
         <v>55</v>
       </c>
-      <c r="C75" s="99"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C75" s="102"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="20"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1">
@@ -8080,14 +8069,12 @@
       <c r="B76" s="18">
         <v>56</v>
       </c>
-      <c r="C76" s="99"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C76" s="102"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="20"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1">
@@ -8095,14 +8082,12 @@
       <c r="B77" s="19">
         <v>57</v>
       </c>
-      <c r="C77" s="99"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="80"/>
-      <c r="H77" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C77" s="102"/>
+      <c r="D77" s="82"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="20"/>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1">
@@ -8110,14 +8095,12 @@
       <c r="B78" s="18">
         <v>58</v>
       </c>
-      <c r="C78" s="99"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="80"/>
-      <c r="H78" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C78" s="102"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="83"/>
+      <c r="H78" s="20"/>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1">
@@ -8125,14 +8108,12 @@
       <c r="B79" s="19">
         <v>59</v>
       </c>
-      <c r="C79" s="99"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="80"/>
-      <c r="H79" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C79" s="102"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="82"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="20"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1">
@@ -8140,14 +8121,12 @@
       <c r="B80" s="18">
         <v>60</v>
       </c>
-      <c r="C80" s="99"/>
-      <c r="D80" s="79"/>
-      <c r="E80" s="79"/>
-      <c r="F80" s="79"/>
-      <c r="G80" s="80"/>
-      <c r="H80" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C80" s="102"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="20"/>
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1">
@@ -8155,14 +8134,12 @@
       <c r="B81" s="19">
         <v>61</v>
       </c>
-      <c r="C81" s="99"/>
-      <c r="D81" s="79"/>
-      <c r="E81" s="79"/>
-      <c r="F81" s="79"/>
-      <c r="G81" s="80"/>
-      <c r="H81" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C81" s="102"/>
+      <c r="D81" s="82"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="20"/>
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1">
@@ -8170,14 +8147,12 @@
       <c r="B82" s="18">
         <v>62</v>
       </c>
-      <c r="C82" s="99"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="79"/>
-      <c r="G82" s="80"/>
-      <c r="H82" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C82" s="102"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="82"/>
+      <c r="F82" s="82"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="20"/>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1">
@@ -8185,14 +8160,12 @@
       <c r="B83" s="19">
         <v>63</v>
       </c>
-      <c r="C83" s="99"/>
-      <c r="D83" s="79"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="80"/>
-      <c r="H83" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C83" s="102"/>
+      <c r="D83" s="82"/>
+      <c r="E83" s="82"/>
+      <c r="F83" s="82"/>
+      <c r="G83" s="83"/>
+      <c r="H83" s="20"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1">
@@ -8200,14 +8173,12 @@
       <c r="B84" s="18">
         <v>64</v>
       </c>
-      <c r="C84" s="99"/>
-      <c r="D84" s="79"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="80"/>
-      <c r="H84" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C84" s="102"/>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="20"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1">
@@ -8215,14 +8186,12 @@
       <c r="B85" s="19">
         <v>65</v>
       </c>
-      <c r="C85" s="99"/>
-      <c r="D85" s="79"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="79"/>
-      <c r="G85" s="80"/>
-      <c r="H85" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C85" s="102"/>
+      <c r="D85" s="82"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="83"/>
+      <c r="H85" s="20"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1">
@@ -8230,14 +8199,12 @@
       <c r="B86" s="18">
         <v>66</v>
       </c>
-      <c r="C86" s="99"/>
-      <c r="D86" s="79"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="79"/>
-      <c r="G86" s="80"/>
-      <c r="H86" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C86" s="102"/>
+      <c r="D86" s="82"/>
+      <c r="E86" s="82"/>
+      <c r="F86" s="82"/>
+      <c r="G86" s="83"/>
+      <c r="H86" s="20"/>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1">
@@ -8245,14 +8212,12 @@
       <c r="B87" s="19">
         <v>67</v>
       </c>
-      <c r="C87" s="99"/>
-      <c r="D87" s="79"/>
-      <c r="E87" s="79"/>
-      <c r="F87" s="79"/>
-      <c r="G87" s="80"/>
-      <c r="H87" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C87" s="102"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="83"/>
+      <c r="H87" s="20"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1">
@@ -8260,14 +8225,12 @@
       <c r="B88" s="18">
         <v>68</v>
       </c>
-      <c r="C88" s="99"/>
-      <c r="D88" s="79"/>
-      <c r="E88" s="79"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="80"/>
-      <c r="H88" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C88" s="102"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="20"/>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1">
@@ -8275,14 +8238,12 @@
       <c r="B89" s="19">
         <v>69</v>
       </c>
-      <c r="C89" s="99"/>
-      <c r="D89" s="79"/>
-      <c r="E89" s="79"/>
-      <c r="F89" s="79"/>
-      <c r="G89" s="80"/>
-      <c r="H89" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C89" s="102"/>
+      <c r="D89" s="82"/>
+      <c r="E89" s="82"/>
+      <c r="F89" s="82"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="20"/>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1">
@@ -8290,14 +8251,12 @@
       <c r="B90" s="18">
         <v>70</v>
       </c>
-      <c r="C90" s="99"/>
-      <c r="D90" s="79"/>
-      <c r="E90" s="79"/>
-      <c r="F90" s="79"/>
-      <c r="G90" s="80"/>
-      <c r="H90" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C90" s="102"/>
+      <c r="D90" s="82"/>
+      <c r="E90" s="82"/>
+      <c r="F90" s="82"/>
+      <c r="G90" s="83"/>
+      <c r="H90" s="20"/>
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1">
@@ -8305,14 +8264,12 @@
       <c r="B91" s="19">
         <v>71</v>
       </c>
-      <c r="C91" s="99"/>
-      <c r="D91" s="79"/>
-      <c r="E91" s="79"/>
-      <c r="F91" s="79"/>
-      <c r="G91" s="80"/>
-      <c r="H91" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C91" s="102"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="83"/>
+      <c r="H91" s="20"/>
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1">
@@ -8320,14 +8277,12 @@
       <c r="B92" s="18">
         <v>72</v>
       </c>
-      <c r="C92" s="99"/>
-      <c r="D92" s="79"/>
-      <c r="E92" s="79"/>
-      <c r="F92" s="79"/>
-      <c r="G92" s="80"/>
-      <c r="H92" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C92" s="102"/>
+      <c r="D92" s="82"/>
+      <c r="E92" s="82"/>
+      <c r="F92" s="82"/>
+      <c r="G92" s="83"/>
+      <c r="H92" s="20"/>
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1">
@@ -8335,14 +8290,12 @@
       <c r="B93" s="19">
         <v>73</v>
       </c>
-      <c r="C93" s="99"/>
-      <c r="D93" s="79"/>
-      <c r="E93" s="79"/>
-      <c r="F93" s="79"/>
-      <c r="G93" s="80"/>
-      <c r="H93" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C93" s="102"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="82"/>
+      <c r="F93" s="82"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="20"/>
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1">
@@ -8350,14 +8303,12 @@
       <c r="B94" s="18">
         <v>74</v>
       </c>
-      <c r="C94" s="99"/>
-      <c r="D94" s="79"/>
-      <c r="E94" s="79"/>
-      <c r="F94" s="79"/>
-      <c r="G94" s="80"/>
-      <c r="H94" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C94" s="102"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="82"/>
+      <c r="F94" s="82"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="20"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1">
@@ -8365,14 +8316,12 @@
       <c r="B95" s="19">
         <v>75</v>
       </c>
-      <c r="C95" s="99"/>
-      <c r="D95" s="79"/>
-      <c r="E95" s="79"/>
-      <c r="F95" s="79"/>
-      <c r="G95" s="80"/>
-      <c r="H95" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C95" s="102"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="82"/>
+      <c r="F95" s="82"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="20"/>
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1">
@@ -8380,14 +8329,12 @@
       <c r="B96" s="18">
         <v>76</v>
       </c>
-      <c r="C96" s="99"/>
-      <c r="D96" s="79"/>
-      <c r="E96" s="79"/>
-      <c r="F96" s="79"/>
-      <c r="G96" s="80"/>
-      <c r="H96" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C96" s="102"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="83"/>
+      <c r="H96" s="20"/>
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1">
@@ -8395,14 +8342,12 @@
       <c r="B97" s="19">
         <v>77</v>
       </c>
-      <c r="C97" s="99"/>
-      <c r="D97" s="79"/>
-      <c r="E97" s="79"/>
-      <c r="F97" s="79"/>
-      <c r="G97" s="80"/>
-      <c r="H97" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C97" s="102"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="82"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="83"/>
+      <c r="H97" s="20"/>
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1">
@@ -8410,14 +8355,12 @@
       <c r="B98" s="18">
         <v>78</v>
       </c>
-      <c r="C98" s="99"/>
-      <c r="D98" s="79"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="79"/>
-      <c r="G98" s="80"/>
-      <c r="H98" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C98" s="102"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="83"/>
+      <c r="H98" s="20"/>
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1">
@@ -8425,14 +8368,12 @@
       <c r="B99" s="19">
         <v>79</v>
       </c>
-      <c r="C99" s="99"/>
-      <c r="D99" s="79"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="80"/>
-      <c r="H99" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C99" s="102"/>
+      <c r="D99" s="82"/>
+      <c r="E99" s="82"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="83"/>
+      <c r="H99" s="20"/>
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1">
@@ -8440,14 +8381,12 @@
       <c r="B100" s="18">
         <v>80</v>
       </c>
-      <c r="C100" s="99"/>
-      <c r="D100" s="79"/>
-      <c r="E100" s="79"/>
-      <c r="F100" s="79"/>
-      <c r="G100" s="80"/>
-      <c r="H100" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C100" s="102"/>
+      <c r="D100" s="82"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="82"/>
+      <c r="G100" s="83"/>
+      <c r="H100" s="20"/>
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1">
@@ -8455,14 +8394,12 @@
       <c r="B101" s="19">
         <v>81</v>
       </c>
-      <c r="C101" s="99"/>
-      <c r="D101" s="79"/>
-      <c r="E101" s="79"/>
-      <c r="F101" s="79"/>
-      <c r="G101" s="80"/>
-      <c r="H101" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C101" s="102"/>
+      <c r="D101" s="82"/>
+      <c r="E101" s="82"/>
+      <c r="F101" s="82"/>
+      <c r="G101" s="83"/>
+      <c r="H101" s="20"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1">
@@ -8470,14 +8407,12 @@
       <c r="B102" s="18">
         <v>82</v>
       </c>
-      <c r="C102" s="99"/>
-      <c r="D102" s="79"/>
-      <c r="E102" s="79"/>
-      <c r="F102" s="79"/>
-      <c r="G102" s="80"/>
-      <c r="H102" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C102" s="102"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="83"/>
+      <c r="H102" s="20"/>
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1">
@@ -8485,14 +8420,12 @@
       <c r="B103" s="19">
         <v>83</v>
       </c>
-      <c r="C103" s="99"/>
-      <c r="D103" s="79"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="79"/>
-      <c r="G103" s="80"/>
-      <c r="H103" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C103" s="102"/>
+      <c r="D103" s="82"/>
+      <c r="E103" s="82"/>
+      <c r="F103" s="82"/>
+      <c r="G103" s="83"/>
+      <c r="H103" s="20"/>
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1">
@@ -8500,14 +8433,12 @@
       <c r="B104" s="18">
         <v>84</v>
       </c>
-      <c r="C104" s="99"/>
-      <c r="D104" s="79"/>
-      <c r="E104" s="79"/>
-      <c r="F104" s="79"/>
-      <c r="G104" s="80"/>
-      <c r="H104" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C104" s="102"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="83"/>
+      <c r="H104" s="20"/>
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1">
@@ -8515,14 +8446,12 @@
       <c r="B105" s="19">
         <v>85</v>
       </c>
-      <c r="C105" s="99"/>
-      <c r="D105" s="79"/>
-      <c r="E105" s="79"/>
-      <c r="F105" s="79"/>
-      <c r="G105" s="80"/>
-      <c r="H105" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C105" s="102"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="83"/>
+      <c r="H105" s="20"/>
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1">
@@ -8530,14 +8459,12 @@
       <c r="B106" s="18">
         <v>86</v>
       </c>
-      <c r="C106" s="99"/>
-      <c r="D106" s="79"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="79"/>
-      <c r="G106" s="80"/>
-      <c r="H106" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C106" s="102"/>
+      <c r="D106" s="82"/>
+      <c r="E106" s="82"/>
+      <c r="F106" s="82"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="20"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1">
@@ -8545,14 +8472,12 @@
       <c r="B107" s="19">
         <v>87</v>
       </c>
-      <c r="C107" s="99"/>
-      <c r="D107" s="79"/>
-      <c r="E107" s="79"/>
-      <c r="F107" s="79"/>
-      <c r="G107" s="80"/>
-      <c r="H107" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C107" s="102"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="83"/>
+      <c r="H107" s="20"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1">
@@ -8560,14 +8485,12 @@
       <c r="B108" s="18">
         <v>88</v>
       </c>
-      <c r="C108" s="99"/>
-      <c r="D108" s="79"/>
-      <c r="E108" s="79"/>
-      <c r="F108" s="79"/>
-      <c r="G108" s="80"/>
-      <c r="H108" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C108" s="102"/>
+      <c r="D108" s="82"/>
+      <c r="E108" s="82"/>
+      <c r="F108" s="82"/>
+      <c r="G108" s="83"/>
+      <c r="H108" s="20"/>
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1">
@@ -8575,14 +8498,12 @@
       <c r="B109" s="19">
         <v>89</v>
       </c>
-      <c r="C109" s="99"/>
-      <c r="D109" s="79"/>
-      <c r="E109" s="79"/>
-      <c r="F109" s="79"/>
-      <c r="G109" s="80"/>
-      <c r="H109" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C109" s="102"/>
+      <c r="D109" s="82"/>
+      <c r="E109" s="82"/>
+      <c r="F109" s="82"/>
+      <c r="G109" s="83"/>
+      <c r="H109" s="20"/>
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1">
@@ -8590,14 +8511,12 @@
       <c r="B110" s="18">
         <v>90</v>
       </c>
-      <c r="C110" s="99"/>
-      <c r="D110" s="79"/>
-      <c r="E110" s="79"/>
-      <c r="F110" s="79"/>
-      <c r="G110" s="80"/>
-      <c r="H110" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C110" s="102"/>
+      <c r="D110" s="82"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="83"/>
+      <c r="H110" s="20"/>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1">
@@ -8605,14 +8524,12 @@
       <c r="B111" s="19">
         <v>91</v>
       </c>
-      <c r="C111" s="99"/>
-      <c r="D111" s="79"/>
-      <c r="E111" s="79"/>
-      <c r="F111" s="79"/>
-      <c r="G111" s="80"/>
-      <c r="H111" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C111" s="102"/>
+      <c r="D111" s="82"/>
+      <c r="E111" s="82"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="83"/>
+      <c r="H111" s="20"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" ht="15.75" customHeight="1">
@@ -8620,14 +8537,12 @@
       <c r="B112" s="18">
         <v>92</v>
       </c>
-      <c r="C112" s="99"/>
-      <c r="D112" s="79"/>
-      <c r="E112" s="79"/>
-      <c r="F112" s="79"/>
-      <c r="G112" s="80"/>
-      <c r="H112" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C112" s="102"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="82"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="83"/>
+      <c r="H112" s="20"/>
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1">
@@ -8635,14 +8550,12 @@
       <c r="B113" s="19">
         <v>93</v>
       </c>
-      <c r="C113" s="99"/>
-      <c r="D113" s="79"/>
-      <c r="E113" s="79"/>
-      <c r="F113" s="79"/>
-      <c r="G113" s="80"/>
-      <c r="H113" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C113" s="102"/>
+      <c r="D113" s="82"/>
+      <c r="E113" s="82"/>
+      <c r="F113" s="82"/>
+      <c r="G113" s="83"/>
+      <c r="H113" s="20"/>
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1">
@@ -8650,14 +8563,12 @@
       <c r="B114" s="18">
         <v>94</v>
       </c>
-      <c r="C114" s="99"/>
-      <c r="D114" s="79"/>
-      <c r="E114" s="79"/>
-      <c r="F114" s="79"/>
-      <c r="G114" s="80"/>
-      <c r="H114" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C114" s="102"/>
+      <c r="D114" s="82"/>
+      <c r="E114" s="82"/>
+      <c r="F114" s="82"/>
+      <c r="G114" s="83"/>
+      <c r="H114" s="20"/>
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1">
@@ -8665,14 +8576,12 @@
       <c r="B115" s="19">
         <v>95</v>
       </c>
-      <c r="C115" s="99"/>
-      <c r="D115" s="79"/>
-      <c r="E115" s="79"/>
-      <c r="F115" s="79"/>
-      <c r="G115" s="80"/>
-      <c r="H115" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C115" s="102"/>
+      <c r="D115" s="82"/>
+      <c r="E115" s="82"/>
+      <c r="F115" s="82"/>
+      <c r="G115" s="83"/>
+      <c r="H115" s="20"/>
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" ht="15.75" customHeight="1">
@@ -8680,14 +8589,12 @@
       <c r="B116" s="18">
         <v>96</v>
       </c>
-      <c r="C116" s="99"/>
-      <c r="D116" s="79"/>
-      <c r="E116" s="79"/>
-      <c r="F116" s="79"/>
-      <c r="G116" s="80"/>
-      <c r="H116" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C116" s="102"/>
+      <c r="D116" s="82"/>
+      <c r="E116" s="82"/>
+      <c r="F116" s="82"/>
+      <c r="G116" s="83"/>
+      <c r="H116" s="20"/>
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1">
@@ -8695,14 +8602,12 @@
       <c r="B117" s="19">
         <v>97</v>
       </c>
-      <c r="C117" s="99"/>
-      <c r="D117" s="79"/>
-      <c r="E117" s="79"/>
-      <c r="F117" s="79"/>
-      <c r="G117" s="80"/>
-      <c r="H117" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C117" s="102"/>
+      <c r="D117" s="82"/>
+      <c r="E117" s="82"/>
+      <c r="F117" s="82"/>
+      <c r="G117" s="83"/>
+      <c r="H117" s="20"/>
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" ht="15.75" customHeight="1">
@@ -8710,14 +8615,12 @@
       <c r="B118" s="18">
         <v>98</v>
       </c>
-      <c r="C118" s="99"/>
-      <c r="D118" s="79"/>
-      <c r="E118" s="79"/>
-      <c r="F118" s="79"/>
-      <c r="G118" s="80"/>
-      <c r="H118" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C118" s="102"/>
+      <c r="D118" s="82"/>
+      <c r="E118" s="82"/>
+      <c r="F118" s="82"/>
+      <c r="G118" s="83"/>
+      <c r="H118" s="20"/>
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" ht="15.75" customHeight="1">
@@ -8725,14 +8628,12 @@
       <c r="B119" s="19">
         <v>99</v>
       </c>
-      <c r="C119" s="99"/>
-      <c r="D119" s="79"/>
-      <c r="E119" s="79"/>
-      <c r="F119" s="79"/>
-      <c r="G119" s="80"/>
-      <c r="H119" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C119" s="102"/>
+      <c r="D119" s="82"/>
+      <c r="E119" s="82"/>
+      <c r="F119" s="82"/>
+      <c r="G119" s="83"/>
+      <c r="H119" s="20"/>
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" ht="15.75" customHeight="1">
@@ -8740,14 +8641,12 @@
       <c r="B120" s="18">
         <v>100</v>
       </c>
-      <c r="C120" s="99"/>
-      <c r="D120" s="79"/>
-      <c r="E120" s="79"/>
-      <c r="F120" s="79"/>
-      <c r="G120" s="80"/>
-      <c r="H120" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="C120" s="102"/>
+      <c r="D120" s="82"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="83"/>
+      <c r="H120" s="20"/>
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" ht="15.75" customHeight="1">
@@ -9747,7 +9646,7 @@
       </c>
       <c r="C211" s="21"/>
       <c r="D211" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
@@ -9758,7 +9657,7 @@
     <row r="212" spans="1:9" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C212" s="21"/>
       <c r="D212" s="21" t="s">
@@ -10761,8 +10660,8 @@
   <dimension ref="A1:U989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25:F25"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10782,17 +10681,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
+      <c r="B1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
       <c r="K1" s="23">
         <f>Requisitos!C11</f>
         <v>44277</v>
@@ -10800,17 +10699,17 @@
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="76"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44278</v>
@@ -10818,17 +10717,17 @@
     </row>
     <row r="3" spans="1:21" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44279</v>
@@ -10836,17 +10735,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44280</v>
@@ -10854,17 +10753,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44281</v>
@@ -10886,18 +10785,18 @@
     </row>
     <row r="7" spans="1:21" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="78" t="str">
+      <c r="B7" s="81" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44283</v>
@@ -10919,16 +10818,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
       <c r="J9" s="47" t="s">
         <v>69</v>
       </c>
@@ -11950,27 +11849,27 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="80"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="83"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="103" t="s">
+      <c r="B53" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="80"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="83"/>
       <c r="H53" s="25" t="s">
         <v>111</v>
       </c>
@@ -11980,15 +11879,15 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="101" t="str">
+      <c r="B54" s="104" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="80"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="83"/>
       <c r="H54" s="33">
         <f>SUMIF($F$11:$F$49,'Dados do Projeto'!$B10,H$11:H$49)</f>
         <v>10</v>
@@ -12000,15 +11899,15 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="101" t="str">
+      <c r="B55" s="104" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="80"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="83"/>
       <c r="H55" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B11,H$11:H$49)</f>
         <v>10</v>
@@ -12020,15 +11919,15 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="101" t="str">
+      <c r="B56" s="104" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="80"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="83"/>
       <c r="H56" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B12,H$11:H$49)</f>
         <v>8</v>
@@ -12040,15 +11939,15 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="101" t="str">
+      <c r="B57" s="104" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="80"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="83"/>
       <c r="H57" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B13,H$11:H$49)</f>
         <v>16</v>
@@ -12060,15 +11959,15 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="101" t="str">
+      <c r="B58" s="104" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="80"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="83"/>
       <c r="H58" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B14,H$11:H$49)</f>
         <v>12</v>
@@ -13474,8 +13373,8 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="C13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13493,17 +13392,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
+      <c r="B1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
       <c r="K1" s="23">
         <f>Requisitos!C12</f>
         <v>44291</v>
@@ -13511,17 +13410,17 @@
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="76"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44292</v>
@@ -13529,17 +13428,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44293</v>
@@ -13547,17 +13446,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44294</v>
@@ -13565,17 +13464,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44295</v>
@@ -13598,18 +13497,18 @@
     </row>
     <row r="7" spans="1:21" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="78" t="str">
+      <c r="B7" s="81" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44297</v>
@@ -13632,16 +13531,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
       <c r="J9" s="47" t="s">
         <v>69</v>
       </c>
@@ -13708,7 +13607,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="23">
@@ -13927,7 +13826,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H18" s="28">
         <v>1</v>
@@ -14014,13 +13913,13 @@
         <v>8</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H21" s="28">
         <v>2</v>
       </c>
       <c r="I21" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="23"/>
@@ -14072,7 +13971,7 @@
         <v>16</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H23" s="28">
         <v>2</v>
@@ -14113,10 +14012,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="62"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
       <c r="O24" s="61"/>
     </row>
     <row r="25" spans="1:15" ht="37.5" customHeight="1">
@@ -14143,7 +14042,7 @@
         <v>4</v>
       </c>
       <c r="I25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="65"/>
       <c r="K25" s="23"/>
@@ -14829,7 +14728,7 @@
       </c>
       <c r="I70" s="32">
         <f t="shared" si="1"/>
-        <v>26.5</v>
+        <v>32.5</v>
       </c>
       <c r="J70" s="24"/>
     </row>
@@ -14845,7 +14744,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -14853,27 +14752,27 @@
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="102" t="s">
+      <c r="B72" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="80"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="82"/>
+      <c r="I72" s="83"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="103" t="s">
+      <c r="B73" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="79"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="80"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="83"/>
       <c r="H73" s="25" t="s">
         <v>111</v>
       </c>
@@ -14883,35 +14782,35 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="101" t="str">
+      <c r="B74" s="104" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C74" s="79"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="80"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="83"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>6</v>
       </c>
       <c r="I74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="101" t="str">
+      <c r="B75" s="104" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C75" s="79"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="80"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="83"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>4</v>
@@ -14923,35 +14822,35 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="101" t="str">
+      <c r="B76" s="104" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C76" s="79"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="80"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="83"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>12</v>
       </c>
       <c r="I76" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B12,I$11:I$60)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="101" t="str">
+      <c r="B77" s="104" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C77" s="79"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="80"/>
+      <c r="C77" s="82"/>
+      <c r="D77" s="82"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="83"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>10</v>
@@ -14963,22 +14862,22 @@
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="101" t="str">
+      <c r="B78" s="104" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C78" s="79"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="80"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="83"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>5</v>
       </c>
       <c r="I78" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B14,I$11:I$60)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
@@ -16458,16 +16357,16 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="C17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
     <col min="4" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
@@ -16477,17 +16376,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="21.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
+      <c r="B1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
       <c r="K1" s="23">
         <f>Requisitos!C13</f>
         <v>44305</v>
@@ -16495,17 +16394,17 @@
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="76"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44306</v>
@@ -16513,17 +16412,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44307</v>
@@ -16531,17 +16430,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44308</v>
@@ -16549,17 +16448,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44309</v>
@@ -16582,18 +16481,18 @@
     </row>
     <row r="7" spans="1:21" ht="21.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="78" t="str">
+      <c r="B7" s="81" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44311</v>
@@ -16616,16 +16515,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
       <c r="J9" s="48" t="s">
         <v>69</v>
       </c>
@@ -16673,18 +16572,30 @@
       <c r="B11" s="19">
         <v>1</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="20"/>
+      <c r="C11" s="26">
+        <v>44310</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="27">
+        <v>12</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H11" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="28">
         <v>0</v>
       </c>
-      <c r="J11" s="36"/>
+      <c r="J11" s="66" t="s">
+        <v>134</v>
+      </c>
       <c r="K11" s="23">
         <f t="shared" si="0"/>
         <v>44315</v>
@@ -16705,18 +16616,30 @@
       <c r="B12" s="19">
         <v>2</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="20"/>
+      <c r="C12" s="26">
+        <v>44310</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="27">
+        <v>12</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H12" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="28">
         <v>0</v>
       </c>
-      <c r="J12" s="29"/>
+      <c r="J12" s="66" t="s">
+        <v>136</v>
+      </c>
       <c r="K12" s="23">
         <f t="shared" si="0"/>
         <v>44316</v>
@@ -16727,18 +16650,30 @@
       <c r="B13" s="19">
         <v>3</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="20"/>
+      <c r="C13" s="26">
+        <v>44310</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="27">
+        <v>12</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H13" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="28">
         <v>0</v>
       </c>
-      <c r="J13" s="36"/>
+      <c r="J13" s="66" t="s">
+        <v>138</v>
+      </c>
       <c r="K13" s="23">
         <f t="shared" si="0"/>
         <v>44317</v>
@@ -16749,18 +16684,30 @@
       <c r="B14" s="19">
         <v>4</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="26">
+        <v>44311</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="27">
+        <v>12</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H14" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="28">
         <v>0</v>
       </c>
-      <c r="J14" s="36"/>
+      <c r="J14" s="66" t="s">
+        <v>140</v>
+      </c>
       <c r="K14" s="23">
         <f t="shared" si="0"/>
         <v>44318</v>
@@ -16771,162 +16718,260 @@
       <c r="B15" s="19">
         <v>5</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="20"/>
+      <c r="C15" s="26">
+        <v>44311</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="27">
+        <v>12</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H15" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="28">
-        <v>0</v>
-      </c>
-      <c r="J15" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:21" ht="37.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="19">
         <v>6</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="C16" s="26">
+        <v>44311</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H16" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="28">
         <v>0</v>
       </c>
-      <c r="J16" s="36"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" ht="37.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="19">
         <v>7</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="C17" s="26">
+        <v>44310</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="27">
+        <v>9</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H17" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="28">
         <v>0</v>
       </c>
-      <c r="J17" s="36"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="19">
         <v>8</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="C18" s="26">
+        <v>44310</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="27">
+        <v>9</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H18" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="28">
         <v>0</v>
       </c>
-      <c r="J18" s="36"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="37.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="19">
         <v>9</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="C19" s="26">
+        <v>44310</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="20">
+        <v>9</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="28">
-        <v>0</v>
-      </c>
-      <c r="J19" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="37.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="19">
         <v>10</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="C20" s="26">
+        <v>44310</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="20">
+        <v>6</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H20" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I20" s="28">
         <v>0</v>
       </c>
-      <c r="J20" s="27"/>
+      <c r="J20" s="70" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="37.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="19">
         <v>11</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="C21" s="26">
+        <v>44317</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="20">
+        <v>1</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="28">
         <v>0</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="70" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="37.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="19">
         <v>12</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="C22" s="26">
+        <v>44317</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="28">
         <v>0</v>
       </c>
-      <c r="J22" s="27"/>
+      <c r="J22" s="70" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="37.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="19">
         <v>13</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="C23" s="26">
+        <v>44317</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="20">
+        <v>6</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H23" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="28">
         <v>0</v>
       </c>
-      <c r="J23" s="27"/>
+      <c r="J23" s="70" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="37.5" customHeight="1">
       <c r="A24" s="1"/>
@@ -16936,7 +16981,7 @@
       <c r="C24" s="26"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="20"/>
       <c r="H24" s="28">
         <v>0</v>
@@ -16944,7 +16989,7 @@
       <c r="I24" s="28">
         <v>0</v>
       </c>
-      <c r="J24" s="27"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="37.5" customHeight="1">
       <c r="A25" s="1"/>
@@ -16954,7 +16999,7 @@
       <c r="C25" s="26"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="20"/>
       <c r="H25" s="28">
         <v>0</v>
@@ -16962,7 +17007,7 @@
       <c r="I25" s="28">
         <v>0</v>
       </c>
-      <c r="J25" s="27"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="37.5" customHeight="1">
       <c r="A26" s="1"/>
@@ -16972,7 +17017,7 @@
       <c r="C26" s="26"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="20"/>
       <c r="H26" s="28">
         <v>0</v>
@@ -16980,7 +17025,7 @@
       <c r="I26" s="28">
         <v>0</v>
       </c>
-      <c r="J26" s="27"/>
+      <c r="J26" s="66"/>
     </row>
     <row r="27" spans="1:10" ht="37.5" customHeight="1">
       <c r="A27" s="1"/>
@@ -16990,7 +17035,7 @@
       <c r="C27" s="26"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="20"/>
       <c r="H27" s="28">
         <v>0</v>
@@ -16998,7 +17043,7 @@
       <c r="I27" s="28">
         <v>0</v>
       </c>
-      <c r="J27" s="27"/>
+      <c r="J27" s="66"/>
     </row>
     <row r="28" spans="1:10" ht="37.5" customHeight="1">
       <c r="A28" s="1"/>
@@ -17008,7 +17053,7 @@
       <c r="C28" s="26"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="35"/>
       <c r="G28" s="20"/>
       <c r="H28" s="28">
         <v>0</v>
@@ -17016,7 +17061,7 @@
       <c r="I28" s="28">
         <v>0</v>
       </c>
-      <c r="J28" s="27"/>
+      <c r="J28" s="66"/>
     </row>
     <row r="29" spans="1:10" ht="37.5" customHeight="1">
       <c r="A29" s="1"/>
@@ -17026,7 +17071,7 @@
       <c r="C29" s="26"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="35"/>
       <c r="G29" s="20"/>
       <c r="H29" s="28">
         <v>0</v>
@@ -17034,7 +17079,7 @@
       <c r="I29" s="28">
         <v>0</v>
       </c>
-      <c r="J29" s="27"/>
+      <c r="J29" s="66"/>
     </row>
     <row r="30" spans="1:10" ht="37.5" customHeight="1">
       <c r="A30" s="1"/>
@@ -17044,7 +17089,7 @@
       <c r="C30" s="26"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="F30" s="35"/>
       <c r="G30" s="20"/>
       <c r="H30" s="28">
         <v>0</v>
@@ -17052,7 +17097,7 @@
       <c r="I30" s="28">
         <v>0</v>
       </c>
-      <c r="J30" s="27"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" ht="37.5" customHeight="1">
       <c r="A31" s="1"/>
@@ -17062,7 +17107,7 @@
       <c r="C31" s="26"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="20"/>
       <c r="H31" s="28">
         <v>0</v>
@@ -17070,7 +17115,7 @@
       <c r="I31" s="28">
         <v>0</v>
       </c>
-      <c r="J31" s="27"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:10" ht="37.5" customHeight="1">
       <c r="A32" s="1"/>
@@ -17080,7 +17125,7 @@
       <c r="C32" s="26"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="35"/>
       <c r="G32" s="20"/>
       <c r="H32" s="28">
         <v>0</v>
@@ -17088,7 +17133,7 @@
       <c r="I32" s="28">
         <v>0</v>
       </c>
-      <c r="J32" s="27"/>
+      <c r="J32" s="66"/>
     </row>
     <row r="33" spans="1:10" ht="37.5" customHeight="1">
       <c r="A33" s="1"/>
@@ -17098,7 +17143,7 @@
       <c r="C33" s="26"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="F33" s="35"/>
       <c r="G33" s="20"/>
       <c r="H33" s="28">
         <v>0</v>
@@ -17106,7 +17151,7 @@
       <c r="I33" s="28">
         <v>0</v>
       </c>
-      <c r="J33" s="27"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="1:10" ht="37.5" customHeight="1">
       <c r="A34" s="1"/>
@@ -17116,7 +17161,7 @@
       <c r="C34" s="26"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="F34" s="35"/>
       <c r="G34" s="20"/>
       <c r="H34" s="28">
         <v>0</v>
@@ -17124,7 +17169,7 @@
       <c r="I34" s="28">
         <v>0</v>
       </c>
-      <c r="J34" s="37"/>
+      <c r="J34" s="67"/>
     </row>
     <row r="35" spans="1:10" ht="37.5" customHeight="1">
       <c r="A35" s="1"/>
@@ -17134,7 +17179,7 @@
       <c r="C35" s="26"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="F35" s="35"/>
       <c r="G35" s="20"/>
       <c r="H35" s="28">
         <v>0</v>
@@ -17142,7 +17187,7 @@
       <c r="I35" s="28">
         <v>0</v>
       </c>
-      <c r="J35" s="37"/>
+      <c r="J35" s="67"/>
     </row>
     <row r="36" spans="1:10" ht="37.5" customHeight="1">
       <c r="A36" s="1"/>
@@ -17152,7 +17197,7 @@
       <c r="C36" s="26"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="F36" s="35"/>
       <c r="G36" s="20"/>
       <c r="H36" s="28">
         <v>0</v>
@@ -17160,7 +17205,7 @@
       <c r="I36" s="28">
         <v>0</v>
       </c>
-      <c r="J36" s="37"/>
+      <c r="J36" s="67"/>
     </row>
     <row r="37" spans="1:10" ht="37.5" customHeight="1">
       <c r="A37" s="1"/>
@@ -17170,7 +17215,7 @@
       <c r="C37" s="26"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="F37" s="35"/>
       <c r="G37" s="20"/>
       <c r="H37" s="28">
         <v>0</v>
@@ -17178,7 +17223,7 @@
       <c r="I37" s="28">
         <v>0</v>
       </c>
-      <c r="J37" s="37"/>
+      <c r="J37" s="67"/>
     </row>
     <row r="38" spans="1:10" ht="37.5" customHeight="1">
       <c r="A38" s="1"/>
@@ -17188,7 +17233,7 @@
       <c r="C38" s="26"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="20"/>
       <c r="H38" s="28">
         <v>0</v>
@@ -17196,7 +17241,7 @@
       <c r="I38" s="28">
         <v>0</v>
       </c>
-      <c r="J38" s="37"/>
+      <c r="J38" s="67"/>
     </row>
     <row r="39" spans="1:10" ht="37.5" customHeight="1">
       <c r="A39" s="1"/>
@@ -17206,7 +17251,7 @@
       <c r="C39" s="26"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
+      <c r="F39" s="35"/>
       <c r="G39" s="20"/>
       <c r="H39" s="28">
         <v>0</v>
@@ -17214,7 +17259,7 @@
       <c r="I39" s="28">
         <v>0</v>
       </c>
-      <c r="J39" s="37"/>
+      <c r="J39" s="67"/>
     </row>
     <row r="40" spans="1:10" ht="37.5" customHeight="1">
       <c r="A40" s="1"/>
@@ -17224,7 +17269,7 @@
       <c r="C40" s="26"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
+      <c r="F40" s="35"/>
       <c r="G40" s="20"/>
       <c r="H40" s="28">
         <v>0</v>
@@ -17232,7 +17277,7 @@
       <c r="I40" s="28">
         <v>0</v>
       </c>
-      <c r="J40" s="37"/>
+      <c r="J40" s="67"/>
     </row>
     <row r="41" spans="1:10" ht="37.5" customHeight="1">
       <c r="A41" s="1"/>
@@ -17242,7 +17287,7 @@
       <c r="C41" s="26"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
+      <c r="F41" s="35"/>
       <c r="G41" s="20"/>
       <c r="H41" s="28">
         <v>0</v>
@@ -17250,7 +17295,7 @@
       <c r="I41" s="28">
         <v>0</v>
       </c>
-      <c r="J41" s="37"/>
+      <c r="J41" s="67"/>
     </row>
     <row r="42" spans="1:10" ht="37.5" customHeight="1">
       <c r="A42" s="1"/>
@@ -17260,7 +17305,7 @@
       <c r="C42" s="26"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="F42" s="35"/>
       <c r="G42" s="20"/>
       <c r="H42" s="28">
         <v>0</v>
@@ -17268,7 +17313,7 @@
       <c r="I42" s="28">
         <v>0</v>
       </c>
-      <c r="J42" s="37"/>
+      <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10" ht="37.5" customHeight="1">
       <c r="A43" s="1"/>
@@ -17278,7 +17323,7 @@
       <c r="C43" s="26"/>
       <c r="D43" s="49"/>
       <c r="E43" s="49"/>
-      <c r="F43" s="20"/>
+      <c r="F43" s="35"/>
       <c r="G43" s="20"/>
       <c r="H43" s="28">
         <v>0</v>
@@ -17286,7 +17331,7 @@
       <c r="I43" s="28">
         <v>0</v>
       </c>
-      <c r="J43" s="37"/>
+      <c r="J43" s="67"/>
     </row>
     <row r="44" spans="1:10" ht="37.5" customHeight="1">
       <c r="A44" s="1"/>
@@ -17296,7 +17341,7 @@
       <c r="C44" s="26"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
+      <c r="F44" s="35"/>
       <c r="G44" s="20"/>
       <c r="H44" s="28">
         <v>0</v>
@@ -17304,7 +17349,7 @@
       <c r="I44" s="28">
         <v>0</v>
       </c>
-      <c r="J44" s="37"/>
+      <c r="J44" s="67"/>
     </row>
     <row r="45" spans="1:10" ht="37.5" customHeight="1">
       <c r="A45" s="1"/>
@@ -17314,7 +17359,7 @@
       <c r="C45" s="26"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
+      <c r="F45" s="35"/>
       <c r="G45" s="20"/>
       <c r="H45" s="28">
         <v>0</v>
@@ -17322,7 +17367,7 @@
       <c r="I45" s="28">
         <v>0</v>
       </c>
-      <c r="J45" s="37"/>
+      <c r="J45" s="67"/>
     </row>
     <row r="46" spans="1:10" ht="37.5" customHeight="1">
       <c r="A46" s="1"/>
@@ -17332,7 +17377,7 @@
       <c r="C46" s="26"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="F46" s="35"/>
       <c r="G46" s="20"/>
       <c r="H46" s="28">
         <v>0</v>
@@ -17340,7 +17385,7 @@
       <c r="I46" s="28">
         <v>0</v>
       </c>
-      <c r="J46" s="37"/>
+      <c r="J46" s="67"/>
     </row>
     <row r="47" spans="1:10" ht="37.5" customHeight="1">
       <c r="A47" s="1"/>
@@ -17350,7 +17395,7 @@
       <c r="C47" s="26"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="F47" s="35"/>
       <c r="G47" s="20"/>
       <c r="H47" s="28">
         <v>0</v>
@@ -17358,7 +17403,7 @@
       <c r="I47" s="28">
         <v>0</v>
       </c>
-      <c r="J47" s="37"/>
+      <c r="J47" s="67"/>
     </row>
     <row r="48" spans="1:10" ht="37.5" customHeight="1">
       <c r="A48" s="1"/>
@@ -17368,7 +17413,7 @@
       <c r="C48" s="26"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
+      <c r="F48" s="35"/>
       <c r="G48" s="20"/>
       <c r="H48" s="28">
         <v>0</v>
@@ -17376,7 +17421,7 @@
       <c r="I48" s="28">
         <v>0</v>
       </c>
-      <c r="J48" s="37"/>
+      <c r="J48" s="67"/>
     </row>
     <row r="49" spans="1:10" ht="37.5" customHeight="1">
       <c r="A49" s="1"/>
@@ -17386,7 +17431,7 @@
       <c r="C49" s="26"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
+      <c r="F49" s="35"/>
       <c r="G49" s="20"/>
       <c r="H49" s="28">
         <v>0</v>
@@ -17394,7 +17439,7 @@
       <c r="I49" s="28">
         <v>0</v>
       </c>
-      <c r="J49" s="37"/>
+      <c r="J49" s="67"/>
     </row>
     <row r="50" spans="1:10" ht="37.5" customHeight="1">
       <c r="A50" s="1"/>
@@ -17404,7 +17449,7 @@
       <c r="C50" s="26"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
+      <c r="F50" s="35"/>
       <c r="G50" s="20"/>
       <c r="H50" s="28">
         <v>0</v>
@@ -17412,7 +17457,7 @@
       <c r="I50" s="28">
         <v>0</v>
       </c>
-      <c r="J50" s="37"/>
+      <c r="J50" s="67"/>
     </row>
     <row r="51" spans="1:10" ht="37.5" customHeight="1">
       <c r="A51" s="1"/>
@@ -17422,7 +17467,7 @@
       <c r="C51" s="26"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
+      <c r="F51" s="35"/>
       <c r="G51" s="20"/>
       <c r="H51" s="28">
         <v>0</v>
@@ -17430,7 +17475,7 @@
       <c r="I51" s="28">
         <v>0</v>
       </c>
-      <c r="J51" s="37"/>
+      <c r="J51" s="67"/>
     </row>
     <row r="52" spans="1:10" ht="37.5" customHeight="1">
       <c r="A52" s="1"/>
@@ -17440,7 +17485,7 @@
       <c r="C52" s="26"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38"/>
-      <c r="F52" s="20"/>
+      <c r="F52" s="35"/>
       <c r="G52" s="20"/>
       <c r="H52" s="28">
         <v>0</v>
@@ -17448,7 +17493,7 @@
       <c r="I52" s="28">
         <v>0</v>
       </c>
-      <c r="J52" s="37"/>
+      <c r="J52" s="67"/>
     </row>
     <row r="53" spans="1:10" ht="37.5" customHeight="1">
       <c r="A53" s="1"/>
@@ -17458,7 +17503,7 @@
       <c r="C53" s="26"/>
       <c r="D53" s="30"/>
       <c r="E53" s="30"/>
-      <c r="F53" s="20"/>
+      <c r="F53" s="35"/>
       <c r="G53" s="20"/>
       <c r="H53" s="28">
         <v>0</v>
@@ -17466,7 +17511,7 @@
       <c r="I53" s="28">
         <v>0</v>
       </c>
-      <c r="J53" s="37"/>
+      <c r="J53" s="67"/>
     </row>
     <row r="54" spans="1:10" ht="37.5" customHeight="1">
       <c r="A54" s="1"/>
@@ -17476,7 +17521,7 @@
       <c r="C54" s="26"/>
       <c r="D54" s="30"/>
       <c r="E54" s="30"/>
-      <c r="F54" s="20"/>
+      <c r="F54" s="35"/>
       <c r="G54" s="20"/>
       <c r="H54" s="28">
         <v>0</v>
@@ -17484,7 +17529,7 @@
       <c r="I54" s="28">
         <v>0</v>
       </c>
-      <c r="J54" s="36"/>
+      <c r="J54" s="66"/>
     </row>
     <row r="55" spans="1:10" ht="37.5" customHeight="1">
       <c r="A55" s="1"/>
@@ -17494,7 +17539,7 @@
       <c r="C55" s="26"/>
       <c r="D55" s="30"/>
       <c r="E55" s="30"/>
-      <c r="F55" s="20"/>
+      <c r="F55" s="35"/>
       <c r="G55" s="20"/>
       <c r="H55" s="28">
         <v>0</v>
@@ -17502,7 +17547,7 @@
       <c r="I55" s="28">
         <v>0</v>
       </c>
-      <c r="J55" s="36"/>
+      <c r="J55" s="66"/>
     </row>
     <row r="56" spans="1:10" ht="37.5" customHeight="1">
       <c r="A56" s="1"/>
@@ -17512,7 +17557,7 @@
       <c r="C56" s="26"/>
       <c r="D56" s="30"/>
       <c r="E56" s="30"/>
-      <c r="F56" s="20"/>
+      <c r="F56" s="35"/>
       <c r="G56" s="20"/>
       <c r="H56" s="28">
         <v>0</v>
@@ -17520,7 +17565,7 @@
       <c r="I56" s="28">
         <v>0</v>
       </c>
-      <c r="J56" s="36"/>
+      <c r="J56" s="66"/>
     </row>
     <row r="57" spans="1:10" ht="37.5" customHeight="1">
       <c r="A57" s="1"/>
@@ -17530,7 +17575,7 @@
       <c r="C57" s="26"/>
       <c r="D57" s="30"/>
       <c r="E57" s="30"/>
-      <c r="F57" s="20"/>
+      <c r="F57" s="35"/>
       <c r="G57" s="20"/>
       <c r="H57" s="28">
         <v>0</v>
@@ -17538,7 +17583,7 @@
       <c r="I57" s="28">
         <v>0</v>
       </c>
-      <c r="J57" s="36"/>
+      <c r="J57" s="66"/>
     </row>
     <row r="58" spans="1:10" ht="37.5" customHeight="1">
       <c r="A58" s="1"/>
@@ -17548,7 +17593,7 @@
       <c r="C58" s="26"/>
       <c r="D58" s="30"/>
       <c r="E58" s="30"/>
-      <c r="F58" s="20"/>
+      <c r="F58" s="35"/>
       <c r="G58" s="20"/>
       <c r="H58" s="28">
         <v>0</v>
@@ -17556,7 +17601,7 @@
       <c r="I58" s="28">
         <v>0</v>
       </c>
-      <c r="J58" s="36"/>
+      <c r="J58" s="66"/>
     </row>
     <row r="59" spans="1:10" ht="37.5" customHeight="1">
       <c r="A59" s="1"/>
@@ -17566,7 +17611,7 @@
       <c r="C59" s="26"/>
       <c r="D59" s="30"/>
       <c r="E59" s="30"/>
-      <c r="F59" s="20"/>
+      <c r="F59" s="35"/>
       <c r="G59" s="20"/>
       <c r="H59" s="28">
         <v>0</v>
@@ -17574,7 +17619,7 @@
       <c r="I59" s="28">
         <v>0</v>
       </c>
-      <c r="J59" s="36"/>
+      <c r="J59" s="66"/>
     </row>
     <row r="60" spans="1:10" ht="37.5" customHeight="1">
       <c r="A60" s="1"/>
@@ -17584,7 +17629,7 @@
       <c r="C60" s="26"/>
       <c r="D60" s="30"/>
       <c r="E60" s="30"/>
-      <c r="F60" s="20"/>
+      <c r="F60" s="35"/>
       <c r="G60" s="20"/>
       <c r="H60" s="28">
         <v>0</v>
@@ -17592,7 +17637,7 @@
       <c r="I60" s="28">
         <v>0</v>
       </c>
-      <c r="J60" s="36"/>
+      <c r="J60" s="66"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
@@ -17605,11 +17650,11 @@
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I61" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" s="1"/>
     </row>
@@ -17619,13 +17664,13 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -17633,27 +17678,27 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="102" t="s">
+      <c r="B63" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="80"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="83"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="103" t="s">
+      <c r="B64" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="80"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="83"/>
       <c r="H64" s="25" t="s">
         <v>111</v>
       </c>
@@ -17663,18 +17708,18 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="101" t="str">
+      <c r="B65" s="104" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="80"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="83"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
@@ -17683,18 +17728,18 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="101" t="str">
+      <c r="B66" s="104" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="80"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="83"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I66" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B11,I$11:I$60)</f>
@@ -17703,18 +17748,18 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="101" t="str">
+      <c r="B67" s="104" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="80"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="83"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B12,I$11:I$60)</f>
@@ -17723,38 +17768,38 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="101" t="str">
+      <c r="B68" s="104" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="80"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="83"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I68" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B13,I$11:I$60)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="101" t="str">
+      <c r="B69" s="104" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="80"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="83"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I69" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B14,I$11:I$60)</f>
@@ -19090,62 +19135,62 @@
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="containsBlanks" dxfId="177" priority="3">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="176" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="175" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="174" priority="6">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="173" priority="7">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="containsBlanks" dxfId="172" priority="8">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="171" priority="9">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="170" priority="10">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="169" priority="11">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="168" priority="12">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="167" priority="13">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="166" priority="14">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
@@ -19255,62 +19300,62 @@
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="containsBlanks" dxfId="144" priority="36">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="143" priority="37">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="142" priority="38">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="141" priority="39">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="140" priority="40">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="containsBlanks" dxfId="139" priority="41">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="138" priority="42">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="137" priority="43">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="136" priority="44">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="135" priority="45">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="134" priority="46">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F15">
+  <conditionalFormatting sqref="F11:F60">
     <cfRule type="expression" dxfId="133" priority="47">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
@@ -19410,14 +19455,33 @@
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11:C60" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$K$1:$K$14</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F60" xr:uid="{A4D41A32-B4C1-489B-A022-18140E469771}">
+      <formula1>$B$65:$B$69</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J20" r:id="rId1" xr:uid="{E5B93A16-F30F-4F23-ABE2-E263787EF15B}"/>
+    <hyperlink ref="J21" r:id="rId2" xr:uid="{F1213D50-06B2-4063-8EF4-EBC876EAE7B1}"/>
+    <hyperlink ref="J22" r:id="rId3" xr:uid="{E6890317-9CF4-4604-86F8-2A42036D327D}"/>
+    <hyperlink ref="J23" r:id="rId4" xr:uid="{D96E1D99-39F2-43C7-AE79-261B37022293}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId5"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BB665B75-B6C8-4A44-B01D-12211059F2FC}">
+          <x14:formula1>
+            <xm:f>'Dados do Projeto'!$M$100:$M$103</xm:f>
+          </x14:formula1>
+          <xm:sqref>G11:G60</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -19452,17 +19516,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
+      <c r="B1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
       <c r="K1" s="23">
         <f>Requisitos!C14</f>
         <v>44319</v>
@@ -19470,17 +19534,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="76"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44320</v>
@@ -19488,17 +19552,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44321</v>
@@ -19506,17 +19570,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44322</v>
@@ -19524,17 +19588,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44323</v>
@@ -19557,18 +19621,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="78" t="str">
+      <c r="B7" s="81" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44325</v>
@@ -19591,16 +19655,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="102" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80"/>
+      <c r="B9" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
       <c r="J9" s="48" t="s">
         <v>69</v>
       </c>
@@ -20622,27 +20686,27 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="102" t="s">
+      <c r="B63" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="80"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="83"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="103" t="s">
+      <c r="B64" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="80"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="83"/>
       <c r="H64" s="25" t="s">
         <v>111</v>
       </c>
@@ -20652,15 +20716,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="101" t="str">
+      <c r="B65" s="104" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="80"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="83"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -20672,15 +20736,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="101" t="str">
+      <c r="B66" s="104" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="80"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="83"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -20692,15 +20756,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="101" t="str">
+      <c r="B67" s="104" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="80"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="83"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -20712,15 +20776,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="101" t="str">
+      <c r="B68" s="104" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="80"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="83"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -20732,15 +20796,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="101" t="str">
+      <c r="B69" s="104" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="80"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="83"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -22304,17 +22368,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
+      <c r="B1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
       <c r="K1" s="23">
         <f>Requisitos!C15</f>
         <v>44333</v>
@@ -22322,17 +22386,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="76"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44334</v>
@@ -22340,17 +22404,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44335</v>
@@ -22358,17 +22422,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44336</v>
@@ -22376,17 +22440,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44337</v>
@@ -22409,18 +22473,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="78" t="str">
+      <c r="B7" s="81" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44339</v>
@@ -22443,16 +22507,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="102" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80"/>
+      <c r="B9" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
       <c r="J9" s="48" t="s">
         <v>69</v>
       </c>
@@ -23474,27 +23538,27 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="102" t="s">
+      <c r="B63" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="80"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="83"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="103" t="s">
+      <c r="B64" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="80"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="83"/>
       <c r="H64" s="25" t="s">
         <v>111</v>
       </c>
@@ -23504,15 +23568,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="101" t="str">
+      <c r="B65" s="104" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="80"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="83"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -23524,15 +23588,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="101" t="str">
+      <c r="B66" s="104" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="80"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="83"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -23544,15 +23608,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="101" t="str">
+      <c r="B67" s="104" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="80"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="83"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -23564,15 +23628,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="101" t="str">
+      <c r="B68" s="104" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="80"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="83"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -23584,15 +23648,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="101" t="str">
+      <c r="B69" s="104" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="80"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="83"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -25156,34 +25220,34 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
+      <c r="B1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
       <c r="K1" s="23">
         <v>44347</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="76"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44348</v>
@@ -25191,17 +25255,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44349</v>
@@ -25209,17 +25273,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44350</v>
@@ -25227,17 +25291,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44351</v>
@@ -25260,18 +25324,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="78" t="str">
+      <c r="B7" s="81" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44353</v>
@@ -25294,16 +25358,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="102" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80"/>
+      <c r="B9" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
       <c r="J9" s="48" t="s">
         <v>69</v>
       </c>
@@ -26325,27 +26389,27 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="102" t="s">
+      <c r="B63" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="80"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="83"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="103" t="s">
+      <c r="B64" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="80"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="83"/>
       <c r="H64" s="25" t="s">
         <v>111</v>
       </c>
@@ -26355,15 +26419,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="101" t="str">
+      <c r="B65" s="104" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="80"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="83"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -26375,15 +26439,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="101" t="str">
+      <c r="B66" s="104" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="80"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="83"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -26395,15 +26459,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="101" t="str">
+      <c r="B67" s="104" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="80"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="83"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -26415,15 +26479,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="101" t="str">
+      <c r="B68" s="104" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="80"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="83"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -26435,15 +26499,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="101" t="str">
+      <c r="B69" s="104" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="80"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="83"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -27981,21 +28045,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009407E1920DA0244181F4A5E68B236D03" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f93176ac4c7b0499f4c793ef7a260ff7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d841e270-8762-48f1-af0f-95d6f11e59ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e08dd84ed401fbaad7197cdcae1eb72f" ns2:_="">
     <xsd:import namespace="d841e270-8762-48f1-af0f-95d6f11e59ea"/>
@@ -28153,14 +28202,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22A15D46-B256-4EDE-A7D0-6A4D07704ACB}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FC0B413-BAC6-4036-8CEB-C5632804ED21}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AE7633-9F17-461A-8B68-7FAC2F42E9FA}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22A15D46-B256-4EDE-A7D0-6A4D07704ACB}"/>
 </file>
--- a/Artefatos/Sprints - ParkIO.xlsx
+++ b/Artefatos/Sprints - ParkIO.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="1333" documentId="11_713659AC415AC9C2D79A1EC9FA76B4759D2182B7" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{69374BD6-8506-4AF4-8976-C49F9C20B1C5}"/>
+  <xr:revisionPtr revIDLastSave="1603" documentId="11_713659AC415AC9C2D79A1EC9FA76B4759D2182B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EDF2EA2-AB77-4966-895E-6327F8D92E3F}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="185">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -566,10 +566,13 @@
     <t>O porteiro poderá aumentar o tempo de permanência do visitante após fazer contato com o morador para verificar o motivo do atraso.</t>
   </si>
   <si>
-    <t>Tarefas Criadas</t>
+    <t>Pendente</t>
   </si>
   <si>
     <t>O sistema deve emitir um alerta para um grupo no Telegram contendo os porteiros e os rondas no caso de algum veículo ficar determinado tempo dentro do condomínio.</t>
+  </si>
+  <si>
+    <t>Tarefas Criadas</t>
   </si>
   <si>
     <t>O administrador do sistema poderá criar usuários com diferentes permissões.</t>
@@ -597,9 +600,6 @@
   </si>
   <si>
     <t>PROGRESSO</t>
-  </si>
-  <si>
-    <t>Pendente</t>
   </si>
   <si>
     <t>Departamento de Engenharia de Software e Sistemas de Informação</t>
@@ -871,7 +871,101 @@
     <t>https://github.com/ICEI-PUC-Minas-PPLES-TI/plf-es-2021-1-ti3-6654100-parkio/issues/51</t>
   </si>
   <si>
+    <t>Diagrama de classes</t>
+  </si>
+  <si>
     <t>SPRINT #4</t>
+  </si>
+  <si>
+    <t>Criar/atualizar wireframes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	- Adicionar dropdown do header com logout.
+	- No wireframe da página de cadastrar veículo, com campos desatualizados (Apartamento, bloco...). (/gate)
+	- No wireframe da página de remover veículo, trocar o texto do botão 'Atualizar' para 'Remover veículo'. (/gate)
+	- Criar o wireframe modal de extender tempo de permanência de um veículo (Requisito 4). (/gate)
+	- Criar wiframe apresentando os campos para serem atualizados pelo Ronda (Requisito 13). (/gate)
+	- No wireframe da página lista de todos os veículos,  adicionar campos de 'Porteiro de Entrada' e 'Porteiro de Saída'. (/vehiclelist)
+	- No wireframe da página lista de usuários remover campo 'Última vez visto' e adicionar na tabela 'Tipo'. (/userlist)
+	- Criar os wireframes modals de cadastrar Portarias e Categorias de Visitante. (/admin)
+- Criar o wireframe da página de relatório da adminsitração</t>
+  </si>
+  <si>
+    <t>Criar feature para extender tempo de permanência de um veículo</t>
+  </si>
+  <si>
+    <t>https://github.com/ICEI-PUC-Minas-PPLES-TI/plf-es-2021-1-ti3-6654100-parkio/issues/48</t>
+  </si>
+  <si>
+    <t>Criar frontend para o Ronda atualizar informações do veículo.</t>
+  </si>
+  <si>
+    <t>Criar backend para o Ronda atualizar informações do veículo.</t>
+  </si>
+  <si>
+    <t>Verificar a categoria do usuário nos coockies,
+se basear na feature menu</t>
+  </si>
+  <si>
+    <t>Atualizar o botão de deletar Categoria de Visitante e Complain para vermelho.</t>
+  </si>
+  <si>
+    <t>https://github.com/ICEI-PUC-Minas-PPLES-TI/plf-es-2021-1-ti3-6654100-parkio/issues/65</t>
+  </si>
+  <si>
+    <t>Adicionar funcionalidade para excluir botões na Categorias de Visitantes e Veículos Reportados</t>
+  </si>
+  <si>
+    <t>https://github.com/ICEI-PUC-Minas-PPLES-TI/plf-es-2021-1-ti3-6654100-parkio/issues/73</t>
+  </si>
+  <si>
+    <t>Corrigir bug de cadastrar o mesmo veículo em portarias diferentes</t>
+  </si>
+  <si>
+    <t>https://github.com/ICEI-PUC-Minas-PPLES-TI/plf-es-2021-1-ti3-6654100-parkio/issues/69</t>
+  </si>
+  <si>
+    <t>Corrigir o bug do botão de logout na página de portaria</t>
+  </si>
+  <si>
+    <t>https://github.com/ICEI-PUC-Minas-PPLES-TI/plf-es-2021-1-ti3-6654100-parkio/issues/70</t>
+  </si>
+  <si>
+    <t>Corrigir bug de usuário sem permissão poder acessar páginas por rota</t>
+  </si>
+  <si>
+    <t>https://github.com/ICEI-PUC-Minas-PPLES-TI/plf-es-2021-1-ti3-6654100-parkio/issues/71</t>
+  </si>
+  <si>
+    <t>Criar funcionalidade para o botão de editar Categoria do Visitante</t>
+  </si>
+  <si>
+    <t>Mostrar a placa do veículo no modal de reportar veículo</t>
+  </si>
+  <si>
+    <t>https://github.com/ICEI-PUC-Minas-PPLES-TI/plf-es-2021-1-ti3-6654100-parkio/issues/68</t>
+  </si>
+  <si>
+    <t>Atualizar campos da tabela de lista de veículos</t>
+  </si>
+  <si>
+    <t>https://github.com/ICEI-PUC-Minas-PPLES-TI/plf-es-2021-1-ti3-6654100-parkio/issues/67</t>
+  </si>
+  <si>
+    <t>Atualizar texto do botão de remover veículo</t>
+  </si>
+  <si>
+    <t>https://github.com/ICEI-PUC-Minas-PPLES-TI/plf-es-2021-1-ti3-6654100-parkio/issues/66</t>
+  </si>
+  <si>
+    <t>Criar frontend do filtro avançado da página lista de veículos</t>
+  </si>
+  <si>
+    <t>https://github.com/ICEI-PUC-Minas-PPLES-TI/plf-es-2021-1-ti3-6654100-parkio/issues/41</t>
+  </si>
+  <si>
+    <t>Criar backend do filtro avançado da página lista de veículos</t>
   </si>
   <si>
     <t>SPRINT #5</t>
@@ -1031,7 +1125,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1101,6 +1195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEAAAA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,7 +1385,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1460,10 +1560,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1556,10 +1662,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3560,7 +3669,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="1"/>
   <c:style val="18"/>
   <c:chart>
@@ -3662,7 +3771,7 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3731,10 +3840,10 @@
                   <c:v>53.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.5</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4177,7 +4286,7 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
@@ -4190,15 +4299,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
+      <c r="B1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4206,15 +4315,15 @@
     </row>
     <row r="2" spans="1:15" ht="18">
       <c r="A2" s="1"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4222,15 +4331,15 @@
     </row>
     <row r="3" spans="1:15" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4238,15 +4347,15 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4254,15 +4363,15 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -4284,15 +4393,15 @@
     </row>
     <row r="7" spans="1:15" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -4317,17 +4426,17 @@
     </row>
     <row r="9" spans="1:15" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="85"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -4337,17 +4446,17 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="86" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -4357,17 +4466,17 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="86" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -4377,17 +4486,17 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="86" t="s">
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -4397,17 +4506,17 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="86" t="s">
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -4417,17 +4526,17 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="86" t="s">
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -5677,16 +5786,16 @@
     </row>
     <row r="99" spans="1:15" ht="15.75" customHeight="1">
       <c r="A99" s="40"/>
-      <c r="B99" s="88"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="89" t="s">
+      <c r="B99" s="90"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="75"/>
-      <c r="F99" s="89" t="s">
+      <c r="E99" s="77"/>
+      <c r="F99" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="75"/>
+      <c r="G99" s="77"/>
       <c r="H99" s="41" t="s">
         <v>21</v>
       </c>
@@ -5708,12 +5817,12 @@
     </row>
     <row r="100" spans="1:15" ht="15.75" customHeight="1">
       <c r="A100" s="40"/>
-      <c r="B100" s="91"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="90" t="s">
+      <c r="B100" s="93"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="75"/>
+      <c r="E100" s="77"/>
       <c r="F100" s="43" t="s">
         <v>26</v>
       </c>
@@ -5735,7 +5844,7 @@
       </c>
       <c r="L100" s="44">
         <f>SUM('Sprint #1'!$I54, 'Sprint #2'!$I74, 'Sprint #3'!$I65, 'Sprint #5'!$I65)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M100" s="43" t="s">
         <v>28</v>
@@ -5747,12 +5856,12 @@
     </row>
     <row r="101" spans="1:15" ht="15.75" customHeight="1">
       <c r="A101" s="40"/>
-      <c r="B101" s="91"/>
-      <c r="C101" s="75"/>
-      <c r="D101" s="90" t="s">
+      <c r="B101" s="93"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="75"/>
+      <c r="E101" s="77"/>
       <c r="F101" s="43" t="s">
         <v>30</v>
       </c>
@@ -5765,7 +5874,7 @@
       </c>
       <c r="I101" s="45">
         <f>'Sprint #2'!I$70</f>
-        <v>32.5</v>
+        <v>37.5</v>
       </c>
       <c r="J101" s="43"/>
       <c r="K101" s="44" t="str">
@@ -5774,7 +5883,7 @@
       </c>
       <c r="L101" s="44">
         <f>SUM('Sprint #1'!$I55, 'Sprint #2'!$I75, 'Sprint #3'!$I66, 'Sprint #5'!$I66)</f>
-        <v>9.61</v>
+        <v>12.61</v>
       </c>
       <c r="M101" s="43" t="s">
         <v>32</v>
@@ -5786,23 +5895,23 @@
     </row>
     <row r="102" spans="1:15" ht="15.75" customHeight="1">
       <c r="A102" s="40"/>
-      <c r="B102" s="91"/>
-      <c r="C102" s="75"/>
-      <c r="D102" s="90" t="s">
+      <c r="B102" s="93"/>
+      <c r="C102" s="77"/>
+      <c r="D102" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="75"/>
+      <c r="E102" s="77"/>
       <c r="F102" s="43"/>
       <c r="G102" s="44" t="s">
         <v>34</v>
       </c>
       <c r="H102" s="45">
         <f>'Sprint #3'!H$61</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I102" s="45">
         <f>'Sprint #3'!I$61</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J102" s="43"/>
       <c r="K102" s="44" t="str">
@@ -5811,7 +5920,7 @@
       </c>
       <c r="L102" s="44">
         <f>SUM('Sprint #1'!$I56, 'Sprint #2'!$I76, 'Sprint #3'!$I67, 'Sprint #5'!$I67)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M102" s="43" t="s">
         <v>35</v>
@@ -5823,12 +5932,12 @@
     </row>
     <row r="103" spans="1:15" ht="15.75" customHeight="1">
       <c r="A103" s="40"/>
-      <c r="B103" s="91"/>
-      <c r="C103" s="75"/>
-      <c r="D103" s="90" t="s">
+      <c r="B103" s="93"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="E103" s="75"/>
+      <c r="E103" s="77"/>
       <c r="F103" s="43"/>
       <c r="G103" s="44" t="s">
         <v>36</v>
@@ -5848,7 +5957,7 @@
       </c>
       <c r="L103" s="44">
         <f>SUM('Sprint #1'!$I57, 'Sprint #2'!$I77, 'Sprint #3'!$I68, 'Sprint #5'!$I68)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M103" s="43" t="s">
         <v>37</v>
@@ -5858,12 +5967,12 @@
     </row>
     <row r="104" spans="1:15" ht="15.75" customHeight="1">
       <c r="A104" s="40"/>
-      <c r="B104" s="91"/>
-      <c r="C104" s="75"/>
-      <c r="D104" s="90" t="s">
+      <c r="B104" s="93"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="75"/>
+      <c r="E104" s="77"/>
       <c r="F104" s="43"/>
       <c r="G104" s="44" t="s">
         <v>38</v>
@@ -5883,13 +5992,13 @@
       </c>
       <c r="L104" s="44">
         <f>SUM('Sprint #1'!$I58, 'Sprint #2'!$I78, 'Sprint #3'!$I69, 'Sprint #5'!$I69)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="15.75" customHeight="1">
       <c r="A105" s="40"/>
-      <c r="B105" s="91"/>
-      <c r="C105" s="75"/>
+      <c r="B105" s="93"/>
+      <c r="C105" s="77"/>
       <c r="F105" s="43"/>
       <c r="G105" s="43"/>
       <c r="H105" s="43"/>
@@ -5900,8 +6009,8 @@
     </row>
     <row r="106" spans="1:15" ht="15.75" customHeight="1">
       <c r="A106" s="40"/>
-      <c r="B106" s="91"/>
-      <c r="C106" s="75"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="77"/>
       <c r="D106" s="46"/>
       <c r="E106" s="43"/>
       <c r="F106" s="43"/>
@@ -6980,8 +7089,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:G35"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6997,67 +7106,67 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
+      <c r="B1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
@@ -7073,16 +7182,16 @@
     </row>
     <row r="7" spans="1:9" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="92" t="str">
+      <c r="B7" s="94" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
@@ -7098,15 +7207,15 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="85"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
@@ -7120,11 +7229,11 @@
       <c r="D10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
       <c r="H10" s="10" t="s">
         <v>44</v>
       </c>
@@ -7142,11 +7251,11 @@
         <f t="shared" ref="D11:D16" si="0">C11+13</f>
         <v>44290</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="99"/>
       <c r="H11" s="13"/>
       <c r="I11" s="1"/>
     </row>
@@ -7163,9 +7272,9 @@
         <f t="shared" si="0"/>
         <v>44304</v>
       </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
       <c r="H12" s="13"/>
       <c r="I12" s="1"/>
     </row>
@@ -7182,9 +7291,9 @@
         <f t="shared" si="0"/>
         <v>44318</v>
       </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="85"/>
       <c r="H13" s="13"/>
       <c r="I13" s="1"/>
     </row>
@@ -7201,9 +7310,9 @@
         <f t="shared" si="0"/>
         <v>44332</v>
       </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
       <c r="H14" s="13"/>
       <c r="I14" s="1"/>
     </row>
@@ -7220,9 +7329,9 @@
         <f t="shared" si="0"/>
         <v>44346</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
       <c r="H15" s="13"/>
       <c r="I15" s="1"/>
     </row>
@@ -7239,9 +7348,9 @@
         <f t="shared" si="0"/>
         <v>44360</v>
       </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
       <c r="H16" s="13"/>
       <c r="I16" s="1"/>
     </row>
@@ -7270,13 +7379,13 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="15" t="s">
         <v>47</v>
       </c>
@@ -7287,11 +7396,11 @@
       <c r="B20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="83"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="17" t="s">
         <v>48</v>
       </c>
@@ -7302,13 +7411,13 @@
       <c r="B21" s="19">
         <v>1</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="83"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="85"/>
       <c r="H21" s="20" t="s">
         <v>50</v>
       </c>
@@ -7319,13 +7428,13 @@
       <c r="B22" s="18">
         <v>2</v>
       </c>
-      <c r="C22" s="102" t="s">
+      <c r="C22" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="85"/>
       <c r="H22" s="20" t="s">
         <v>50</v>
       </c>
@@ -7336,13 +7445,13 @@
       <c r="B23" s="19">
         <v>3</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="C23" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="20" t="s">
         <v>50</v>
       </c>
@@ -7353,13 +7462,13 @@
       <c r="B24" s="18">
         <v>4</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="85"/>
       <c r="H24" s="20" t="s">
         <v>54</v>
       </c>
@@ -7370,15 +7479,15 @@
       <c r="B25" s="19">
         <v>5</v>
       </c>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="85"/>
       <c r="H25" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -7387,13 +7496,13 @@
       <c r="B26" s="18">
         <v>6</v>
       </c>
-      <c r="C26" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="83"/>
+      <c r="C26" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="85"/>
       <c r="H26" s="20" t="s">
         <v>50</v>
       </c>
@@ -7404,13 +7513,13 @@
       <c r="B27" s="19">
         <v>7</v>
       </c>
-      <c r="C27" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="83"/>
+      <c r="C27" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="85"/>
       <c r="H27" s="20" t="s">
         <v>50</v>
       </c>
@@ -7421,13 +7530,13 @@
       <c r="B28" s="18">
         <v>8</v>
       </c>
-      <c r="C28" s="102" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="83"/>
+      <c r="C28" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="85"/>
       <c r="H28" s="20" t="s">
         <v>50</v>
       </c>
@@ -7438,15 +7547,15 @@
       <c r="B29" s="19">
         <v>9</v>
       </c>
-      <c r="C29" s="102" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="83"/>
+      <c r="C29" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="85"/>
       <c r="H29" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -7455,13 +7564,13 @@
       <c r="B30" s="18">
         <v>10</v>
       </c>
-      <c r="C30" s="103" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="80"/>
+      <c r="C30" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="82"/>
       <c r="H30" s="20" t="s">
         <v>50</v>
       </c>
@@ -7472,15 +7581,15 @@
       <c r="B31" s="19">
         <v>11</v>
       </c>
-      <c r="C31" s="102" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="83"/>
+      <c r="C31" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="85"/>
       <c r="H31" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I31" s="1"/>
     </row>
@@ -7489,15 +7598,15 @@
       <c r="B32" s="18">
         <v>12</v>
       </c>
-      <c r="C32" s="102" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="83"/>
+      <c r="C32" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="85"/>
       <c r="H32" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I32" s="1"/>
     </row>
@@ -7506,13 +7615,13 @@
       <c r="B33" s="19">
         <v>13</v>
       </c>
-      <c r="C33" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="83"/>
+      <c r="C33" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85"/>
       <c r="H33" s="20" t="s">
         <v>54</v>
       </c>
@@ -7523,11 +7632,11 @@
       <c r="B34" s="18">
         <v>14</v>
       </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="83"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="85"/>
       <c r="H34" s="20"/>
       <c r="I34" s="1"/>
     </row>
@@ -7536,11 +7645,11 @@
       <c r="B35" s="19">
         <v>15</v>
       </c>
-      <c r="C35" s="102"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="83"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="85"/>
       <c r="H35" s="20"/>
       <c r="I35" s="1"/>
     </row>
@@ -7549,11 +7658,11 @@
       <c r="B36" s="18">
         <v>16</v>
       </c>
-      <c r="C36" s="102"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="83"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="85"/>
       <c r="H36" s="20"/>
       <c r="I36" s="1"/>
     </row>
@@ -7562,11 +7671,11 @@
       <c r="B37" s="19">
         <v>17</v>
       </c>
-      <c r="C37" s="102"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="85"/>
       <c r="H37" s="20"/>
       <c r="I37" s="1"/>
     </row>
@@ -7575,11 +7684,11 @@
       <c r="B38" s="18">
         <v>18</v>
       </c>
-      <c r="C38" s="102"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="83"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="85"/>
       <c r="H38" s="20"/>
       <c r="I38" s="1"/>
     </row>
@@ -7588,11 +7697,11 @@
       <c r="B39" s="19">
         <v>19</v>
       </c>
-      <c r="C39" s="102"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="83"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="85"/>
       <c r="H39" s="20"/>
       <c r="I39" s="1"/>
     </row>
@@ -7601,11 +7710,11 @@
       <c r="B40" s="18">
         <v>20</v>
       </c>
-      <c r="C40" s="102"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="83"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="85"/>
       <c r="H40" s="20"/>
       <c r="I40" s="1"/>
     </row>
@@ -7614,11 +7723,11 @@
       <c r="B41" s="19">
         <v>21</v>
       </c>
-      <c r="C41" s="102"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="83"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="85"/>
       <c r="H41" s="20"/>
       <c r="I41" s="1"/>
     </row>
@@ -7627,11 +7736,11 @@
       <c r="B42" s="18">
         <v>22</v>
       </c>
-      <c r="C42" s="102"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="83"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="85"/>
       <c r="H42" s="20"/>
       <c r="I42" s="1"/>
     </row>
@@ -7640,11 +7749,11 @@
       <c r="B43" s="19">
         <v>23</v>
       </c>
-      <c r="C43" s="102"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="83"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="85"/>
       <c r="H43" s="20"/>
       <c r="I43" s="1"/>
     </row>
@@ -7653,11 +7762,11 @@
       <c r="B44" s="18">
         <v>24</v>
       </c>
-      <c r="C44" s="102"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="83"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="85"/>
       <c r="H44" s="20"/>
       <c r="I44" s="1"/>
     </row>
@@ -7666,11 +7775,11 @@
       <c r="B45" s="19">
         <v>25</v>
       </c>
-      <c r="C45" s="102"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="83"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="85"/>
       <c r="H45" s="20"/>
       <c r="I45" s="1"/>
     </row>
@@ -7679,11 +7788,11 @@
       <c r="B46" s="18">
         <v>26</v>
       </c>
-      <c r="C46" s="102"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="83"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="85"/>
       <c r="H46" s="20"/>
       <c r="I46" s="1"/>
     </row>
@@ -7692,11 +7801,11 @@
       <c r="B47" s="19">
         <v>27</v>
       </c>
-      <c r="C47" s="102"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="83"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="85"/>
       <c r="H47" s="20"/>
       <c r="I47" s="1"/>
     </row>
@@ -7705,11 +7814,11 @@
       <c r="B48" s="18">
         <v>28</v>
       </c>
-      <c r="C48" s="102"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="83"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="85"/>
       <c r="H48" s="20"/>
       <c r="I48" s="1"/>
     </row>
@@ -7718,11 +7827,11 @@
       <c r="B49" s="19">
         <v>29</v>
       </c>
-      <c r="C49" s="102"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="83"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="85"/>
       <c r="H49" s="20"/>
       <c r="I49" s="1"/>
     </row>
@@ -7731,11 +7840,11 @@
       <c r="B50" s="18">
         <v>30</v>
       </c>
-      <c r="C50" s="102"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="83"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="85"/>
       <c r="H50" s="20"/>
       <c r="I50" s="1"/>
     </row>
@@ -7744,11 +7853,11 @@
       <c r="B51" s="19">
         <v>31</v>
       </c>
-      <c r="C51" s="102"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="83"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="85"/>
       <c r="H51" s="20"/>
       <c r="I51" s="1"/>
     </row>
@@ -7757,11 +7866,11 @@
       <c r="B52" s="18">
         <v>32</v>
       </c>
-      <c r="C52" s="102"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="83"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="85"/>
       <c r="H52" s="20"/>
       <c r="I52" s="1"/>
     </row>
@@ -7770,11 +7879,11 @@
       <c r="B53" s="19">
         <v>33</v>
       </c>
-      <c r="C53" s="102"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="83"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="85"/>
       <c r="H53" s="20"/>
       <c r="I53" s="1"/>
     </row>
@@ -7783,11 +7892,11 @@
       <c r="B54" s="18">
         <v>34</v>
       </c>
-      <c r="C54" s="102"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="83"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="85"/>
       <c r="H54" s="20"/>
       <c r="I54" s="1"/>
     </row>
@@ -7796,11 +7905,11 @@
       <c r="B55" s="19">
         <v>35</v>
       </c>
-      <c r="C55" s="102"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="83"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="85"/>
       <c r="H55" s="20"/>
       <c r="I55" s="1"/>
     </row>
@@ -7809,11 +7918,11 @@
       <c r="B56" s="18">
         <v>36</v>
       </c>
-      <c r="C56" s="102"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="83"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="85"/>
       <c r="H56" s="20"/>
       <c r="I56" s="1"/>
     </row>
@@ -7822,11 +7931,11 @@
       <c r="B57" s="19">
         <v>37</v>
       </c>
-      <c r="C57" s="102"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="83"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="85"/>
       <c r="H57" s="20"/>
       <c r="I57" s="1"/>
     </row>
@@ -7835,11 +7944,11 @@
       <c r="B58" s="18">
         <v>38</v>
       </c>
-      <c r="C58" s="102"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="83"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="85"/>
       <c r="H58" s="20"/>
       <c r="I58" s="1"/>
     </row>
@@ -7848,11 +7957,11 @@
       <c r="B59" s="19">
         <v>39</v>
       </c>
-      <c r="C59" s="102"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="83"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="85"/>
       <c r="H59" s="20"/>
       <c r="I59" s="1"/>
     </row>
@@ -7861,11 +7970,11 @@
       <c r="B60" s="18">
         <v>40</v>
       </c>
-      <c r="C60" s="102"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="83"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="85"/>
       <c r="H60" s="20"/>
       <c r="I60" s="1"/>
     </row>
@@ -7874,11 +7983,11 @@
       <c r="B61" s="19">
         <v>41</v>
       </c>
-      <c r="C61" s="102"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="83"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="85"/>
       <c r="H61" s="20"/>
       <c r="I61" s="1"/>
     </row>
@@ -7887,11 +7996,11 @@
       <c r="B62" s="18">
         <v>42</v>
       </c>
-      <c r="C62" s="102"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="83"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="85"/>
       <c r="H62" s="20"/>
       <c r="I62" s="1"/>
     </row>
@@ -7900,11 +8009,11 @@
       <c r="B63" s="19">
         <v>43</v>
       </c>
-      <c r="C63" s="102"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="83"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="85"/>
       <c r="H63" s="20"/>
       <c r="I63" s="1"/>
     </row>
@@ -7913,11 +8022,11 @@
       <c r="B64" s="18">
         <v>44</v>
       </c>
-      <c r="C64" s="102"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="83"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="85"/>
       <c r="H64" s="20"/>
       <c r="I64" s="1"/>
     </row>
@@ -7926,11 +8035,11 @@
       <c r="B65" s="19">
         <v>45</v>
       </c>
-      <c r="C65" s="102"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="83"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="85"/>
       <c r="H65" s="20"/>
       <c r="I65" s="1"/>
     </row>
@@ -7939,11 +8048,11 @@
       <c r="B66" s="18">
         <v>46</v>
       </c>
-      <c r="C66" s="102"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="83"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="85"/>
       <c r="H66" s="20"/>
       <c r="I66" s="1"/>
     </row>
@@ -7952,11 +8061,11 @@
       <c r="B67" s="19">
         <v>47</v>
       </c>
-      <c r="C67" s="102"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="83"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="85"/>
       <c r="H67" s="20"/>
       <c r="I67" s="1"/>
     </row>
@@ -7965,11 +8074,11 @@
       <c r="B68" s="18">
         <v>48</v>
       </c>
-      <c r="C68" s="102"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="83"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="85"/>
       <c r="H68" s="20"/>
       <c r="I68" s="1"/>
     </row>
@@ -7978,11 +8087,11 @@
       <c r="B69" s="19">
         <v>49</v>
       </c>
-      <c r="C69" s="102"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="83"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="85"/>
       <c r="H69" s="20"/>
       <c r="I69" s="1"/>
     </row>
@@ -7991,11 +8100,11 @@
       <c r="B70" s="18">
         <v>50</v>
       </c>
-      <c r="C70" s="102"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="83"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="85"/>
       <c r="H70" s="20"/>
       <c r="I70" s="1"/>
     </row>
@@ -8004,11 +8113,11 @@
       <c r="B71" s="19">
         <v>51</v>
       </c>
-      <c r="C71" s="102"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="83"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="85"/>
       <c r="H71" s="20"/>
       <c r="I71" s="1"/>
     </row>
@@ -8017,11 +8126,11 @@
       <c r="B72" s="18">
         <v>52</v>
       </c>
-      <c r="C72" s="102"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="83"/>
+      <c r="C72" s="104"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="85"/>
       <c r="H72" s="20"/>
       <c r="I72" s="1"/>
     </row>
@@ -8030,11 +8139,11 @@
       <c r="B73" s="19">
         <v>53</v>
       </c>
-      <c r="C73" s="102"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="83"/>
+      <c r="C73" s="104"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="85"/>
       <c r="H73" s="20"/>
       <c r="I73" s="1"/>
     </row>
@@ -8043,11 +8152,11 @@
       <c r="B74" s="18">
         <v>54</v>
       </c>
-      <c r="C74" s="102"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="82"/>
-      <c r="F74" s="82"/>
-      <c r="G74" s="83"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="85"/>
       <c r="H74" s="20"/>
       <c r="I74" s="1"/>
     </row>
@@ -8056,11 +8165,11 @@
       <c r="B75" s="19">
         <v>55</v>
       </c>
-      <c r="C75" s="102"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="82"/>
-      <c r="F75" s="82"/>
-      <c r="G75" s="83"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="85"/>
       <c r="H75" s="20"/>
       <c r="I75" s="1"/>
     </row>
@@ -8069,11 +8178,11 @@
       <c r="B76" s="18">
         <v>56</v>
       </c>
-      <c r="C76" s="102"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="83"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="85"/>
       <c r="H76" s="20"/>
       <c r="I76" s="1"/>
     </row>
@@ -8082,11 +8191,11 @@
       <c r="B77" s="19">
         <v>57</v>
       </c>
-      <c r="C77" s="102"/>
-      <c r="D77" s="82"/>
-      <c r="E77" s="82"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="83"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="84"/>
+      <c r="G77" s="85"/>
       <c r="H77" s="20"/>
       <c r="I77" s="1"/>
     </row>
@@ -8095,11 +8204,11 @@
       <c r="B78" s="18">
         <v>58</v>
       </c>
-      <c r="C78" s="102"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="83"/>
+      <c r="C78" s="104"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="85"/>
       <c r="H78" s="20"/>
       <c r="I78" s="1"/>
     </row>
@@ -8108,11 +8217,11 @@
       <c r="B79" s="19">
         <v>59</v>
       </c>
-      <c r="C79" s="102"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="82"/>
-      <c r="F79" s="82"/>
-      <c r="G79" s="83"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="85"/>
       <c r="H79" s="20"/>
       <c r="I79" s="1"/>
     </row>
@@ -8121,11 +8230,11 @@
       <c r="B80" s="18">
         <v>60</v>
       </c>
-      <c r="C80" s="102"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="82"/>
-      <c r="F80" s="82"/>
-      <c r="G80" s="83"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="85"/>
       <c r="H80" s="20"/>
       <c r="I80" s="1"/>
     </row>
@@ -8134,11 +8243,11 @@
       <c r="B81" s="19">
         <v>61</v>
       </c>
-      <c r="C81" s="102"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="83"/>
+      <c r="C81" s="104"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="84"/>
+      <c r="G81" s="85"/>
       <c r="H81" s="20"/>
       <c r="I81" s="1"/>
     </row>
@@ -8147,11 +8256,11 @@
       <c r="B82" s="18">
         <v>62</v>
       </c>
-      <c r="C82" s="102"/>
-      <c r="D82" s="82"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="82"/>
-      <c r="G82" s="83"/>
+      <c r="C82" s="104"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="85"/>
       <c r="H82" s="20"/>
       <c r="I82" s="1"/>
     </row>
@@ -8160,11 +8269,11 @@
       <c r="B83" s="19">
         <v>63</v>
       </c>
-      <c r="C83" s="102"/>
-      <c r="D83" s="82"/>
-      <c r="E83" s="82"/>
-      <c r="F83" s="82"/>
-      <c r="G83" s="83"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="84"/>
+      <c r="F83" s="84"/>
+      <c r="G83" s="85"/>
       <c r="H83" s="20"/>
       <c r="I83" s="1"/>
     </row>
@@ -8173,11 +8282,11 @@
       <c r="B84" s="18">
         <v>64</v>
       </c>
-      <c r="C84" s="102"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="82"/>
-      <c r="G84" s="83"/>
+      <c r="C84" s="104"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="84"/>
+      <c r="G84" s="85"/>
       <c r="H84" s="20"/>
       <c r="I84" s="1"/>
     </row>
@@ -8186,11 +8295,11 @@
       <c r="B85" s="19">
         <v>65</v>
       </c>
-      <c r="C85" s="102"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="83"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="84"/>
+      <c r="G85" s="85"/>
       <c r="H85" s="20"/>
       <c r="I85" s="1"/>
     </row>
@@ -8199,11 +8308,11 @@
       <c r="B86" s="18">
         <v>66</v>
       </c>
-      <c r="C86" s="102"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="82"/>
-      <c r="G86" s="83"/>
+      <c r="C86" s="104"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="85"/>
       <c r="H86" s="20"/>
       <c r="I86" s="1"/>
     </row>
@@ -8212,11 +8321,11 @@
       <c r="B87" s="19">
         <v>67</v>
       </c>
-      <c r="C87" s="102"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="83"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="84"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="85"/>
       <c r="H87" s="20"/>
       <c r="I87" s="1"/>
     </row>
@@ -8225,11 +8334,11 @@
       <c r="B88" s="18">
         <v>68</v>
       </c>
-      <c r="C88" s="102"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="83"/>
+      <c r="C88" s="104"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="84"/>
+      <c r="F88" s="84"/>
+      <c r="G88" s="85"/>
       <c r="H88" s="20"/>
       <c r="I88" s="1"/>
     </row>
@@ -8238,11 +8347,11 @@
       <c r="B89" s="19">
         <v>69</v>
       </c>
-      <c r="C89" s="102"/>
-      <c r="D89" s="82"/>
-      <c r="E89" s="82"/>
-      <c r="F89" s="82"/>
-      <c r="G89" s="83"/>
+      <c r="C89" s="104"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="85"/>
       <c r="H89" s="20"/>
       <c r="I89" s="1"/>
     </row>
@@ -8251,11 +8360,11 @@
       <c r="B90" s="18">
         <v>70</v>
       </c>
-      <c r="C90" s="102"/>
-      <c r="D90" s="82"/>
-      <c r="E90" s="82"/>
-      <c r="F90" s="82"/>
-      <c r="G90" s="83"/>
+      <c r="C90" s="104"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="84"/>
+      <c r="F90" s="84"/>
+      <c r="G90" s="85"/>
       <c r="H90" s="20"/>
       <c r="I90" s="1"/>
     </row>
@@ -8264,11 +8373,11 @@
       <c r="B91" s="19">
         <v>71</v>
       </c>
-      <c r="C91" s="102"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="83"/>
+      <c r="C91" s="104"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="84"/>
+      <c r="F91" s="84"/>
+      <c r="G91" s="85"/>
       <c r="H91" s="20"/>
       <c r="I91" s="1"/>
     </row>
@@ -8277,11 +8386,11 @@
       <c r="B92" s="18">
         <v>72</v>
       </c>
-      <c r="C92" s="102"/>
-      <c r="D92" s="82"/>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="83"/>
+      <c r="C92" s="104"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="84"/>
+      <c r="F92" s="84"/>
+      <c r="G92" s="85"/>
       <c r="H92" s="20"/>
       <c r="I92" s="1"/>
     </row>
@@ -8290,11 +8399,11 @@
       <c r="B93" s="19">
         <v>73</v>
       </c>
-      <c r="C93" s="102"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="82"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="83"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="85"/>
       <c r="H93" s="20"/>
       <c r="I93" s="1"/>
     </row>
@@ -8303,11 +8412,11 @@
       <c r="B94" s="18">
         <v>74</v>
       </c>
-      <c r="C94" s="102"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="83"/>
+      <c r="C94" s="104"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="85"/>
       <c r="H94" s="20"/>
       <c r="I94" s="1"/>
     </row>
@@ -8316,11 +8425,11 @@
       <c r="B95" s="19">
         <v>75</v>
       </c>
-      <c r="C95" s="102"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="82"/>
-      <c r="F95" s="82"/>
-      <c r="G95" s="83"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="84"/>
+      <c r="F95" s="84"/>
+      <c r="G95" s="85"/>
       <c r="H95" s="20"/>
       <c r="I95" s="1"/>
     </row>
@@ -8329,11 +8438,11 @@
       <c r="B96" s="18">
         <v>76</v>
       </c>
-      <c r="C96" s="102"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="83"/>
+      <c r="C96" s="104"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="84"/>
+      <c r="G96" s="85"/>
       <c r="H96" s="20"/>
       <c r="I96" s="1"/>
     </row>
@@ -8342,11 +8451,11 @@
       <c r="B97" s="19">
         <v>77</v>
       </c>
-      <c r="C97" s="102"/>
-      <c r="D97" s="82"/>
-      <c r="E97" s="82"/>
-      <c r="F97" s="82"/>
-      <c r="G97" s="83"/>
+      <c r="C97" s="104"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="84"/>
+      <c r="G97" s="85"/>
       <c r="H97" s="20"/>
       <c r="I97" s="1"/>
     </row>
@@ -8355,11 +8464,11 @@
       <c r="B98" s="18">
         <v>78</v>
       </c>
-      <c r="C98" s="102"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="82"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="83"/>
+      <c r="C98" s="104"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="84"/>
+      <c r="F98" s="84"/>
+      <c r="G98" s="85"/>
       <c r="H98" s="20"/>
       <c r="I98" s="1"/>
     </row>
@@ -8368,11 +8477,11 @@
       <c r="B99" s="19">
         <v>79</v>
       </c>
-      <c r="C99" s="102"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="82"/>
-      <c r="F99" s="82"/>
-      <c r="G99" s="83"/>
+      <c r="C99" s="104"/>
+      <c r="D99" s="84"/>
+      <c r="E99" s="84"/>
+      <c r="F99" s="84"/>
+      <c r="G99" s="85"/>
       <c r="H99" s="20"/>
       <c r="I99" s="1"/>
     </row>
@@ -8381,11 +8490,11 @@
       <c r="B100" s="18">
         <v>80</v>
       </c>
-      <c r="C100" s="102"/>
-      <c r="D100" s="82"/>
-      <c r="E100" s="82"/>
-      <c r="F100" s="82"/>
-      <c r="G100" s="83"/>
+      <c r="C100" s="104"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="84"/>
+      <c r="G100" s="85"/>
       <c r="H100" s="20"/>
       <c r="I100" s="1"/>
     </row>
@@ -8394,11 +8503,11 @@
       <c r="B101" s="19">
         <v>81</v>
       </c>
-      <c r="C101" s="102"/>
-      <c r="D101" s="82"/>
-      <c r="E101" s="82"/>
-      <c r="F101" s="82"/>
-      <c r="G101" s="83"/>
+      <c r="C101" s="104"/>
+      <c r="D101" s="84"/>
+      <c r="E101" s="84"/>
+      <c r="F101" s="84"/>
+      <c r="G101" s="85"/>
       <c r="H101" s="20"/>
       <c r="I101" s="1"/>
     </row>
@@ -8407,11 +8516,11 @@
       <c r="B102" s="18">
         <v>82</v>
       </c>
-      <c r="C102" s="102"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="82"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="83"/>
+      <c r="C102" s="104"/>
+      <c r="D102" s="84"/>
+      <c r="E102" s="84"/>
+      <c r="F102" s="84"/>
+      <c r="G102" s="85"/>
       <c r="H102" s="20"/>
       <c r="I102" s="1"/>
     </row>
@@ -8420,11 +8529,11 @@
       <c r="B103" s="19">
         <v>83</v>
       </c>
-      <c r="C103" s="102"/>
-      <c r="D103" s="82"/>
-      <c r="E103" s="82"/>
-      <c r="F103" s="82"/>
-      <c r="G103" s="83"/>
+      <c r="C103" s="104"/>
+      <c r="D103" s="84"/>
+      <c r="E103" s="84"/>
+      <c r="F103" s="84"/>
+      <c r="G103" s="85"/>
       <c r="H103" s="20"/>
       <c r="I103" s="1"/>
     </row>
@@ -8433,11 +8542,11 @@
       <c r="B104" s="18">
         <v>84</v>
       </c>
-      <c r="C104" s="102"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="83"/>
+      <c r="C104" s="104"/>
+      <c r="D104" s="84"/>
+      <c r="E104" s="84"/>
+      <c r="F104" s="84"/>
+      <c r="G104" s="85"/>
       <c r="H104" s="20"/>
       <c r="I104" s="1"/>
     </row>
@@ -8446,11 +8555,11 @@
       <c r="B105" s="19">
         <v>85</v>
       </c>
-      <c r="C105" s="102"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="83"/>
+      <c r="C105" s="104"/>
+      <c r="D105" s="84"/>
+      <c r="E105" s="84"/>
+      <c r="F105" s="84"/>
+      <c r="G105" s="85"/>
       <c r="H105" s="20"/>
       <c r="I105" s="1"/>
     </row>
@@ -8459,11 +8568,11 @@
       <c r="B106" s="18">
         <v>86</v>
       </c>
-      <c r="C106" s="102"/>
-      <c r="D106" s="82"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82"/>
-      <c r="G106" s="83"/>
+      <c r="C106" s="104"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="84"/>
+      <c r="F106" s="84"/>
+      <c r="G106" s="85"/>
       <c r="H106" s="20"/>
       <c r="I106" s="1"/>
     </row>
@@ -8472,11 +8581,11 @@
       <c r="B107" s="19">
         <v>87</v>
       </c>
-      <c r="C107" s="102"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="83"/>
+      <c r="C107" s="104"/>
+      <c r="D107" s="84"/>
+      <c r="E107" s="84"/>
+      <c r="F107" s="84"/>
+      <c r="G107" s="85"/>
       <c r="H107" s="20"/>
       <c r="I107" s="1"/>
     </row>
@@ -8485,11 +8594,11 @@
       <c r="B108" s="18">
         <v>88</v>
       </c>
-      <c r="C108" s="102"/>
-      <c r="D108" s="82"/>
-      <c r="E108" s="82"/>
-      <c r="F108" s="82"/>
-      <c r="G108" s="83"/>
+      <c r="C108" s="104"/>
+      <c r="D108" s="84"/>
+      <c r="E108" s="84"/>
+      <c r="F108" s="84"/>
+      <c r="G108" s="85"/>
       <c r="H108" s="20"/>
       <c r="I108" s="1"/>
     </row>
@@ -8498,11 +8607,11 @@
       <c r="B109" s="19">
         <v>89</v>
       </c>
-      <c r="C109" s="102"/>
-      <c r="D109" s="82"/>
-      <c r="E109" s="82"/>
-      <c r="F109" s="82"/>
-      <c r="G109" s="83"/>
+      <c r="C109" s="104"/>
+      <c r="D109" s="84"/>
+      <c r="E109" s="84"/>
+      <c r="F109" s="84"/>
+      <c r="G109" s="85"/>
       <c r="H109" s="20"/>
       <c r="I109" s="1"/>
     </row>
@@ -8511,11 +8620,11 @@
       <c r="B110" s="18">
         <v>90</v>
       </c>
-      <c r="C110" s="102"/>
-      <c r="D110" s="82"/>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="83"/>
+      <c r="C110" s="104"/>
+      <c r="D110" s="84"/>
+      <c r="E110" s="84"/>
+      <c r="F110" s="84"/>
+      <c r="G110" s="85"/>
       <c r="H110" s="20"/>
       <c r="I110" s="1"/>
     </row>
@@ -8524,11 +8633,11 @@
       <c r="B111" s="19">
         <v>91</v>
       </c>
-      <c r="C111" s="102"/>
-      <c r="D111" s="82"/>
-      <c r="E111" s="82"/>
-      <c r="F111" s="82"/>
-      <c r="G111" s="83"/>
+      <c r="C111" s="104"/>
+      <c r="D111" s="84"/>
+      <c r="E111" s="84"/>
+      <c r="F111" s="84"/>
+      <c r="G111" s="85"/>
       <c r="H111" s="20"/>
       <c r="I111" s="1"/>
     </row>
@@ -8537,11 +8646,11 @@
       <c r="B112" s="18">
         <v>92</v>
       </c>
-      <c r="C112" s="102"/>
-      <c r="D112" s="82"/>
-      <c r="E112" s="82"/>
-      <c r="F112" s="82"/>
-      <c r="G112" s="83"/>
+      <c r="C112" s="104"/>
+      <c r="D112" s="84"/>
+      <c r="E112" s="84"/>
+      <c r="F112" s="84"/>
+      <c r="G112" s="85"/>
       <c r="H112" s="20"/>
       <c r="I112" s="1"/>
     </row>
@@ -8550,11 +8659,11 @@
       <c r="B113" s="19">
         <v>93</v>
       </c>
-      <c r="C113" s="102"/>
-      <c r="D113" s="82"/>
-      <c r="E113" s="82"/>
-      <c r="F113" s="82"/>
-      <c r="G113" s="83"/>
+      <c r="C113" s="104"/>
+      <c r="D113" s="84"/>
+      <c r="E113" s="84"/>
+      <c r="F113" s="84"/>
+      <c r="G113" s="85"/>
       <c r="H113" s="20"/>
       <c r="I113" s="1"/>
     </row>
@@ -8563,11 +8672,11 @@
       <c r="B114" s="18">
         <v>94</v>
       </c>
-      <c r="C114" s="102"/>
-      <c r="D114" s="82"/>
-      <c r="E114" s="82"/>
-      <c r="F114" s="82"/>
-      <c r="G114" s="83"/>
+      <c r="C114" s="104"/>
+      <c r="D114" s="84"/>
+      <c r="E114" s="84"/>
+      <c r="F114" s="84"/>
+      <c r="G114" s="85"/>
       <c r="H114" s="20"/>
       <c r="I114" s="1"/>
     </row>
@@ -8576,11 +8685,11 @@
       <c r="B115" s="19">
         <v>95</v>
       </c>
-      <c r="C115" s="102"/>
-      <c r="D115" s="82"/>
-      <c r="E115" s="82"/>
-      <c r="F115" s="82"/>
-      <c r="G115" s="83"/>
+      <c r="C115" s="104"/>
+      <c r="D115" s="84"/>
+      <c r="E115" s="84"/>
+      <c r="F115" s="84"/>
+      <c r="G115" s="85"/>
       <c r="H115" s="20"/>
       <c r="I115" s="1"/>
     </row>
@@ -8589,11 +8698,11 @@
       <c r="B116" s="18">
         <v>96</v>
       </c>
-      <c r="C116" s="102"/>
-      <c r="D116" s="82"/>
-      <c r="E116" s="82"/>
-      <c r="F116" s="82"/>
-      <c r="G116" s="83"/>
+      <c r="C116" s="104"/>
+      <c r="D116" s="84"/>
+      <c r="E116" s="84"/>
+      <c r="F116" s="84"/>
+      <c r="G116" s="85"/>
       <c r="H116" s="20"/>
       <c r="I116" s="1"/>
     </row>
@@ -8602,11 +8711,11 @@
       <c r="B117" s="19">
         <v>97</v>
       </c>
-      <c r="C117" s="102"/>
-      <c r="D117" s="82"/>
-      <c r="E117" s="82"/>
-      <c r="F117" s="82"/>
-      <c r="G117" s="83"/>
+      <c r="C117" s="104"/>
+      <c r="D117" s="84"/>
+      <c r="E117" s="84"/>
+      <c r="F117" s="84"/>
+      <c r="G117" s="85"/>
       <c r="H117" s="20"/>
       <c r="I117" s="1"/>
     </row>
@@ -8615,11 +8724,11 @@
       <c r="B118" s="18">
         <v>98</v>
       </c>
-      <c r="C118" s="102"/>
-      <c r="D118" s="82"/>
-      <c r="E118" s="82"/>
-      <c r="F118" s="82"/>
-      <c r="G118" s="83"/>
+      <c r="C118" s="104"/>
+      <c r="D118" s="84"/>
+      <c r="E118" s="84"/>
+      <c r="F118" s="84"/>
+      <c r="G118" s="85"/>
       <c r="H118" s="20"/>
       <c r="I118" s="1"/>
     </row>
@@ -8628,11 +8737,11 @@
       <c r="B119" s="19">
         <v>99</v>
       </c>
-      <c r="C119" s="102"/>
-      <c r="D119" s="82"/>
-      <c r="E119" s="82"/>
-      <c r="F119" s="82"/>
-      <c r="G119" s="83"/>
+      <c r="C119" s="104"/>
+      <c r="D119" s="84"/>
+      <c r="E119" s="84"/>
+      <c r="F119" s="84"/>
+      <c r="G119" s="85"/>
       <c r="H119" s="20"/>
       <c r="I119" s="1"/>
     </row>
@@ -8641,11 +8750,11 @@
       <c r="B120" s="18">
         <v>100</v>
       </c>
-      <c r="C120" s="102"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="82"/>
-      <c r="F120" s="82"/>
-      <c r="G120" s="83"/>
+      <c r="C120" s="104"/>
+      <c r="D120" s="84"/>
+      <c r="E120" s="84"/>
+      <c r="F120" s="84"/>
+      <c r="G120" s="85"/>
       <c r="H120" s="20"/>
       <c r="I120" s="1"/>
     </row>
@@ -9646,7 +9755,7 @@
       </c>
       <c r="C211" s="21"/>
       <c r="D211" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
@@ -9657,7 +9766,7 @@
     <row r="212" spans="1:9" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="21" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C212" s="21"/>
       <c r="D212" s="21" t="s">
@@ -9672,7 +9781,7 @@
     <row r="213" spans="1:9" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C213" s="21"/>
       <c r="D213" s="21" t="s">
@@ -10660,7 +10769,7 @@
   <dimension ref="A1:U989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -10681,17 +10790,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73"/>
+      <c r="B1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
       <c r="K1" s="23">
         <f>Requisitos!C11</f>
         <v>44277</v>
@@ -10699,17 +10808,17 @@
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44278</v>
@@ -10717,17 +10826,17 @@
     </row>
     <row r="3" spans="1:21" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44279</v>
@@ -10735,17 +10844,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44280</v>
@@ -10753,17 +10862,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44281</v>
@@ -10785,18 +10894,18 @@
     </row>
     <row r="7" spans="1:21" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="81" t="str">
+      <c r="B7" s="83" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44283</v>
@@ -10818,16 +10927,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
       <c r="J9" s="47" t="s">
         <v>69</v>
       </c>
@@ -11849,27 +11958,27 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="105" t="s">
+      <c r="B52" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="83"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="85"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="106" t="s">
+      <c r="B53" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="83"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="85"/>
       <c r="H53" s="25" t="s">
         <v>111</v>
       </c>
@@ -11879,15 +11988,15 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="104" t="str">
+      <c r="B54" s="106" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="83"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="85"/>
       <c r="H54" s="33">
         <f>SUMIF($F$11:$F$49,'Dados do Projeto'!$B10,H$11:H$49)</f>
         <v>10</v>
@@ -11899,15 +12008,15 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="104" t="str">
+      <c r="B55" s="106" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="83"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="85"/>
       <c r="H55" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B11,H$11:H$49)</f>
         <v>10</v>
@@ -11919,15 +12028,15 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="104" t="str">
+      <c r="B56" s="106" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="83"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="85"/>
       <c r="H56" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B12,H$11:H$49)</f>
         <v>8</v>
@@ -11939,15 +12048,15 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="104" t="str">
+      <c r="B57" s="106" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="83"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="85"/>
       <c r="H57" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B13,H$11:H$49)</f>
         <v>16</v>
@@ -11959,15 +12068,15 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="104" t="str">
+      <c r="B58" s="106" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="83"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="85"/>
       <c r="H58" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B14,H$11:H$49)</f>
         <v>12</v>
@@ -13372,8 +13481,8 @@
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C13" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -13392,17 +13501,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73"/>
+      <c r="B1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
       <c r="K1" s="23">
         <f>Requisitos!C12</f>
         <v>44291</v>
@@ -13410,17 +13519,17 @@
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44292</v>
@@ -13428,17 +13537,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44293</v>
@@ -13446,17 +13555,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44294</v>
@@ -13464,17 +13573,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44295</v>
@@ -13497,18 +13606,18 @@
     </row>
     <row r="7" spans="1:21" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="81" t="str">
+      <c r="B7" s="83" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44297</v>
@@ -13531,16 +13640,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
       <c r="J9" s="47" t="s">
         <v>69</v>
       </c>
@@ -13832,7 +13941,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="23"/>
@@ -13977,7 +14086,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="64"/>
       <c r="K23" s="23"/>
@@ -14012,10 +14121,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="62"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
       <c r="O24" s="61"/>
     </row>
     <row r="25" spans="1:15" ht="37.5" customHeight="1">
@@ -14128,13 +14237,13 @@
         <v>14</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H28" s="28">
         <v>1</v>
       </c>
       <c r="I28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="27"/>
       <c r="K28" s="23"/>
@@ -14728,7 +14837,7 @@
       </c>
       <c r="I70" s="32">
         <f t="shared" si="1"/>
-        <v>32.5</v>
+        <v>37.5</v>
       </c>
       <c r="J70" s="24"/>
     </row>
@@ -14744,7 +14853,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -14752,27 +14861,27 @@
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="105" t="s">
+      <c r="B72" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="82"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="82"/>
-      <c r="I72" s="83"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="85"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="106" t="s">
+      <c r="B73" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="83"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="85"/>
       <c r="H73" s="25" t="s">
         <v>111</v>
       </c>
@@ -14782,15 +14891,15 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="104" t="str">
+      <c r="B74" s="106" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C74" s="82"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="82"/>
-      <c r="F74" s="82"/>
-      <c r="G74" s="83"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="85"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>6</v>
@@ -14802,15 +14911,15 @@
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="104" t="str">
+      <c r="B75" s="106" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C75" s="82"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="82"/>
-      <c r="F75" s="82"/>
-      <c r="G75" s="83"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="85"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>4</v>
@@ -14822,15 +14931,15 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="104" t="str">
+      <c r="B76" s="106" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C76" s="82"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="83"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="85"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>12</v>
@@ -14842,42 +14951,42 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="104" t="str">
+      <c r="B77" s="106" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C77" s="82"/>
-      <c r="D77" s="82"/>
-      <c r="E77" s="82"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="83"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="84"/>
+      <c r="G77" s="85"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>10</v>
       </c>
       <c r="I77" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B13,I$11:I$60)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="104" t="str">
+      <c r="B78" s="106" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="83"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="85"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>5</v>
       </c>
       <c r="I78" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B14,I$11:I$60)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
@@ -16357,8 +16466,8 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16376,17 +16485,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="21.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73"/>
+      <c r="B1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
       <c r="K1" s="23">
         <f>Requisitos!C13</f>
         <v>44305</v>
@@ -16394,17 +16503,17 @@
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44306</v>
@@ -16412,17 +16521,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44307</v>
@@ -16430,17 +16539,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44308</v>
@@ -16448,17 +16557,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44309</v>
@@ -16481,18 +16590,18 @@
     </row>
     <row r="7" spans="1:21" ht="21.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="81" t="str">
+      <c r="B7" s="83" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44311</v>
@@ -16515,16 +16624,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
       <c r="J9" s="48" t="s">
         <v>69</v>
       </c>
@@ -16585,13 +16694,13 @@
         <v>8</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H11" s="28">
         <v>2</v>
       </c>
       <c r="I11" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" s="66" t="s">
         <v>134</v>
@@ -16626,16 +16735,16 @@
         <v>12</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H12" s="28">
         <v>1</v>
       </c>
       <c r="I12" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="66" t="s">
         <v>136</v>
@@ -16663,13 +16772,13 @@
         <v>16</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H13" s="28">
         <v>1</v>
       </c>
       <c r="I13" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="66" t="s">
         <v>138</v>
@@ -16685,7 +16794,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="26">
-        <v>44311</v>
+        <v>44305</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>139</v>
@@ -16694,16 +16803,16 @@
         <v>12</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H14" s="28">
         <v>1</v>
       </c>
       <c r="I14" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="66" t="s">
         <v>140</v>
@@ -16759,13 +16868,13 @@
         <v>12</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H16" s="28">
         <v>2</v>
       </c>
       <c r="I16" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" s="66"/>
     </row>
@@ -16787,13 +16896,13 @@
         <v>10</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H17" s="28">
         <v>2</v>
       </c>
       <c r="I17" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="66"/>
     </row>
@@ -16803,7 +16912,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="26">
-        <v>44310</v>
+        <v>44305</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>144</v>
@@ -16812,16 +16921,16 @@
         <v>9</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H18" s="28">
         <v>1</v>
       </c>
       <c r="I18" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="66"/>
     </row>
@@ -16859,7 +16968,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="26">
-        <v>44310</v>
+        <v>44317</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>146</v>
@@ -16871,15 +16980,15 @@
         <v>14</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H20" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I20" s="28">
-        <v>0</v>
-      </c>
-      <c r="J20" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="68" t="s">
         <v>147</v>
       </c>
     </row>
@@ -16901,15 +17010,15 @@
         <v>10</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H21" s="28">
         <v>1</v>
       </c>
       <c r="I21" s="28">
-        <v>0</v>
-      </c>
-      <c r="J21" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="68" t="s">
         <v>149</v>
       </c>
     </row>
@@ -16931,15 +17040,15 @@
         <v>8</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H22" s="28">
         <v>1</v>
       </c>
       <c r="I22" s="28">
-        <v>0</v>
-      </c>
-      <c r="J22" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="68" t="s">
         <v>151</v>
       </c>
     </row>
@@ -16961,15 +17070,15 @@
         <v>16</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H23" s="28">
         <v>1</v>
       </c>
       <c r="I23" s="28">
-        <v>0</v>
-      </c>
-      <c r="J23" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="68" t="s">
         <v>153</v>
       </c>
     </row>
@@ -16978,16 +17087,26 @@
       <c r="B24" s="19">
         <v>14</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="20"/>
+      <c r="C24" s="26">
+        <v>44310</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H24" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="66"/>
     </row>
@@ -17650,11 +17769,11 @@
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I61" s="32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J61" s="1"/>
     </row>
@@ -17664,13 +17783,13 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -17678,27 +17797,27 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="105" t="s">
+      <c r="B63" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="82"/>
-      <c r="I63" s="83"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="85"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="106" t="s">
+      <c r="B64" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="83"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="85"/>
       <c r="H64" s="25" t="s">
         <v>111</v>
       </c>
@@ -17708,102 +17827,102 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="104" t="str">
+      <c r="B65" s="106" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="83"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="85"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="104" t="str">
+      <c r="B66" s="106" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="83"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="85"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>3</v>
       </c>
       <c r="I66" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B11,I$11:I$60)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="104" t="str">
+      <c r="B67" s="106" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="83"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="85"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>2</v>
       </c>
       <c r="I67" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B12,I$11:I$60)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="104" t="str">
+      <c r="B68" s="106" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="83"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="85"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I68" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B13,I$11:I$60)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="104" t="str">
+      <c r="B69" s="106" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="82"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="83"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="85"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>3</v>
       </c>
       <c r="I69" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B14,I$11:I$60)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
@@ -19496,9 +19615,9 @@
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="B9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -19506,7 +19625,7 @@
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
     <col min="4" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
@@ -19516,17 +19635,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73"/>
+      <c r="B1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
       <c r="K1" s="23">
         <f>Requisitos!C14</f>
         <v>44319</v>
@@ -19534,17 +19653,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44320</v>
@@ -19552,17 +19671,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44321</v>
@@ -19570,17 +19689,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44322</v>
@@ -19588,17 +19707,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44323</v>
@@ -19621,18 +19740,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="81" t="str">
+      <c r="B7" s="83" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44325</v>
@@ -19655,16 +19774,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83"/>
+      <c r="B9" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
       <c r="J9" s="48" t="s">
         <v>69</v>
       </c>
@@ -19707,28 +19826,39 @@
         <v>44328</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="48.75" customHeight="1">
+    <row r="11" spans="1:21" ht="393.75" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="19">
         <v>1</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="C11" s="26">
+        <v>44319</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H11" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="28">
         <v>0</v>
       </c>
-      <c r="J11" s="20"/>
+      <c r="J11" s="27" t="s">
+        <v>157</v>
+      </c>
       <c r="K11" s="23">
         <f t="shared" si="0"/>
         <v>44329</v>
       </c>
-      <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -19744,18 +19874,30 @@
       <c r="B12" s="19">
         <v>2</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="C12" s="26">
+        <v>44325</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="27">
+        <v>4</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H12" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="28">
         <v>0</v>
       </c>
-      <c r="J12" s="20"/>
+      <c r="J12" s="72" t="s">
+        <v>159</v>
+      </c>
       <c r="K12" s="23">
         <f t="shared" si="0"/>
         <v>44330</v>
@@ -19766,18 +19908,28 @@
       <c r="B13" s="19">
         <v>3</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="C13" s="26">
+        <v>44325</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="27">
+        <v>13</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H13" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="28">
         <v>0</v>
       </c>
-      <c r="J13" s="20"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="23">
         <f t="shared" si="0"/>
         <v>44331</v>
@@ -19788,18 +19940,30 @@
       <c r="B14" s="19">
         <v>4</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="26">
+        <v>44325</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="20">
+        <v>13</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H14" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="28">
         <v>0</v>
       </c>
-      <c r="J14" s="37"/>
+      <c r="J14" s="110" t="s">
+        <v>162</v>
+      </c>
       <c r="K14" s="23">
         <f t="shared" si="0"/>
         <v>44332</v>
@@ -19810,18 +19974,28 @@
       <c r="B15" s="19">
         <v>5</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="26">
+        <v>44321</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>163</v>
+      </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="F15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H15" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="28">
         <v>0</v>
       </c>
-      <c r="J15" s="37"/>
+      <c r="J15" s="72" t="s">
+        <v>164</v>
+      </c>
       <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:21" ht="37.5" customHeight="1">
@@ -19829,18 +20003,28 @@
       <c r="B16" s="19">
         <v>6</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="26">
+        <v>44324</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="F16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H16" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="28">
         <v>0</v>
       </c>
-      <c r="J16" s="37"/>
+      <c r="J16" s="72" t="s">
+        <v>166</v>
+      </c>
       <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" ht="37.5" customHeight="1">
@@ -19848,18 +20032,28 @@
       <c r="B17" s="19">
         <v>7</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="26">
+        <v>44325</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>167</v>
+      </c>
       <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="F17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H17" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="28">
         <v>0</v>
       </c>
-      <c r="J17" s="37"/>
+      <c r="J17" s="72" t="s">
+        <v>168</v>
+      </c>
       <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" ht="37.5" customHeight="1">
@@ -19867,18 +20061,28 @@
       <c r="B18" s="19">
         <v>8</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="26">
+        <v>44325</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>169</v>
+      </c>
       <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="F18" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H18" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="28">
         <v>0</v>
       </c>
-      <c r="J18" s="37"/>
+      <c r="J18" s="72" t="s">
+        <v>170</v>
+      </c>
       <c r="K18" s="23"/>
     </row>
     <row r="19" spans="1:11" ht="37.5" customHeight="1">
@@ -19886,18 +20090,28 @@
       <c r="B19" s="19">
         <v>9</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="26">
+        <v>44325</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>171</v>
+      </c>
       <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="F19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H19" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="28">
         <v>0</v>
       </c>
-      <c r="J19" s="37"/>
+      <c r="J19" s="72" t="s">
+        <v>172</v>
+      </c>
       <c r="K19" s="23"/>
     </row>
     <row r="20" spans="1:11" ht="37.5" customHeight="1">
@@ -19905,18 +20119,28 @@
       <c r="B20" s="19">
         <v>10</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="26">
+        <v>44321</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>173</v>
+      </c>
       <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="F20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H20" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="28">
         <v>0</v>
       </c>
-      <c r="J20" s="37"/>
+      <c r="J20" s="72" t="s">
+        <v>166</v>
+      </c>
       <c r="K20" s="23"/>
     </row>
     <row r="21" spans="1:11" ht="37.5" customHeight="1">
@@ -19924,18 +20148,28 @@
       <c r="B21" s="19">
         <v>11</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="26">
+        <v>44321</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>174</v>
+      </c>
       <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="28">
         <v>0</v>
       </c>
-      <c r="J21" s="37"/>
+      <c r="J21" s="72" t="s">
+        <v>175</v>
+      </c>
       <c r="K21" s="23"/>
     </row>
     <row r="22" spans="1:11" ht="37.5" customHeight="1">
@@ -19943,18 +20177,28 @@
       <c r="B22" s="19">
         <v>12</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="26">
+        <v>44325</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>176</v>
+      </c>
       <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="F22" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="28">
         <v>0</v>
       </c>
-      <c r="J22" s="37"/>
+      <c r="J22" s="72" t="s">
+        <v>177</v>
+      </c>
       <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:11" ht="37.5" customHeight="1">
@@ -19962,18 +20206,28 @@
       <c r="B23" s="19">
         <v>13</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="26">
+        <v>44325</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>178</v>
+      </c>
       <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H23" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="28">
         <v>0</v>
       </c>
-      <c r="J23" s="37"/>
+      <c r="J23" s="72" t="s">
+        <v>179</v>
+      </c>
       <c r="K23" s="23"/>
     </row>
     <row r="24" spans="1:11" ht="37.5" customHeight="1">
@@ -19981,18 +20235,28 @@
       <c r="B24" s="19">
         <v>14</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="26">
+        <v>44331</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>180</v>
+      </c>
       <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="F24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="28">
         <v>0</v>
       </c>
-      <c r="J24" s="37"/>
+      <c r="J24" s="72" t="s">
+        <v>181</v>
+      </c>
       <c r="K24" s="23"/>
     </row>
     <row r="25" spans="1:11" ht="37.5" customHeight="1">
@@ -20000,18 +20264,28 @@
       <c r="B25" s="19">
         <v>15</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="26">
+        <v>44331</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>182</v>
+      </c>
       <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="F25" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H25" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="28">
         <v>0</v>
       </c>
-      <c r="J25" s="37"/>
+      <c r="J25" s="72" t="s">
+        <v>181</v>
+      </c>
       <c r="K25" s="23"/>
     </row>
     <row r="26" spans="1:11" ht="37.5" customHeight="1">
@@ -20658,7 +20932,7 @@
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I61" s="32">
         <f t="shared" si="1"/>
@@ -20672,13 +20946,13 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -20686,27 +20960,27 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="105" t="s">
+      <c r="B63" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="82"/>
-      <c r="I63" s="83"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="85"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="106" t="s">
+      <c r="B64" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="83"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="85"/>
       <c r="H64" s="25" t="s">
         <v>111</v>
       </c>
@@ -20716,18 +20990,18 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="104" t="str">
+      <c r="B65" s="106" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="83"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="85"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
@@ -20736,18 +21010,18 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="104" t="str">
+      <c r="B66" s="106" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="83"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="85"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I66" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B11,I$11:I$60)</f>
@@ -20756,15 +21030,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="104" t="str">
+      <c r="B67" s="106" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="83"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="85"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -20776,18 +21050,18 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="104" t="str">
+      <c r="B68" s="106" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="83"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="85"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I68" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B13,I$11:I$60)</f>
@@ -20796,18 +21070,18 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="104" t="str">
+      <c r="B69" s="106" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="82"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="83"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="85"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I69" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B14,I$11:I$60)</f>
@@ -22323,17 +22597,44 @@
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C12:C60" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$K$1:$K$21</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>$K$1:$K$14</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F60" xr:uid="{6D6DCE64-A8D1-4D90-939F-074452B16C06}">
+      <formula1>$B$65:$B$69</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J12" r:id="rId1" xr:uid="{AF2298B7-88E5-469E-AD3E-F9C01FAE049B}"/>
+    <hyperlink ref="J16" r:id="rId2" xr:uid="{BBFEBC27-A8EC-4C16-9F00-2F76943E2D18}"/>
+    <hyperlink ref="J15" r:id="rId3" xr:uid="{684F7B60-EF96-456C-B90B-755C96398824}"/>
+    <hyperlink ref="J17" r:id="rId4" xr:uid="{54F31BAA-3640-41AE-ADA4-65E6A9945C5C}"/>
+    <hyperlink ref="J18" r:id="rId5" xr:uid="{FB5576F1-2A8C-4B01-89B0-3FCA1D6ABCD6}"/>
+    <hyperlink ref="J19" r:id="rId6" xr:uid="{795D608D-906A-43C3-9B99-A8C2BEF8B8A0}"/>
+    <hyperlink ref="J20" r:id="rId7" xr:uid="{CC3160E4-D0C4-4241-843C-616A0ECD08DC}"/>
+    <hyperlink ref="J21" r:id="rId8" xr:uid="{B37BDE4D-7A2D-4087-A679-CDE0162F2138}"/>
+    <hyperlink ref="J22" r:id="rId9" xr:uid="{8CCA9B40-43FF-4A22-99AF-1CB057A44737}"/>
+    <hyperlink ref="J23" r:id="rId10" xr:uid="{E4B3C3FE-892E-46D1-9DD4-291EBD05BE3D}"/>
+    <hyperlink ref="J24" r:id="rId11" xr:uid="{D0F9EDB9-059F-4F89-941E-753308211745}"/>
+    <hyperlink ref="J25" r:id="rId12" xr:uid="{57E4FFF3-2DB0-4266-9501-F67C734FC139}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId13"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C8442B0C-1854-4AB9-BE04-6D63D3F0E86F}">
+          <x14:formula1>
+            <xm:f>'Dados do Projeto'!$M$100:$M$103</xm:f>
+          </x14:formula1>
+          <xm:sqref>G11:G60</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -22368,17 +22669,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73"/>
+      <c r="B1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
       <c r="K1" s="23">
         <f>Requisitos!C15</f>
         <v>44333</v>
@@ -22386,17 +22687,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44334</v>
@@ -22404,17 +22705,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44335</v>
@@ -22422,17 +22723,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44336</v>
@@ -22440,17 +22741,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44337</v>
@@ -22473,18 +22774,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="81" t="str">
+      <c r="B7" s="83" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44339</v>
@@ -22507,16 +22808,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83"/>
+      <c r="B9" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
       <c r="J9" s="48" t="s">
         <v>69</v>
       </c>
@@ -23538,27 +23839,27 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="105" t="s">
+      <c r="B63" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="82"/>
-      <c r="I63" s="83"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="85"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="106" t="s">
+      <c r="B64" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="83"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="85"/>
       <c r="H64" s="25" t="s">
         <v>111</v>
       </c>
@@ -23568,15 +23869,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="104" t="str">
+      <c r="B65" s="106" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="83"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="85"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -23588,15 +23889,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="104" t="str">
+      <c r="B66" s="106" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="83"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="85"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -23608,15 +23909,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="104" t="str">
+      <c r="B67" s="106" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="83"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="85"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -23628,15 +23929,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="104" t="str">
+      <c r="B68" s="106" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="83"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="85"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -23648,15 +23949,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="104" t="str">
+      <c r="B69" s="106" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="82"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="83"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="85"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -25175,17 +25476,30 @@
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C12:C60" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>$K$1:$K$21</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>$K$1:$K$14</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F60" xr:uid="{99E98AF6-69D7-408C-9AA9-C98E14CD22E5}">
+      <formula1>$B$65:$B$69</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E220A6E1-71CC-40A1-9E8F-30ACBEF42DB6}">
+          <x14:formula1>
+            <xm:f>'Dados do Projeto'!$M$100:$M$103</xm:f>
+          </x14:formula1>
+          <xm:sqref>G11:G60</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -25220,34 +25534,34 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73"/>
+      <c r="B1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
       <c r="K1" s="23">
         <v>44347</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44348</v>
@@ -25255,17 +25569,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44349</v>
@@ -25273,17 +25587,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44350</v>
@@ -25291,17 +25605,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44351</v>
@@ -25324,18 +25638,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="81" t="str">
+      <c r="B7" s="83" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44353</v>
@@ -25358,16 +25672,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83"/>
+      <c r="B9" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
       <c r="J9" s="48" t="s">
         <v>69</v>
       </c>
@@ -26389,27 +26703,27 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="105" t="s">
+      <c r="B63" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="82"/>
-      <c r="I63" s="83"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="85"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="106" t="s">
+      <c r="B64" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="83"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="85"/>
       <c r="H64" s="25" t="s">
         <v>111</v>
       </c>
@@ -26419,15 +26733,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="104" t="str">
+      <c r="B65" s="106" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="83"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="85"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -26439,15 +26753,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="104" t="str">
+      <c r="B66" s="106" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="83"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="85"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -26459,15 +26773,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="104" t="str">
+      <c r="B67" s="106" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="83"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="85"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -26479,15 +26793,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="104" t="str">
+      <c r="B68" s="106" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="83"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="85"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -26499,15 +26813,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="104" t="str">
+      <c r="B69" s="106" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="82"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="83"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="85"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -28045,6 +28359,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009407E1920DA0244181F4A5E68B236D03" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f93176ac4c7b0499f4c793ef7a260ff7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d841e270-8762-48f1-af0f-95d6f11e59ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e08dd84ed401fbaad7197cdcae1eb72f" ns2:_="">
     <xsd:import namespace="d841e270-8762-48f1-af0f-95d6f11e59ea"/>
@@ -28202,29 +28525,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AE7633-9F17-461A-8B68-7FAC2F42E9FA}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22A15D46-B256-4EDE-A7D0-6A4D07704ACB}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FC0B413-BAC6-4036-8CEB-C5632804ED21}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AE7633-9F17-461A-8B68-7FAC2F42E9FA}"/>
 </file>
--- a/Artefatos/Sprints - ParkIO.xlsx
+++ b/Artefatos/Sprints - ParkIO.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24102"/>
   <workbookPr autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="1603" documentId="11_713659AC415AC9C2D79A1EC9FA76B4759D2182B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EDF2EA2-AB77-4966-895E-6327F8D92E3F}"/>
+  <xr:revisionPtr revIDLastSave="1666" documentId="11_713659AC415AC9C2D79A1EC9FA76B4759D2182B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D337615-7566-4FD5-9CB4-2201BED2A23C}"/>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="189">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -566,13 +566,13 @@
     <t>O porteiro poderá aumentar o tempo de permanência do visitante após fazer contato com o morador para verificar o motivo do atraso.</t>
   </si>
   <si>
-    <t>Pendente</t>
+    <t>Tarefas Criadas</t>
   </si>
   <si>
     <t>O sistema deve emitir um alerta para um grupo no Telegram contendo os porteiros e os rondas no caso de algum veículo ficar determinado tempo dentro do condomínio.</t>
   </si>
   <si>
-    <t>Tarefas Criadas</t>
+    <t>Pendente</t>
   </si>
   <si>
     <t>O administrador do sistema poderá criar usuários com diferentes permissões.</t>
@@ -597,6 +597,9 @@
   </si>
   <si>
     <t>O ronda poderá editar certas informações do veículo do visitante.</t>
+  </si>
+  <si>
+    <t>O síndico poderá visualizar os veículos designados para seu bloco</t>
   </si>
   <si>
     <t>PROGRESSO</t>
@@ -889,10 +892,11 @@
 	- No wireframe da página lista de todos os veículos,  adicionar campos de 'Porteiro de Entrada' e 'Porteiro de Saída'. (/vehiclelist)
 	- No wireframe da página lista de usuários remover campo 'Última vez visto' e adicionar na tabela 'Tipo'. (/userlist)
 	- Criar os wireframes modals de cadastrar Portarias e Categorias de Visitante. (/admin)
-- Criar o wireframe da página de relatório da adminsitração</t>
+- Criar o wireframe da página de relatório da adminsitração
+- Atualizar wireframe com contagem de tempo na lista de veículos</t>
   </si>
   <si>
-    <t>Criar feature para extender tempo de permanência de um veículo</t>
+    <t>Criar feature para estender tempo de permanência de um veículo</t>
   </si>
   <si>
     <t>https://github.com/ICEI-PUC-Minas-PPLES-TI/plf-es-2021-1-ti3-6654100-parkio/issues/48</t>
@@ -966,6 +970,15 @@
   </si>
   <si>
     <t>Criar backend do filtro avançado da página lista de veículos</t>
+  </si>
+  <si>
+    <t>Pesquisa por placa na página de veiculos reportados</t>
+  </si>
+  <si>
+    <t>Refatorar nomes de ids/classes do HTML que foram copiados (Ex: copiar #modalNovoUsuario na página /gate)</t>
+  </si>
+  <si>
+    <t>Corrigir bug do veículo não conseguir sair pois está pegando nome de classe duplicada (Associado com a task 17)</t>
   </si>
   <si>
     <t>SPRINT #5</t>
@@ -1566,10 +1579,41 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1579,7 +1623,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1587,32 +1630,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1632,24 +1666,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1661,9 +1677,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4299,15 +4312,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4315,15 +4328,15 @@
     </row>
     <row r="2" spans="1:15" ht="18">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="92"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4331,15 +4344,15 @@
     </row>
     <row r="3" spans="1:15" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4347,15 +4360,15 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4363,15 +4376,15 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -4393,15 +4406,15 @@
     </row>
     <row r="7" spans="1:15" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="78"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -4429,14 +4442,14 @@
       <c r="B9" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -4449,14 +4462,14 @@
       <c r="B10" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="88" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -4466,17 +4479,17 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="88" t="s">
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="85"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -4486,17 +4499,17 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="88" t="s">
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -4506,17 +4519,17 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="88" t="s">
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -4526,17 +4539,17 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="88" t="s">
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -5786,16 +5799,16 @@
     </row>
     <row r="99" spans="1:15" ht="15.75" customHeight="1">
       <c r="A99" s="40"/>
-      <c r="B99" s="90"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="91" t="s">
+      <c r="B99" s="80"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="77"/>
-      <c r="F99" s="91" t="s">
+      <c r="E99" s="75"/>
+      <c r="F99" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="77"/>
+      <c r="G99" s="75"/>
       <c r="H99" s="41" t="s">
         <v>21</v>
       </c>
@@ -5817,12 +5830,12 @@
     </row>
     <row r="100" spans="1:15" ht="15.75" customHeight="1">
       <c r="A100" s="40"/>
-      <c r="B100" s="93"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="92" t="s">
+      <c r="B100" s="74"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="77"/>
+      <c r="E100" s="75"/>
       <c r="F100" s="43" t="s">
         <v>26</v>
       </c>
@@ -5856,12 +5869,12 @@
     </row>
     <row r="101" spans="1:15" ht="15.75" customHeight="1">
       <c r="A101" s="40"/>
-      <c r="B101" s="93"/>
-      <c r="C101" s="77"/>
-      <c r="D101" s="92" t="s">
+      <c r="B101" s="74"/>
+      <c r="C101" s="75"/>
+      <c r="D101" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="77"/>
+      <c r="E101" s="75"/>
       <c r="F101" s="43" t="s">
         <v>30</v>
       </c>
@@ -5895,12 +5908,12 @@
     </row>
     <row r="102" spans="1:15" ht="15.75" customHeight="1">
       <c r="A102" s="40"/>
-      <c r="B102" s="93"/>
-      <c r="C102" s="77"/>
-      <c r="D102" s="92" t="s">
+      <c r="B102" s="74"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="77"/>
+      <c r="E102" s="75"/>
       <c r="F102" s="43"/>
       <c r="G102" s="44" t="s">
         <v>34</v>
@@ -5932,12 +5945,12 @@
     </row>
     <row r="103" spans="1:15" ht="15.75" customHeight="1">
       <c r="A103" s="40"/>
-      <c r="B103" s="93"/>
-      <c r="C103" s="77"/>
-      <c r="D103" s="92" t="s">
+      <c r="B103" s="74"/>
+      <c r="C103" s="75"/>
+      <c r="D103" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="E103" s="77"/>
+      <c r="E103" s="75"/>
       <c r="F103" s="43"/>
       <c r="G103" s="44" t="s">
         <v>36</v>
@@ -5967,12 +5980,12 @@
     </row>
     <row r="104" spans="1:15" ht="15.75" customHeight="1">
       <c r="A104" s="40"/>
-      <c r="B104" s="93"/>
-      <c r="C104" s="77"/>
-      <c r="D104" s="92" t="s">
+      <c r="B104" s="74"/>
+      <c r="C104" s="75"/>
+      <c r="D104" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="77"/>
+      <c r="E104" s="75"/>
       <c r="F104" s="43"/>
       <c r="G104" s="44" t="s">
         <v>38</v>
@@ -5997,8 +6010,8 @@
     </row>
     <row r="105" spans="1:15" ht="15.75" customHeight="1">
       <c r="A105" s="40"/>
-      <c r="B105" s="93"/>
-      <c r="C105" s="77"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="75"/>
       <c r="F105" s="43"/>
       <c r="G105" s="43"/>
       <c r="H105" s="43"/>
@@ -6009,8 +6022,8 @@
     </row>
     <row r="106" spans="1:15" ht="15.75" customHeight="1">
       <c r="A106" s="40"/>
-      <c r="B106" s="93"/>
-      <c r="C106" s="77"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="75"/>
       <c r="D106" s="46"/>
       <c r="E106" s="43"/>
       <c r="F106" s="43"/>
@@ -7032,12 +7045,22 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="D99:E99"/>
@@ -7049,22 +7072,12 @@
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="D102:E102"/>
     <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="D104:E104"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F14" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -7089,8 +7102,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:G25"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7099,74 +7112,74 @@
     <col min="2" max="2" width="5.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="147.5703125" customWidth="1"/>
+    <col min="7" max="7" width="110" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="92"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
@@ -7182,16 +7195,16 @@
     </row>
     <row r="7" spans="1:9" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="94" t="str">
+      <c r="B7" s="101" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="78"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
@@ -7207,15 +7220,15 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
@@ -7229,11 +7242,11 @@
       <c r="D10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
       <c r="H10" s="10" t="s">
         <v>44</v>
       </c>
@@ -7251,11 +7264,11 @@
         <f t="shared" ref="D11:D16" si="0">C11+13</f>
         <v>44290</v>
       </c>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="99"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
       <c r="H11" s="13"/>
       <c r="I11" s="1"/>
     </row>
@@ -7272,9 +7285,9 @@
         <f t="shared" si="0"/>
         <v>44304</v>
       </c>
-      <c r="E12" s="100"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="13"/>
       <c r="I12" s="1"/>
     </row>
@@ -7291,9 +7304,9 @@
         <f t="shared" si="0"/>
         <v>44318</v>
       </c>
-      <c r="E13" s="100"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="85"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="13"/>
       <c r="I13" s="1"/>
     </row>
@@ -7310,9 +7323,9 @@
         <f t="shared" si="0"/>
         <v>44332</v>
       </c>
-      <c r="E14" s="101"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="13"/>
       <c r="I14" s="1"/>
     </row>
@@ -7329,9 +7342,9 @@
         <f t="shared" si="0"/>
         <v>44346</v>
       </c>
-      <c r="E15" s="101"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
       <c r="H15" s="13"/>
       <c r="I15" s="1"/>
     </row>
@@ -7348,9 +7361,9 @@
         <f t="shared" si="0"/>
         <v>44360</v>
       </c>
-      <c r="E16" s="101"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="13"/>
       <c r="I16" s="1"/>
     </row>
@@ -7379,13 +7392,13 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="15" t="s">
         <v>47</v>
       </c>
@@ -7396,11 +7409,11 @@
       <c r="B20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="85"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
       <c r="H20" s="17" t="s">
         <v>48</v>
       </c>
@@ -7411,13 +7424,13 @@
       <c r="B21" s="19">
         <v>1</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="85"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="20" t="s">
         <v>50</v>
       </c>
@@ -7428,13 +7441,13 @@
       <c r="B22" s="18">
         <v>2</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="85"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
       <c r="H22" s="20" t="s">
         <v>50</v>
       </c>
@@ -7445,13 +7458,13 @@
       <c r="B23" s="19">
         <v>3</v>
       </c>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="20" t="s">
         <v>50</v>
       </c>
@@ -7462,13 +7475,13 @@
       <c r="B24" s="18">
         <v>4</v>
       </c>
-      <c r="C24" s="104" t="s">
+      <c r="C24" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="85"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
       <c r="H24" s="20" t="s">
         <v>54</v>
       </c>
@@ -7479,13 +7492,13 @@
       <c r="B25" s="19">
         <v>5</v>
       </c>
-      <c r="C25" s="104" t="s">
+      <c r="C25" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="85"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="20" t="s">
         <v>56</v>
       </c>
@@ -7496,13 +7509,13 @@
       <c r="B26" s="18">
         <v>6</v>
       </c>
-      <c r="C26" s="104" t="s">
+      <c r="C26" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="85"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
       <c r="H26" s="20" t="s">
         <v>50</v>
       </c>
@@ -7513,13 +7526,13 @@
       <c r="B27" s="19">
         <v>7</v>
       </c>
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="85"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
       <c r="H27" s="20" t="s">
         <v>50</v>
       </c>
@@ -7530,13 +7543,13 @@
       <c r="B28" s="18">
         <v>8</v>
       </c>
-      <c r="C28" s="104" t="s">
+      <c r="C28" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="85"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
       <c r="H28" s="20" t="s">
         <v>50</v>
       </c>
@@ -7547,13 +7560,13 @@
       <c r="B29" s="19">
         <v>9</v>
       </c>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="85"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="78"/>
       <c r="H29" s="20" t="s">
         <v>50</v>
       </c>
@@ -7564,13 +7577,13 @@
       <c r="B30" s="18">
         <v>10</v>
       </c>
-      <c r="C30" s="105" t="s">
+      <c r="C30" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="82"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="84"/>
       <c r="H30" s="20" t="s">
         <v>50</v>
       </c>
@@ -7581,13 +7594,13 @@
       <c r="B31" s="19">
         <v>11</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="85"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="20" t="s">
         <v>56</v>
       </c>
@@ -7598,13 +7611,13 @@
       <c r="B32" s="18">
         <v>12</v>
       </c>
-      <c r="C32" s="104" t="s">
+      <c r="C32" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="85"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="78"/>
       <c r="H32" s="20" t="s">
         <v>50</v>
       </c>
@@ -7615,13 +7628,13 @@
       <c r="B33" s="19">
         <v>13</v>
       </c>
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="85"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="78"/>
       <c r="H33" s="20" t="s">
         <v>54</v>
       </c>
@@ -7632,12 +7645,16 @@
       <c r="B34" s="18">
         <v>14</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="20"/>
+      <c r="C34" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1">
@@ -7645,11 +7662,11 @@
       <c r="B35" s="19">
         <v>15</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="85"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="78"/>
       <c r="H35" s="20"/>
       <c r="I35" s="1"/>
     </row>
@@ -7658,11 +7675,11 @@
       <c r="B36" s="18">
         <v>16</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="85"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="78"/>
       <c r="H36" s="20"/>
       <c r="I36" s="1"/>
     </row>
@@ -7671,11 +7688,11 @@
       <c r="B37" s="19">
         <v>17</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="85"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="78"/>
       <c r="H37" s="20"/>
       <c r="I37" s="1"/>
     </row>
@@ -7684,11 +7701,11 @@
       <c r="B38" s="18">
         <v>18</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="85"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="78"/>
       <c r="H38" s="20"/>
       <c r="I38" s="1"/>
     </row>
@@ -7697,11 +7714,11 @@
       <c r="B39" s="19">
         <v>19</v>
       </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="85"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="78"/>
       <c r="H39" s="20"/>
       <c r="I39" s="1"/>
     </row>
@@ -7710,11 +7727,11 @@
       <c r="B40" s="18">
         <v>20</v>
       </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="85"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="78"/>
       <c r="H40" s="20"/>
       <c r="I40" s="1"/>
     </row>
@@ -7723,11 +7740,11 @@
       <c r="B41" s="19">
         <v>21</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="85"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="78"/>
       <c r="H41" s="20"/>
       <c r="I41" s="1"/>
     </row>
@@ -7736,11 +7753,11 @@
       <c r="B42" s="18">
         <v>22</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="85"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="78"/>
       <c r="H42" s="20"/>
       <c r="I42" s="1"/>
     </row>
@@ -7749,11 +7766,11 @@
       <c r="B43" s="19">
         <v>23</v>
       </c>
-      <c r="C43" s="104"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="85"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="78"/>
       <c r="H43" s="20"/>
       <c r="I43" s="1"/>
     </row>
@@ -7762,11 +7779,11 @@
       <c r="B44" s="18">
         <v>24</v>
       </c>
-      <c r="C44" s="104"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="85"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="78"/>
       <c r="H44" s="20"/>
       <c r="I44" s="1"/>
     </row>
@@ -7775,11 +7792,11 @@
       <c r="B45" s="19">
         <v>25</v>
       </c>
-      <c r="C45" s="104"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="85"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="20"/>
       <c r="I45" s="1"/>
     </row>
@@ -7788,11 +7805,11 @@
       <c r="B46" s="18">
         <v>26</v>
       </c>
-      <c r="C46" s="104"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="85"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="78"/>
       <c r="H46" s="20"/>
       <c r="I46" s="1"/>
     </row>
@@ -7801,11 +7818,11 @@
       <c r="B47" s="19">
         <v>27</v>
       </c>
-      <c r="C47" s="104"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="85"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="78"/>
       <c r="H47" s="20"/>
       <c r="I47" s="1"/>
     </row>
@@ -7814,11 +7831,11 @@
       <c r="B48" s="18">
         <v>28</v>
       </c>
-      <c r="C48" s="104"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="85"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="78"/>
       <c r="H48" s="20"/>
       <c r="I48" s="1"/>
     </row>
@@ -7827,11 +7844,11 @@
       <c r="B49" s="19">
         <v>29</v>
       </c>
-      <c r="C49" s="104"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="85"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="78"/>
       <c r="H49" s="20"/>
       <c r="I49" s="1"/>
     </row>
@@ -7840,11 +7857,11 @@
       <c r="B50" s="18">
         <v>30</v>
       </c>
-      <c r="C50" s="104"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="85"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="78"/>
       <c r="H50" s="20"/>
       <c r="I50" s="1"/>
     </row>
@@ -7853,11 +7870,11 @@
       <c r="B51" s="19">
         <v>31</v>
       </c>
-      <c r="C51" s="104"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="85"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="78"/>
       <c r="H51" s="20"/>
       <c r="I51" s="1"/>
     </row>
@@ -7866,11 +7883,11 @@
       <c r="B52" s="18">
         <v>32</v>
       </c>
-      <c r="C52" s="104"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="85"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="78"/>
       <c r="H52" s="20"/>
       <c r="I52" s="1"/>
     </row>
@@ -7879,11 +7896,11 @@
       <c r="B53" s="19">
         <v>33</v>
       </c>
-      <c r="C53" s="104"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="85"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="78"/>
       <c r="H53" s="20"/>
       <c r="I53" s="1"/>
     </row>
@@ -7892,11 +7909,11 @@
       <c r="B54" s="18">
         <v>34</v>
       </c>
-      <c r="C54" s="104"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="85"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="78"/>
       <c r="H54" s="20"/>
       <c r="I54" s="1"/>
     </row>
@@ -7905,11 +7922,11 @@
       <c r="B55" s="19">
         <v>35</v>
       </c>
-      <c r="C55" s="104"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="85"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="78"/>
       <c r="H55" s="20"/>
       <c r="I55" s="1"/>
     </row>
@@ -7918,11 +7935,11 @@
       <c r="B56" s="18">
         <v>36</v>
       </c>
-      <c r="C56" s="104"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="85"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="78"/>
       <c r="H56" s="20"/>
       <c r="I56" s="1"/>
     </row>
@@ -7931,11 +7948,11 @@
       <c r="B57" s="19">
         <v>37</v>
       </c>
-      <c r="C57" s="104"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="85"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="78"/>
       <c r="H57" s="20"/>
       <c r="I57" s="1"/>
     </row>
@@ -7944,11 +7961,11 @@
       <c r="B58" s="18">
         <v>38</v>
       </c>
-      <c r="C58" s="104"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="85"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="78"/>
       <c r="H58" s="20"/>
       <c r="I58" s="1"/>
     </row>
@@ -7957,11 +7974,11 @@
       <c r="B59" s="19">
         <v>39</v>
       </c>
-      <c r="C59" s="104"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="85"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="78"/>
       <c r="H59" s="20"/>
       <c r="I59" s="1"/>
     </row>
@@ -7970,11 +7987,11 @@
       <c r="B60" s="18">
         <v>40</v>
       </c>
-      <c r="C60" s="104"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="85"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="78"/>
       <c r="H60" s="20"/>
       <c r="I60" s="1"/>
     </row>
@@ -7983,11 +8000,11 @@
       <c r="B61" s="19">
         <v>41</v>
       </c>
-      <c r="C61" s="104"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="85"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="78"/>
       <c r="H61" s="20"/>
       <c r="I61" s="1"/>
     </row>
@@ -7996,11 +8013,11 @@
       <c r="B62" s="18">
         <v>42</v>
       </c>
-      <c r="C62" s="104"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="85"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="78"/>
       <c r="H62" s="20"/>
       <c r="I62" s="1"/>
     </row>
@@ -8009,11 +8026,11 @@
       <c r="B63" s="19">
         <v>43</v>
       </c>
-      <c r="C63" s="104"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="85"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="78"/>
       <c r="H63" s="20"/>
       <c r="I63" s="1"/>
     </row>
@@ -8022,11 +8039,11 @@
       <c r="B64" s="18">
         <v>44</v>
       </c>
-      <c r="C64" s="104"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="85"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="78"/>
       <c r="H64" s="20"/>
       <c r="I64" s="1"/>
     </row>
@@ -8035,11 +8052,11 @@
       <c r="B65" s="19">
         <v>45</v>
       </c>
-      <c r="C65" s="104"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="85"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="78"/>
       <c r="H65" s="20"/>
       <c r="I65" s="1"/>
     </row>
@@ -8048,11 +8065,11 @@
       <c r="B66" s="18">
         <v>46</v>
       </c>
-      <c r="C66" s="104"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="85"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="78"/>
       <c r="H66" s="20"/>
       <c r="I66" s="1"/>
     </row>
@@ -8061,11 +8078,11 @@
       <c r="B67" s="19">
         <v>47</v>
       </c>
-      <c r="C67" s="104"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="85"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="78"/>
       <c r="H67" s="20"/>
       <c r="I67" s="1"/>
     </row>
@@ -8074,11 +8091,11 @@
       <c r="B68" s="18">
         <v>48</v>
       </c>
-      <c r="C68" s="104"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="85"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="78"/>
       <c r="H68" s="20"/>
       <c r="I68" s="1"/>
     </row>
@@ -8087,11 +8104,11 @@
       <c r="B69" s="19">
         <v>49</v>
       </c>
-      <c r="C69" s="104"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="85"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="78"/>
       <c r="H69" s="20"/>
       <c r="I69" s="1"/>
     </row>
@@ -8100,11 +8117,11 @@
       <c r="B70" s="18">
         <v>50</v>
       </c>
-      <c r="C70" s="104"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="85"/>
+      <c r="C70" s="95"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="78"/>
       <c r="H70" s="20"/>
       <c r="I70" s="1"/>
     </row>
@@ -8113,11 +8130,11 @@
       <c r="B71" s="19">
         <v>51</v>
       </c>
-      <c r="C71" s="104"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="85"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="78"/>
       <c r="H71" s="20"/>
       <c r="I71" s="1"/>
     </row>
@@ -8126,11 +8143,11 @@
       <c r="B72" s="18">
         <v>52</v>
       </c>
-      <c r="C72" s="104"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="85"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="78"/>
       <c r="H72" s="20"/>
       <c r="I72" s="1"/>
     </row>
@@ -8139,11 +8156,11 @@
       <c r="B73" s="19">
         <v>53</v>
       </c>
-      <c r="C73" s="104"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="85"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="78"/>
       <c r="H73" s="20"/>
       <c r="I73" s="1"/>
     </row>
@@ -8152,11 +8169,11 @@
       <c r="B74" s="18">
         <v>54</v>
       </c>
-      <c r="C74" s="104"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="85"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="78"/>
       <c r="H74" s="20"/>
       <c r="I74" s="1"/>
     </row>
@@ -8165,11 +8182,11 @@
       <c r="B75" s="19">
         <v>55</v>
       </c>
-      <c r="C75" s="104"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="85"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="78"/>
       <c r="H75" s="20"/>
       <c r="I75" s="1"/>
     </row>
@@ -8178,11 +8195,11 @@
       <c r="B76" s="18">
         <v>56</v>
       </c>
-      <c r="C76" s="104"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="85"/>
+      <c r="C76" s="95"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="78"/>
       <c r="H76" s="20"/>
       <c r="I76" s="1"/>
     </row>
@@ -8191,11 +8208,11 @@
       <c r="B77" s="19">
         <v>57</v>
       </c>
-      <c r="C77" s="104"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="84"/>
-      <c r="F77" s="84"/>
-      <c r="G77" s="85"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="78"/>
       <c r="H77" s="20"/>
       <c r="I77" s="1"/>
     </row>
@@ -8204,11 +8221,11 @@
       <c r="B78" s="18">
         <v>58</v>
       </c>
-      <c r="C78" s="104"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="85"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="78"/>
       <c r="H78" s="20"/>
       <c r="I78" s="1"/>
     </row>
@@ -8217,11 +8234,11 @@
       <c r="B79" s="19">
         <v>59</v>
       </c>
-      <c r="C79" s="104"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="85"/>
+      <c r="C79" s="95"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="78"/>
       <c r="H79" s="20"/>
       <c r="I79" s="1"/>
     </row>
@@ -8230,11 +8247,11 @@
       <c r="B80" s="18">
         <v>60</v>
       </c>
-      <c r="C80" s="104"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="85"/>
+      <c r="C80" s="95"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="78"/>
       <c r="H80" s="20"/>
       <c r="I80" s="1"/>
     </row>
@@ -8243,11 +8260,11 @@
       <c r="B81" s="19">
         <v>61</v>
       </c>
-      <c r="C81" s="104"/>
-      <c r="D81" s="84"/>
-      <c r="E81" s="84"/>
-      <c r="F81" s="84"/>
-      <c r="G81" s="85"/>
+      <c r="C81" s="95"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="77"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="78"/>
       <c r="H81" s="20"/>
       <c r="I81" s="1"/>
     </row>
@@ -8256,11 +8273,11 @@
       <c r="B82" s="18">
         <v>62</v>
       </c>
-      <c r="C82" s="104"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="85"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="78"/>
       <c r="H82" s="20"/>
       <c r="I82" s="1"/>
     </row>
@@ -8269,11 +8286,11 @@
       <c r="B83" s="19">
         <v>63</v>
       </c>
-      <c r="C83" s="104"/>
-      <c r="D83" s="84"/>
-      <c r="E83" s="84"/>
-      <c r="F83" s="84"/>
-      <c r="G83" s="85"/>
+      <c r="C83" s="95"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="78"/>
       <c r="H83" s="20"/>
       <c r="I83" s="1"/>
     </row>
@@ -8282,11 +8299,11 @@
       <c r="B84" s="18">
         <v>64</v>
       </c>
-      <c r="C84" s="104"/>
-      <c r="D84" s="84"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="84"/>
-      <c r="G84" s="85"/>
+      <c r="C84" s="95"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="78"/>
       <c r="H84" s="20"/>
       <c r="I84" s="1"/>
     </row>
@@ -8295,11 +8312,11 @@
       <c r="B85" s="19">
         <v>65</v>
       </c>
-      <c r="C85" s="104"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="84"/>
-      <c r="G85" s="85"/>
+      <c r="C85" s="95"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="78"/>
       <c r="H85" s="20"/>
       <c r="I85" s="1"/>
     </row>
@@ -8308,11 +8325,11 @@
       <c r="B86" s="18">
         <v>66</v>
       </c>
-      <c r="C86" s="104"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="85"/>
+      <c r="C86" s="95"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="78"/>
       <c r="H86" s="20"/>
       <c r="I86" s="1"/>
     </row>
@@ -8321,11 +8338,11 @@
       <c r="B87" s="19">
         <v>67</v>
       </c>
-      <c r="C87" s="104"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="84"/>
-      <c r="F87" s="84"/>
-      <c r="G87" s="85"/>
+      <c r="C87" s="95"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="78"/>
       <c r="H87" s="20"/>
       <c r="I87" s="1"/>
     </row>
@@ -8334,11 +8351,11 @@
       <c r="B88" s="18">
         <v>68</v>
       </c>
-      <c r="C88" s="104"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="84"/>
-      <c r="F88" s="84"/>
-      <c r="G88" s="85"/>
+      <c r="C88" s="95"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="78"/>
       <c r="H88" s="20"/>
       <c r="I88" s="1"/>
     </row>
@@ -8347,11 +8364,11 @@
       <c r="B89" s="19">
         <v>69</v>
       </c>
-      <c r="C89" s="104"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="84"/>
-      <c r="F89" s="84"/>
-      <c r="G89" s="85"/>
+      <c r="C89" s="95"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="78"/>
       <c r="H89" s="20"/>
       <c r="I89" s="1"/>
     </row>
@@ -8360,11 +8377,11 @@
       <c r="B90" s="18">
         <v>70</v>
       </c>
-      <c r="C90" s="104"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="84"/>
-      <c r="F90" s="84"/>
-      <c r="G90" s="85"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="78"/>
       <c r="H90" s="20"/>
       <c r="I90" s="1"/>
     </row>
@@ -8373,11 +8390,11 @@
       <c r="B91" s="19">
         <v>71</v>
       </c>
-      <c r="C91" s="104"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="84"/>
-      <c r="F91" s="84"/>
-      <c r="G91" s="85"/>
+      <c r="C91" s="95"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="78"/>
       <c r="H91" s="20"/>
       <c r="I91" s="1"/>
     </row>
@@ -8386,11 +8403,11 @@
       <c r="B92" s="18">
         <v>72</v>
       </c>
-      <c r="C92" s="104"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="84"/>
-      <c r="F92" s="84"/>
-      <c r="G92" s="85"/>
+      <c r="C92" s="95"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="77"/>
+      <c r="G92" s="78"/>
       <c r="H92" s="20"/>
       <c r="I92" s="1"/>
     </row>
@@ -8399,11 +8416,11 @@
       <c r="B93" s="19">
         <v>73</v>
       </c>
-      <c r="C93" s="104"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="85"/>
+      <c r="C93" s="95"/>
+      <c r="D93" s="77"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="78"/>
       <c r="H93" s="20"/>
       <c r="I93" s="1"/>
     </row>
@@ -8412,11 +8429,11 @@
       <c r="B94" s="18">
         <v>74</v>
       </c>
-      <c r="C94" s="104"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="84"/>
-      <c r="G94" s="85"/>
+      <c r="C94" s="95"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="78"/>
       <c r="H94" s="20"/>
       <c r="I94" s="1"/>
     </row>
@@ -8425,11 +8442,11 @@
       <c r="B95" s="19">
         <v>75</v>
       </c>
-      <c r="C95" s="104"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="84"/>
-      <c r="F95" s="84"/>
-      <c r="G95" s="85"/>
+      <c r="C95" s="95"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="77"/>
+      <c r="G95" s="78"/>
       <c r="H95" s="20"/>
       <c r="I95" s="1"/>
     </row>
@@ -8438,11 +8455,11 @@
       <c r="B96" s="18">
         <v>76</v>
       </c>
-      <c r="C96" s="104"/>
-      <c r="D96" s="84"/>
-      <c r="E96" s="84"/>
-      <c r="F96" s="84"/>
-      <c r="G96" s="85"/>
+      <c r="C96" s="95"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="78"/>
       <c r="H96" s="20"/>
       <c r="I96" s="1"/>
     </row>
@@ -8451,11 +8468,11 @@
       <c r="B97" s="19">
         <v>77</v>
       </c>
-      <c r="C97" s="104"/>
-      <c r="D97" s="84"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="84"/>
-      <c r="G97" s="85"/>
+      <c r="C97" s="95"/>
+      <c r="D97" s="77"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="78"/>
       <c r="H97" s="20"/>
       <c r="I97" s="1"/>
     </row>
@@ -8464,11 +8481,11 @@
       <c r="B98" s="18">
         <v>78</v>
       </c>
-      <c r="C98" s="104"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="84"/>
-      <c r="F98" s="84"/>
-      <c r="G98" s="85"/>
+      <c r="C98" s="95"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="78"/>
       <c r="H98" s="20"/>
       <c r="I98" s="1"/>
     </row>
@@ -8477,11 +8494,11 @@
       <c r="B99" s="19">
         <v>79</v>
       </c>
-      <c r="C99" s="104"/>
-      <c r="D99" s="84"/>
-      <c r="E99" s="84"/>
-      <c r="F99" s="84"/>
-      <c r="G99" s="85"/>
+      <c r="C99" s="95"/>
+      <c r="D99" s="77"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="78"/>
       <c r="H99" s="20"/>
       <c r="I99" s="1"/>
     </row>
@@ -8490,11 +8507,11 @@
       <c r="B100" s="18">
         <v>80</v>
       </c>
-      <c r="C100" s="104"/>
-      <c r="D100" s="84"/>
-      <c r="E100" s="84"/>
-      <c r="F100" s="84"/>
-      <c r="G100" s="85"/>
+      <c r="C100" s="95"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="78"/>
       <c r="H100" s="20"/>
       <c r="I100" s="1"/>
     </row>
@@ -8503,11 +8520,11 @@
       <c r="B101" s="19">
         <v>81</v>
       </c>
-      <c r="C101" s="104"/>
-      <c r="D101" s="84"/>
-      <c r="E101" s="84"/>
-      <c r="F101" s="84"/>
-      <c r="G101" s="85"/>
+      <c r="C101" s="95"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="78"/>
       <c r="H101" s="20"/>
       <c r="I101" s="1"/>
     </row>
@@ -8516,11 +8533,11 @@
       <c r="B102" s="18">
         <v>82</v>
       </c>
-      <c r="C102" s="104"/>
-      <c r="D102" s="84"/>
-      <c r="E102" s="84"/>
-      <c r="F102" s="84"/>
-      <c r="G102" s="85"/>
+      <c r="C102" s="95"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="78"/>
       <c r="H102" s="20"/>
       <c r="I102" s="1"/>
     </row>
@@ -8529,11 +8546,11 @@
       <c r="B103" s="19">
         <v>83</v>
       </c>
-      <c r="C103" s="104"/>
-      <c r="D103" s="84"/>
-      <c r="E103" s="84"/>
-      <c r="F103" s="84"/>
-      <c r="G103" s="85"/>
+      <c r="C103" s="95"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="78"/>
       <c r="H103" s="20"/>
       <c r="I103" s="1"/>
     </row>
@@ -8542,11 +8559,11 @@
       <c r="B104" s="18">
         <v>84</v>
       </c>
-      <c r="C104" s="104"/>
-      <c r="D104" s="84"/>
-      <c r="E104" s="84"/>
-      <c r="F104" s="84"/>
-      <c r="G104" s="85"/>
+      <c r="C104" s="95"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="78"/>
       <c r="H104" s="20"/>
       <c r="I104" s="1"/>
     </row>
@@ -8555,11 +8572,11 @@
       <c r="B105" s="19">
         <v>85</v>
       </c>
-      <c r="C105" s="104"/>
-      <c r="D105" s="84"/>
-      <c r="E105" s="84"/>
-      <c r="F105" s="84"/>
-      <c r="G105" s="85"/>
+      <c r="C105" s="95"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="78"/>
       <c r="H105" s="20"/>
       <c r="I105" s="1"/>
     </row>
@@ -8568,11 +8585,11 @@
       <c r="B106" s="18">
         <v>86</v>
       </c>
-      <c r="C106" s="104"/>
-      <c r="D106" s="84"/>
-      <c r="E106" s="84"/>
-      <c r="F106" s="84"/>
-      <c r="G106" s="85"/>
+      <c r="C106" s="95"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="78"/>
       <c r="H106" s="20"/>
       <c r="I106" s="1"/>
     </row>
@@ -8581,11 +8598,11 @@
       <c r="B107" s="19">
         <v>87</v>
       </c>
-      <c r="C107" s="104"/>
-      <c r="D107" s="84"/>
-      <c r="E107" s="84"/>
-      <c r="F107" s="84"/>
-      <c r="G107" s="85"/>
+      <c r="C107" s="95"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="78"/>
       <c r="H107" s="20"/>
       <c r="I107" s="1"/>
     </row>
@@ -8594,11 +8611,11 @@
       <c r="B108" s="18">
         <v>88</v>
       </c>
-      <c r="C108" s="104"/>
-      <c r="D108" s="84"/>
-      <c r="E108" s="84"/>
-      <c r="F108" s="84"/>
-      <c r="G108" s="85"/>
+      <c r="C108" s="95"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="78"/>
       <c r="H108" s="20"/>
       <c r="I108" s="1"/>
     </row>
@@ -8607,11 +8624,11 @@
       <c r="B109" s="19">
         <v>89</v>
       </c>
-      <c r="C109" s="104"/>
-      <c r="D109" s="84"/>
-      <c r="E109" s="84"/>
-      <c r="F109" s="84"/>
-      <c r="G109" s="85"/>
+      <c r="C109" s="95"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="78"/>
       <c r="H109" s="20"/>
       <c r="I109" s="1"/>
     </row>
@@ -8620,11 +8637,11 @@
       <c r="B110" s="18">
         <v>90</v>
       </c>
-      <c r="C110" s="104"/>
-      <c r="D110" s="84"/>
-      <c r="E110" s="84"/>
-      <c r="F110" s="84"/>
-      <c r="G110" s="85"/>
+      <c r="C110" s="95"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="78"/>
       <c r="H110" s="20"/>
       <c r="I110" s="1"/>
     </row>
@@ -8633,11 +8650,11 @@
       <c r="B111" s="19">
         <v>91</v>
       </c>
-      <c r="C111" s="104"/>
-      <c r="D111" s="84"/>
-      <c r="E111" s="84"/>
-      <c r="F111" s="84"/>
-      <c r="G111" s="85"/>
+      <c r="C111" s="95"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="78"/>
       <c r="H111" s="20"/>
       <c r="I111" s="1"/>
     </row>
@@ -8646,11 +8663,11 @@
       <c r="B112" s="18">
         <v>92</v>
       </c>
-      <c r="C112" s="104"/>
-      <c r="D112" s="84"/>
-      <c r="E112" s="84"/>
-      <c r="F112" s="84"/>
-      <c r="G112" s="85"/>
+      <c r="C112" s="95"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="78"/>
       <c r="H112" s="20"/>
       <c r="I112" s="1"/>
     </row>
@@ -8659,11 +8676,11 @@
       <c r="B113" s="19">
         <v>93</v>
       </c>
-      <c r="C113" s="104"/>
-      <c r="D113" s="84"/>
-      <c r="E113" s="84"/>
-      <c r="F113" s="84"/>
-      <c r="G113" s="85"/>
+      <c r="C113" s="95"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="78"/>
       <c r="H113" s="20"/>
       <c r="I113" s="1"/>
     </row>
@@ -8672,11 +8689,11 @@
       <c r="B114" s="18">
         <v>94</v>
       </c>
-      <c r="C114" s="104"/>
-      <c r="D114" s="84"/>
-      <c r="E114" s="84"/>
-      <c r="F114" s="84"/>
-      <c r="G114" s="85"/>
+      <c r="C114" s="95"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="78"/>
       <c r="H114" s="20"/>
       <c r="I114" s="1"/>
     </row>
@@ -8685,11 +8702,11 @@
       <c r="B115" s="19">
         <v>95</v>
       </c>
-      <c r="C115" s="104"/>
-      <c r="D115" s="84"/>
-      <c r="E115" s="84"/>
-      <c r="F115" s="84"/>
-      <c r="G115" s="85"/>
+      <c r="C115" s="95"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="77"/>
+      <c r="G115" s="78"/>
       <c r="H115" s="20"/>
       <c r="I115" s="1"/>
     </row>
@@ -8698,11 +8715,11 @@
       <c r="B116" s="18">
         <v>96</v>
       </c>
-      <c r="C116" s="104"/>
-      <c r="D116" s="84"/>
-      <c r="E116" s="84"/>
-      <c r="F116" s="84"/>
-      <c r="G116" s="85"/>
+      <c r="C116" s="95"/>
+      <c r="D116" s="77"/>
+      <c r="E116" s="77"/>
+      <c r="F116" s="77"/>
+      <c r="G116" s="78"/>
       <c r="H116" s="20"/>
       <c r="I116" s="1"/>
     </row>
@@ -8711,11 +8728,11 @@
       <c r="B117" s="19">
         <v>97</v>
       </c>
-      <c r="C117" s="104"/>
-      <c r="D117" s="84"/>
-      <c r="E117" s="84"/>
-      <c r="F117" s="84"/>
-      <c r="G117" s="85"/>
+      <c r="C117" s="95"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="77"/>
+      <c r="F117" s="77"/>
+      <c r="G117" s="78"/>
       <c r="H117" s="20"/>
       <c r="I117" s="1"/>
     </row>
@@ -8724,11 +8741,11 @@
       <c r="B118" s="18">
         <v>98</v>
       </c>
-      <c r="C118" s="104"/>
-      <c r="D118" s="84"/>
-      <c r="E118" s="84"/>
-      <c r="F118" s="84"/>
-      <c r="G118" s="85"/>
+      <c r="C118" s="95"/>
+      <c r="D118" s="77"/>
+      <c r="E118" s="77"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="78"/>
       <c r="H118" s="20"/>
       <c r="I118" s="1"/>
     </row>
@@ -8737,11 +8754,11 @@
       <c r="B119" s="19">
         <v>99</v>
       </c>
-      <c r="C119" s="104"/>
-      <c r="D119" s="84"/>
-      <c r="E119" s="84"/>
-      <c r="F119" s="84"/>
-      <c r="G119" s="85"/>
+      <c r="C119" s="95"/>
+      <c r="D119" s="77"/>
+      <c r="E119" s="77"/>
+      <c r="F119" s="77"/>
+      <c r="G119" s="78"/>
       <c r="H119" s="20"/>
       <c r="I119" s="1"/>
     </row>
@@ -8750,11 +8767,11 @@
       <c r="B120" s="18">
         <v>100</v>
       </c>
-      <c r="C120" s="104"/>
-      <c r="D120" s="84"/>
-      <c r="E120" s="84"/>
-      <c r="F120" s="84"/>
-      <c r="G120" s="85"/>
+      <c r="C120" s="95"/>
+      <c r="D120" s="77"/>
+      <c r="E120" s="77"/>
+      <c r="F120" s="77"/>
+      <c r="G120" s="78"/>
       <c r="H120" s="20"/>
       <c r="I120" s="1"/>
     </row>
@@ -9755,7 +9772,7 @@
       </c>
       <c r="C211" s="21"/>
       <c r="D211" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
@@ -9766,7 +9783,7 @@
     <row r="212" spans="1:9" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C212" s="21"/>
       <c r="D212" s="21" t="s">
@@ -9781,7 +9798,7 @@
     <row r="213" spans="1:9" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C213" s="21"/>
       <c r="D213" s="21" t="s">
@@ -10628,53 +10645,51 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
@@ -10699,51 +10714,53 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H120" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -10769,7 +10786,7 @@
   <dimension ref="A1:U989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="D24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -10790,17 +10807,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
       <c r="K1" s="23">
         <f>Requisitos!C11</f>
         <v>44277</v>
@@ -10808,17 +10825,17 @@
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44278</v>
@@ -10826,17 +10843,17 @@
     </row>
     <row r="3" spans="1:21" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
+      <c r="B3" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="92"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44279</v>
@@ -10844,17 +10861,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
+      <c r="B4" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44280</v>
@@ -10862,17 +10879,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44281</v>
@@ -10894,18 +10911,18 @@
     </row>
     <row r="7" spans="1:21" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="83" t="str">
+      <c r="B7" s="85" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44283</v>
@@ -10927,18 +10944,18 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
+      <c r="B9" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
       <c r="J9" s="47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K9" s="23">
         <f t="shared" si="0"/>
@@ -10951,28 +10968,28 @@
         <v>40</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="0"/>
@@ -10988,7 +11005,7 @@
         <v>44283</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" s="57">
         <v>1</v>
@@ -11006,7 +11023,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11" s="23">
         <f t="shared" si="0"/>
@@ -11032,7 +11049,7 @@
         <v>44277</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" s="60">
         <v>1</v>
@@ -11050,7 +11067,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="23">
         <f t="shared" si="0"/>
@@ -11066,7 +11083,7 @@
         <v>44286</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E13" s="60">
         <v>1</v>
@@ -11098,7 +11115,7 @@
         <v>44278</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E14" s="58">
         <v>1</v>
@@ -11130,7 +11147,7 @@
         <v>44286</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15" s="59">
         <v>1</v>
@@ -11157,7 +11174,7 @@
         <v>44280</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E16" s="59">
         <v>2</v>
@@ -11175,7 +11192,7 @@
         <v>12</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="70.5" customHeight="1">
@@ -11187,7 +11204,7 @@
         <v>44278</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" s="59">
         <v>2</v>
@@ -11205,7 +11222,7 @@
         <v>0.8</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="75" customHeight="1">
@@ -11217,7 +11234,7 @@
         <v>44279</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E18" s="59">
         <v>2</v>
@@ -11235,7 +11252,7 @@
         <v>0.65</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="77.25" customHeight="1">
@@ -11247,7 +11264,7 @@
         <v>44279</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19" s="59">
         <v>2</v>
@@ -11265,7 +11282,7 @@
         <v>0.16</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="70.5" customHeight="1">
@@ -11277,7 +11294,7 @@
         <v>44286</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" s="59">
         <v>10</v>
@@ -11305,7 +11322,7 @@
         <v>44286</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E21" s="59">
         <v>8</v>
@@ -11323,7 +11340,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="31.5" customHeight="1">
@@ -11335,7 +11352,7 @@
         <v>44284</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E22" s="59">
         <v>8</v>
@@ -11353,7 +11370,7 @@
         <v>2.5</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="48" customHeight="1">
@@ -11365,7 +11382,7 @@
         <v>44286</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E23" s="59">
         <v>8</v>
@@ -11393,7 +11410,7 @@
         <v>44285</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E24" s="59">
         <v>6</v>
@@ -11411,7 +11428,7 @@
         <v>6</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="37.5" customHeight="1">
@@ -11423,7 +11440,7 @@
         <v>44283</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E25" s="59">
         <v>6</v>
@@ -11441,7 +11458,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="37.5" customHeight="1">
@@ -11453,7 +11470,7 @@
         <v>44283</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E26" s="27">
         <v>1</v>
@@ -11481,7 +11498,7 @@
         <v>44283</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E27" s="27">
         <v>2</v>
@@ -11509,7 +11526,7 @@
         <v>44283</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28" s="27">
         <v>6</v>
@@ -11537,7 +11554,7 @@
         <v>44283</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" s="27">
         <v>8</v>
@@ -11565,7 +11582,7 @@
         <v>44283</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E30" s="27">
         <v>10</v>
@@ -11593,7 +11610,7 @@
         <v>44290</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E31" s="27">
         <v>8</v>
@@ -11621,7 +11638,7 @@
         <v>44290</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E32" s="27">
         <v>10</v>
@@ -11649,7 +11666,7 @@
         <v>44290</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E33" s="27">
         <v>6</v>
@@ -11677,7 +11694,7 @@
         <v>44290</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E34" s="27">
         <v>1</v>
@@ -11705,7 +11722,7 @@
         <v>44290</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E35" s="27">
         <v>10</v>
@@ -11926,7 +11943,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="G50" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H50" s="32">
         <f t="shared" ref="H50:I50" si="1">SUM(H11:H49)</f>
@@ -11958,29 +11975,29 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="85"/>
+      <c r="B52" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="78"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="85"/>
+      <c r="B53" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="78"/>
       <c r="H53" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I53" s="25" t="s">
         <v>22</v>
@@ -11988,15 +12005,15 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="106" t="str">
+      <c r="B54" s="107" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="85"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="78"/>
       <c r="H54" s="33">
         <f>SUMIF($F$11:$F$49,'Dados do Projeto'!$B10,H$11:H$49)</f>
         <v>10</v>
@@ -12008,15 +12025,15 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="106" t="str">
+      <c r="B55" s="107" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="85"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="78"/>
       <c r="H55" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B11,H$11:H$49)</f>
         <v>10</v>
@@ -12028,15 +12045,15 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="106" t="str">
+      <c r="B56" s="107" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="85"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="78"/>
       <c r="H56" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B12,H$11:H$49)</f>
         <v>8</v>
@@ -12048,15 +12065,15 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="106" t="str">
+      <c r="B57" s="107" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="85"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="78"/>
       <c r="H57" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B13,H$11:H$49)</f>
         <v>16</v>
@@ -12068,15 +12085,15 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="106" t="str">
+      <c r="B58" s="107" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="85"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="78"/>
       <c r="H58" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B14,H$11:H$49)</f>
         <v>12</v>
@@ -13482,7 +13499,7 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -13501,17 +13518,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
       <c r="K1" s="23">
         <f>Requisitos!C12</f>
         <v>44291</v>
@@ -13519,17 +13536,17 @@
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44292</v>
@@ -13537,17 +13554,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="92"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44293</v>
@@ -13555,17 +13572,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44294</v>
@@ -13573,17 +13590,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44295</v>
@@ -13606,18 +13623,18 @@
     </row>
     <row r="7" spans="1:21" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="83" t="str">
+      <c r="B7" s="85" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44297</v>
@@ -13640,18 +13657,18 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="107" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
+      <c r="B9" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
       <c r="J9" s="47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K9" s="23">
         <f t="shared" si="0"/>
@@ -13664,28 +13681,28 @@
         <v>40</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="0"/>
@@ -13701,7 +13718,7 @@
         <v>44296</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" s="27">
         <v>10</v>
@@ -13743,7 +13760,7 @@
         <v>44296</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E12" s="27">
         <v>10</v>
@@ -13775,7 +13792,7 @@
         <v>44296</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E13" s="27">
         <v>10</v>
@@ -13807,7 +13824,7 @@
         <v>44296</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E14" s="27">
         <v>10</v>
@@ -13839,7 +13856,7 @@
         <v>44296</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E15" s="27">
         <v>10</v>
@@ -13868,7 +13885,7 @@
         <v>44296</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E16" s="27">
         <v>10</v>
@@ -13897,7 +13914,7 @@
         <v>44303</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E17" s="20">
         <v>1</v>
@@ -13926,7 +13943,7 @@
         <v>44296</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E18" s="20">
         <v>10</v>
@@ -13955,7 +13972,7 @@
         <v>44303</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E19" s="20">
         <v>2</v>
@@ -13984,7 +14001,7 @@
         <v>44303</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E20" s="20">
         <v>8</v>
@@ -14013,7 +14030,7 @@
         <v>44296</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E21" s="20">
         <v>3</v>
@@ -14042,7 +14059,7 @@
         <v>44303</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E22" s="20">
         <v>3</v>
@@ -14071,7 +14088,7 @@
         <v>44303</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E23" s="20">
         <v>7</v>
@@ -14103,7 +14120,7 @@
         <v>44303</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24" s="20">
         <v>7</v>
@@ -14121,10 +14138,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="62"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
       <c r="O24" s="61"/>
     </row>
     <row r="25" spans="1:15" ht="37.5" customHeight="1">
@@ -14136,10 +14153,10 @@
         <v>44296</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>12</v>
@@ -14169,10 +14186,10 @@
         <v>44296</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>14</v>
@@ -14199,10 +14216,10 @@
         <v>44303</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>12</v>
@@ -14228,10 +14245,10 @@
         <v>44303</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>14</v>
@@ -14829,7 +14846,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H70" s="32">
         <f t="shared" ref="H70:I70" si="1">SUM(H11:H60)</f>
@@ -14861,29 +14878,29 @@
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="85"/>
+      <c r="B72" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="77"/>
+      <c r="I72" s="78"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="85"/>
+      <c r="B73" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="78"/>
       <c r="H73" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I73" s="25" t="s">
         <v>22</v>
@@ -14891,15 +14908,15 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="106" t="str">
+      <c r="B74" s="107" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C74" s="84"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="85"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="78"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>6</v>
@@ -14911,15 +14928,15 @@
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="106" t="str">
+      <c r="B75" s="107" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="85"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="78"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>4</v>
@@ -14931,15 +14948,15 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="106" t="str">
+      <c r="B76" s="107" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C76" s="84"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="85"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="78"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>12</v>
@@ -14951,15 +14968,15 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="106" t="str">
+      <c r="B77" s="107" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C77" s="84"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="84"/>
-      <c r="F77" s="84"/>
-      <c r="G77" s="85"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="78"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>10</v>
@@ -14971,15 +14988,15 @@
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="106" t="str">
+      <c r="B78" s="107" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="85"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="78"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>5</v>
@@ -16466,7 +16483,7 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -16485,17 +16502,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="21.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
       <c r="K1" s="23">
         <f>Requisitos!C13</f>
         <v>44305</v>
@@ -16503,17 +16520,17 @@
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44306</v>
@@ -16521,17 +16538,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="92"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44307</v>
@@ -16539,17 +16556,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44308</v>
@@ -16557,17 +16574,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44309</v>
@@ -16590,18 +16607,18 @@
     </row>
     <row r="7" spans="1:21" ht="21.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="83" t="str">
+      <c r="B7" s="85" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44311</v>
@@ -16624,18 +16641,18 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="107" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
+      <c r="B9" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
       <c r="J9" s="48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K9" s="23">
         <f t="shared" si="0"/>
@@ -16648,28 +16665,28 @@
         <v>40</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="0"/>
@@ -16685,7 +16702,7 @@
         <v>44310</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E11" s="27">
         <v>12</v>
@@ -16703,7 +16720,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K11" s="23">
         <f t="shared" si="0"/>
@@ -16729,7 +16746,7 @@
         <v>44310</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E12" s="27">
         <v>12</v>
@@ -16747,7 +16764,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K12" s="23">
         <f t="shared" si="0"/>
@@ -16763,7 +16780,7 @@
         <v>44310</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E13" s="27">
         <v>12</v>
@@ -16781,7 +16798,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K13" s="23">
         <f t="shared" si="0"/>
@@ -16797,7 +16814,7 @@
         <v>44305</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E14" s="27">
         <v>12</v>
@@ -16815,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K14" s="23">
         <f t="shared" si="0"/>
@@ -16831,7 +16848,7 @@
         <v>44311</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E15" s="27">
         <v>12</v>
@@ -16859,10 +16876,10 @@
         <v>44311</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>12</v>
@@ -16887,7 +16904,7 @@
         <v>44310</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E17" s="27">
         <v>9</v>
@@ -16915,7 +16932,7 @@
         <v>44305</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E18" s="27">
         <v>9</v>
@@ -16943,7 +16960,7 @@
         <v>44310</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E19" s="20">
         <v>9</v>
@@ -16971,7 +16988,7 @@
         <v>44317</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E20" s="20">
         <v>6</v>
@@ -16989,7 +17006,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="37.5" customHeight="1">
@@ -17001,7 +17018,7 @@
         <v>44317</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E21" s="20">
         <v>1</v>
@@ -17019,7 +17036,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="37.5" customHeight="1">
@@ -17031,7 +17048,7 @@
         <v>44317</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E22" s="20">
         <v>1</v>
@@ -17049,7 +17066,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="37.5" customHeight="1">
@@ -17061,7 +17078,7 @@
         <v>44317</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E23" s="20">
         <v>6</v>
@@ -17079,7 +17096,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="37.5" customHeight="1">
@@ -17091,13 +17108,13 @@
         <v>44310</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>37</v>
@@ -17765,7 +17782,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -17797,29 +17814,29 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="85"/>
+      <c r="B63" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="78"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="85"/>
+      <c r="B64" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="78"/>
       <c r="H64" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I64" s="25" t="s">
         <v>22</v>
@@ -17827,15 +17844,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="106" t="str">
+      <c r="B65" s="107" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="85"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="78"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>3</v>
@@ -17847,15 +17864,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="106" t="str">
+      <c r="B66" s="107" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="85"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="78"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>3</v>
@@ -17867,15 +17884,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="106" t="str">
+      <c r="B67" s="107" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="85"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="78"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>2</v>
@@ -17887,15 +17904,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="106" t="str">
+      <c r="B68" s="107" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="85"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="78"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>7</v>
@@ -17907,15 +17924,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="106" t="str">
+      <c r="B69" s="107" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="85"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="78"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>3</v>
@@ -19616,8 +19633,8 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -19635,17 +19652,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
       <c r="K1" s="23">
         <f>Requisitos!C14</f>
         <v>44319</v>
@@ -19653,17 +19670,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44320</v>
@@ -19671,17 +19688,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="92"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44321</v>
@@ -19689,17 +19706,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44322</v>
@@ -19707,17 +19724,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44323</v>
@@ -19740,18 +19757,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="83" t="str">
+      <c r="B7" s="85" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44325</v>
@@ -19774,18 +19791,18 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="107" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
+      <c r="B9" s="108" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
       <c r="J9" s="48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K9" s="23">
         <f t="shared" si="0"/>
@@ -19798,53 +19815,53 @@
         <v>40</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="0"/>
         <v>44328</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="393.75" customHeight="1">
+    <row r="11" spans="1:21" ht="409.5" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="19">
         <v>1</v>
       </c>
       <c r="C11" s="26">
-        <v>44319</v>
+        <v>44325</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H11" s="28">
         <v>2</v>
@@ -19853,7 +19870,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K11" s="23">
         <f t="shared" si="0"/>
@@ -19878,7 +19895,7 @@
         <v>44325</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E12" s="27">
         <v>4</v>
@@ -19887,16 +19904,16 @@
         <v>14</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H12" s="28">
         <v>2</v>
       </c>
       <c r="I12" s="28">
-        <v>0</v>
-      </c>
-      <c r="J12" s="72" t="s">
-        <v>159</v>
+        <v>1</v>
+      </c>
+      <c r="J12" s="70" t="s">
+        <v>160</v>
       </c>
       <c r="K12" s="23">
         <f t="shared" si="0"/>
@@ -19912,7 +19929,7 @@
         <v>44325</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E13" s="27">
         <v>13</v>
@@ -19921,7 +19938,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H13" s="28">
         <v>2</v>
@@ -19929,7 +19946,7 @@
       <c r="I13" s="28">
         <v>0</v>
       </c>
-      <c r="J13" s="72"/>
+      <c r="J13" s="70"/>
       <c r="K13" s="23">
         <f t="shared" si="0"/>
         <v>44331</v>
@@ -19944,7 +19961,7 @@
         <v>44325</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E14" s="20">
         <v>13</v>
@@ -19953,16 +19970,16 @@
         <v>16</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H14" s="28">
         <v>2</v>
       </c>
       <c r="I14" s="28">
-        <v>0</v>
-      </c>
-      <c r="J14" s="110" t="s">
-        <v>162</v>
+        <v>1</v>
+      </c>
+      <c r="J14" s="71" t="s">
+        <v>163</v>
       </c>
       <c r="K14" s="23">
         <f t="shared" si="0"/>
@@ -19978,7 +19995,7 @@
         <v>44321</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
@@ -19993,8 +20010,8 @@
       <c r="I15" s="28">
         <v>0</v>
       </c>
-      <c r="J15" s="72" t="s">
-        <v>164</v>
+      <c r="J15" s="70" t="s">
+        <v>165</v>
       </c>
       <c r="K15" s="23"/>
     </row>
@@ -20007,23 +20024,23 @@
         <v>44324</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H16" s="28">
         <v>1</v>
       </c>
       <c r="I16" s="28">
-        <v>0</v>
-      </c>
-      <c r="J16" s="72" t="s">
-        <v>166</v>
+        <v>1</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>167</v>
       </c>
       <c r="K16" s="23"/>
     </row>
@@ -20036,23 +20053,23 @@
         <v>44325</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H17" s="28">
         <v>1</v>
       </c>
       <c r="I17" s="28">
-        <v>0</v>
-      </c>
-      <c r="J17" s="72" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="J17" s="70" t="s">
+        <v>169</v>
       </c>
       <c r="K17" s="23"/>
     </row>
@@ -20065,23 +20082,23 @@
         <v>44325</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H18" s="28">
         <v>1</v>
       </c>
       <c r="I18" s="28">
-        <v>0</v>
-      </c>
-      <c r="J18" s="72" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="J18" s="70" t="s">
+        <v>171</v>
       </c>
       <c r="K18" s="23"/>
     </row>
@@ -20094,7 +20111,7 @@
         <v>44325</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
@@ -20109,8 +20126,8 @@
       <c r="I19" s="28">
         <v>0</v>
       </c>
-      <c r="J19" s="72" t="s">
-        <v>172</v>
+      <c r="J19" s="70" t="s">
+        <v>173</v>
       </c>
       <c r="K19" s="23"/>
     </row>
@@ -20123,14 +20140,14 @@
         <v>44321</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H20" s="28">
         <v>1</v>
@@ -20138,8 +20155,8 @@
       <c r="I20" s="28">
         <v>0</v>
       </c>
-      <c r="J20" s="72" t="s">
-        <v>166</v>
+      <c r="J20" s="70" t="s">
+        <v>167</v>
       </c>
       <c r="K20" s="23"/>
     </row>
@@ -20152,23 +20169,23 @@
         <v>44321</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H21" s="28">
         <v>1</v>
       </c>
       <c r="I21" s="28">
-        <v>0</v>
-      </c>
-      <c r="J21" s="72" t="s">
-        <v>175</v>
+        <v>1</v>
+      </c>
+      <c r="J21" s="70" t="s">
+        <v>176</v>
       </c>
       <c r="K21" s="23"/>
     </row>
@@ -20181,23 +20198,23 @@
         <v>44325</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H22" s="28">
         <v>1</v>
       </c>
       <c r="I22" s="28">
-        <v>0</v>
-      </c>
-      <c r="J22" s="72" t="s">
-        <v>177</v>
+        <v>1</v>
+      </c>
+      <c r="J22" s="70" t="s">
+        <v>178</v>
       </c>
       <c r="K22" s="23"/>
     </row>
@@ -20210,23 +20227,23 @@
         <v>44325</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H23" s="28">
         <v>1</v>
       </c>
       <c r="I23" s="28">
-        <v>0</v>
-      </c>
-      <c r="J23" s="72" t="s">
-        <v>179</v>
+        <v>1</v>
+      </c>
+      <c r="J23" s="70" t="s">
+        <v>180</v>
       </c>
       <c r="K23" s="23"/>
     </row>
@@ -20239,23 +20256,23 @@
         <v>44331</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H24" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="28">
         <v>0</v>
       </c>
-      <c r="J24" s="72" t="s">
-        <v>181</v>
+      <c r="J24" s="70" t="s">
+        <v>182</v>
       </c>
       <c r="K24" s="23"/>
     </row>
@@ -20268,23 +20285,23 @@
         <v>44331</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H25" s="28">
         <v>2</v>
       </c>
       <c r="I25" s="28">
-        <v>0</v>
-      </c>
-      <c r="J25" s="72" t="s">
-        <v>181</v>
+        <v>1</v>
+      </c>
+      <c r="J25" s="70" t="s">
+        <v>182</v>
       </c>
       <c r="K25" s="23"/>
     </row>
@@ -20293,13 +20310,21 @@
       <c r="B26" s="19">
         <v>16</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="26">
+        <v>44331</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>184</v>
+      </c>
       <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="F26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="28">
         <v>0</v>
@@ -20307,18 +20332,26 @@
       <c r="J26" s="37"/>
       <c r="K26" s="23"/>
     </row>
-    <row r="27" spans="1:11" ht="37.5" customHeight="1">
+    <row r="27" spans="1:11" ht="51.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="19">
         <v>17</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="20"/>
+      <c r="C27" s="26">
+        <v>44331</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>185</v>
+      </c>
       <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="F27" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="28">
         <v>0</v>
@@ -20326,18 +20359,26 @@
       <c r="J27" s="37"/>
       <c r="K27" s="23"/>
     </row>
-    <row r="28" spans="1:11" ht="37.5" customHeight="1">
+    <row r="28" spans="1:11" ht="54.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="19">
         <v>18</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="20"/>
+      <c r="C28" s="26">
+        <v>44331</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>186</v>
+      </c>
       <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="F28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="28">
         <v>0</v>
@@ -20928,15 +20969,15 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I61" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J61" s="1"/>
     </row>
@@ -20946,13 +20987,13 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -20960,29 +21001,29 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="85"/>
+      <c r="B63" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="78"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="85"/>
+      <c r="B64" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="78"/>
       <c r="H64" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I64" s="25" t="s">
         <v>22</v>
@@ -20990,15 +21031,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="106" t="str">
+      <c r="B65" s="107" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="85"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="78"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>4</v>
@@ -21010,35 +21051,35 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="106" t="str">
+      <c r="B66" s="107" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="85"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="78"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>6</v>
       </c>
       <c r="I66" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B11,I$11:I$60)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="106" t="str">
+      <c r="B67" s="107" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="85"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="78"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -21050,42 +21091,42 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="106" t="str">
+      <c r="B68" s="107" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="85"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="78"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I68" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B13,I$11:I$60)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="106" t="str">
+      <c r="B69" s="107" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="85"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="78"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I69" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B14,I$11:I$60)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
@@ -22650,8 +22691,8 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -22669,17 +22710,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
       <c r="K1" s="23">
         <f>Requisitos!C15</f>
         <v>44333</v>
@@ -22687,17 +22728,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44334</v>
@@ -22705,17 +22746,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="92"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44335</v>
@@ -22723,17 +22764,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44336</v>
@@ -22741,17 +22782,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44337</v>
@@ -22774,18 +22815,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="83" t="str">
+      <c r="B7" s="85" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44339</v>
@@ -22808,18 +22849,18 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="107" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
+      <c r="B9" s="108" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
       <c r="J9" s="48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K9" s="23">
         <f t="shared" si="0"/>
@@ -22832,28 +22873,28 @@
         <v>40</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="0"/>
@@ -23807,7 +23848,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -23839,29 +23880,29 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="85"/>
+      <c r="B63" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="78"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="85"/>
+      <c r="B64" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="78"/>
       <c r="H64" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I64" s="25" t="s">
         <v>22</v>
@@ -23869,15 +23910,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="106" t="str">
+      <c r="B65" s="107" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="85"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="78"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -23889,15 +23930,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="106" t="str">
+      <c r="B66" s="107" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="85"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="78"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -23909,15 +23950,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="106" t="str">
+      <c r="B67" s="107" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="85"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="78"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -23929,15 +23970,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="106" t="str">
+      <c r="B68" s="107" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="85"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="78"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -23949,15 +23990,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="106" t="str">
+      <c r="B69" s="107" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="85"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="78"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -25534,34 +25575,34 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
       <c r="K1" s="23">
         <v>44347</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44348</v>
@@ -25569,17 +25610,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="92"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44349</v>
@@ -25587,17 +25628,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44350</v>
@@ -25605,17 +25646,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44351</v>
@@ -25638,18 +25679,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="83" t="str">
+      <c r="B7" s="85" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44353</v>
@@ -25672,18 +25713,18 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
+      <c r="B9" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
       <c r="J9" s="48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K9" s="23">
         <f t="shared" si="0"/>
@@ -25696,28 +25737,28 @@
         <v>40</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="0"/>
@@ -26671,7 +26712,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -26703,29 +26744,29 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="85"/>
+      <c r="B63" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="78"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="85"/>
+      <c r="B64" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="78"/>
       <c r="H64" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I64" s="25" t="s">
         <v>22</v>
@@ -26733,15 +26774,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="106" t="str">
+      <c r="B65" s="107" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="85"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="78"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -26753,15 +26794,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="106" t="str">
+      <c r="B66" s="107" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="85"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="78"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -26773,15 +26814,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="106" t="str">
+      <c r="B67" s="107" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="85"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="78"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -26793,15 +26834,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="106" t="str">
+      <c r="B68" s="107" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="85"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="78"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -26813,15 +26854,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="106" t="str">
+      <c r="B69" s="107" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="85"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="78"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -28135,6 +28176,12 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B9:I9"/>
@@ -28143,12 +28190,6 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="containsBlanks" dxfId="37" priority="1">
@@ -28359,12 +28400,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28526,13 +28564,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AE7633-9F17-461A-8B68-7FAC2F42E9FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FC0B413-BAC6-4036-8CEB-C5632804ED21}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28540,5 +28581,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FC0B413-BAC6-4036-8CEB-C5632804ED21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AE7633-9F17-461A-8B68-7FAC2F42E9FA}"/>
 </file>
--- a/Artefatos/Sprints - ParkIO.xlsx
+++ b/Artefatos/Sprints - ParkIO.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24110"/>
   <workbookPr autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="1666" documentId="11_713659AC415AC9C2D79A1EC9FA76B4759D2182B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D337615-7566-4FD5-9CB4-2201BED2A23C}"/>
+  <xr:revisionPtr revIDLastSave="1839" documentId="11_713659AC415AC9C2D79A1EC9FA76B4759D2182B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4047CA95-D467-443D-B785-E5153648DFC5}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="205">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -566,9 +566,6 @@
     <t>O porteiro poderá aumentar o tempo de permanência do visitante após fazer contato com o morador para verificar o motivo do atraso.</t>
   </si>
   <si>
-    <t>Tarefas Criadas</t>
-  </si>
-  <si>
     <t>O sistema deve emitir um alerta para um grupo no Telegram contendo os porteiros e os rondas no caso de algum veículo ficar determinado tempo dentro do condomínio.</t>
   </si>
   <si>
@@ -596,10 +593,13 @@
     <t>O porteiro deverá escrever o motivo do bloqueio de um veículo visitante, caso ocorra algum problema com a visita.</t>
   </si>
   <si>
-    <t>O ronda poderá editar certas informações do veículo do visitante.</t>
+    <t>O ronda poderá editar placa, modelo e cor de veículos que ainda estão dentro do condomínio.</t>
   </si>
   <si>
-    <t>O síndico poderá visualizar os veículos designados para seu bloco</t>
+    <t>Tarefas Criadas</t>
+  </si>
+  <si>
+    <t>O síndico poderá visualizar os veículos designados para seu bloco.</t>
   </si>
   <si>
     <t>PROGRESSO</t>
@@ -891,9 +891,7 @@
 	- Criar wiframe apresentando os campos para serem atualizados pelo Ronda (Requisito 13). (/gate)
 	- No wireframe da página lista de todos os veículos,  adicionar campos de 'Porteiro de Entrada' e 'Porteiro de Saída'. (/vehiclelist)
 	- No wireframe da página lista de usuários remover campo 'Última vez visto' e adicionar na tabela 'Tipo'. (/userlist)
-	- Criar os wireframes modals de cadastrar Portarias e Categorias de Visitante. (/admin)
-- Criar o wireframe da página de relatório da adminsitração
-- Atualizar wireframe com contagem de tempo na lista de veículos</t>
+	- Criar os wireframes modals de cadastrar Portarias e Categorias de Visitante. (/admin)</t>
   </si>
   <si>
     <t>Criar feature para estender tempo de permanência de um veículo</t>
@@ -982,6 +980,54 @@
   </si>
   <si>
     <t>SPRINT #5</t>
+  </si>
+  <si>
+    <t>Criar wireframe de relatório</t>
+  </si>
+  <si>
+    <t>Criar feature para alertas no Telegram</t>
+  </si>
+  <si>
+    <t>Criar frontend do relatório</t>
+  </si>
+  <si>
+    <t>Criar o backend do relatório</t>
+  </si>
+  <si>
+    <t>Olhar no adobe xd</t>
+  </si>
+  <si>
+    <t>Corrigir listagem de veículos do usuário tipo Ronda</t>
+  </si>
+  <si>
+    <t>Criar frontend criar, deletar e editar destino</t>
+  </si>
+  <si>
+    <t>Criar backend criar, deletar e editar destino</t>
+  </si>
+  <si>
+    <t>Criar frontend de vincular destino criado com síndico</t>
+  </si>
+  <si>
+    <t>Criar backend de vincular destino criado com síndico</t>
+  </si>
+  <si>
+    <t>Configurar para aparecer apenas os veículos que o síndico possui acesso</t>
+  </si>
+  <si>
+    <t>Apartamento não pode aparecer</t>
+  </si>
+  <si>
+    <t>Atualizar wireframe com contagem de tempo na lista de veículos</t>
+  </si>
+  <si>
+    <t>Criar feature para alterar senha de usuário</t>
+  </si>
+  <si>
+    <t>Criar feature da coluna de contagem de tempo restante para veículos dentro do condomínio</t>
+  </si>
+  <si>
+    <t>Está no wireframe. Buscar um ícone de interrogação/alerta para quando estourar o tempo limite.</t>
   </si>
   <si>
     <t>SPRINT #6</t>
@@ -1398,7 +1444,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1585,8 +1631,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3787,10 +3845,10 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4299,7 +4357,7 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
@@ -4312,15 +4370,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
+      <c r="B1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4328,15 +4386,15 @@
     </row>
     <row r="2" spans="1:15" ht="18">
       <c r="A2" s="1"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="92"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4344,15 +4402,15 @@
     </row>
     <row r="3" spans="1:15" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="92"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4360,15 +4418,15 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4376,15 +4434,15 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="84"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -4406,15 +4464,15 @@
     </row>
     <row r="7" spans="1:15" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -4439,17 +4497,17 @@
     </row>
     <row r="9" spans="1:15" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="86" t="s">
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -4459,17 +4517,17 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="76" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="82"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -4479,17 +4537,17 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="76" t="s">
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="78"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -4499,17 +4557,17 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="76" t="s">
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="82"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -4519,17 +4577,17 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="76" t="s">
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -4539,17 +4597,17 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="76" t="s">
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -5799,16 +5857,16 @@
     </row>
     <row r="99" spans="1:15" ht="15.75" customHeight="1">
       <c r="A99" s="40"/>
-      <c r="B99" s="80"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="81" t="s">
+      <c r="B99" s="84"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="75"/>
-      <c r="F99" s="81" t="s">
+      <c r="E99" s="79"/>
+      <c r="F99" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="75"/>
+      <c r="G99" s="79"/>
       <c r="H99" s="41" t="s">
         <v>21</v>
       </c>
@@ -5830,12 +5888,12 @@
     </row>
     <row r="100" spans="1:15" ht="15.75" customHeight="1">
       <c r="A100" s="40"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="79" t="s">
+      <c r="B100" s="78"/>
+      <c r="C100" s="79"/>
+      <c r="D100" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="75"/>
+      <c r="E100" s="79"/>
       <c r="F100" s="43" t="s">
         <v>26</v>
       </c>
@@ -5869,12 +5927,12 @@
     </row>
     <row r="101" spans="1:15" ht="15.75" customHeight="1">
       <c r="A101" s="40"/>
-      <c r="B101" s="74"/>
-      <c r="C101" s="75"/>
-      <c r="D101" s="79" t="s">
+      <c r="B101" s="78"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="75"/>
+      <c r="E101" s="79"/>
       <c r="F101" s="43" t="s">
         <v>30</v>
       </c>
@@ -5908,12 +5966,12 @@
     </row>
     <row r="102" spans="1:15" ht="15.75" customHeight="1">
       <c r="A102" s="40"/>
-      <c r="B102" s="74"/>
-      <c r="C102" s="75"/>
-      <c r="D102" s="79" t="s">
+      <c r="B102" s="78"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="75"/>
+      <c r="E102" s="79"/>
       <c r="F102" s="43"/>
       <c r="G102" s="44" t="s">
         <v>34</v>
@@ -5945,19 +6003,19 @@
     </row>
     <row r="103" spans="1:15" ht="15.75" customHeight="1">
       <c r="A103" s="40"/>
-      <c r="B103" s="74"/>
-      <c r="C103" s="75"/>
-      <c r="D103" s="79" t="s">
+      <c r="B103" s="78"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E103" s="75"/>
+      <c r="E103" s="79"/>
       <c r="F103" s="43"/>
       <c r="G103" s="44" t="s">
         <v>36</v>
       </c>
       <c r="H103" s="45">
         <f>'Sprint #5'!H$61</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I103" s="45">
         <f>'Sprint #5'!I$61</f>
@@ -5980,19 +6038,19 @@
     </row>
     <row r="104" spans="1:15" ht="15.75" customHeight="1">
       <c r="A104" s="40"/>
-      <c r="B104" s="74"/>
-      <c r="C104" s="75"/>
-      <c r="D104" s="79" t="s">
+      <c r="B104" s="78"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="75"/>
+      <c r="E104" s="79"/>
       <c r="F104" s="43"/>
       <c r="G104" s="44" t="s">
         <v>38</v>
       </c>
       <c r="H104" s="45">
         <f>'Sprint #5'!H$61</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I104" s="45">
         <f>'Sprint #5'!I$61</f>
@@ -6010,8 +6068,8 @@
     </row>
     <row r="105" spans="1:15" ht="15.75" customHeight="1">
       <c r="A105" s="40"/>
-      <c r="B105" s="74"/>
-      <c r="C105" s="75"/>
+      <c r="B105" s="78"/>
+      <c r="C105" s="79"/>
       <c r="F105" s="43"/>
       <c r="G105" s="43"/>
       <c r="H105" s="43"/>
@@ -6022,8 +6080,8 @@
     </row>
     <row r="106" spans="1:15" ht="15.75" customHeight="1">
       <c r="A106" s="40"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="75"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="79"/>
       <c r="D106" s="46"/>
       <c r="E106" s="43"/>
       <c r="F106" s="43"/>
@@ -7102,8 +7160,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7119,67 +7177,67 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
+      <c r="B1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="92"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="92"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="84"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
@@ -7195,16 +7253,16 @@
     </row>
     <row r="7" spans="1:9" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="101" t="str">
+      <c r="B7" s="105" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
@@ -7220,15 +7278,15 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
@@ -7242,11 +7300,11 @@
       <c r="D10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="E10" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
       <c r="H10" s="10" t="s">
         <v>44</v>
       </c>
@@ -7264,11 +7322,11 @@
         <f t="shared" ref="D11:D16" si="0">C11+13</f>
         <v>44290</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="106"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="110"/>
       <c r="H11" s="13"/>
       <c r="I11" s="1"/>
     </row>
@@ -7285,9 +7343,9 @@
         <f t="shared" si="0"/>
         <v>44304</v>
       </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="13"/>
       <c r="I12" s="1"/>
     </row>
@@ -7304,9 +7362,9 @@
         <f t="shared" si="0"/>
         <v>44318</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
       <c r="H13" s="13"/>
       <c r="I13" s="1"/>
     </row>
@@ -7323,9 +7381,9 @@
         <f t="shared" si="0"/>
         <v>44332</v>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="13"/>
       <c r="I14" s="1"/>
     </row>
@@ -7342,9 +7400,9 @@
         <f t="shared" si="0"/>
         <v>44346</v>
       </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="13"/>
       <c r="I15" s="1"/>
     </row>
@@ -7361,9 +7419,9 @@
         <f t="shared" si="0"/>
         <v>44360</v>
       </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="13"/>
       <c r="I16" s="1"/>
     </row>
@@ -7392,13 +7450,13 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="15" t="s">
         <v>47</v>
       </c>
@@ -7409,11 +7467,11 @@
       <c r="B20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
       <c r="H20" s="17" t="s">
         <v>48</v>
       </c>
@@ -7424,13 +7482,13 @@
       <c r="B21" s="19">
         <v>1</v>
       </c>
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="78"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
       <c r="H21" s="20" t="s">
         <v>50</v>
       </c>
@@ -7441,13 +7499,13 @@
       <c r="B22" s="18">
         <v>2</v>
       </c>
-      <c r="C22" s="95" t="s">
+      <c r="C22" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
       <c r="H22" s="20" t="s">
         <v>50</v>
       </c>
@@ -7458,13 +7516,13 @@
       <c r="B23" s="19">
         <v>3</v>
       </c>
-      <c r="C23" s="95" t="s">
+      <c r="C23" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="78"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
       <c r="H23" s="20" t="s">
         <v>50</v>
       </c>
@@ -7475,15 +7533,15 @@
       <c r="B24" s="18">
         <v>4</v>
       </c>
-      <c r="C24" s="95" t="s">
+      <c r="C24" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="82"/>
       <c r="H24" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I24" s="1"/>
     </row>
@@ -7492,15 +7550,15 @@
       <c r="B25" s="19">
         <v>5</v>
       </c>
-      <c r="C25" s="95" t="s">
+      <c r="C25" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -7509,13 +7567,13 @@
       <c r="B26" s="18">
         <v>6</v>
       </c>
-      <c r="C26" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
+      <c r="C26" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="82"/>
       <c r="H26" s="20" t="s">
         <v>50</v>
       </c>
@@ -7526,13 +7584,13 @@
       <c r="B27" s="19">
         <v>7</v>
       </c>
-      <c r="C27" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
+      <c r="C27" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="82"/>
       <c r="H27" s="20" t="s">
         <v>50</v>
       </c>
@@ -7543,13 +7601,13 @@
       <c r="B28" s="18">
         <v>8</v>
       </c>
-      <c r="C28" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="78"/>
+      <c r="C28" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="82"/>
       <c r="H28" s="20" t="s">
         <v>50</v>
       </c>
@@ -7560,13 +7618,13 @@
       <c r="B29" s="19">
         <v>9</v>
       </c>
-      <c r="C29" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="78"/>
+      <c r="C29" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="82"/>
       <c r="H29" s="20" t="s">
         <v>50</v>
       </c>
@@ -7577,13 +7635,13 @@
       <c r="B30" s="18">
         <v>10</v>
       </c>
-      <c r="C30" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="84"/>
+      <c r="C30" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="88"/>
       <c r="H30" s="20" t="s">
         <v>50</v>
       </c>
@@ -7594,15 +7652,15 @@
       <c r="B31" s="19">
         <v>11</v>
       </c>
-      <c r="C31" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="78"/>
+      <c r="C31" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="82"/>
       <c r="H31" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I31" s="1"/>
     </row>
@@ -7611,13 +7669,13 @@
       <c r="B32" s="18">
         <v>12</v>
       </c>
-      <c r="C32" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="78"/>
+      <c r="C32" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="82"/>
       <c r="H32" s="20" t="s">
         <v>50</v>
       </c>
@@ -7628,15 +7686,15 @@
       <c r="B33" s="19">
         <v>13</v>
       </c>
-      <c r="C33" s="95" t="s">
+      <c r="C33" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="20" t="s">
-        <v>54</v>
       </c>
       <c r="I33" s="1"/>
     </row>
@@ -7645,15 +7703,15 @@
       <c r="B34" s="18">
         <v>14</v>
       </c>
-      <c r="C34" s="95" t="s">
+      <c r="C34" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="78"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="82"/>
       <c r="H34" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I34" s="1"/>
     </row>
@@ -7662,11 +7720,11 @@
       <c r="B35" s="19">
         <v>15</v>
       </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="78"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="82"/>
       <c r="H35" s="20"/>
       <c r="I35" s="1"/>
     </row>
@@ -7675,11 +7733,11 @@
       <c r="B36" s="18">
         <v>16</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="78"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="82"/>
       <c r="H36" s="20"/>
       <c r="I36" s="1"/>
     </row>
@@ -7688,11 +7746,11 @@
       <c r="B37" s="19">
         <v>17</v>
       </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="78"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="82"/>
       <c r="H37" s="20"/>
       <c r="I37" s="1"/>
     </row>
@@ -7701,11 +7759,11 @@
       <c r="B38" s="18">
         <v>18</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="78"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="82"/>
       <c r="H38" s="20"/>
       <c r="I38" s="1"/>
     </row>
@@ -7714,11 +7772,11 @@
       <c r="B39" s="19">
         <v>19</v>
       </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="78"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="82"/>
       <c r="H39" s="20"/>
       <c r="I39" s="1"/>
     </row>
@@ -7727,11 +7785,11 @@
       <c r="B40" s="18">
         <v>20</v>
       </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="78"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="82"/>
       <c r="H40" s="20"/>
       <c r="I40" s="1"/>
     </row>
@@ -7740,11 +7798,11 @@
       <c r="B41" s="19">
         <v>21</v>
       </c>
-      <c r="C41" s="95"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="78"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="82"/>
       <c r="H41" s="20"/>
       <c r="I41" s="1"/>
     </row>
@@ -7753,11 +7811,11 @@
       <c r="B42" s="18">
         <v>22</v>
       </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="78"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="82"/>
       <c r="H42" s="20"/>
       <c r="I42" s="1"/>
     </row>
@@ -7766,11 +7824,11 @@
       <c r="B43" s="19">
         <v>23</v>
       </c>
-      <c r="C43" s="95"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="78"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="82"/>
       <c r="H43" s="20"/>
       <c r="I43" s="1"/>
     </row>
@@ -7779,11 +7837,11 @@
       <c r="B44" s="18">
         <v>24</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="78"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="82"/>
       <c r="H44" s="20"/>
       <c r="I44" s="1"/>
     </row>
@@ -7792,11 +7850,11 @@
       <c r="B45" s="19">
         <v>25</v>
       </c>
-      <c r="C45" s="95"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="78"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="82"/>
       <c r="H45" s="20"/>
       <c r="I45" s="1"/>
     </row>
@@ -7805,11 +7863,11 @@
       <c r="B46" s="18">
         <v>26</v>
       </c>
-      <c r="C46" s="95"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="78"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="82"/>
       <c r="H46" s="20"/>
       <c r="I46" s="1"/>
     </row>
@@ -7818,11 +7876,11 @@
       <c r="B47" s="19">
         <v>27</v>
       </c>
-      <c r="C47" s="95"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="78"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="82"/>
       <c r="H47" s="20"/>
       <c r="I47" s="1"/>
     </row>
@@ -7831,11 +7889,11 @@
       <c r="B48" s="18">
         <v>28</v>
       </c>
-      <c r="C48" s="95"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="78"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="82"/>
       <c r="H48" s="20"/>
       <c r="I48" s="1"/>
     </row>
@@ -7844,11 +7902,11 @@
       <c r="B49" s="19">
         <v>29</v>
       </c>
-      <c r="C49" s="95"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="78"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="82"/>
       <c r="H49" s="20"/>
       <c r="I49" s="1"/>
     </row>
@@ -7857,11 +7915,11 @@
       <c r="B50" s="18">
         <v>30</v>
       </c>
-      <c r="C50" s="95"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="78"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="82"/>
       <c r="H50" s="20"/>
       <c r="I50" s="1"/>
     </row>
@@ -7870,11 +7928,11 @@
       <c r="B51" s="19">
         <v>31</v>
       </c>
-      <c r="C51" s="95"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="78"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="82"/>
       <c r="H51" s="20"/>
       <c r="I51" s="1"/>
     </row>
@@ -7883,11 +7941,11 @@
       <c r="B52" s="18">
         <v>32</v>
       </c>
-      <c r="C52" s="95"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="78"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="82"/>
       <c r="H52" s="20"/>
       <c r="I52" s="1"/>
     </row>
@@ -7896,11 +7954,11 @@
       <c r="B53" s="19">
         <v>33</v>
       </c>
-      <c r="C53" s="95"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="78"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="82"/>
       <c r="H53" s="20"/>
       <c r="I53" s="1"/>
     </row>
@@ -7909,11 +7967,11 @@
       <c r="B54" s="18">
         <v>34</v>
       </c>
-      <c r="C54" s="95"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="78"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="82"/>
       <c r="H54" s="20"/>
       <c r="I54" s="1"/>
     </row>
@@ -7922,11 +7980,11 @@
       <c r="B55" s="19">
         <v>35</v>
       </c>
-      <c r="C55" s="95"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="78"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="82"/>
       <c r="H55" s="20"/>
       <c r="I55" s="1"/>
     </row>
@@ -7935,11 +7993,11 @@
       <c r="B56" s="18">
         <v>36</v>
       </c>
-      <c r="C56" s="95"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="78"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="82"/>
       <c r="H56" s="20"/>
       <c r="I56" s="1"/>
     </row>
@@ -7948,11 +8006,11 @@
       <c r="B57" s="19">
         <v>37</v>
       </c>
-      <c r="C57" s="95"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="78"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="82"/>
       <c r="H57" s="20"/>
       <c r="I57" s="1"/>
     </row>
@@ -7961,11 +8019,11 @@
       <c r="B58" s="18">
         <v>38</v>
       </c>
-      <c r="C58" s="95"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="78"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="82"/>
       <c r="H58" s="20"/>
       <c r="I58" s="1"/>
     </row>
@@ -7974,11 +8032,11 @@
       <c r="B59" s="19">
         <v>39</v>
       </c>
-      <c r="C59" s="95"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="78"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="82"/>
       <c r="H59" s="20"/>
       <c r="I59" s="1"/>
     </row>
@@ -7987,11 +8045,11 @@
       <c r="B60" s="18">
         <v>40</v>
       </c>
-      <c r="C60" s="95"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="78"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="82"/>
       <c r="H60" s="20"/>
       <c r="I60" s="1"/>
     </row>
@@ -8000,11 +8058,11 @@
       <c r="B61" s="19">
         <v>41</v>
       </c>
-      <c r="C61" s="95"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="78"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="82"/>
       <c r="H61" s="20"/>
       <c r="I61" s="1"/>
     </row>
@@ -8013,11 +8071,11 @@
       <c r="B62" s="18">
         <v>42</v>
       </c>
-      <c r="C62" s="95"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="78"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="82"/>
       <c r="H62" s="20"/>
       <c r="I62" s="1"/>
     </row>
@@ -8026,11 +8084,11 @@
       <c r="B63" s="19">
         <v>43</v>
       </c>
-      <c r="C63" s="95"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="78"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="82"/>
       <c r="H63" s="20"/>
       <c r="I63" s="1"/>
     </row>
@@ -8039,11 +8097,11 @@
       <c r="B64" s="18">
         <v>44</v>
       </c>
-      <c r="C64" s="95"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="78"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="82"/>
       <c r="H64" s="20"/>
       <c r="I64" s="1"/>
     </row>
@@ -8052,11 +8110,11 @@
       <c r="B65" s="19">
         <v>45</v>
       </c>
-      <c r="C65" s="95"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="78"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="82"/>
       <c r="H65" s="20"/>
       <c r="I65" s="1"/>
     </row>
@@ -8065,11 +8123,11 @@
       <c r="B66" s="18">
         <v>46</v>
       </c>
-      <c r="C66" s="95"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="78"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="82"/>
       <c r="H66" s="20"/>
       <c r="I66" s="1"/>
     </row>
@@ -8078,11 +8136,11 @@
       <c r="B67" s="19">
         <v>47</v>
       </c>
-      <c r="C67" s="95"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="78"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="82"/>
       <c r="H67" s="20"/>
       <c r="I67" s="1"/>
     </row>
@@ -8091,11 +8149,11 @@
       <c r="B68" s="18">
         <v>48</v>
       </c>
-      <c r="C68" s="95"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="78"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="82"/>
       <c r="H68" s="20"/>
       <c r="I68" s="1"/>
     </row>
@@ -8104,11 +8162,11 @@
       <c r="B69" s="19">
         <v>49</v>
       </c>
-      <c r="C69" s="95"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="78"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="82"/>
       <c r="H69" s="20"/>
       <c r="I69" s="1"/>
     </row>
@@ -8117,11 +8175,11 @@
       <c r="B70" s="18">
         <v>50</v>
       </c>
-      <c r="C70" s="95"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="78"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="82"/>
       <c r="H70" s="20"/>
       <c r="I70" s="1"/>
     </row>
@@ -8130,11 +8188,11 @@
       <c r="B71" s="19">
         <v>51</v>
       </c>
-      <c r="C71" s="95"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="78"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="82"/>
       <c r="H71" s="20"/>
       <c r="I71" s="1"/>
     </row>
@@ -8143,11 +8201,11 @@
       <c r="B72" s="18">
         <v>52</v>
       </c>
-      <c r="C72" s="95"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="78"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="82"/>
       <c r="H72" s="20"/>
       <c r="I72" s="1"/>
     </row>
@@ -8156,11 +8214,11 @@
       <c r="B73" s="19">
         <v>53</v>
       </c>
-      <c r="C73" s="95"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="78"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="81"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="82"/>
       <c r="H73" s="20"/>
       <c r="I73" s="1"/>
     </row>
@@ -8169,11 +8227,11 @@
       <c r="B74" s="18">
         <v>54</v>
       </c>
-      <c r="C74" s="95"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="77"/>
-      <c r="G74" s="78"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="82"/>
       <c r="H74" s="20"/>
       <c r="I74" s="1"/>
     </row>
@@ -8182,11 +8240,11 @@
       <c r="B75" s="19">
         <v>55</v>
       </c>
-      <c r="C75" s="95"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="78"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="82"/>
       <c r="H75" s="20"/>
       <c r="I75" s="1"/>
     </row>
@@ -8195,11 +8253,11 @@
       <c r="B76" s="18">
         <v>56</v>
       </c>
-      <c r="C76" s="95"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="78"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="82"/>
       <c r="H76" s="20"/>
       <c r="I76" s="1"/>
     </row>
@@ -8208,11 +8266,11 @@
       <c r="B77" s="19">
         <v>57</v>
       </c>
-      <c r="C77" s="95"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="78"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="82"/>
       <c r="H77" s="20"/>
       <c r="I77" s="1"/>
     </row>
@@ -8221,11 +8279,11 @@
       <c r="B78" s="18">
         <v>58</v>
       </c>
-      <c r="C78" s="95"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="78"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="82"/>
       <c r="H78" s="20"/>
       <c r="I78" s="1"/>
     </row>
@@ -8234,11 +8292,11 @@
       <c r="B79" s="19">
         <v>59</v>
       </c>
-      <c r="C79" s="95"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="77"/>
-      <c r="G79" s="78"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="81"/>
+      <c r="F79" s="81"/>
+      <c r="G79" s="82"/>
       <c r="H79" s="20"/>
       <c r="I79" s="1"/>
     </row>
@@ -8247,11 +8305,11 @@
       <c r="B80" s="18">
         <v>60</v>
       </c>
-      <c r="C80" s="95"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="77"/>
-      <c r="G80" s="78"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="81"/>
+      <c r="F80" s="81"/>
+      <c r="G80" s="82"/>
       <c r="H80" s="20"/>
       <c r="I80" s="1"/>
     </row>
@@ -8260,11 +8318,11 @@
       <c r="B81" s="19">
         <v>61</v>
       </c>
-      <c r="C81" s="95"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="78"/>
+      <c r="C81" s="99"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="82"/>
       <c r="H81" s="20"/>
       <c r="I81" s="1"/>
     </row>
@@ -8273,11 +8331,11 @@
       <c r="B82" s="18">
         <v>62</v>
       </c>
-      <c r="C82" s="95"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="78"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="81"/>
+      <c r="G82" s="82"/>
       <c r="H82" s="20"/>
       <c r="I82" s="1"/>
     </row>
@@ -8286,11 +8344,11 @@
       <c r="B83" s="19">
         <v>63</v>
       </c>
-      <c r="C83" s="95"/>
-      <c r="D83" s="77"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="78"/>
+      <c r="C83" s="99"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="81"/>
+      <c r="F83" s="81"/>
+      <c r="G83" s="82"/>
       <c r="H83" s="20"/>
       <c r="I83" s="1"/>
     </row>
@@ -8299,11 +8357,11 @@
       <c r="B84" s="18">
         <v>64</v>
       </c>
-      <c r="C84" s="95"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="78"/>
+      <c r="C84" s="99"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="81"/>
+      <c r="F84" s="81"/>
+      <c r="G84" s="82"/>
       <c r="H84" s="20"/>
       <c r="I84" s="1"/>
     </row>
@@ -8312,11 +8370,11 @@
       <c r="B85" s="19">
         <v>65</v>
       </c>
-      <c r="C85" s="95"/>
-      <c r="D85" s="77"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="77"/>
-      <c r="G85" s="78"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="81"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="82"/>
       <c r="H85" s="20"/>
       <c r="I85" s="1"/>
     </row>
@@ -8325,11 +8383,11 @@
       <c r="B86" s="18">
         <v>66</v>
       </c>
-      <c r="C86" s="95"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="78"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="82"/>
       <c r="H86" s="20"/>
       <c r="I86" s="1"/>
     </row>
@@ -8338,11 +8396,11 @@
       <c r="B87" s="19">
         <v>67</v>
       </c>
-      <c r="C87" s="95"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="78"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="82"/>
       <c r="H87" s="20"/>
       <c r="I87" s="1"/>
     </row>
@@ -8351,11 +8409,11 @@
       <c r="B88" s="18">
         <v>68</v>
       </c>
-      <c r="C88" s="95"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="78"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="81"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="82"/>
       <c r="H88" s="20"/>
       <c r="I88" s="1"/>
     </row>
@@ -8364,11 +8422,11 @@
       <c r="B89" s="19">
         <v>69</v>
       </c>
-      <c r="C89" s="95"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="77"/>
-      <c r="G89" s="78"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="82"/>
       <c r="H89" s="20"/>
       <c r="I89" s="1"/>
     </row>
@@ -8377,11 +8435,11 @@
       <c r="B90" s="18">
         <v>70</v>
       </c>
-      <c r="C90" s="95"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="78"/>
+      <c r="C90" s="99"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="82"/>
       <c r="H90" s="20"/>
       <c r="I90" s="1"/>
     </row>
@@ -8390,11 +8448,11 @@
       <c r="B91" s="19">
         <v>71</v>
       </c>
-      <c r="C91" s="95"/>
-      <c r="D91" s="77"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="78"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="81"/>
+      <c r="G91" s="82"/>
       <c r="H91" s="20"/>
       <c r="I91" s="1"/>
     </row>
@@ -8403,11 +8461,11 @@
       <c r="B92" s="18">
         <v>72</v>
       </c>
-      <c r="C92" s="95"/>
-      <c r="D92" s="77"/>
-      <c r="E92" s="77"/>
-      <c r="F92" s="77"/>
-      <c r="G92" s="78"/>
+      <c r="C92" s="99"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="81"/>
+      <c r="F92" s="81"/>
+      <c r="G92" s="82"/>
       <c r="H92" s="20"/>
       <c r="I92" s="1"/>
     </row>
@@ -8416,11 +8474,11 @@
       <c r="B93" s="19">
         <v>73</v>
       </c>
-      <c r="C93" s="95"/>
-      <c r="D93" s="77"/>
-      <c r="E93" s="77"/>
-      <c r="F93" s="77"/>
-      <c r="G93" s="78"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="81"/>
+      <c r="E93" s="81"/>
+      <c r="F93" s="81"/>
+      <c r="G93" s="82"/>
       <c r="H93" s="20"/>
       <c r="I93" s="1"/>
     </row>
@@ -8429,11 +8487,11 @@
       <c r="B94" s="18">
         <v>74</v>
       </c>
-      <c r="C94" s="95"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="77"/>
-      <c r="F94" s="77"/>
-      <c r="G94" s="78"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="81"/>
+      <c r="E94" s="81"/>
+      <c r="F94" s="81"/>
+      <c r="G94" s="82"/>
       <c r="H94" s="20"/>
       <c r="I94" s="1"/>
     </row>
@@ -8442,11 +8500,11 @@
       <c r="B95" s="19">
         <v>75</v>
       </c>
-      <c r="C95" s="95"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="77"/>
-      <c r="G95" s="78"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="81"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="81"/>
+      <c r="G95" s="82"/>
       <c r="H95" s="20"/>
       <c r="I95" s="1"/>
     </row>
@@ -8455,11 +8513,11 @@
       <c r="B96" s="18">
         <v>76</v>
       </c>
-      <c r="C96" s="95"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77"/>
-      <c r="G96" s="78"/>
+      <c r="C96" s="99"/>
+      <c r="D96" s="81"/>
+      <c r="E96" s="81"/>
+      <c r="F96" s="81"/>
+      <c r="G96" s="82"/>
       <c r="H96" s="20"/>
       <c r="I96" s="1"/>
     </row>
@@ -8468,11 +8526,11 @@
       <c r="B97" s="19">
         <v>77</v>
       </c>
-      <c r="C97" s="95"/>
-      <c r="D97" s="77"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="77"/>
-      <c r="G97" s="78"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="81"/>
+      <c r="G97" s="82"/>
       <c r="H97" s="20"/>
       <c r="I97" s="1"/>
     </row>
@@ -8481,11 +8539,11 @@
       <c r="B98" s="18">
         <v>78</v>
       </c>
-      <c r="C98" s="95"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="78"/>
+      <c r="C98" s="99"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="81"/>
+      <c r="F98" s="81"/>
+      <c r="G98" s="82"/>
       <c r="H98" s="20"/>
       <c r="I98" s="1"/>
     </row>
@@ -8494,11 +8552,11 @@
       <c r="B99" s="19">
         <v>79</v>
       </c>
-      <c r="C99" s="95"/>
-      <c r="D99" s="77"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="77"/>
-      <c r="G99" s="78"/>
+      <c r="C99" s="99"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="81"/>
+      <c r="F99" s="81"/>
+      <c r="G99" s="82"/>
       <c r="H99" s="20"/>
       <c r="I99" s="1"/>
     </row>
@@ -8507,11 +8565,11 @@
       <c r="B100" s="18">
         <v>80</v>
       </c>
-      <c r="C100" s="95"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="78"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="81"/>
+      <c r="F100" s="81"/>
+      <c r="G100" s="82"/>
       <c r="H100" s="20"/>
       <c r="I100" s="1"/>
     </row>
@@ -8520,11 +8578,11 @@
       <c r="B101" s="19">
         <v>81</v>
       </c>
-      <c r="C101" s="95"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="78"/>
+      <c r="C101" s="99"/>
+      <c r="D101" s="81"/>
+      <c r="E101" s="81"/>
+      <c r="F101" s="81"/>
+      <c r="G101" s="82"/>
       <c r="H101" s="20"/>
       <c r="I101" s="1"/>
     </row>
@@ -8533,11 +8591,11 @@
       <c r="B102" s="18">
         <v>82</v>
       </c>
-      <c r="C102" s="95"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="78"/>
+      <c r="C102" s="99"/>
+      <c r="D102" s="81"/>
+      <c r="E102" s="81"/>
+      <c r="F102" s="81"/>
+      <c r="G102" s="82"/>
       <c r="H102" s="20"/>
       <c r="I102" s="1"/>
     </row>
@@ -8546,11 +8604,11 @@
       <c r="B103" s="19">
         <v>83</v>
       </c>
-      <c r="C103" s="95"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="78"/>
+      <c r="C103" s="99"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="82"/>
       <c r="H103" s="20"/>
       <c r="I103" s="1"/>
     </row>
@@ -8559,11 +8617,11 @@
       <c r="B104" s="18">
         <v>84</v>
       </c>
-      <c r="C104" s="95"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="78"/>
+      <c r="C104" s="99"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="82"/>
       <c r="H104" s="20"/>
       <c r="I104" s="1"/>
     </row>
@@ -8572,11 +8630,11 @@
       <c r="B105" s="19">
         <v>85</v>
       </c>
-      <c r="C105" s="95"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="78"/>
+      <c r="C105" s="99"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="82"/>
       <c r="H105" s="20"/>
       <c r="I105" s="1"/>
     </row>
@@ -8585,11 +8643,11 @@
       <c r="B106" s="18">
         <v>86</v>
       </c>
-      <c r="C106" s="95"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="78"/>
+      <c r="C106" s="99"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="82"/>
       <c r="H106" s="20"/>
       <c r="I106" s="1"/>
     </row>
@@ -8598,11 +8656,11 @@
       <c r="B107" s="19">
         <v>87</v>
       </c>
-      <c r="C107" s="95"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="78"/>
+      <c r="C107" s="99"/>
+      <c r="D107" s="81"/>
+      <c r="E107" s="81"/>
+      <c r="F107" s="81"/>
+      <c r="G107" s="82"/>
       <c r="H107" s="20"/>
       <c r="I107" s="1"/>
     </row>
@@ -8611,11 +8669,11 @@
       <c r="B108" s="18">
         <v>88</v>
       </c>
-      <c r="C108" s="95"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="78"/>
+      <c r="C108" s="99"/>
+      <c r="D108" s="81"/>
+      <c r="E108" s="81"/>
+      <c r="F108" s="81"/>
+      <c r="G108" s="82"/>
       <c r="H108" s="20"/>
       <c r="I108" s="1"/>
     </row>
@@ -8624,11 +8682,11 @@
       <c r="B109" s="19">
         <v>89</v>
       </c>
-      <c r="C109" s="95"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="78"/>
+      <c r="C109" s="99"/>
+      <c r="D109" s="81"/>
+      <c r="E109" s="81"/>
+      <c r="F109" s="81"/>
+      <c r="G109" s="82"/>
       <c r="H109" s="20"/>
       <c r="I109" s="1"/>
     </row>
@@ -8637,11 +8695,11 @@
       <c r="B110" s="18">
         <v>90</v>
       </c>
-      <c r="C110" s="95"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="78"/>
+      <c r="C110" s="99"/>
+      <c r="D110" s="81"/>
+      <c r="E110" s="81"/>
+      <c r="F110" s="81"/>
+      <c r="G110" s="82"/>
       <c r="H110" s="20"/>
       <c r="I110" s="1"/>
     </row>
@@ -8650,11 +8708,11 @@
       <c r="B111" s="19">
         <v>91</v>
       </c>
-      <c r="C111" s="95"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="77"/>
-      <c r="G111" s="78"/>
+      <c r="C111" s="99"/>
+      <c r="D111" s="81"/>
+      <c r="E111" s="81"/>
+      <c r="F111" s="81"/>
+      <c r="G111" s="82"/>
       <c r="H111" s="20"/>
       <c r="I111" s="1"/>
     </row>
@@ -8663,11 +8721,11 @@
       <c r="B112" s="18">
         <v>92</v>
       </c>
-      <c r="C112" s="95"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="78"/>
+      <c r="C112" s="99"/>
+      <c r="D112" s="81"/>
+      <c r="E112" s="81"/>
+      <c r="F112" s="81"/>
+      <c r="G112" s="82"/>
       <c r="H112" s="20"/>
       <c r="I112" s="1"/>
     </row>
@@ -8676,11 +8734,11 @@
       <c r="B113" s="19">
         <v>93</v>
       </c>
-      <c r="C113" s="95"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="78"/>
+      <c r="C113" s="99"/>
+      <c r="D113" s="81"/>
+      <c r="E113" s="81"/>
+      <c r="F113" s="81"/>
+      <c r="G113" s="82"/>
       <c r="H113" s="20"/>
       <c r="I113" s="1"/>
     </row>
@@ -8689,11 +8747,11 @@
       <c r="B114" s="18">
         <v>94</v>
       </c>
-      <c r="C114" s="95"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="77"/>
-      <c r="F114" s="77"/>
-      <c r="G114" s="78"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="81"/>
+      <c r="E114" s="81"/>
+      <c r="F114" s="81"/>
+      <c r="G114" s="82"/>
       <c r="H114" s="20"/>
       <c r="I114" s="1"/>
     </row>
@@ -8702,11 +8760,11 @@
       <c r="B115" s="19">
         <v>95</v>
       </c>
-      <c r="C115" s="95"/>
-      <c r="D115" s="77"/>
-      <c r="E115" s="77"/>
-      <c r="F115" s="77"/>
-      <c r="G115" s="78"/>
+      <c r="C115" s="99"/>
+      <c r="D115" s="81"/>
+      <c r="E115" s="81"/>
+      <c r="F115" s="81"/>
+      <c r="G115" s="82"/>
       <c r="H115" s="20"/>
       <c r="I115" s="1"/>
     </row>
@@ -8715,11 +8773,11 @@
       <c r="B116" s="18">
         <v>96</v>
       </c>
-      <c r="C116" s="95"/>
-      <c r="D116" s="77"/>
-      <c r="E116" s="77"/>
-      <c r="F116" s="77"/>
-      <c r="G116" s="78"/>
+      <c r="C116" s="99"/>
+      <c r="D116" s="81"/>
+      <c r="E116" s="81"/>
+      <c r="F116" s="81"/>
+      <c r="G116" s="82"/>
       <c r="H116" s="20"/>
       <c r="I116" s="1"/>
     </row>
@@ -8728,11 +8786,11 @@
       <c r="B117" s="19">
         <v>97</v>
       </c>
-      <c r="C117" s="95"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="77"/>
-      <c r="F117" s="77"/>
-      <c r="G117" s="78"/>
+      <c r="C117" s="99"/>
+      <c r="D117" s="81"/>
+      <c r="E117" s="81"/>
+      <c r="F117" s="81"/>
+      <c r="G117" s="82"/>
       <c r="H117" s="20"/>
       <c r="I117" s="1"/>
     </row>
@@ -8741,11 +8799,11 @@
       <c r="B118" s="18">
         <v>98</v>
       </c>
-      <c r="C118" s="95"/>
-      <c r="D118" s="77"/>
-      <c r="E118" s="77"/>
-      <c r="F118" s="77"/>
-      <c r="G118" s="78"/>
+      <c r="C118" s="99"/>
+      <c r="D118" s="81"/>
+      <c r="E118" s="81"/>
+      <c r="F118" s="81"/>
+      <c r="G118" s="82"/>
       <c r="H118" s="20"/>
       <c r="I118" s="1"/>
     </row>
@@ -8754,11 +8812,11 @@
       <c r="B119" s="19">
         <v>99</v>
       </c>
-      <c r="C119" s="95"/>
-      <c r="D119" s="77"/>
-      <c r="E119" s="77"/>
-      <c r="F119" s="77"/>
-      <c r="G119" s="78"/>
+      <c r="C119" s="99"/>
+      <c r="D119" s="81"/>
+      <c r="E119" s="81"/>
+      <c r="F119" s="81"/>
+      <c r="G119" s="82"/>
       <c r="H119" s="20"/>
       <c r="I119" s="1"/>
     </row>
@@ -8767,11 +8825,11 @@
       <c r="B120" s="18">
         <v>100</v>
       </c>
-      <c r="C120" s="95"/>
-      <c r="D120" s="77"/>
-      <c r="E120" s="77"/>
-      <c r="F120" s="77"/>
-      <c r="G120" s="78"/>
+      <c r="C120" s="99"/>
+      <c r="D120" s="81"/>
+      <c r="E120" s="81"/>
+      <c r="F120" s="81"/>
+      <c r="G120" s="82"/>
       <c r="H120" s="20"/>
       <c r="I120" s="1"/>
     </row>
@@ -9783,7 +9841,7 @@
     <row r="212" spans="1:9" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C212" s="21"/>
       <c r="D212" s="21" t="s">
@@ -9798,7 +9856,7 @@
     <row r="213" spans="1:9" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C213" s="21"/>
       <c r="D213" s="21" t="s">
@@ -10807,17 +10865,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
+      <c r="B1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="23">
         <f>Requisitos!C11</f>
         <v>44277</v>
@@ -10825,17 +10883,17 @@
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="92"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="96"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44278</v>
@@ -10843,17 +10901,17 @@
     </row>
     <row r="3" spans="1:21" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="92"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44279</v>
@@ -10861,17 +10919,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44280</v>
@@ -10879,17 +10937,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="92"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44281</v>
@@ -10911,18 +10969,18 @@
     </row>
     <row r="7" spans="1:21" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="85" t="str">
+      <c r="B7" s="89" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44283</v>
@@ -10944,16 +11002,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="47" t="s">
         <v>70</v>
       </c>
@@ -11975,27 +12033,27 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="108" t="s">
+      <c r="B52" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="78"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="82"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="109" t="s">
+      <c r="B53" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="78"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="82"/>
       <c r="H53" s="25" t="s">
         <v>112</v>
       </c>
@@ -12005,15 +12063,15 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="107" t="str">
+      <c r="B54" s="111" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="78"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="82"/>
       <c r="H54" s="33">
         <f>SUMIF($F$11:$F$49,'Dados do Projeto'!$B10,H$11:H$49)</f>
         <v>10</v>
@@ -12025,15 +12083,15 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="107" t="str">
+      <c r="B55" s="111" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="78"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="82"/>
       <c r="H55" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B11,H$11:H$49)</f>
         <v>10</v>
@@ -12045,15 +12103,15 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="107" t="str">
+      <c r="B56" s="111" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="78"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="82"/>
       <c r="H56" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B12,H$11:H$49)</f>
         <v>8</v>
@@ -12065,15 +12123,15 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="107" t="str">
+      <c r="B57" s="111" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="78"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="82"/>
       <c r="H57" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B13,H$11:H$49)</f>
         <v>16</v>
@@ -12085,15 +12143,15 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="107" t="str">
+      <c r="B58" s="111" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="78"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="82"/>
       <c r="H58" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B14,H$11:H$49)</f>
         <v>12</v>
@@ -13518,17 +13576,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
+      <c r="B1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="23">
         <f>Requisitos!C12</f>
         <v>44291</v>
@@ -13536,17 +13594,17 @@
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="92"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="96"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44292</v>
@@ -13554,17 +13612,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="92"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44293</v>
@@ -13572,17 +13630,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44294</v>
@@ -13590,17 +13648,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="92"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44295</v>
@@ -13623,18 +13681,18 @@
     </row>
     <row r="7" spans="1:21" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="85" t="str">
+      <c r="B7" s="89" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44297</v>
@@ -13657,16 +13715,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="47" t="s">
         <v>70</v>
       </c>
@@ -14138,10 +14196,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="62"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
       <c r="O24" s="61"/>
     </row>
     <row r="25" spans="1:15" ht="37.5" customHeight="1">
@@ -14878,27 +14936,27 @@
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="108" t="s">
+      <c r="B72" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="77"/>
-      <c r="I72" s="78"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="81"/>
+      <c r="I72" s="82"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="109" t="s">
+      <c r="B73" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="77"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="78"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="81"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="82"/>
       <c r="H73" s="25" t="s">
         <v>112</v>
       </c>
@@ -14908,15 +14966,15 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="107" t="str">
+      <c r="B74" s="111" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C74" s="77"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="77"/>
-      <c r="G74" s="78"/>
+      <c r="C74" s="81"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="82"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>6</v>
@@ -14928,15 +14986,15 @@
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="107" t="str">
+      <c r="B75" s="111" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="78"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="82"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>4</v>
@@ -14948,15 +15006,15 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="107" t="str">
+      <c r="B76" s="111" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C76" s="77"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="78"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="82"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>12</v>
@@ -14968,15 +15026,15 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="107" t="str">
+      <c r="B77" s="111" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C77" s="77"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="78"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="82"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>10</v>
@@ -14988,15 +15046,15 @@
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="107" t="str">
+      <c r="B78" s="111" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C78" s="77"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="78"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="82"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>5</v>
@@ -16483,7 +16541,7 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="D9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -16502,17 +16560,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="21.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
+      <c r="B1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="23">
         <f>Requisitos!C13</f>
         <v>44305</v>
@@ -16520,17 +16578,17 @@
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="92"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="96"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44306</v>
@@ -16538,17 +16596,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="92"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44307</v>
@@ -16556,17 +16614,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44308</v>
@@ -16574,17 +16632,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44309</v>
@@ -16607,18 +16665,18 @@
     </row>
     <row r="7" spans="1:21" ht="21.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="85" t="str">
+      <c r="B7" s="89" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44311</v>
@@ -16641,16 +16699,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="48" t="s">
         <v>70</v>
       </c>
@@ -17814,27 +17872,27 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="108" t="s">
+      <c r="B63" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="77"/>
-      <c r="H63" s="77"/>
-      <c r="I63" s="78"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="82"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="109" t="s">
+      <c r="B64" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="78"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="82"/>
       <c r="H64" s="25" t="s">
         <v>112</v>
       </c>
@@ -17844,15 +17902,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="107" t="str">
+      <c r="B65" s="111" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="77"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="78"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="82"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>3</v>
@@ -17864,15 +17922,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="107" t="str">
+      <c r="B66" s="111" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="78"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="82"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>3</v>
@@ -17884,15 +17942,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="107" t="str">
+      <c r="B67" s="111" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="78"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="82"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>2</v>
@@ -17904,15 +17962,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="107" t="str">
+      <c r="B68" s="111" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="78"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="82"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>7</v>
@@ -17924,15 +17982,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="107" t="str">
+      <c r="B69" s="111" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="78"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="82"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>3</v>
@@ -19632,9 +19690,9 @@
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -19652,17 +19710,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
+      <c r="B1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="23">
         <f>Requisitos!C14</f>
         <v>44319</v>
@@ -19670,17 +19728,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="92"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="96"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44320</v>
@@ -19688,17 +19746,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="92"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44321</v>
@@ -19706,17 +19764,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44322</v>
@@ -19724,17 +19782,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44323</v>
@@ -19757,18 +19815,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="85" t="str">
+      <c r="B7" s="89" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44325</v>
@@ -19791,16 +19849,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="48" t="s">
         <v>70</v>
       </c>
@@ -19843,7 +19901,7 @@
         <v>44328</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="409.5" customHeight="1">
+    <row r="11" spans="1:21" ht="381" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="19">
         <v>1</v>
@@ -19861,7 +19919,7 @@
         <v>128</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H11" s="28">
         <v>2</v>
@@ -19938,7 +19996,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H13" s="28">
         <v>2</v>
@@ -20118,7 +20176,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H19" s="28">
         <v>2</v>
@@ -20147,7 +20205,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H20" s="28">
         <v>1</v>
@@ -20263,13 +20321,13 @@
         <v>14</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H24" s="28">
         <v>2</v>
       </c>
       <c r="I24" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="70" t="s">
         <v>182</v>
@@ -20321,13 +20379,13 @@
         <v>16</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H26" s="28">
         <v>1</v>
       </c>
       <c r="I26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="37"/>
       <c r="K26" s="23"/>
@@ -20348,13 +20406,13 @@
         <v>16</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H27" s="28">
         <v>1</v>
       </c>
       <c r="I27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="37"/>
       <c r="K27" s="23"/>
@@ -20375,13 +20433,13 @@
         <v>16</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H28" s="28">
         <v>1</v>
       </c>
       <c r="I28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="37"/>
       <c r="K28" s="23"/>
@@ -20977,7 +21035,7 @@
       </c>
       <c r="I61" s="32">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J61" s="1"/>
     </row>
@@ -20993,7 +21051,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -21001,27 +21059,27 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="108" t="s">
+      <c r="B63" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="77"/>
-      <c r="H63" s="77"/>
-      <c r="I63" s="78"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="82"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="109" t="s">
+      <c r="B64" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="78"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="82"/>
       <c r="H64" s="25" t="s">
         <v>112</v>
       </c>
@@ -21031,15 +21089,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="107" t="str">
+      <c r="B65" s="111" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="77"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="78"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="82"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>4</v>
@@ -21051,15 +21109,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="107" t="str">
+      <c r="B66" s="111" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="78"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="82"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>6</v>
@@ -21071,15 +21129,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="107" t="str">
+      <c r="B67" s="111" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="78"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="82"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -21091,42 +21149,42 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="107" t="str">
+      <c r="B68" s="111" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="78"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="82"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>6</v>
       </c>
       <c r="I68" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B13,I$11:I$60)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="107" t="str">
+      <c r="B69" s="111" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="78"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="82"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>7</v>
       </c>
       <c r="I69" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B14,I$11:I$60)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
@@ -22690,9 +22748,9 @@
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -22700,7 +22758,7 @@
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
     <col min="4" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="72" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
@@ -22710,17 +22768,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
+      <c r="B1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="23">
         <f>Requisitos!C15</f>
         <v>44333</v>
@@ -22728,17 +22786,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="92"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="96"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44334</v>
@@ -22746,17 +22804,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="92"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44335</v>
@@ -22764,17 +22822,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44336</v>
@@ -22782,17 +22840,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44337</v>
@@ -22803,7 +22861,6 @@
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -22815,18 +22872,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="85" t="str">
+      <c r="B7" s="89" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44339</v>
@@ -22837,7 +22894,6 @@
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -22849,16 +22905,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="48" t="s">
         <v>70</v>
       </c>
@@ -22881,7 +22937,7 @@
       <c r="E10" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="73" t="s">
         <v>74</v>
       </c>
       <c r="G10" s="25" t="s">
@@ -22906,18 +22962,28 @@
       <c r="B11" s="19">
         <v>1</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="C11" s="26">
+        <v>44333</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="27">
+        <v>11</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H11" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="28">
         <v>0</v>
       </c>
-      <c r="J11" s="20"/>
+      <c r="J11" s="27"/>
       <c r="K11" s="23">
         <f t="shared" si="0"/>
         <v>44343</v>
@@ -22938,13 +23004,23 @@
       <c r="B12" s="19">
         <v>2</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="C12" s="26">
+        <v>44338</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="27">
+        <v>5</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H12" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" s="28">
         <v>0</v>
@@ -22960,13 +23036,23 @@
       <c r="B13" s="19">
         <v>3</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="C13" s="26">
+        <v>44338</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="27">
+        <v>11</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H13" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="28">
         <v>0</v>
@@ -22982,18 +23068,30 @@
       <c r="B14" s="19">
         <v>4</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="26">
+        <v>44338</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="20">
+        <v>11</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H14" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="28">
         <v>0</v>
       </c>
-      <c r="J14" s="37"/>
+      <c r="J14" s="37" t="s">
+        <v>192</v>
+      </c>
       <c r="K14" s="23">
         <f t="shared" si="0"/>
         <v>44346</v>
@@ -23004,13 +23102,23 @@
       <c r="B15" s="19">
         <v>5</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="C15" s="26">
+        <v>44338</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="20">
+        <v>13</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H15" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="28">
         <v>0</v>
@@ -23023,13 +23131,23 @@
       <c r="B16" s="19">
         <v>6</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="C16" s="26">
+        <v>44338</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="20">
+        <v>14</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H16" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="28">
         <v>0</v>
@@ -23042,13 +23160,23 @@
       <c r="B17" s="19">
         <v>7</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="C17" s="26">
+        <v>44338</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="20">
+        <v>14</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H17" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="28">
         <v>0</v>
@@ -23061,13 +23189,23 @@
       <c r="B18" s="19">
         <v>8</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="C18" s="26">
+        <v>44338</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="20">
+        <v>14</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H18" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="28">
         <v>0</v>
@@ -23080,13 +23218,23 @@
       <c r="B19" s="19">
         <v>9</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="C19" s="26">
+        <v>44338</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="20">
+        <v>14</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H19" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="28">
         <v>0</v>
@@ -23099,18 +23247,30 @@
       <c r="B20" s="19">
         <v>10</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="C20" s="26">
+        <v>44338</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="20">
+        <v>14</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="28">
         <v>0</v>
       </c>
-      <c r="J20" s="37"/>
+      <c r="J20" s="37" t="s">
+        <v>199</v>
+      </c>
       <c r="K20" s="23"/>
     </row>
     <row r="21" spans="1:11" ht="37.5" customHeight="1">
@@ -23118,13 +23278,23 @@
       <c r="B21" s="19">
         <v>11</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="C21" s="26">
+        <v>44338</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="20">
+        <v>10</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="H21" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="28">
         <v>0</v>
@@ -23137,13 +23307,23 @@
       <c r="B22" s="19">
         <v>12</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="C22" s="26">
+        <v>44338</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="20">
+        <v>6</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="28">
         <v>0</v>
@@ -23156,18 +23336,28 @@
       <c r="B23" s="19">
         <v>13</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="26">
+        <v>44338</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>202</v>
+      </c>
       <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H23" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="28">
         <v>0</v>
       </c>
-      <c r="J23" s="37"/>
+      <c r="J23" s="77" t="s">
+        <v>203</v>
+      </c>
       <c r="K23" s="23"/>
     </row>
     <row r="24" spans="1:11" ht="37.5" customHeight="1">
@@ -23178,7 +23368,7 @@
       <c r="C24" s="26"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="20"/>
       <c r="H24" s="28">
         <v>0</v>
@@ -23197,7 +23387,7 @@
       <c r="C25" s="26"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="20"/>
       <c r="H25" s="28">
         <v>0</v>
@@ -23216,7 +23406,7 @@
       <c r="C26" s="26"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="20"/>
       <c r="H26" s="28">
         <v>0</v>
@@ -23235,7 +23425,7 @@
       <c r="C27" s="26"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="20"/>
       <c r="H27" s="28">
         <v>0</v>
@@ -23254,7 +23444,7 @@
       <c r="C28" s="26"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="20"/>
       <c r="H28" s="28">
         <v>0</v>
@@ -23273,7 +23463,7 @@
       <c r="C29" s="26"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="20"/>
       <c r="H29" s="28">
         <v>0</v>
@@ -23291,7 +23481,7 @@
       <c r="C30" s="26"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="20"/>
       <c r="H30" s="28">
         <v>0</v>
@@ -23309,7 +23499,7 @@
       <c r="C31" s="26"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="20"/>
       <c r="H31" s="28">
         <v>0</v>
@@ -23327,7 +23517,7 @@
       <c r="C32" s="26"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="20"/>
       <c r="H32" s="28">
         <v>0</v>
@@ -23345,7 +23535,7 @@
       <c r="C33" s="26"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="20"/>
       <c r="H33" s="28">
         <v>0</v>
@@ -23363,7 +23553,7 @@
       <c r="C34" s="26"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="20"/>
       <c r="H34" s="28">
         <v>0</v>
@@ -23381,7 +23571,7 @@
       <c r="C35" s="26"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="20"/>
       <c r="H35" s="28">
         <v>0</v>
@@ -23399,7 +23589,7 @@
       <c r="C36" s="26"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="20"/>
       <c r="H36" s="28">
         <v>0</v>
@@ -23417,7 +23607,7 @@
       <c r="C37" s="26"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="20"/>
       <c r="H37" s="28">
         <v>0</v>
@@ -23435,7 +23625,7 @@
       <c r="C38" s="26"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="20"/>
       <c r="H38" s="28">
         <v>0</v>
@@ -23453,7 +23643,7 @@
       <c r="C39" s="26"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
+      <c r="F39" s="27"/>
       <c r="G39" s="20"/>
       <c r="H39" s="28">
         <v>0</v>
@@ -23471,7 +23661,7 @@
       <c r="C40" s="26"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="20"/>
       <c r="H40" s="28">
         <v>0</v>
@@ -23489,7 +23679,7 @@
       <c r="C41" s="26"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="20"/>
       <c r="H41" s="28">
         <v>0</v>
@@ -23507,7 +23697,7 @@
       <c r="C42" s="26"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="20"/>
       <c r="H42" s="28">
         <v>0</v>
@@ -23525,7 +23715,7 @@
       <c r="C43" s="26"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
+      <c r="F43" s="27"/>
       <c r="G43" s="20"/>
       <c r="H43" s="28">
         <v>0</v>
@@ -23543,7 +23733,7 @@
       <c r="C44" s="26"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
+      <c r="F44" s="27"/>
       <c r="G44" s="20"/>
       <c r="H44" s="28">
         <v>0</v>
@@ -23561,7 +23751,7 @@
       <c r="C45" s="26"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
+      <c r="F45" s="27"/>
       <c r="G45" s="20"/>
       <c r="H45" s="28">
         <v>0</v>
@@ -23579,7 +23769,7 @@
       <c r="C46" s="26"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="F46" s="27"/>
       <c r="G46" s="20"/>
       <c r="H46" s="28">
         <v>0</v>
@@ -23597,7 +23787,7 @@
       <c r="C47" s="26"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="20"/>
       <c r="H47" s="28">
         <v>0</v>
@@ -23615,7 +23805,7 @@
       <c r="C48" s="26"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
+      <c r="F48" s="27"/>
       <c r="G48" s="20"/>
       <c r="H48" s="28">
         <v>0</v>
@@ -23633,7 +23823,7 @@
       <c r="C49" s="26"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
+      <c r="F49" s="27"/>
       <c r="G49" s="20"/>
       <c r="H49" s="28">
         <v>0</v>
@@ -23651,7 +23841,7 @@
       <c r="C50" s="26"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
+      <c r="F50" s="27"/>
       <c r="G50" s="20"/>
       <c r="H50" s="28">
         <v>0</v>
@@ -23669,7 +23859,7 @@
       <c r="C51" s="26"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
+      <c r="F51" s="27"/>
       <c r="G51" s="20"/>
       <c r="H51" s="28">
         <v>0</v>
@@ -23687,7 +23877,7 @@
       <c r="C52" s="26"/>
       <c r="D52" s="39"/>
       <c r="E52" s="39"/>
-      <c r="F52" s="20"/>
+      <c r="F52" s="27"/>
       <c r="G52" s="20"/>
       <c r="H52" s="28">
         <v>0</v>
@@ -23705,7 +23895,7 @@
       <c r="C53" s="26"/>
       <c r="D53" s="39"/>
       <c r="E53" s="39"/>
-      <c r="F53" s="20"/>
+      <c r="F53" s="27"/>
       <c r="G53" s="20"/>
       <c r="H53" s="28">
         <v>0</v>
@@ -23723,7 +23913,7 @@
       <c r="C54" s="26"/>
       <c r="D54" s="39"/>
       <c r="E54" s="39"/>
-      <c r="F54" s="20"/>
+      <c r="F54" s="27"/>
       <c r="G54" s="20"/>
       <c r="H54" s="28">
         <v>0</v>
@@ -23741,7 +23931,7 @@
       <c r="C55" s="26"/>
       <c r="D55" s="39"/>
       <c r="E55" s="39"/>
-      <c r="F55" s="20"/>
+      <c r="F55" s="27"/>
       <c r="G55" s="20"/>
       <c r="H55" s="28">
         <v>0</v>
@@ -23759,7 +23949,7 @@
       <c r="C56" s="26"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
+      <c r="F56" s="27"/>
       <c r="G56" s="20"/>
       <c r="H56" s="28">
         <v>0</v>
@@ -23777,7 +23967,7 @@
       <c r="C57" s="26"/>
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
-      <c r="F57" s="20"/>
+      <c r="F57" s="27"/>
       <c r="G57" s="20"/>
       <c r="H57" s="28">
         <v>0</v>
@@ -23795,7 +23985,7 @@
       <c r="C58" s="26"/>
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
-      <c r="F58" s="20"/>
+      <c r="F58" s="27"/>
       <c r="G58" s="20"/>
       <c r="H58" s="28">
         <v>0</v>
@@ -23813,7 +24003,7 @@
       <c r="C59" s="26"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
-      <c r="F59" s="20"/>
+      <c r="F59" s="27"/>
       <c r="G59" s="20"/>
       <c r="H59" s="28">
         <v>0</v>
@@ -23831,7 +24021,7 @@
       <c r="C60" s="26"/>
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
-      <c r="F60" s="20"/>
+      <c r="F60" s="27"/>
       <c r="G60" s="20"/>
       <c r="H60" s="28">
         <v>0</v>
@@ -23846,13 +24036,12 @@
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
       <c r="G61" s="31" t="s">
         <v>109</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I61" s="32">
         <f t="shared" si="1"/>
@@ -23866,10 +24055,10 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
+      <c r="F62" s="74"/>
       <c r="G62" s="8">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
         <v>0</v>
@@ -23880,27 +24069,27 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="108" t="s">
+      <c r="B63" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="77"/>
-      <c r="H63" s="77"/>
-      <c r="I63" s="78"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="82"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="109" t="s">
+      <c r="B64" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="78"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="82"/>
       <c r="H64" s="25" t="s">
         <v>112</v>
       </c>
@@ -23910,18 +24099,18 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="107" t="str">
+      <c r="B65" s="111" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="77"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="78"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="82"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
@@ -23930,18 +24119,18 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="107" t="str">
+      <c r="B66" s="111" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="78"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="82"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I66" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B11,I$11:I$60)</f>
@@ -23950,18 +24139,18 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="107" t="str">
+      <c r="B67" s="111" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="78"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="82"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I67" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B12,I$11:I$60)</f>
@@ -23970,18 +24159,18 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="107" t="str">
+      <c r="B68" s="111" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="78"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="82"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I68" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B13,I$11:I$60)</f>
@@ -23990,18 +24179,18 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="107" t="str">
+      <c r="B69" s="111" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="78"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="82"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I69" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B14,I$11:I$60)</f>
@@ -24013,7 +24202,6 @@
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -24024,7 +24212,6 @@
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -24035,7 +24222,6 @@
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -24046,7 +24232,6 @@
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -24057,7 +24242,6 @@
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -24068,7 +24252,6 @@
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -24079,7 +24262,6 @@
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -24090,7 +24272,6 @@
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -24101,7 +24282,6 @@
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -24112,7 +24292,6 @@
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -24123,7 +24302,6 @@
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -24134,7 +24312,6 @@
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -24145,7 +24322,6 @@
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -24156,7 +24332,6 @@
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -24167,7 +24342,6 @@
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -24178,7 +24352,6 @@
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -24189,7 +24362,6 @@
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -24200,7 +24372,6 @@
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -24211,7 +24382,6 @@
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -24222,7 +24392,6 @@
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -24233,7 +24402,6 @@
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -24244,7 +24412,6 @@
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -24255,7 +24422,6 @@
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -24266,7 +24432,6 @@
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -24277,7 +24442,6 @@
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -24288,7 +24452,6 @@
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -24299,7 +24462,6 @@
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -24310,7 +24472,6 @@
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -24321,7 +24482,6 @@
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -24332,7 +24492,6 @@
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -24343,7 +24502,6 @@
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -24354,7 +24512,6 @@
       <c r="B101" s="1"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="1"/>
       <c r="G101" s="4"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -24365,7 +24522,6 @@
       <c r="B102" s="1"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="1"/>
       <c r="G102" s="4"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -24376,7 +24532,6 @@
       <c r="B103" s="1"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="1"/>
       <c r="G103" s="4"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -24387,7 +24542,6 @@
       <c r="B104" s="1"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="1"/>
       <c r="G104" s="4"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -24398,7 +24552,6 @@
       <c r="B105" s="1"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -24409,7 +24562,6 @@
       <c r="B106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -25575,34 +25727,34 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
+      <c r="B1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="23">
         <v>44347</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="92"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="96"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44348</v>
@@ -25610,17 +25762,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="92"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44349</v>
@@ -25628,17 +25780,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44350</v>
@@ -25646,17 +25798,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44351</v>
@@ -25679,18 +25831,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="85" t="str">
+      <c r="B7" s="89" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44353</v>
@@ -25713,16 +25865,16 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="108" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
+      <c r="B9" s="112" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="48" t="s">
         <v>70</v>
       </c>
@@ -26744,27 +26896,27 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="108" t="s">
+      <c r="B63" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="77"/>
-      <c r="H63" s="77"/>
-      <c r="I63" s="78"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="82"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="109" t="s">
+      <c r="B64" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="78"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="82"/>
       <c r="H64" s="25" t="s">
         <v>112</v>
       </c>
@@ -26774,15 +26926,15 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="107" t="str">
+      <c r="B65" s="111" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="77"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="78"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="82"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -26794,15 +26946,15 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="107" t="str">
+      <c r="B66" s="111" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="78"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="82"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -26814,15 +26966,15 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="107" t="str">
+      <c r="B67" s="111" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="78"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="82"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -26834,15 +26986,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="107" t="str">
+      <c r="B68" s="111" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="78"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="82"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -26854,15 +27006,15 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="107" t="str">
+      <c r="B69" s="111" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="78"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="82"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -28400,12 +28552,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009407E1920DA0244181F4A5E68B236D03" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f93176ac4c7b0499f4c793ef7a260ff7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d841e270-8762-48f1-af0f-95d6f11e59ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e08dd84ed401fbaad7197cdcae1eb72f" ns2:_="">
     <xsd:import namespace="d841e270-8762-48f1-af0f-95d6f11e59ea"/>
@@ -28563,23 +28724,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AE7633-9F17-461A-8B68-7FAC2F42E9FA}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FC0B413-BAC6-4036-8CEB-C5632804ED21}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22A15D46-B256-4EDE-A7D0-6A4D07704ACB}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AE7633-9F17-461A-8B68-7FAC2F42E9FA}"/>
 </file>
--- a/Artefatos/Sprints - ParkIO.xlsx
+++ b/Artefatos/Sprints - ParkIO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24110"/>
   <workbookPr autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="1839" documentId="11_713659AC415AC9C2D79A1EC9FA76B4759D2182B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4047CA95-D467-443D-B785-E5153648DFC5}"/>
+  <xr:revisionPtr revIDLastSave="1843" documentId="11_713659AC415AC9C2D79A1EC9FA76B4759D2182B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D73DE132-1022-43BD-B144-92F966FED0C7}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="6" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
     <t>O sistema deve emitir um alerta para um grupo no Telegram contendo os porteiros e os rondas no caso de algum veículo ficar determinado tempo dentro do condomínio.</t>
   </si>
   <si>
-    <t>Pendente</t>
+    <t>Tarefas Criadas</t>
   </si>
   <si>
     <t>O administrador do sistema poderá criar usuários com diferentes permissões.</t>
@@ -596,13 +596,13 @@
     <t>O ronda poderá editar placa, modelo e cor de veículos que ainda estão dentro do condomínio.</t>
   </si>
   <si>
-    <t>Tarefas Criadas</t>
-  </si>
-  <si>
     <t>O síndico poderá visualizar os veículos designados para seu bloco.</t>
   </si>
   <si>
     <t>PROGRESSO</t>
+  </si>
+  <si>
+    <t>Pendente</t>
   </si>
   <si>
     <t>Departamento de Engenharia de Software e Sistemas de Informação</t>
@@ -1640,39 +1640,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1681,6 +1653,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1688,23 +1661,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1723,6 +1705,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4357,7 +4357,7 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
@@ -4370,15 +4370,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="94"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4386,15 +4386,15 @@
     </row>
     <row r="2" spans="1:15" ht="18">
       <c r="A2" s="1"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="96"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4402,15 +4402,15 @@
     </row>
     <row r="3" spans="1:15" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="96"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4418,15 +4418,15 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4434,15 +4434,15 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -4464,15 +4464,15 @@
     </row>
     <row r="7" spans="1:15" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -4497,17 +4497,17 @@
     </row>
     <row r="9" spans="1:15" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="90" t="s">
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="90"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -4517,17 +4517,17 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="80" t="s">
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="82"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="90"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -4537,17 +4537,17 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="80" t="s">
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="82"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="90"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -4557,17 +4557,17 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="80" t="s">
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="82"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="90"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -4577,17 +4577,17 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="80" t="s">
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="82"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="90"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -4597,17 +4597,17 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="80" t="s">
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -5857,16 +5857,16 @@
     </row>
     <row r="99" spans="1:15" ht="15.75" customHeight="1">
       <c r="A99" s="40"/>
-      <c r="B99" s="84"/>
-      <c r="C99" s="79"/>
-      <c r="D99" s="85" t="s">
+      <c r="B99" s="95"/>
+      <c r="C99" s="82"/>
+      <c r="D99" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="79"/>
-      <c r="F99" s="85" t="s">
+      <c r="E99" s="82"/>
+      <c r="F99" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="79"/>
+      <c r="G99" s="82"/>
       <c r="H99" s="41" t="s">
         <v>21</v>
       </c>
@@ -5888,12 +5888,12 @@
     </row>
     <row r="100" spans="1:15" ht="15.75" customHeight="1">
       <c r="A100" s="40"/>
-      <c r="B100" s="78"/>
-      <c r="C100" s="79"/>
-      <c r="D100" s="83" t="s">
+      <c r="B100" s="98"/>
+      <c r="C100" s="82"/>
+      <c r="D100" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="79"/>
+      <c r="E100" s="82"/>
       <c r="F100" s="43" t="s">
         <v>26</v>
       </c>
@@ -5927,12 +5927,12 @@
     </row>
     <row r="101" spans="1:15" ht="15.75" customHeight="1">
       <c r="A101" s="40"/>
-      <c r="B101" s="78"/>
-      <c r="C101" s="79"/>
-      <c r="D101" s="83" t="s">
+      <c r="B101" s="98"/>
+      <c r="C101" s="82"/>
+      <c r="D101" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="79"/>
+      <c r="E101" s="82"/>
       <c r="F101" s="43" t="s">
         <v>30</v>
       </c>
@@ -5966,12 +5966,12 @@
     </row>
     <row r="102" spans="1:15" ht="15.75" customHeight="1">
       <c r="A102" s="40"/>
-      <c r="B102" s="78"/>
-      <c r="C102" s="79"/>
-      <c r="D102" s="83" t="s">
+      <c r="B102" s="98"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="79"/>
+      <c r="E102" s="82"/>
       <c r="F102" s="43"/>
       <c r="G102" s="44" t="s">
         <v>34</v>
@@ -6003,12 +6003,12 @@
     </row>
     <row r="103" spans="1:15" ht="15.75" customHeight="1">
       <c r="A103" s="40"/>
-      <c r="B103" s="78"/>
-      <c r="C103" s="79"/>
-      <c r="D103" s="83" t="s">
+      <c r="B103" s="98"/>
+      <c r="C103" s="82"/>
+      <c r="D103" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="E103" s="79"/>
+      <c r="E103" s="82"/>
       <c r="F103" s="43"/>
       <c r="G103" s="44" t="s">
         <v>36</v>
@@ -6038,12 +6038,12 @@
     </row>
     <row r="104" spans="1:15" ht="15.75" customHeight="1">
       <c r="A104" s="40"/>
-      <c r="B104" s="78"/>
-      <c r="C104" s="79"/>
-      <c r="D104" s="83" t="s">
+      <c r="B104" s="98"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="79"/>
+      <c r="E104" s="82"/>
       <c r="F104" s="43"/>
       <c r="G104" s="44" t="s">
         <v>38</v>
@@ -6068,8 +6068,8 @@
     </row>
     <row r="105" spans="1:15" ht="15.75" customHeight="1">
       <c r="A105" s="40"/>
-      <c r="B105" s="78"/>
-      <c r="C105" s="79"/>
+      <c r="B105" s="98"/>
+      <c r="C105" s="82"/>
       <c r="F105" s="43"/>
       <c r="G105" s="43"/>
       <c r="H105" s="43"/>
@@ -6080,8 +6080,8 @@
     </row>
     <row r="106" spans="1:15" ht="15.75" customHeight="1">
       <c r="A106" s="40"/>
-      <c r="B106" s="78"/>
-      <c r="C106" s="79"/>
+      <c r="B106" s="98"/>
+      <c r="C106" s="82"/>
       <c r="D106" s="46"/>
       <c r="E106" s="43"/>
       <c r="F106" s="43"/>
@@ -7103,22 +7103,12 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="D104:E104"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="D99:E99"/>
@@ -7130,12 +7120,22 @@
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="D102:E102"/>
     <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F14" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -7160,8 +7160,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:G26"/>
+    <sheetView tabSelected="1" topLeftCell="G26" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7177,67 +7177,67 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="94"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="96"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="96"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
@@ -7253,16 +7253,16 @@
     </row>
     <row r="7" spans="1:9" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="105" t="str">
+      <c r="B7" s="99" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
@@ -7278,15 +7278,15 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="90"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
@@ -7300,11 +7300,11 @@
       <c r="D10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="10" t="s">
         <v>44</v>
       </c>
@@ -7322,11 +7322,11 @@
         <f t="shared" ref="D11:D16" si="0">C11+13</f>
         <v>44290</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="110"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
       <c r="H11" s="13"/>
       <c r="I11" s="1"/>
     </row>
@@ -7343,9 +7343,9 @@
         <f t="shared" si="0"/>
         <v>44304</v>
       </c>
-      <c r="E12" s="101"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="13"/>
       <c r="I12" s="1"/>
     </row>
@@ -7362,9 +7362,9 @@
         <f t="shared" si="0"/>
         <v>44318</v>
       </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="13"/>
       <c r="I13" s="1"/>
     </row>
@@ -7381,9 +7381,9 @@
         <f t="shared" si="0"/>
         <v>44332</v>
       </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="13"/>
       <c r="I14" s="1"/>
     </row>
@@ -7400,9 +7400,9 @@
         <f t="shared" si="0"/>
         <v>44346</v>
       </c>
-      <c r="E15" s="102"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="13"/>
       <c r="I15" s="1"/>
     </row>
@@ -7419,9 +7419,9 @@
         <f t="shared" si="0"/>
         <v>44360</v>
       </c>
-      <c r="E16" s="102"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
       <c r="H16" s="13"/>
       <c r="I16" s="1"/>
     </row>
@@ -7450,13 +7450,13 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="15" t="s">
         <v>47</v>
       </c>
@@ -7467,11 +7467,11 @@
       <c r="B20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="90"/>
       <c r="H20" s="17" t="s">
         <v>48</v>
       </c>
@@ -7482,13 +7482,13 @@
       <c r="B21" s="19">
         <v>1</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="20" t="s">
         <v>50</v>
       </c>
@@ -7499,13 +7499,13 @@
       <c r="B22" s="18">
         <v>2</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="82"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="20" t="s">
         <v>50</v>
       </c>
@@ -7516,13 +7516,13 @@
       <c r="B23" s="19">
         <v>3</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="90"/>
       <c r="H23" s="20" t="s">
         <v>50</v>
       </c>
@@ -7533,13 +7533,13 @@
       <c r="B24" s="18">
         <v>4</v>
       </c>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="82"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
       <c r="H24" s="20" t="s">
         <v>50</v>
       </c>
@@ -7550,13 +7550,13 @@
       <c r="B25" s="19">
         <v>5</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="82"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
       <c r="H25" s="20" t="s">
         <v>55</v>
       </c>
@@ -7567,13 +7567,13 @@
       <c r="B26" s="18">
         <v>6</v>
       </c>
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="82"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="90"/>
       <c r="H26" s="20" t="s">
         <v>50</v>
       </c>
@@ -7584,13 +7584,13 @@
       <c r="B27" s="19">
         <v>7</v>
       </c>
-      <c r="C27" s="99" t="s">
+      <c r="C27" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="82"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
       <c r="H27" s="20" t="s">
         <v>50</v>
       </c>
@@ -7601,13 +7601,13 @@
       <c r="B28" s="18">
         <v>8</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="82"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="90"/>
       <c r="H28" s="20" t="s">
         <v>50</v>
       </c>
@@ -7618,13 +7618,13 @@
       <c r="B29" s="19">
         <v>9</v>
       </c>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="82"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="90"/>
       <c r="H29" s="20" t="s">
         <v>50</v>
       </c>
@@ -7635,13 +7635,13 @@
       <c r="B30" s="18">
         <v>10</v>
       </c>
-      <c r="C30" s="100" t="s">
+      <c r="C30" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="88"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="20" t="s">
         <v>50</v>
       </c>
@@ -7652,13 +7652,13 @@
       <c r="B31" s="19">
         <v>11</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="82"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
       <c r="H31" s="20" t="s">
         <v>55</v>
       </c>
@@ -7669,13 +7669,13 @@
       <c r="B32" s="18">
         <v>12</v>
       </c>
-      <c r="C32" s="99" t="s">
+      <c r="C32" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="82"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="20" t="s">
         <v>50</v>
       </c>
@@ -7686,15 +7686,15 @@
       <c r="B33" s="19">
         <v>13</v>
       </c>
-      <c r="C33" s="99" t="s">
+      <c r="C33" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="82"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="90"/>
       <c r="H33" s="20" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I33" s="1"/>
     </row>
@@ -7703,13 +7703,13 @@
       <c r="B34" s="18">
         <v>14</v>
       </c>
-      <c r="C34" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="82"/>
+      <c r="C34" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="90"/>
       <c r="H34" s="20" t="s">
         <v>55</v>
       </c>
@@ -7720,11 +7720,11 @@
       <c r="B35" s="19">
         <v>15</v>
       </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="82"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="90"/>
       <c r="H35" s="20"/>
       <c r="I35" s="1"/>
     </row>
@@ -7733,11 +7733,11 @@
       <c r="B36" s="18">
         <v>16</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="82"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="90"/>
       <c r="H36" s="20"/>
       <c r="I36" s="1"/>
     </row>
@@ -7746,11 +7746,11 @@
       <c r="B37" s="19">
         <v>17</v>
       </c>
-      <c r="C37" s="99"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="82"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="90"/>
       <c r="H37" s="20"/>
       <c r="I37" s="1"/>
     </row>
@@ -7759,11 +7759,11 @@
       <c r="B38" s="18">
         <v>18</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="82"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="90"/>
       <c r="H38" s="20"/>
       <c r="I38" s="1"/>
     </row>
@@ -7772,11 +7772,11 @@
       <c r="B39" s="19">
         <v>19</v>
       </c>
-      <c r="C39" s="99"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="82"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="90"/>
       <c r="H39" s="20"/>
       <c r="I39" s="1"/>
     </row>
@@ -7785,11 +7785,11 @@
       <c r="B40" s="18">
         <v>20</v>
       </c>
-      <c r="C40" s="99"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="82"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="90"/>
       <c r="H40" s="20"/>
       <c r="I40" s="1"/>
     </row>
@@ -7798,11 +7798,11 @@
       <c r="B41" s="19">
         <v>21</v>
       </c>
-      <c r="C41" s="99"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="82"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="90"/>
       <c r="H41" s="20"/>
       <c r="I41" s="1"/>
     </row>
@@ -7811,11 +7811,11 @@
       <c r="B42" s="18">
         <v>22</v>
       </c>
-      <c r="C42" s="99"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="82"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="90"/>
       <c r="H42" s="20"/>
       <c r="I42" s="1"/>
     </row>
@@ -7824,11 +7824,11 @@
       <c r="B43" s="19">
         <v>23</v>
       </c>
-      <c r="C43" s="99"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="82"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="90"/>
       <c r="H43" s="20"/>
       <c r="I43" s="1"/>
     </row>
@@ -7837,11 +7837,11 @@
       <c r="B44" s="18">
         <v>24</v>
       </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="82"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="90"/>
       <c r="H44" s="20"/>
       <c r="I44" s="1"/>
     </row>
@@ -7850,11 +7850,11 @@
       <c r="B45" s="19">
         <v>25</v>
       </c>
-      <c r="C45" s="99"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="82"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="90"/>
       <c r="H45" s="20"/>
       <c r="I45" s="1"/>
     </row>
@@ -7863,11 +7863,11 @@
       <c r="B46" s="18">
         <v>26</v>
       </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="82"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="90"/>
       <c r="H46" s="20"/>
       <c r="I46" s="1"/>
     </row>
@@ -7876,11 +7876,11 @@
       <c r="B47" s="19">
         <v>27</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="82"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="90"/>
       <c r="H47" s="20"/>
       <c r="I47" s="1"/>
     </row>
@@ -7889,11 +7889,11 @@
       <c r="B48" s="18">
         <v>28</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="82"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="90"/>
       <c r="H48" s="20"/>
       <c r="I48" s="1"/>
     </row>
@@ -7902,11 +7902,11 @@
       <c r="B49" s="19">
         <v>29</v>
       </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="82"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="90"/>
       <c r="H49" s="20"/>
       <c r="I49" s="1"/>
     </row>
@@ -7915,11 +7915,11 @@
       <c r="B50" s="18">
         <v>30</v>
       </c>
-      <c r="C50" s="99"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="82"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="90"/>
       <c r="H50" s="20"/>
       <c r="I50" s="1"/>
     </row>
@@ -7928,11 +7928,11 @@
       <c r="B51" s="19">
         <v>31</v>
       </c>
-      <c r="C51" s="99"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="82"/>
+      <c r="C51" s="109"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="90"/>
       <c r="H51" s="20"/>
       <c r="I51" s="1"/>
     </row>
@@ -7941,11 +7941,11 @@
       <c r="B52" s="18">
         <v>32</v>
       </c>
-      <c r="C52" s="99"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="82"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="90"/>
       <c r="H52" s="20"/>
       <c r="I52" s="1"/>
     </row>
@@ -7954,11 +7954,11 @@
       <c r="B53" s="19">
         <v>33</v>
       </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="82"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="90"/>
       <c r="H53" s="20"/>
       <c r="I53" s="1"/>
     </row>
@@ -7967,11 +7967,11 @@
       <c r="B54" s="18">
         <v>34</v>
       </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="82"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="90"/>
       <c r="H54" s="20"/>
       <c r="I54" s="1"/>
     </row>
@@ -7980,11 +7980,11 @@
       <c r="B55" s="19">
         <v>35</v>
       </c>
-      <c r="C55" s="99"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="82"/>
+      <c r="C55" s="109"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="90"/>
       <c r="H55" s="20"/>
       <c r="I55" s="1"/>
     </row>
@@ -7993,11 +7993,11 @@
       <c r="B56" s="18">
         <v>36</v>
       </c>
-      <c r="C56" s="99"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="82"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="90"/>
       <c r="H56" s="20"/>
       <c r="I56" s="1"/>
     </row>
@@ -8006,11 +8006,11 @@
       <c r="B57" s="19">
         <v>37</v>
       </c>
-      <c r="C57" s="99"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="82"/>
+      <c r="C57" s="109"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="90"/>
       <c r="H57" s="20"/>
       <c r="I57" s="1"/>
     </row>
@@ -8019,11 +8019,11 @@
       <c r="B58" s="18">
         <v>38</v>
       </c>
-      <c r="C58" s="99"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="82"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="90"/>
       <c r="H58" s="20"/>
       <c r="I58" s="1"/>
     </row>
@@ -8032,11 +8032,11 @@
       <c r="B59" s="19">
         <v>39</v>
       </c>
-      <c r="C59" s="99"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="82"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="90"/>
       <c r="H59" s="20"/>
       <c r="I59" s="1"/>
     </row>
@@ -8045,11 +8045,11 @@
       <c r="B60" s="18">
         <v>40</v>
       </c>
-      <c r="C60" s="99"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="82"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="90"/>
       <c r="H60" s="20"/>
       <c r="I60" s="1"/>
     </row>
@@ -8058,11 +8058,11 @@
       <c r="B61" s="19">
         <v>41</v>
       </c>
-      <c r="C61" s="99"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="82"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="90"/>
       <c r="H61" s="20"/>
       <c r="I61" s="1"/>
     </row>
@@ -8071,11 +8071,11 @@
       <c r="B62" s="18">
         <v>42</v>
       </c>
-      <c r="C62" s="99"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="82"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="90"/>
       <c r="H62" s="20"/>
       <c r="I62" s="1"/>
     </row>
@@ -8084,11 +8084,11 @@
       <c r="B63" s="19">
         <v>43</v>
       </c>
-      <c r="C63" s="99"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="82"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="90"/>
       <c r="H63" s="20"/>
       <c r="I63" s="1"/>
     </row>
@@ -8097,11 +8097,11 @@
       <c r="B64" s="18">
         <v>44</v>
       </c>
-      <c r="C64" s="99"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="82"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="90"/>
       <c r="H64" s="20"/>
       <c r="I64" s="1"/>
     </row>
@@ -8110,11 +8110,11 @@
       <c r="B65" s="19">
         <v>45</v>
       </c>
-      <c r="C65" s="99"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="82"/>
+      <c r="C65" s="109"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="90"/>
       <c r="H65" s="20"/>
       <c r="I65" s="1"/>
     </row>
@@ -8123,11 +8123,11 @@
       <c r="B66" s="18">
         <v>46</v>
       </c>
-      <c r="C66" s="99"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="82"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="90"/>
       <c r="H66" s="20"/>
       <c r="I66" s="1"/>
     </row>
@@ -8136,11 +8136,11 @@
       <c r="B67" s="19">
         <v>47</v>
       </c>
-      <c r="C67" s="99"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="82"/>
+      <c r="C67" s="109"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="90"/>
       <c r="H67" s="20"/>
       <c r="I67" s="1"/>
     </row>
@@ -8149,11 +8149,11 @@
       <c r="B68" s="18">
         <v>48</v>
       </c>
-      <c r="C68" s="99"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="82"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="90"/>
       <c r="H68" s="20"/>
       <c r="I68" s="1"/>
     </row>
@@ -8162,11 +8162,11 @@
       <c r="B69" s="19">
         <v>49</v>
       </c>
-      <c r="C69" s="99"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="82"/>
+      <c r="C69" s="109"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="90"/>
       <c r="H69" s="20"/>
       <c r="I69" s="1"/>
     </row>
@@ -8175,11 +8175,11 @@
       <c r="B70" s="18">
         <v>50</v>
       </c>
-      <c r="C70" s="99"/>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="82"/>
+      <c r="C70" s="109"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="89"/>
+      <c r="G70" s="90"/>
       <c r="H70" s="20"/>
       <c r="I70" s="1"/>
     </row>
@@ -8188,11 +8188,11 @@
       <c r="B71" s="19">
         <v>51</v>
       </c>
-      <c r="C71" s="99"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="82"/>
+      <c r="C71" s="109"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="90"/>
       <c r="H71" s="20"/>
       <c r="I71" s="1"/>
     </row>
@@ -8201,11 +8201,11 @@
       <c r="B72" s="18">
         <v>52</v>
       </c>
-      <c r="C72" s="99"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="82"/>
+      <c r="C72" s="109"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="90"/>
       <c r="H72" s="20"/>
       <c r="I72" s="1"/>
     </row>
@@ -8214,11 +8214,11 @@
       <c r="B73" s="19">
         <v>53</v>
       </c>
-      <c r="C73" s="99"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="81"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="82"/>
+      <c r="C73" s="109"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="90"/>
       <c r="H73" s="20"/>
       <c r="I73" s="1"/>
     </row>
@@ -8227,11 +8227,11 @@
       <c r="B74" s="18">
         <v>54</v>
       </c>
-      <c r="C74" s="99"/>
-      <c r="D74" s="81"/>
-      <c r="E74" s="81"/>
-      <c r="F74" s="81"/>
-      <c r="G74" s="82"/>
+      <c r="C74" s="109"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="89"/>
+      <c r="G74" s="90"/>
       <c r="H74" s="20"/>
       <c r="I74" s="1"/>
     </row>
@@ -8240,11 +8240,11 @@
       <c r="B75" s="19">
         <v>55</v>
       </c>
-      <c r="C75" s="99"/>
-      <c r="D75" s="81"/>
-      <c r="E75" s="81"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="82"/>
+      <c r="C75" s="109"/>
+      <c r="D75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="89"/>
+      <c r="G75" s="90"/>
       <c r="H75" s="20"/>
       <c r="I75" s="1"/>
     </row>
@@ -8253,11 +8253,11 @@
       <c r="B76" s="18">
         <v>56</v>
       </c>
-      <c r="C76" s="99"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="81"/>
-      <c r="F76" s="81"/>
-      <c r="G76" s="82"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="89"/>
+      <c r="G76" s="90"/>
       <c r="H76" s="20"/>
       <c r="I76" s="1"/>
     </row>
@@ -8266,11 +8266,11 @@
       <c r="B77" s="19">
         <v>57</v>
       </c>
-      <c r="C77" s="99"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="81"/>
-      <c r="F77" s="81"/>
-      <c r="G77" s="82"/>
+      <c r="C77" s="109"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="89"/>
+      <c r="G77" s="90"/>
       <c r="H77" s="20"/>
       <c r="I77" s="1"/>
     </row>
@@ -8279,11 +8279,11 @@
       <c r="B78" s="18">
         <v>58</v>
       </c>
-      <c r="C78" s="99"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="81"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="82"/>
+      <c r="C78" s="109"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="90"/>
       <c r="H78" s="20"/>
       <c r="I78" s="1"/>
     </row>
@@ -8292,11 +8292,11 @@
       <c r="B79" s="19">
         <v>59</v>
       </c>
-      <c r="C79" s="99"/>
-      <c r="D79" s="81"/>
-      <c r="E79" s="81"/>
-      <c r="F79" s="81"/>
-      <c r="G79" s="82"/>
+      <c r="C79" s="109"/>
+      <c r="D79" s="89"/>
+      <c r="E79" s="89"/>
+      <c r="F79" s="89"/>
+      <c r="G79" s="90"/>
       <c r="H79" s="20"/>
       <c r="I79" s="1"/>
     </row>
@@ -8305,11 +8305,11 @@
       <c r="B80" s="18">
         <v>60</v>
       </c>
-      <c r="C80" s="99"/>
-      <c r="D80" s="81"/>
-      <c r="E80" s="81"/>
-      <c r="F80" s="81"/>
-      <c r="G80" s="82"/>
+      <c r="C80" s="109"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="89"/>
+      <c r="F80" s="89"/>
+      <c r="G80" s="90"/>
       <c r="H80" s="20"/>
       <c r="I80" s="1"/>
     </row>
@@ -8318,11 +8318,11 @@
       <c r="B81" s="19">
         <v>61</v>
       </c>
-      <c r="C81" s="99"/>
-      <c r="D81" s="81"/>
-      <c r="E81" s="81"/>
-      <c r="F81" s="81"/>
-      <c r="G81" s="82"/>
+      <c r="C81" s="109"/>
+      <c r="D81" s="89"/>
+      <c r="E81" s="89"/>
+      <c r="F81" s="89"/>
+      <c r="G81" s="90"/>
       <c r="H81" s="20"/>
       <c r="I81" s="1"/>
     </row>
@@ -8331,11 +8331,11 @@
       <c r="B82" s="18">
         <v>62</v>
       </c>
-      <c r="C82" s="99"/>
-      <c r="D82" s="81"/>
-      <c r="E82" s="81"/>
-      <c r="F82" s="81"/>
-      <c r="G82" s="82"/>
+      <c r="C82" s="109"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="89"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="90"/>
       <c r="H82" s="20"/>
       <c r="I82" s="1"/>
     </row>
@@ -8344,11 +8344,11 @@
       <c r="B83" s="19">
         <v>63</v>
       </c>
-      <c r="C83" s="99"/>
-      <c r="D83" s="81"/>
-      <c r="E83" s="81"/>
-      <c r="F83" s="81"/>
-      <c r="G83" s="82"/>
+      <c r="C83" s="109"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="89"/>
+      <c r="F83" s="89"/>
+      <c r="G83" s="90"/>
       <c r="H83" s="20"/>
       <c r="I83" s="1"/>
     </row>
@@ -8357,11 +8357,11 @@
       <c r="B84" s="18">
         <v>64</v>
       </c>
-      <c r="C84" s="99"/>
-      <c r="D84" s="81"/>
-      <c r="E84" s="81"/>
-      <c r="F84" s="81"/>
-      <c r="G84" s="82"/>
+      <c r="C84" s="109"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="89"/>
+      <c r="F84" s="89"/>
+      <c r="G84" s="90"/>
       <c r="H84" s="20"/>
       <c r="I84" s="1"/>
     </row>
@@ -8370,11 +8370,11 @@
       <c r="B85" s="19">
         <v>65</v>
       </c>
-      <c r="C85" s="99"/>
-      <c r="D85" s="81"/>
-      <c r="E85" s="81"/>
-      <c r="F85" s="81"/>
-      <c r="G85" s="82"/>
+      <c r="C85" s="109"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="89"/>
+      <c r="F85" s="89"/>
+      <c r="G85" s="90"/>
       <c r="H85" s="20"/>
       <c r="I85" s="1"/>
     </row>
@@ -8383,11 +8383,11 @@
       <c r="B86" s="18">
         <v>66</v>
       </c>
-      <c r="C86" s="99"/>
-      <c r="D86" s="81"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="82"/>
+      <c r="C86" s="109"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="89"/>
+      <c r="F86" s="89"/>
+      <c r="G86" s="90"/>
       <c r="H86" s="20"/>
       <c r="I86" s="1"/>
     </row>
@@ -8396,11 +8396,11 @@
       <c r="B87" s="19">
         <v>67</v>
       </c>
-      <c r="C87" s="99"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="82"/>
+      <c r="C87" s="109"/>
+      <c r="D87" s="89"/>
+      <c r="E87" s="89"/>
+      <c r="F87" s="89"/>
+      <c r="G87" s="90"/>
       <c r="H87" s="20"/>
       <c r="I87" s="1"/>
     </row>
@@ -8409,11 +8409,11 @@
       <c r="B88" s="18">
         <v>68</v>
       </c>
-      <c r="C88" s="99"/>
-      <c r="D88" s="81"/>
-      <c r="E88" s="81"/>
-      <c r="F88" s="81"/>
-      <c r="G88" s="82"/>
+      <c r="C88" s="109"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
+      <c r="G88" s="90"/>
       <c r="H88" s="20"/>
       <c r="I88" s="1"/>
     </row>
@@ -8422,11 +8422,11 @@
       <c r="B89" s="19">
         <v>69</v>
       </c>
-      <c r="C89" s="99"/>
-      <c r="D89" s="81"/>
-      <c r="E89" s="81"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="82"/>
+      <c r="C89" s="109"/>
+      <c r="D89" s="89"/>
+      <c r="E89" s="89"/>
+      <c r="F89" s="89"/>
+      <c r="G89" s="90"/>
       <c r="H89" s="20"/>
       <c r="I89" s="1"/>
     </row>
@@ -8435,11 +8435,11 @@
       <c r="B90" s="18">
         <v>70</v>
       </c>
-      <c r="C90" s="99"/>
-      <c r="D90" s="81"/>
-      <c r="E90" s="81"/>
-      <c r="F90" s="81"/>
-      <c r="G90" s="82"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="89"/>
+      <c r="E90" s="89"/>
+      <c r="F90" s="89"/>
+      <c r="G90" s="90"/>
       <c r="H90" s="20"/>
       <c r="I90" s="1"/>
     </row>
@@ -8448,11 +8448,11 @@
       <c r="B91" s="19">
         <v>71</v>
       </c>
-      <c r="C91" s="99"/>
-      <c r="D91" s="81"/>
-      <c r="E91" s="81"/>
-      <c r="F91" s="81"/>
-      <c r="G91" s="82"/>
+      <c r="C91" s="109"/>
+      <c r="D91" s="89"/>
+      <c r="E91" s="89"/>
+      <c r="F91" s="89"/>
+      <c r="G91" s="90"/>
       <c r="H91" s="20"/>
       <c r="I91" s="1"/>
     </row>
@@ -8461,11 +8461,11 @@
       <c r="B92" s="18">
         <v>72</v>
       </c>
-      <c r="C92" s="99"/>
-      <c r="D92" s="81"/>
-      <c r="E92" s="81"/>
-      <c r="F92" s="81"/>
-      <c r="G92" s="82"/>
+      <c r="C92" s="109"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="89"/>
+      <c r="F92" s="89"/>
+      <c r="G92" s="90"/>
       <c r="H92" s="20"/>
       <c r="I92" s="1"/>
     </row>
@@ -8474,11 +8474,11 @@
       <c r="B93" s="19">
         <v>73</v>
       </c>
-      <c r="C93" s="99"/>
-      <c r="D93" s="81"/>
-      <c r="E93" s="81"/>
-      <c r="F93" s="81"/>
-      <c r="G93" s="82"/>
+      <c r="C93" s="109"/>
+      <c r="D93" s="89"/>
+      <c r="E93" s="89"/>
+      <c r="F93" s="89"/>
+      <c r="G93" s="90"/>
       <c r="H93" s="20"/>
       <c r="I93" s="1"/>
     </row>
@@ -8487,11 +8487,11 @@
       <c r="B94" s="18">
         <v>74</v>
       </c>
-      <c r="C94" s="99"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="81"/>
-      <c r="F94" s="81"/>
-      <c r="G94" s="82"/>
+      <c r="C94" s="109"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="89"/>
+      <c r="F94" s="89"/>
+      <c r="G94" s="90"/>
       <c r="H94" s="20"/>
       <c r="I94" s="1"/>
     </row>
@@ -8500,11 +8500,11 @@
       <c r="B95" s="19">
         <v>75</v>
       </c>
-      <c r="C95" s="99"/>
-      <c r="D95" s="81"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="81"/>
-      <c r="G95" s="82"/>
+      <c r="C95" s="109"/>
+      <c r="D95" s="89"/>
+      <c r="E95" s="89"/>
+      <c r="F95" s="89"/>
+      <c r="G95" s="90"/>
       <c r="H95" s="20"/>
       <c r="I95" s="1"/>
     </row>
@@ -8513,11 +8513,11 @@
       <c r="B96" s="18">
         <v>76</v>
       </c>
-      <c r="C96" s="99"/>
-      <c r="D96" s="81"/>
-      <c r="E96" s="81"/>
-      <c r="F96" s="81"/>
-      <c r="G96" s="82"/>
+      <c r="C96" s="109"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="89"/>
+      <c r="G96" s="90"/>
       <c r="H96" s="20"/>
       <c r="I96" s="1"/>
     </row>
@@ -8526,11 +8526,11 @@
       <c r="B97" s="19">
         <v>77</v>
       </c>
-      <c r="C97" s="99"/>
-      <c r="D97" s="81"/>
-      <c r="E97" s="81"/>
-      <c r="F97" s="81"/>
-      <c r="G97" s="82"/>
+      <c r="C97" s="109"/>
+      <c r="D97" s="89"/>
+      <c r="E97" s="89"/>
+      <c r="F97" s="89"/>
+      <c r="G97" s="90"/>
       <c r="H97" s="20"/>
       <c r="I97" s="1"/>
     </row>
@@ -8539,11 +8539,11 @@
       <c r="B98" s="18">
         <v>78</v>
       </c>
-      <c r="C98" s="99"/>
-      <c r="D98" s="81"/>
-      <c r="E98" s="81"/>
-      <c r="F98" s="81"/>
-      <c r="G98" s="82"/>
+      <c r="C98" s="109"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="89"/>
+      <c r="F98" s="89"/>
+      <c r="G98" s="90"/>
       <c r="H98" s="20"/>
       <c r="I98" s="1"/>
     </row>
@@ -8552,11 +8552,11 @@
       <c r="B99" s="19">
         <v>79</v>
       </c>
-      <c r="C99" s="99"/>
-      <c r="D99" s="81"/>
-      <c r="E99" s="81"/>
-      <c r="F99" s="81"/>
-      <c r="G99" s="82"/>
+      <c r="C99" s="109"/>
+      <c r="D99" s="89"/>
+      <c r="E99" s="89"/>
+      <c r="F99" s="89"/>
+      <c r="G99" s="90"/>
       <c r="H99" s="20"/>
       <c r="I99" s="1"/>
     </row>
@@ -8565,11 +8565,11 @@
       <c r="B100" s="18">
         <v>80</v>
       </c>
-      <c r="C100" s="99"/>
-      <c r="D100" s="81"/>
-      <c r="E100" s="81"/>
-      <c r="F100" s="81"/>
-      <c r="G100" s="82"/>
+      <c r="C100" s="109"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="89"/>
+      <c r="F100" s="89"/>
+      <c r="G100" s="90"/>
       <c r="H100" s="20"/>
       <c r="I100" s="1"/>
     </row>
@@ -8578,11 +8578,11 @@
       <c r="B101" s="19">
         <v>81</v>
       </c>
-      <c r="C101" s="99"/>
-      <c r="D101" s="81"/>
-      <c r="E101" s="81"/>
-      <c r="F101" s="81"/>
-      <c r="G101" s="82"/>
+      <c r="C101" s="109"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="89"/>
+      <c r="G101" s="90"/>
       <c r="H101" s="20"/>
       <c r="I101" s="1"/>
     </row>
@@ -8591,11 +8591,11 @@
       <c r="B102" s="18">
         <v>82</v>
       </c>
-      <c r="C102" s="99"/>
-      <c r="D102" s="81"/>
-      <c r="E102" s="81"/>
-      <c r="F102" s="81"/>
-      <c r="G102" s="82"/>
+      <c r="C102" s="109"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="89"/>
+      <c r="F102" s="89"/>
+      <c r="G102" s="90"/>
       <c r="H102" s="20"/>
       <c r="I102" s="1"/>
     </row>
@@ -8604,11 +8604,11 @@
       <c r="B103" s="19">
         <v>83</v>
       </c>
-      <c r="C103" s="99"/>
-      <c r="D103" s="81"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="82"/>
+      <c r="C103" s="109"/>
+      <c r="D103" s="89"/>
+      <c r="E103" s="89"/>
+      <c r="F103" s="89"/>
+      <c r="G103" s="90"/>
       <c r="H103" s="20"/>
       <c r="I103" s="1"/>
     </row>
@@ -8617,11 +8617,11 @@
       <c r="B104" s="18">
         <v>84</v>
       </c>
-      <c r="C104" s="99"/>
-      <c r="D104" s="81"/>
-      <c r="E104" s="81"/>
-      <c r="F104" s="81"/>
-      <c r="G104" s="82"/>
+      <c r="C104" s="109"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="90"/>
       <c r="H104" s="20"/>
       <c r="I104" s="1"/>
     </row>
@@ -8630,11 +8630,11 @@
       <c r="B105" s="19">
         <v>85</v>
       </c>
-      <c r="C105" s="99"/>
-      <c r="D105" s="81"/>
-      <c r="E105" s="81"/>
-      <c r="F105" s="81"/>
-      <c r="G105" s="82"/>
+      <c r="C105" s="109"/>
+      <c r="D105" s="89"/>
+      <c r="E105" s="89"/>
+      <c r="F105" s="89"/>
+      <c r="G105" s="90"/>
       <c r="H105" s="20"/>
       <c r="I105" s="1"/>
     </row>
@@ -8643,11 +8643,11 @@
       <c r="B106" s="18">
         <v>86</v>
       </c>
-      <c r="C106" s="99"/>
-      <c r="D106" s="81"/>
-      <c r="E106" s="81"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="82"/>
+      <c r="C106" s="109"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="89"/>
+      <c r="F106" s="89"/>
+      <c r="G106" s="90"/>
       <c r="H106" s="20"/>
       <c r="I106" s="1"/>
     </row>
@@ -8656,11 +8656,11 @@
       <c r="B107" s="19">
         <v>87</v>
       </c>
-      <c r="C107" s="99"/>
-      <c r="D107" s="81"/>
-      <c r="E107" s="81"/>
-      <c r="F107" s="81"/>
-      <c r="G107" s="82"/>
+      <c r="C107" s="109"/>
+      <c r="D107" s="89"/>
+      <c r="E107" s="89"/>
+      <c r="F107" s="89"/>
+      <c r="G107" s="90"/>
       <c r="H107" s="20"/>
       <c r="I107" s="1"/>
     </row>
@@ -8669,11 +8669,11 @@
       <c r="B108" s="18">
         <v>88</v>
       </c>
-      <c r="C108" s="99"/>
-      <c r="D108" s="81"/>
-      <c r="E108" s="81"/>
-      <c r="F108" s="81"/>
-      <c r="G108" s="82"/>
+      <c r="C108" s="109"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="89"/>
+      <c r="F108" s="89"/>
+      <c r="G108" s="90"/>
       <c r="H108" s="20"/>
       <c r="I108" s="1"/>
     </row>
@@ -8682,11 +8682,11 @@
       <c r="B109" s="19">
         <v>89</v>
       </c>
-      <c r="C109" s="99"/>
-      <c r="D109" s="81"/>
-      <c r="E109" s="81"/>
-      <c r="F109" s="81"/>
-      <c r="G109" s="82"/>
+      <c r="C109" s="109"/>
+      <c r="D109" s="89"/>
+      <c r="E109" s="89"/>
+      <c r="F109" s="89"/>
+      <c r="G109" s="90"/>
       <c r="H109" s="20"/>
       <c r="I109" s="1"/>
     </row>
@@ -8695,11 +8695,11 @@
       <c r="B110" s="18">
         <v>90</v>
       </c>
-      <c r="C110" s="99"/>
-      <c r="D110" s="81"/>
-      <c r="E110" s="81"/>
-      <c r="F110" s="81"/>
-      <c r="G110" s="82"/>
+      <c r="C110" s="109"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="89"/>
+      <c r="G110" s="90"/>
       <c r="H110" s="20"/>
       <c r="I110" s="1"/>
     </row>
@@ -8708,11 +8708,11 @@
       <c r="B111" s="19">
         <v>91</v>
       </c>
-      <c r="C111" s="99"/>
-      <c r="D111" s="81"/>
-      <c r="E111" s="81"/>
-      <c r="F111" s="81"/>
-      <c r="G111" s="82"/>
+      <c r="C111" s="109"/>
+      <c r="D111" s="89"/>
+      <c r="E111" s="89"/>
+      <c r="F111" s="89"/>
+      <c r="G111" s="90"/>
       <c r="H111" s="20"/>
       <c r="I111" s="1"/>
     </row>
@@ -8721,11 +8721,11 @@
       <c r="B112" s="18">
         <v>92</v>
       </c>
-      <c r="C112" s="99"/>
-      <c r="D112" s="81"/>
-      <c r="E112" s="81"/>
-      <c r="F112" s="81"/>
-      <c r="G112" s="82"/>
+      <c r="C112" s="109"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="89"/>
+      <c r="F112" s="89"/>
+      <c r="G112" s="90"/>
       <c r="H112" s="20"/>
       <c r="I112" s="1"/>
     </row>
@@ -8734,11 +8734,11 @@
       <c r="B113" s="19">
         <v>93</v>
       </c>
-      <c r="C113" s="99"/>
-      <c r="D113" s="81"/>
-      <c r="E113" s="81"/>
-      <c r="F113" s="81"/>
-      <c r="G113" s="82"/>
+      <c r="C113" s="109"/>
+      <c r="D113" s="89"/>
+      <c r="E113" s="89"/>
+      <c r="F113" s="89"/>
+      <c r="G113" s="90"/>
       <c r="H113" s="20"/>
       <c r="I113" s="1"/>
     </row>
@@ -8747,11 +8747,11 @@
       <c r="B114" s="18">
         <v>94</v>
       </c>
-      <c r="C114" s="99"/>
-      <c r="D114" s="81"/>
-      <c r="E114" s="81"/>
-      <c r="F114" s="81"/>
-      <c r="G114" s="82"/>
+      <c r="C114" s="109"/>
+      <c r="D114" s="89"/>
+      <c r="E114" s="89"/>
+      <c r="F114" s="89"/>
+      <c r="G114" s="90"/>
       <c r="H114" s="20"/>
       <c r="I114" s="1"/>
     </row>
@@ -8760,11 +8760,11 @@
       <c r="B115" s="19">
         <v>95</v>
       </c>
-      <c r="C115" s="99"/>
-      <c r="D115" s="81"/>
-      <c r="E115" s="81"/>
-      <c r="F115" s="81"/>
-      <c r="G115" s="82"/>
+      <c r="C115" s="109"/>
+      <c r="D115" s="89"/>
+      <c r="E115" s="89"/>
+      <c r="F115" s="89"/>
+      <c r="G115" s="90"/>
       <c r="H115" s="20"/>
       <c r="I115" s="1"/>
     </row>
@@ -8773,11 +8773,11 @@
       <c r="B116" s="18">
         <v>96</v>
       </c>
-      <c r="C116" s="99"/>
-      <c r="D116" s="81"/>
-      <c r="E116" s="81"/>
-      <c r="F116" s="81"/>
-      <c r="G116" s="82"/>
+      <c r="C116" s="109"/>
+      <c r="D116" s="89"/>
+      <c r="E116" s="89"/>
+      <c r="F116" s="89"/>
+      <c r="G116" s="90"/>
       <c r="H116" s="20"/>
       <c r="I116" s="1"/>
     </row>
@@ -8786,11 +8786,11 @@
       <c r="B117" s="19">
         <v>97</v>
       </c>
-      <c r="C117" s="99"/>
-      <c r="D117" s="81"/>
-      <c r="E117" s="81"/>
-      <c r="F117" s="81"/>
-      <c r="G117" s="82"/>
+      <c r="C117" s="109"/>
+      <c r="D117" s="89"/>
+      <c r="E117" s="89"/>
+      <c r="F117" s="89"/>
+      <c r="G117" s="90"/>
       <c r="H117" s="20"/>
       <c r="I117" s="1"/>
     </row>
@@ -8799,11 +8799,11 @@
       <c r="B118" s="18">
         <v>98</v>
       </c>
-      <c r="C118" s="99"/>
-      <c r="D118" s="81"/>
-      <c r="E118" s="81"/>
-      <c r="F118" s="81"/>
-      <c r="G118" s="82"/>
+      <c r="C118" s="109"/>
+      <c r="D118" s="89"/>
+      <c r="E118" s="89"/>
+      <c r="F118" s="89"/>
+      <c r="G118" s="90"/>
       <c r="H118" s="20"/>
       <c r="I118" s="1"/>
     </row>
@@ -8812,11 +8812,11 @@
       <c r="B119" s="19">
         <v>99</v>
       </c>
-      <c r="C119" s="99"/>
-      <c r="D119" s="81"/>
-      <c r="E119" s="81"/>
-      <c r="F119" s="81"/>
-      <c r="G119" s="82"/>
+      <c r="C119" s="109"/>
+      <c r="D119" s="89"/>
+      <c r="E119" s="89"/>
+      <c r="F119" s="89"/>
+      <c r="G119" s="90"/>
       <c r="H119" s="20"/>
       <c r="I119" s="1"/>
     </row>
@@ -8825,11 +8825,11 @@
       <c r="B120" s="18">
         <v>100</v>
       </c>
-      <c r="C120" s="99"/>
-      <c r="D120" s="81"/>
-      <c r="E120" s="81"/>
-      <c r="F120" s="81"/>
-      <c r="G120" s="82"/>
+      <c r="C120" s="109"/>
+      <c r="D120" s="89"/>
+      <c r="E120" s="89"/>
+      <c r="F120" s="89"/>
+      <c r="G120" s="90"/>
       <c r="H120" s="20"/>
       <c r="I120" s="1"/>
     </row>
@@ -9830,7 +9830,7 @@
       </c>
       <c r="C211" s="21"/>
       <c r="D211" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
@@ -9841,7 +9841,7 @@
     <row r="212" spans="1:9" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="21" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C212" s="21"/>
       <c r="D212" s="21" t="s">
@@ -9856,7 +9856,7 @@
     <row r="213" spans="1:9" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="21" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C213" s="21"/>
       <c r="D213" s="21" t="s">
@@ -10703,51 +10703,53 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
@@ -10772,53 +10774,51 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H120" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -10865,17 +10865,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="23">
         <f>Requisitos!C11</f>
         <v>44277</v>
@@ -10883,17 +10883,17 @@
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="96"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44278</v>
@@ -10901,17 +10901,17 @@
     </row>
     <row r="3" spans="1:21" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="96"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44279</v>
@@ -10919,17 +10919,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44280</v>
@@ -10937,17 +10937,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="96"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44281</v>
@@ -10969,18 +10969,18 @@
     </row>
     <row r="7" spans="1:21" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="89" t="str">
+      <c r="B7" s="88" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="82"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44283</v>
@@ -11005,13 +11005,13 @@
       <c r="B9" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="47" t="s">
         <v>70</v>
       </c>
@@ -12036,24 +12036,24 @@
       <c r="B52" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="82"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="90"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="82"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="90"/>
       <c r="H53" s="25" t="s">
         <v>112</v>
       </c>
@@ -12067,11 +12067,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="82"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="90"/>
       <c r="H54" s="33">
         <f>SUMIF($F$11:$F$49,'Dados do Projeto'!$B10,H$11:H$49)</f>
         <v>10</v>
@@ -12087,11 +12087,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="82"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="90"/>
       <c r="H55" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B11,H$11:H$49)</f>
         <v>10</v>
@@ -12107,11 +12107,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="82"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="90"/>
       <c r="H56" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B12,H$11:H$49)</f>
         <v>8</v>
@@ -12127,11 +12127,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="82"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="90"/>
       <c r="H57" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B13,H$11:H$49)</f>
         <v>16</v>
@@ -12147,11 +12147,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="82"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="90"/>
       <c r="H58" s="33">
         <f>SUMIF(F$11:F$49,'Dados do Projeto'!B14,H$11:H$49)</f>
         <v>12</v>
@@ -13576,17 +13576,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="23">
         <f>Requisitos!C12</f>
         <v>44291</v>
@@ -13594,17 +13594,17 @@
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="96"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44292</v>
@@ -13612,17 +13612,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="96"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44293</v>
@@ -13630,17 +13630,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44294</v>
@@ -13648,17 +13648,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="96"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44295</v>
@@ -13681,18 +13681,18 @@
     </row>
     <row r="7" spans="1:21" ht="26.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="89" t="str">
+      <c r="B7" s="88" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="82"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44297</v>
@@ -13718,13 +13718,13 @@
       <c r="B9" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="47" t="s">
         <v>70</v>
       </c>
@@ -14196,10 +14196,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="62"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
       <c r="O24" s="61"/>
     </row>
     <row r="25" spans="1:15" ht="37.5" customHeight="1">
@@ -14939,24 +14939,24 @@
       <c r="B72" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="81"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="81"/>
-      <c r="I72" s="82"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="89"/>
+      <c r="I72" s="90"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="81"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="81"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="82"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="90"/>
       <c r="H73" s="25" t="s">
         <v>112</v>
       </c>
@@ -14970,11 +14970,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C74" s="81"/>
-      <c r="D74" s="81"/>
-      <c r="E74" s="81"/>
-      <c r="F74" s="81"/>
-      <c r="G74" s="82"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="89"/>
+      <c r="G74" s="90"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>6</v>
@@ -14990,11 +14990,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C75" s="81"/>
-      <c r="D75" s="81"/>
-      <c r="E75" s="81"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="82"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="89"/>
+      <c r="G75" s="90"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>4</v>
@@ -15010,11 +15010,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C76" s="81"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="81"/>
-      <c r="F76" s="81"/>
-      <c r="G76" s="82"/>
+      <c r="C76" s="89"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="89"/>
+      <c r="G76" s="90"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>12</v>
@@ -15030,11 +15030,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C77" s="81"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="81"/>
-      <c r="F77" s="81"/>
-      <c r="G77" s="82"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="89"/>
+      <c r="G77" s="90"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>10</v>
@@ -15050,11 +15050,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C78" s="81"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="81"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="82"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="90"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>5</v>
@@ -16560,17 +16560,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="21.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="23">
         <f>Requisitos!C13</f>
         <v>44305</v>
@@ -16578,17 +16578,17 @@
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="96"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44306</v>
@@ -16596,17 +16596,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="96"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44307</v>
@@ -16614,17 +16614,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44308</v>
@@ -16635,14 +16635,14 @@
       <c r="B5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="94"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44309</v>
@@ -16665,18 +16665,18 @@
     </row>
     <row r="7" spans="1:21" ht="21.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="89" t="str">
+      <c r="B7" s="88" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="82"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44311</v>
@@ -16702,13 +16702,13 @@
       <c r="B9" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="48" t="s">
         <v>70</v>
       </c>
@@ -17875,24 +17875,24 @@
       <c r="B63" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="82"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="90"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="82"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="90"/>
       <c r="H64" s="25" t="s">
         <v>112</v>
       </c>
@@ -17906,11 +17906,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="82"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="90"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>3</v>
@@ -17926,11 +17926,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="82"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="90"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>3</v>
@@ -17946,11 +17946,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="82"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="90"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>2</v>
@@ -17966,11 +17966,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="82"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="90"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>7</v>
@@ -17986,11 +17986,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="82"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="90"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>3</v>
@@ -19691,7 +19691,7 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -19710,17 +19710,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="23">
         <f>Requisitos!C14</f>
         <v>44319</v>
@@ -19728,17 +19728,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="96"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44320</v>
@@ -19746,17 +19746,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="96"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44321</v>
@@ -19764,17 +19764,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44322</v>
@@ -19785,14 +19785,14 @@
       <c r="B5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="94"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44323</v>
@@ -19815,18 +19815,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="89" t="str">
+      <c r="B7" s="88" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="82"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44325</v>
@@ -19852,13 +19852,13 @@
       <c r="B9" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="48" t="s">
         <v>70</v>
       </c>
@@ -21062,24 +21062,24 @@
       <c r="B63" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="82"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="90"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="82"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="90"/>
       <c r="H64" s="25" t="s">
         <v>112</v>
       </c>
@@ -21093,11 +21093,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="82"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="90"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>4</v>
@@ -21113,11 +21113,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="82"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="90"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>6</v>
@@ -21133,11 +21133,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="82"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="90"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -21153,11 +21153,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="82"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="90"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>6</v>
@@ -21173,11 +21173,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="82"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="90"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>7</v>
@@ -22748,8 +22748,8 @@
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -22768,17 +22768,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="23">
         <f>Requisitos!C15</f>
         <v>44333</v>
@@ -22786,17 +22786,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="96"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44334</v>
@@ -22804,17 +22804,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="96"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44335</v>
@@ -22822,17 +22822,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44336</v>
@@ -22843,14 +22843,14 @@
       <c r="B5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="94"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44337</v>
@@ -22872,18 +22872,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="89" t="str">
+      <c r="B7" s="88" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="82"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44339</v>
@@ -22908,13 +22908,13 @@
       <c r="B9" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="48" t="s">
         <v>70</v>
       </c>
@@ -23355,7 +23355,7 @@
       <c r="I23" s="28">
         <v>0</v>
       </c>
-      <c r="J23" s="77" t="s">
+      <c r="J23" s="75" t="s">
         <v>203</v>
       </c>
       <c r="K23" s="23"/>
@@ -24072,24 +24072,24 @@
       <c r="B63" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="82"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="90"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="82"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="90"/>
       <c r="H64" s="25" t="s">
         <v>112</v>
       </c>
@@ -24103,11 +24103,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="82"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="90"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>7</v>
@@ -24123,11 +24123,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="82"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="90"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>8</v>
@@ -24143,11 +24143,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="82"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="90"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>3</v>
@@ -24163,11 +24163,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="82"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="90"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>5</v>
@@ -24183,11 +24183,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="82"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="90"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>5</v>
@@ -25727,34 +25727,34 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="23">
         <v>44347</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="96"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44348</v>
@@ -25762,17 +25762,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="96"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>44349</v>
@@ -25780,17 +25780,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>44350</v>
@@ -25801,14 +25801,14 @@
       <c r="B5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="94"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>44351</v>
@@ -25831,18 +25831,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="89" t="str">
+      <c r="B7" s="88" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>ParkIO</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="82"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>44353</v>
@@ -25868,13 +25868,13 @@
       <c r="B9" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="48" t="s">
         <v>70</v>
       </c>
@@ -26899,24 +26899,24 @@
       <c r="B63" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="82"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="90"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="82"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="90"/>
       <c r="H64" s="25" t="s">
         <v>112</v>
       </c>
@@ -26930,11 +26930,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Gabriel Silva Pereira</v>
       </c>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="82"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="90"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -26950,11 +26950,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>Henrique Penna Forte Monteiro</v>
       </c>
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="82"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="90"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -26970,11 +26970,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>José Maurício Guimarães França</v>
       </c>
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="82"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="90"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -26990,11 +26990,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Lucas Ângelo Oliveira Martins Rocha</v>
       </c>
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="82"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="90"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -27010,11 +27010,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Victor Boaventura Goés Campos</v>
       </c>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="82"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="90"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -28328,12 +28328,6 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B9:I9"/>
@@ -28342,6 +28336,12 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="containsBlanks" dxfId="37" priority="1">
@@ -28552,21 +28552,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009407E1920DA0244181F4A5E68B236D03" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f93176ac4c7b0499f4c793ef7a260ff7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d841e270-8762-48f1-af0f-95d6f11e59ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e08dd84ed401fbaad7197cdcae1eb72f" ns2:_="">
     <xsd:import namespace="d841e270-8762-48f1-af0f-95d6f11e59ea"/>
@@ -28724,8 +28709,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AE7633-9F17-461A-8B68-7FAC2F42E9FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22A15D46-B256-4EDE-A7D0-6A4D07704ACB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28733,5 +28733,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22A15D46-B256-4EDE-A7D0-6A4D07704ACB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AE7633-9F17-461A-8B68-7FAC2F42E9FA}"/>
 </file>